--- a/AP_DC_X-talk/dt_spectrum_results.xlsx
+++ b/AP_DC_X-talk/dt_spectrum_results.xlsx
@@ -8,18 +8,19 @@
   </bookViews>
   <sheets>
     <sheet name="Hamamatsu S10362-11-100C apf" sheetId="1" r:id="rId1"/>
-    <sheet name="results" sheetId="2" r:id="rId2"/>
+    <sheet name="x-talk" sheetId="2" r:id="rId2"/>
     <sheet name="th" sheetId="3" r:id="rId3"/>
+    <sheet name="afp" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">th!$A$1:$B$500</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">th!$A$1:$C$506</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>T</t>
   </si>
@@ -128,6 +129,21 @@
   <si>
     <t>A2 right</t>
   </si>
+  <si>
+    <t>B1 left</t>
+  </si>
+  <si>
+    <t>B1 right</t>
+  </si>
+  <si>
+    <t>C1 left</t>
+  </si>
+  <si>
+    <t>C1 right</t>
+  </si>
+  <si>
+    <t>V_BD</t>
+  </si>
 </sst>
 </file>
 
@@ -174,7 +190,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -185,6 +201,8 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -383,11 +401,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245226120"/>
-        <c:axId val="245293928"/>
+        <c:axId val="221214944"/>
+        <c:axId val="221151664"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245226120"/>
+        <c:axId val="221214944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -444,12 +462,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245293928"/>
+        <c:crossAx val="221151664"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="245293928"/>
+        <c:axId val="221151664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -506,7 +524,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245226120"/>
+        <c:crossAx val="221214944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -736,11 +754,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245116280"/>
-        <c:axId val="246164952"/>
+        <c:axId val="221210352"/>
+        <c:axId val="221102824"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245116280"/>
+        <c:axId val="221210352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -797,12 +815,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="246164952"/>
+        <c:crossAx val="221102824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="246164952"/>
+        <c:axId val="221102824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -859,7 +877,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245116280"/>
+        <c:crossAx val="221210352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1089,11 +1107,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="245342080"/>
-        <c:axId val="182126080"/>
+        <c:axId val="221140160"/>
+        <c:axId val="168900200"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="245342080"/>
+        <c:axId val="221140160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,12 +1168,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="182126080"/>
+        <c:crossAx val="168900200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="182126080"/>
+        <c:axId val="168900200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1212,7 +1230,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="245342080"/>
+        <c:crossAx val="221140160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3314,7 +3332,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="I30" sqref="I30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4224,7 +4242,7 @@
   <dimension ref="A1:U5519"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M5" sqref="M5"/>
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10883,51 +10901,952 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N96"/>
+  <dimension ref="A1:U102"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="7" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H1" t="s">
+        <v>30</v>
+      </c>
+      <c r="I1" t="s">
+        <v>31</v>
+      </c>
+      <c r="K1" t="s">
+        <v>32</v>
+      </c>
+      <c r="L1" t="s">
+        <v>33</v>
+      </c>
+      <c r="N1" t="s">
+        <v>36</v>
+      </c>
+      <c r="O1" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>38</v>
+      </c>
+      <c r="R1" t="s">
+        <v>39</v>
+      </c>
+      <c r="T1" t="s">
+        <v>34</v>
+      </c>
+      <c r="U1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>295</v>
+      </c>
+      <c r="B2">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>70.010000000000005</v>
+      </c>
+      <c r="G2">
+        <v>0.02</v>
+      </c>
+      <c r="H2">
+        <v>2E-3</v>
+      </c>
+      <c r="I2">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K2">
+        <v>0.1</v>
+      </c>
+      <c r="L2">
+        <v>0.3</v>
+      </c>
+      <c r="N2">
+        <v>0.3</v>
+      </c>
+      <c r="O2">
+        <v>0.5</v>
+      </c>
+      <c r="Q2">
+        <v>0.5</v>
+      </c>
+      <c r="R2">
+        <v>0.7</v>
+      </c>
+      <c r="T2">
+        <v>0.2</v>
+      </c>
+      <c r="U2">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>290</v>
+      </c>
+      <c r="B3">
+        <v>68.83</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>69.83</v>
+      </c>
+      <c r="G3">
+        <v>0.02</v>
+      </c>
+      <c r="H3">
+        <v>2E-3</v>
+      </c>
+      <c r="I3">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K3">
+        <v>0.1</v>
+      </c>
+      <c r="L3">
+        <v>0.3</v>
+      </c>
+      <c r="N3">
+        <v>0.3</v>
+      </c>
+      <c r="O3">
+        <v>0.5</v>
+      </c>
+      <c r="Q3">
+        <v>0.5</v>
+      </c>
+      <c r="R3">
+        <v>0.7</v>
+      </c>
+      <c r="T3">
+        <v>0.2</v>
+      </c>
+      <c r="U3">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>285</v>
+      </c>
+      <c r="B4">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="G4">
+        <v>0.02</v>
+      </c>
+      <c r="H4">
+        <v>2E-3</v>
+      </c>
+      <c r="I4">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K4">
+        <v>0.1</v>
+      </c>
+      <c r="L4">
+        <v>0.3</v>
+      </c>
+      <c r="N4">
+        <v>0.3</v>
+      </c>
+      <c r="O4">
+        <v>0.5</v>
+      </c>
+      <c r="Q4">
+        <v>0.5</v>
+      </c>
+      <c r="R4">
+        <v>0.7</v>
+      </c>
+      <c r="T4">
+        <v>0.2</v>
+      </c>
+      <c r="U4">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>280</v>
+      </c>
+      <c r="B5" s="8">
+        <v>68.475651999999997</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" s="8">
+        <f>B5+C5</f>
+        <v>69.475651999999997</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>275</v>
+      </c>
+      <c r="B6">
+        <v>68.3</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>69.3</v>
+      </c>
+      <c r="G6">
+        <v>0.02</v>
+      </c>
+      <c r="H6">
+        <v>2E-3</v>
+      </c>
+      <c r="I6">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K6">
+        <v>0.1</v>
+      </c>
+      <c r="L6">
+        <v>0.3</v>
+      </c>
+      <c r="N6">
+        <v>0.3</v>
+      </c>
+      <c r="O6">
+        <v>0.5</v>
+      </c>
+      <c r="Q6">
+        <v>0.5</v>
+      </c>
+      <c r="R6">
+        <v>0.7</v>
+      </c>
+      <c r="T6">
+        <v>0.2</v>
+      </c>
+      <c r="U6">
+        <v>0.47</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>0</v>
+      </c>
+      <c r="C8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>295</v>
+      </c>
+      <c r="B9">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="D9" s="8">
+        <v>69.512365500000001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>290</v>
+      </c>
+      <c r="B10">
+        <v>68.83</v>
+      </c>
+      <c r="C10">
+        <v>0.5</v>
+      </c>
+      <c r="D10" s="8">
+        <v>69.333461</v>
+      </c>
+      <c r="G10">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H10">
+        <v>2E-3</v>
+      </c>
+      <c r="I10">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>285</v>
+      </c>
+      <c r="B11">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="C11">
+        <v>0.5</v>
+      </c>
+      <c r="D11" s="8">
+        <v>69.154556499999998</v>
+      </c>
+      <c r="G11">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H11">
+        <v>2E-3</v>
+      </c>
+      <c r="I11">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>280</v>
+      </c>
+      <c r="B12" s="8">
+        <v>68.475651999999997</v>
+      </c>
+      <c r="C12">
+        <v>0.5</v>
+      </c>
+      <c r="D12" s="8">
+        <f>B12+C12</f>
+        <v>68.975651999999997</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>275</v>
+      </c>
+      <c r="B13">
+        <v>68.3</v>
+      </c>
+      <c r="C13">
+        <v>0.5</v>
+      </c>
+      <c r="D13" s="8">
+        <v>68.796747499999995</v>
+      </c>
+      <c r="G13">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H13">
+        <v>2E-3</v>
+      </c>
+      <c r="I13">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>0</v>
+      </c>
+      <c r="C15" t="s">
+        <v>2</v>
+      </c>
+      <c r="D15" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>295</v>
+      </c>
+      <c r="B16">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="C16">
+        <v>0.3</v>
+      </c>
+      <c r="D16" s="8">
+        <f>B16+C16</f>
+        <v>69.31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>290</v>
+      </c>
+      <c r="B17">
+        <v>68.83</v>
+      </c>
+      <c r="C17">
+        <v>0.3</v>
+      </c>
+      <c r="D17" s="8">
+        <f t="shared" ref="D17:D20" si="0">B17+C17</f>
+        <v>69.13</v>
+      </c>
+      <c r="G17">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H17">
+        <v>2E-3</v>
+      </c>
+      <c r="I17">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>285</v>
+      </c>
+      <c r="B18">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="C18">
+        <v>0.3</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" si="0"/>
+        <v>68.95</v>
+      </c>
+      <c r="G18">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H18">
+        <v>2E-3</v>
+      </c>
+      <c r="I18">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>280</v>
+      </c>
+      <c r="B19" s="8">
+        <v>68.475651999999997</v>
+      </c>
+      <c r="C19">
+        <v>0.3</v>
+      </c>
+      <c r="D19" s="8">
+        <f>B19+C19</f>
+        <v>68.775651999999994</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>275</v>
+      </c>
+      <c r="B20">
+        <v>68.3</v>
+      </c>
+      <c r="C20">
+        <v>0.3</v>
+      </c>
+      <c r="D20" s="8">
+        <f t="shared" si="0"/>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="G20" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H20" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="I20" s="9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" s="3"/>
+      <c r="B22" s="3"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" t="s">
+        <v>2</v>
+      </c>
+      <c r="D23" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>295</v>
+      </c>
+      <c r="B24">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="C24">
+        <v>0.8</v>
+      </c>
+      <c r="D24" s="8">
+        <f>B24+C24</f>
+        <v>69.81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>290</v>
+      </c>
+      <c r="B25">
+        <v>68.83</v>
+      </c>
+      <c r="C25">
+        <v>0.8</v>
+      </c>
+      <c r="D25" s="8">
+        <f t="shared" ref="D25" si="1">B25+C25</f>
+        <v>69.63</v>
+      </c>
+      <c r="G25" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H25" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="I25" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>285</v>
+      </c>
+      <c r="B26">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="C26">
+        <v>0.8</v>
+      </c>
+      <c r="D26" s="8">
+        <f>B26+C26</f>
+        <v>69.45</v>
+      </c>
+      <c r="G26">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H26">
+        <v>2E-3</v>
+      </c>
+      <c r="I26">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>280</v>
+      </c>
+      <c r="B27" s="8">
+        <v>68.475651999999997</v>
+      </c>
+      <c r="C27">
+        <v>0.8</v>
+      </c>
+      <c r="D27" s="8">
+        <f>B27+C27</f>
+        <v>69.275651999999994</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>275</v>
+      </c>
+      <c r="B28">
+        <v>68.3</v>
+      </c>
+      <c r="C28">
+        <v>0.8</v>
+      </c>
+      <c r="D28" s="8">
+        <f>B28+C28</f>
+        <v>69.099999999999994</v>
+      </c>
+      <c r="G28">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H28">
+        <v>2E-3</v>
+      </c>
+      <c r="I28">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+      <c r="D30" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>295</v>
+      </c>
+      <c r="B31">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="C31">
+        <v>1.3</v>
+      </c>
+      <c r="D31" s="8">
+        <f>B31+C31</f>
+        <v>70.31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>290</v>
+      </c>
+      <c r="B32">
+        <v>68.83</v>
+      </c>
+      <c r="C32">
+        <v>1.3</v>
+      </c>
+      <c r="D32" s="8">
+        <f t="shared" ref="D32:D33" si="2">B32+C32</f>
+        <v>70.13</v>
+      </c>
+      <c r="G32">
+        <v>0.01</v>
+      </c>
+      <c r="H32">
+        <v>2E-3</v>
+      </c>
+      <c r="I32">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>285</v>
+      </c>
+      <c r="B33">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="C33">
+        <v>1.3</v>
+      </c>
+      <c r="D33" s="8">
+        <f t="shared" si="2"/>
+        <v>69.95</v>
+      </c>
+      <c r="G33">
+        <v>0.01</v>
+      </c>
+      <c r="H33">
+        <v>2E-3</v>
+      </c>
+      <c r="I33">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>280</v>
+      </c>
+      <c r="B34" s="8">
+        <v>68.475651999999997</v>
+      </c>
+      <c r="C34">
+        <v>1.3</v>
+      </c>
+      <c r="D34" s="8">
+        <f>B34+C34</f>
+        <v>69.775651999999994</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>275</v>
+      </c>
+      <c r="B35">
+        <v>68.3</v>
+      </c>
+      <c r="C35">
+        <v>1.3</v>
+      </c>
+      <c r="D35" s="8">
+        <f>B35+C35</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="G35">
+        <v>0.01</v>
+      </c>
+      <c r="H35">
+        <v>2E-3</v>
+      </c>
+      <c r="I35">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" s="3"/>
+      <c r="B36" s="3"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>0</v>
+      </c>
+      <c r="C37" t="s">
+        <v>2</v>
+      </c>
+      <c r="D37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>295</v>
+      </c>
+      <c r="B38">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="C38">
+        <v>1.5</v>
+      </c>
+      <c r="D38" s="8">
+        <f>B38+C38</f>
+        <v>70.510000000000005</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>290</v>
+      </c>
+      <c r="B39">
+        <v>68.83</v>
+      </c>
+      <c r="C39">
+        <v>1.5</v>
+      </c>
+      <c r="D39" s="8">
+        <f t="shared" ref="D39:D40" si="3">B39+C39</f>
+        <v>70.33</v>
+      </c>
+      <c r="G39">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H39">
+        <v>2E-3</v>
+      </c>
+      <c r="I39">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>285</v>
+      </c>
+      <c r="B40">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="C40">
+        <v>1.5</v>
+      </c>
+      <c r="D40" s="8">
+        <f t="shared" si="3"/>
+        <v>70.150000000000006</v>
+      </c>
+      <c r="G40">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H40">
+        <v>2E-3</v>
+      </c>
+      <c r="I40">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>280</v>
+      </c>
+      <c r="B41" s="8">
+        <v>68.475651999999997</v>
+      </c>
+      <c r="C41">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="8">
+        <f>B41+C41</f>
+        <v>69.975651999999997</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>275</v>
+      </c>
+      <c r="B42">
+        <v>68.3</v>
+      </c>
+      <c r="C42">
+        <v>1.5</v>
+      </c>
+      <c r="D42" s="8">
+        <f>B42+C42</f>
+        <v>69.8</v>
+      </c>
+      <c r="G42">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H42">
+        <v>2E-3</v>
+      </c>
+      <c r="I42">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A46" s="3"/>
+      <c r="B46" s="3"/>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" s="3"/>
+      <c r="B48" s="3"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="3"/>
+      <c r="B51" s="3"/>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
         <v>2</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
-      <c r="F1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" t="s">
-        <v>30</v>
-      </c>
-      <c r="H1" t="s">
-        <v>31</v>
-      </c>
-      <c r="J1" t="s">
-        <v>32</v>
-      </c>
-      <c r="K1" t="s">
-        <v>33</v>
-      </c>
-      <c r="M1" t="s">
-        <v>34</v>
-      </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>295</v>
       </c>
@@ -10937,17 +11856,8 @@
       <c r="C2">
         <v>70.010000000000005</v>
       </c>
-      <c r="F2">
-        <v>0.02</v>
-      </c>
-      <c r="G2">
-        <v>2E-3</v>
-      </c>
-      <c r="H2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>290</v>
       </c>
@@ -10957,17 +11867,8 @@
       <c r="C3">
         <v>69.83</v>
       </c>
-      <c r="F3">
-        <v>0.02</v>
-      </c>
-      <c r="G3">
-        <v>2E-3</v>
-      </c>
-      <c r="H3">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>285</v>
       </c>
@@ -10977,17 +11878,8 @@
       <c r="C4">
         <v>69.650000000000006</v>
       </c>
-      <c r="F4">
-        <v>0.02</v>
-      </c>
-      <c r="G4">
-        <v>2E-3</v>
-      </c>
-      <c r="H4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>275</v>
       </c>
@@ -10997,111 +11889,6 @@
       <c r="C5">
         <v>69.3</v>
       </c>
-      <c r="F5">
-        <v>0.02</v>
-      </c>
-      <c r="G5">
-        <v>2E-3</v>
-      </c>
-      <c r="H5">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="3"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="3"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="3"/>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A19" s="3"/>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A24" s="3"/>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A26" s="3"/>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A28" s="3"/>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A31" s="3"/>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A34" s="3"/>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" s="3"/>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A40" s="3"/>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A42" s="3"/>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A45" s="3"/>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A53" s="3"/>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A56" s="3"/>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A63" s="3"/>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A64" s="3"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A67" s="3"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A71" s="3"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A72" s="3"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A76" s="3"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A79" s="3"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A80" s="3"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A83" s="3"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A87" s="3"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A88" s="3"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A90" s="3"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AP_DC_X-talk/dt_spectrum_results.xlsx
+++ b/AP_DC_X-talk/dt_spectrum_results.xlsx
@@ -4,23 +4,22 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hamamatsu S10362-11-100C apf" sheetId="1" r:id="rId1"/>
-    <sheet name="x-talk" sheetId="2" r:id="rId2"/>
+    <sheet name="results" sheetId="2" r:id="rId2"/>
     <sheet name="th" sheetId="3" r:id="rId3"/>
-    <sheet name="afp" sheetId="4" r:id="rId4"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">th!$A$1:$C$506</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">th!$A$45:$C$507</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
   <si>
     <t>T</t>
   </si>
@@ -144,6 +143,12 @@
   <si>
     <t>V_BD</t>
   </si>
+  <si>
+    <t>нет производной</t>
+  </si>
+  <si>
+    <t>N files</t>
+  </si>
 </sst>
 </file>
 
@@ -153,7 +158,7 @@
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -167,6 +172,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -190,7 +201,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -203,6 +214,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -235,7 +247,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -401,11 +412,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221214944"/>
-        <c:axId val="221151664"/>
+        <c:axId val="143403672"/>
+        <c:axId val="143404064"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221214944"/>
+        <c:axId val="143403672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,12 +473,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221151664"/>
+        <c:crossAx val="143404064"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221151664"/>
+        <c:axId val="143404064"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -524,7 +535,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221214944"/>
+        <c:crossAx val="143403672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -588,7 +599,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -754,11 +764,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221210352"/>
-        <c:axId val="221102824"/>
+        <c:axId val="208807784"/>
+        <c:axId val="208808176"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221210352"/>
+        <c:axId val="208807784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -815,12 +825,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221102824"/>
+        <c:crossAx val="208808176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="221102824"/>
+        <c:axId val="208808176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -877,7 +887,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221210352"/>
+        <c:crossAx val="208807784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -941,7 +951,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1107,11 +1116,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="221140160"/>
-        <c:axId val="168900200"/>
+        <c:axId val="208808960"/>
+        <c:axId val="208809352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="221140160"/>
+        <c:axId val="208808960"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1168,12 +1177,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="168900200"/>
+        <c:crossAx val="208809352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="168900200"/>
+        <c:axId val="208809352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1230,7 +1239,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="221140160"/>
+        <c:crossAx val="208808960"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3332,7 +3341,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4239,21 +4248,30 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U5519"/>
+  <dimension ref="A1:AM5522"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G24" sqref="G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="11" max="11" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="9.140625" style="4"/>
-    <col min="18" max="18" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="14.140625" customWidth="1"/>
+    <col min="20" max="20" width="13.7109375" customWidth="1"/>
+    <col min="23" max="23" width="11.7109375" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="10.85546875" customWidth="1"/>
+    <col min="28" max="28" width="11.140625" customWidth="1"/>
+    <col min="29" max="29" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="9.140625" style="4"/>
+    <col min="37" max="37" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -4302,8 +4320,51 @@
       <c r="U1" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB1" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ1" s="2"/>
+      <c r="AK1" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>295</v>
       </c>
@@ -4357,82 +4418,531 @@
         <v>8.5644420426911633E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>275</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>69.3</v>
+        <v>290</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
       <c r="H3" s="1"/>
-      <c r="R3">
-        <f>S3 * 1000*1000</f>
-        <v>150.30500000000001</v>
-      </c>
-      <c r="S3">
-        <v>1.5030499999999999E-4</v>
-      </c>
-      <c r="T3" s="3">
-        <v>3.7083000000000001E-6</v>
-      </c>
-      <c r="U3" s="4">
-        <f>T3/S3</f>
-        <v>2.4671833937660093E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I3" s="1"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="4"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="4"/>
+    </row>
+    <row r="4" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>285</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I4" s="1"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="4"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="4"/>
+    </row>
+    <row r="5" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>280</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5" s="8">
+        <v>69.475651999999997</v>
+      </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
       <c r="G5" s="1"/>
       <c r="H5" s="1"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I5" s="1"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="4"/>
+      <c r="T5" s="3"/>
+      <c r="U5" s="4"/>
+    </row>
+    <row r="6" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>275</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>69.3</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A95" s="3"/>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A103" s="3"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A117" s="3"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A123" s="3"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A127" s="3"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A128" s="3"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A138" s="3"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A145" s="3"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A152" s="3"/>
+      <c r="R6">
+        <f>S6 * 1000*1000</f>
+        <v>150.30500000000001</v>
+      </c>
+      <c r="S6">
+        <v>1.5030499999999999E-4</v>
+      </c>
+      <c r="T6" s="3">
+        <v>3.7083000000000001E-6</v>
+      </c>
+      <c r="U6" s="4">
+        <f>T6/S6</f>
+        <v>2.4671833937660093E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E7" s="1"/>
+      <c r="F7" s="1"/>
+      <c r="G7" s="1"/>
+      <c r="H7" s="1"/>
+    </row>
+    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="E8" s="1"/>
+      <c r="F8" s="1"/>
+      <c r="G8" s="1"/>
+      <c r="H8" s="1"/>
+    </row>
+    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>0</v>
+      </c>
+      <c r="B9" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" t="s">
+        <v>1</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" t="s">
+        <v>13</v>
+      </c>
+      <c r="K9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L9" t="s">
+        <v>26</v>
+      </c>
+      <c r="M9" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R9" t="s">
+        <v>23</v>
+      </c>
+      <c r="S9" t="s">
+        <v>3</v>
+      </c>
+      <c r="T9" t="s">
+        <v>24</v>
+      </c>
+      <c r="U9" s="4" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>295</v>
+      </c>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+    </row>
+    <row r="11" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>290</v>
+      </c>
+      <c r="E11" s="1"/>
+      <c r="F11" s="1"/>
+      <c r="G11" s="1"/>
+      <c r="H11" s="1"/>
+      <c r="I11" s="1"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="T11" s="3"/>
+      <c r="U11" s="4"/>
+    </row>
+    <row r="12" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>285</v>
+      </c>
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+      <c r="G12" s="1"/>
+      <c r="H12" s="1"/>
+      <c r="I12" s="1"/>
+      <c r="K12" s="4"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="4"/>
+      <c r="T12" s="3"/>
+      <c r="U12" s="4"/>
+    </row>
+    <row r="13" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>280</v>
+      </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>69.275651999999994</v>
+      </c>
+      <c r="E13" s="1"/>
+      <c r="F13">
+        <v>114404</v>
+      </c>
+      <c r="G13">
+        <v>9920</v>
+      </c>
+      <c r="H13">
+        <v>996</v>
+      </c>
+      <c r="I13" s="1"/>
+      <c r="K13" s="4">
+        <f>F13/SUM(F13:I13)</f>
+        <v>0.91289498882859876</v>
+      </c>
+      <c r="L13" s="4">
+        <f>G13/SUM(F13:I13)</f>
+        <v>7.9157357165655917E-2</v>
+      </c>
+      <c r="M13" s="4">
+        <f>H13/SUM(F13:I13)</f>
+        <v>7.9476540057452916E-3</v>
+      </c>
+      <c r="R13">
+        <f>S13 * 1000*1000</f>
+        <v>138.82300000000001</v>
+      </c>
+      <c r="S13">
+        <v>1.38823E-4</v>
+      </c>
+      <c r="T13" s="3">
+        <v>7.1484799999999997E-7</v>
+      </c>
+      <c r="U13" s="4">
+        <f>T13/S13</f>
+        <v>5.149348450905109E-3</v>
+      </c>
+      <c r="W13">
+        <f>1/X13</f>
+        <v>32.593567985293781</v>
+      </c>
+      <c r="X13">
+        <v>3.0680900000000001E-2</v>
+      </c>
+      <c r="Y13">
+        <v>4.6992300000000004E-3</v>
+      </c>
+      <c r="Z13" s="4">
+        <f>Y13/X13</f>
+        <v>0.1531646724835321</v>
+      </c>
+      <c r="AB13">
+        <f>1/AC13</f>
+        <v>131.36720417747708</v>
+      </c>
+      <c r="AC13">
+        <v>7.6122500000000001E-3</v>
+      </c>
+      <c r="AD13">
+        <v>2.9050300000000001E-4</v>
+      </c>
+      <c r="AE13" s="4">
+        <f>AD13/AC13</f>
+        <v>3.816256691516963E-2</v>
+      </c>
+      <c r="AG13" s="4">
+        <v>0.132691</v>
+      </c>
+      <c r="AH13">
+        <v>4.7023999999999998E-3</v>
+      </c>
+      <c r="AI13" s="4">
+        <f>AH13/AG13</f>
+        <v>3.5438726062807575E-2</v>
+      </c>
+      <c r="AK13" s="4">
+        <v>4.1886899999999998E-2</v>
+      </c>
+      <c r="AL13">
+        <v>4.4961899999999997E-3</v>
+      </c>
+      <c r="AM13" s="4">
+        <f>AL13/AK13</f>
+        <v>0.10734119736719595</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>275</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14" s="1"/>
+      <c r="G14" s="1"/>
+      <c r="H14" s="1"/>
+      <c r="T14" s="3"/>
+      <c r="U14" s="4"/>
+    </row>
+    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B16" t="s">
+        <v>2</v>
+      </c>
+      <c r="C16" t="s">
+        <v>1</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F16" t="s">
+        <v>10</v>
+      </c>
+      <c r="G16" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" t="s">
+        <v>13</v>
+      </c>
+      <c r="K16" t="s">
+        <v>25</v>
+      </c>
+      <c r="L16" t="s">
+        <v>26</v>
+      </c>
+      <c r="M16" t="s">
+        <v>27</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R16" t="s">
+        <v>23</v>
+      </c>
+      <c r="S16" t="s">
+        <v>3</v>
+      </c>
+      <c r="T16" t="s">
+        <v>24</v>
+      </c>
+      <c r="U16" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W16" t="s">
+        <v>21</v>
+      </c>
+      <c r="X16" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y16" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB16" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD16" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG16" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH16" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI16" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ16" s="2"/>
+      <c r="AK16" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL16" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM16" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="19" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>280</v>
+      </c>
+      <c r="B20">
+        <v>1.3</v>
+      </c>
+      <c r="C20" s="8">
+        <v>69.775651999999994</v>
+      </c>
+      <c r="F20">
+        <v>31792</v>
+      </c>
+      <c r="G20">
+        <v>4849</v>
+      </c>
+      <c r="H20">
+        <v>180</v>
+      </c>
+      <c r="K20" s="4">
+        <f>F20/SUM(F20:I20)</f>
+        <v>0.86342033078949509</v>
+      </c>
+      <c r="L20" s="4">
+        <f>G20/SUM(F20:I20)</f>
+        <v>0.13169115450422314</v>
+      </c>
+      <c r="M20" s="4">
+        <f>H20/SUM(F20:I20)</f>
+        <v>4.8885147062817415E-3</v>
+      </c>
+      <c r="R20">
+        <f>S20 * 1000*1000</f>
+        <v>192.79200000000003</v>
+      </c>
+      <c r="S20">
+        <v>1.9279200000000001E-4</v>
+      </c>
+      <c r="T20" s="3">
+        <v>1.7244200000000001E-6</v>
+      </c>
+      <c r="U20" s="4">
+        <f>T20/S20</f>
+        <v>8.9444582762770244E-3</v>
+      </c>
+      <c r="W20">
+        <f>1/X20</f>
+        <v>20.219911760305077</v>
+      </c>
+      <c r="X20">
+        <v>4.9456199999999999E-2</v>
+      </c>
+      <c r="Y20">
+        <v>5.0201200000000003E-3</v>
+      </c>
+      <c r="Z20" s="4">
+        <f>Y20/X20</f>
+        <v>0.10150638342614274</v>
+      </c>
+      <c r="AB20">
+        <f>1/AC20</f>
+        <v>133.57501506058296</v>
+      </c>
+      <c r="AC20">
+        <v>7.4864299999999996E-3</v>
+      </c>
+      <c r="AD20">
+        <v>2.02776E-4</v>
+      </c>
+      <c r="AE20" s="4">
+        <f>AD20/AC20</f>
+        <v>2.708580725392477E-2</v>
+      </c>
+      <c r="AG20" s="4">
+        <v>0.30463600000000002</v>
+      </c>
+      <c r="AH20">
+        <v>4.9131599999999997E-3</v>
+      </c>
+      <c r="AI20" s="4">
+        <f>AH20/AG20</f>
+        <v>1.6127969117241559E-2</v>
+      </c>
+      <c r="AK20" s="4">
+        <v>0.136633</v>
+      </c>
+      <c r="AL20">
+        <v>1.01552E-2</v>
+      </c>
+      <c r="AM20" s="4">
+        <f>AL20/AK20</f>
+        <v>7.4324650706637491E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A98" s="3"/>
+    </row>
+    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A106" s="3"/>
+    </row>
+    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A120" s="3"/>
+    </row>
+    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3"/>
+    </row>
+    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3"/>
+    </row>
+    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A130" s="3"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A141" s="3"/>
+    </row>
+    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A148" s="3"/>
     </row>
     <row r="155" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A155" s="3"/>
@@ -4440,26 +4950,23 @@
     <row r="158" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A158" s="3"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A164" s="3"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
+    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A161" s="3"/>
     </row>
     <row r="167" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A167" s="3"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A168" s="3"/>
-    </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A174" s="3"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A175" s="3"/>
+    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A170" s="3"/>
+    </row>
+    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A171" s="3"/>
+    </row>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
@@ -4470,35 +4977,35 @@
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A184" s="3"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
+    </row>
+    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A183" s="3"/>
     </row>
     <row r="187" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A187" s="3"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A191" s="3"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
+    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A189" s="3"/>
+    </row>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
     </row>
     <row r="194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A194" s="3"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A195" s="3"/>
-    </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
     </row>
+    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A197" s="3"/>
+    </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A200" s="3"/>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
     </row>
     <row r="201" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A201" s="3"/>
@@ -4506,33 +5013,30 @@
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A209" s="3"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3"/>
+    </row>
+    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A206" s="3"/>
     </row>
     <row r="212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A212" s="3"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A213" s="3"/>
+    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A214" s="3"/>
     </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A217" s="3"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A219" s="3"/>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3"/>
+    </row>
+    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A218" s="3"/>
     </row>
     <row r="220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A220" s="3"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A221" s="3"/>
-    </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
     </row>
@@ -4545,20 +5049,23 @@
     <row r="225" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A225" s="3"/>
     </row>
+    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A226" s="3"/>
+    </row>
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
     </row>
     <row r="228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A228" s="3"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A232" s="3"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A236" s="3"/>
+    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A230" s="3"/>
+    </row>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3"/>
+    </row>
+    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A235" s="3"/>
     </row>
     <row r="237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A237" s="3"/>
@@ -4569,8 +5076,8 @@
     <row r="240" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A240" s="3"/>
     </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A241" s="3"/>
+    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A242" s="3"/>
     </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
@@ -4578,9 +5085,6 @@
     <row r="244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A244" s="3"/>
     </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A245" s="3"/>
-    </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
     </row>
@@ -4593,20 +5097,23 @@
     <row r="249" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A249" s="3"/>
     </row>
+    <row r="250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A250" s="3"/>
+    </row>
+    <row r="251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A251" s="3"/>
+    </row>
     <row r="252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A252" s="3"/>
     </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A253" s="3"/>
-    </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
     </row>
     <row r="256" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A256" s="3"/>
     </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A257" s="3"/>
+    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A258" s="3"/>
     </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
@@ -4614,9 +5121,6 @@
     <row r="260" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A260" s="3"/>
     </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A261" s="3"/>
-    </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
     </row>
@@ -4626,17 +5130,20 @@
     <row r="264" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A264" s="3"/>
     </row>
+    <row r="265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A265" s="3"/>
+    </row>
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
     </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A268" s="3"/>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3"/>
     </row>
     <row r="269" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A269" s="3"/>
     </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A270" s="3"/>
+    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A271" s="3"/>
     </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
@@ -4644,36 +5151,33 @@
     <row r="273" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A273" s="3"/>
     </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A274" s="3"/>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A278" s="3"/>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A279" s="3"/>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3"/>
+    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A275" s="3"/>
+    </row>
+    <row r="276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A276" s="3"/>
+    </row>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
     </row>
+    <row r="282" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A282" s="3"/>
+    </row>
+    <row r="283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A283" s="3"/>
+    </row>
     <row r="284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A284" s="3"/>
     </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A285" s="3"/>
-    </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
     </row>
     <row r="288" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A288" s="3"/>
     </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A289" s="3"/>
-    </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
     </row>
@@ -4683,11 +5187,14 @@
     <row r="292" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A292" s="3"/>
     </row>
+    <row r="293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A293" s="3"/>
+    </row>
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
     </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A296" s="3"/>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3"/>
     </row>
     <row r="297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A297" s="3"/>
@@ -4698,9 +5205,6 @@
     <row r="300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A300" s="3"/>
     </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A301" s="3"/>
-    </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
     </row>
@@ -4716,15 +5220,15 @@
     <row r="306" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A306" s="3"/>
     </row>
+    <row r="307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A307" s="3"/>
+    </row>
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
     </row>
     <row r="309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A309" s="3"/>
     </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A310" s="3"/>
-    </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
     </row>
@@ -4737,15 +5241,15 @@
     <row r="314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A314" s="3"/>
     </row>
+    <row r="315" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A315" s="3"/>
+    </row>
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
     </row>
     <row r="317" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A317" s="3"/>
     </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A318" s="3"/>
-    </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
     </row>
@@ -4755,21 +5259,21 @@
     <row r="321" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A321" s="3"/>
     </row>
+    <row r="322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A322" s="3"/>
+    </row>
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
     </row>
     <row r="324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A324" s="3"/>
     </row>
+    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A326" s="3"/>
+    </row>
     <row r="327" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A327" s="3"/>
     </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A328" s="3"/>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3"/>
-    </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
     </row>
@@ -4782,27 +5286,27 @@
     <row r="333" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A333" s="3"/>
     </row>
+    <row r="334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A334" s="3"/>
+    </row>
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
     </row>
     <row r="336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A336" s="3"/>
     </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A337" s="3"/>
+    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A338" s="3"/>
+    </row>
+    <row r="339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A339" s="3"/>
     </row>
     <row r="340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A340" s="3"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="3"/>
-    </row>
     <row r="343" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A343" s="3"/>
     </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A344" s="3"/>
-    </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
     </row>
@@ -4818,6 +5322,9 @@
     <row r="349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A349" s="3"/>
     </row>
+    <row r="350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A350" s="3"/>
+    </row>
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
     </row>
@@ -4830,9 +5337,6 @@
     <row r="355" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A355" s="3"/>
     </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A356" s="3"/>
-    </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
     </row>
@@ -4854,48 +5358,48 @@
     <row r="363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A363" s="3"/>
     </row>
+    <row r="364" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A364" s="3"/>
+    </row>
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
     </row>
     <row r="366" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A366" s="3"/>
     </row>
+    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A368" s="3"/>
+    </row>
     <row r="369" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A369" s="3"/>
     </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A370" s="3"/>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="3"/>
-    </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
     </row>
+    <row r="373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A373" s="3"/>
+    </row>
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
     </row>
     <row r="375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A375" s="3"/>
     </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A376" s="3"/>
-    </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
     </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
     </row>
+    <row r="379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A379" s="3"/>
+    </row>
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
     </row>
     <row r="381" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A381" s="3"/>
     </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A382" s="3"/>
-    </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
     </row>
@@ -4953,18 +5457,18 @@
     <row r="401" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A401" s="3"/>
     </row>
+    <row r="402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A402" s="3"/>
+    </row>
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
     </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A405" s="3"/>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="3"/>
     </row>
     <row r="406" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A406" s="3"/>
     </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A407" s="3"/>
-    </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
     </row>
@@ -4974,15 +5478,15 @@
     <row r="410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A410" s="3"/>
     </row>
+    <row r="411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A411" s="3"/>
+    </row>
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
     </row>
     <row r="413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A413" s="3"/>
     </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A414" s="3"/>
-    </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
     </row>
@@ -5643,15 +6147,15 @@
     <row r="634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A634" s="3"/>
     </row>
+    <row r="635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A635" s="3"/>
+    </row>
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
     </row>
     <row r="637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A637" s="3"/>
     </row>
-    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A638" s="3"/>
-    </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
     </row>
@@ -7005,15 +7509,15 @@
     <row r="1089" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1089" s="3"/>
     </row>
+    <row r="1090" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1090" s="3"/>
+    </row>
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091" s="3"/>
     </row>
     <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1092" s="3"/>
     </row>
-    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1093" s="3"/>
-    </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" s="3"/>
     </row>
@@ -7146,15 +7650,15 @@
     <row r="1137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1137" s="3"/>
     </row>
+    <row r="1138" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1138" s="3"/>
+    </row>
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1139" s="3"/>
     </row>
     <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1140" s="3"/>
     </row>
-    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1141" s="3"/>
-    </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1142" s="3"/>
     </row>
@@ -7368,15 +7872,15 @@
     <row r="1212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1212" s="3"/>
     </row>
+    <row r="1213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1213" s="3"/>
+    </row>
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1214" s="3"/>
     </row>
     <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1215" s="3"/>
     </row>
-    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1216" s="3"/>
-    </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1217" s="3"/>
     </row>
@@ -7653,15 +8157,15 @@
     <row r="1308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1308" s="3"/>
     </row>
+    <row r="1309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1309" s="3"/>
+    </row>
     <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1310" s="3"/>
     </row>
     <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1311" s="3"/>
     </row>
-    <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1312" s="3"/>
-    </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1313" s="3"/>
     </row>
@@ -7686,15 +8190,15 @@
     <row r="1320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1320" s="3"/>
     </row>
+    <row r="1321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1321" s="3"/>
+    </row>
     <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1322" s="3"/>
     </row>
     <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1323" s="3"/>
     </row>
-    <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1324" s="3"/>
-    </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1325" s="3"/>
     </row>
@@ -7797,15 +8301,15 @@
     <row r="1358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1358" s="3"/>
     </row>
+    <row r="1359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1359" s="3"/>
+    </row>
     <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1360" s="3"/>
     </row>
     <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1361" s="3"/>
     </row>
-    <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1362" s="3"/>
-    </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1363" s="3"/>
     </row>
@@ -7830,15 +8334,15 @@
     <row r="1370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1370" s="3"/>
     </row>
+    <row r="1371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1371" s="3"/>
+    </row>
     <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1372" s="3"/>
     </row>
     <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1373" s="3"/>
     </row>
-    <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1374" s="3"/>
-    </row>
     <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1375" s="3"/>
     </row>
@@ -7989,15 +8493,15 @@
     <row r="1424" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1424" s="3"/>
     </row>
+    <row r="1425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1425" s="3"/>
+    </row>
     <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1426" s="3"/>
     </row>
     <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1427" s="3"/>
     </row>
-    <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1428" s="3"/>
-    </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1429" s="3"/>
     </row>
@@ -8055,14 +8559,17 @@
     <row r="1447" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1447" s="3"/>
     </row>
+    <row r="1448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1448" s="3"/>
+    </row>
     <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1449" s="3"/>
     </row>
     <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1450" s="3"/>
     </row>
-    <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1451" s="3"/>
+    <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1452" s="3"/>
     </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1453" s="3"/>
@@ -8070,9 +8577,6 @@
     <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1454" s="3"/>
     </row>
-    <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1455" s="3"/>
-    </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1456" s="3"/>
     </row>
@@ -8088,15 +8592,15 @@
     <row r="1460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1460" s="3"/>
     </row>
+    <row r="1461" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1461" s="3"/>
+    </row>
     <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1462" s="3"/>
     </row>
     <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1463" s="3"/>
     </row>
-    <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1464" s="3"/>
-    </row>
     <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1465" s="3"/>
     </row>
@@ -8124,15 +8628,15 @@
     <row r="1473" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1473" s="3"/>
     </row>
+    <row r="1474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1474" s="3"/>
+    </row>
+    <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1475" s="3"/>
+    </row>
     <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1476" s="3"/>
     </row>
-    <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1477" s="3"/>
-    </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1478" s="3"/>
-    </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1479" s="3"/>
     </row>
@@ -8298,14 +8802,17 @@
     <row r="1533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1533" s="3"/>
     </row>
+    <row r="1534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1534" s="3"/>
+    </row>
     <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1535" s="3"/>
     </row>
     <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1536" s="3"/>
     </row>
-    <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1537" s="3"/>
+    <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1538" s="3"/>
     </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1539" s="3"/>
@@ -8313,9 +8820,6 @@
     <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1540" s="3"/>
     </row>
-    <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1541" s="3"/>
-    </row>
     <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1542" s="3"/>
     </row>
@@ -8331,15 +8835,15 @@
     <row r="1546" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1546" s="3"/>
     </row>
+    <row r="1547" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1547" s="3"/>
+    </row>
     <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1548" s="3"/>
     </row>
     <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1549" s="3"/>
     </row>
-    <row r="1550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1550" s="3"/>
-    </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1551" s="3"/>
     </row>
@@ -8361,15 +8865,15 @@
     <row r="1557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1557" s="3"/>
     </row>
+    <row r="1558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1558" s="3"/>
+    </row>
     <row r="1559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1559" s="3"/>
     </row>
     <row r="1560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1560" s="3"/>
     </row>
-    <row r="1561" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1561" s="3"/>
-    </row>
     <row r="1562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1562" s="3"/>
     </row>
@@ -8490,15 +8994,15 @@
     <row r="1601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1601" s="3"/>
     </row>
+    <row r="1602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1602" s="3"/>
+    </row>
     <row r="1603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1603" s="3"/>
     </row>
     <row r="1604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1604" s="3"/>
     </row>
-    <row r="1605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1605" s="3"/>
-    </row>
     <row r="1606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1606" s="3"/>
     </row>
@@ -8517,15 +9021,15 @@
     <row r="1611" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1611" s="3"/>
     </row>
+    <row r="1612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1612" s="3"/>
+    </row>
     <row r="1613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1613" s="3"/>
     </row>
     <row r="1614" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1614" s="3"/>
     </row>
-    <row r="1615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1615" s="3"/>
-    </row>
     <row r="1616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1616" s="3"/>
     </row>
@@ -8565,21 +9069,24 @@
     <row r="1628" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1628" s="3"/>
     </row>
+    <row r="1629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1629" s="3"/>
+    </row>
     <row r="1630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1630" s="3"/>
     </row>
     <row r="1631" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1631" s="3"/>
     </row>
-    <row r="1632" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1632" s="3"/>
-    </row>
     <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1633" s="3"/>
     </row>
     <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1634" s="3"/>
     </row>
+    <row r="1635" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1635" s="3"/>
+    </row>
     <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1636" s="3"/>
     </row>
@@ -8598,24 +9105,21 @@
     <row r="1643" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1643" s="3"/>
     </row>
-    <row r="1644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1644" s="3"/>
-    </row>
     <row r="1645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1645" s="3"/>
     </row>
     <row r="1646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1646" s="3"/>
     </row>
+    <row r="1647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1647" s="3"/>
+    </row>
     <row r="1648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1648" s="3"/>
     </row>
     <row r="1649" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1649" s="3"/>
     </row>
-    <row r="1650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1650" s="3"/>
-    </row>
     <row r="1651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1651" s="3"/>
     </row>
@@ -8631,15 +9135,15 @@
     <row r="1655" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1655" s="3"/>
     </row>
+    <row r="1656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1656" s="3"/>
+    </row>
     <row r="1657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1657" s="3"/>
     </row>
     <row r="1658" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1658" s="3"/>
     </row>
-    <row r="1659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1659" s="3"/>
-    </row>
     <row r="1660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1660" s="3"/>
     </row>
@@ -8655,6 +9159,9 @@
     <row r="1664" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1664" s="3"/>
     </row>
+    <row r="1665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1665" s="3"/>
+    </row>
     <row r="1666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1666" s="3"/>
     </row>
@@ -8667,42 +9174,39 @@
     <row r="1670" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1670" s="3"/>
     </row>
-    <row r="1671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1671" s="3"/>
-    </row>
     <row r="1672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1672" s="3"/>
     </row>
     <row r="1673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1673" s="3"/>
     </row>
+    <row r="1674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1674" s="3"/>
+    </row>
     <row r="1675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1675" s="3"/>
     </row>
     <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1676" s="3"/>
     </row>
+    <row r="1678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1678" s="3"/>
+    </row>
     <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1679" s="3"/>
     </row>
-    <row r="1680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1680" s="3"/>
-    </row>
-    <row r="1681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1681" s="3"/>
-    </row>
     <row r="1682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1682" s="3"/>
     </row>
+    <row r="1683" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1683" s="3"/>
+    </row>
     <row r="1684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1684" s="3"/>
     </row>
     <row r="1685" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1685" s="3"/>
     </row>
-    <row r="1686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1686" s="3"/>
-    </row>
     <row r="1687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1687" s="3"/>
     </row>
@@ -8733,15 +9237,15 @@
     <row r="1696" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1696" s="3"/>
     </row>
+    <row r="1697" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1697" s="3"/>
+    </row>
     <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1698" s="3"/>
     </row>
     <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1699" s="3"/>
     </row>
-    <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1700" s="3"/>
-    </row>
     <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1701" s="3"/>
     </row>
@@ -8760,6 +9264,9 @@
     <row r="1706" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1706" s="3"/>
     </row>
+    <row r="1707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1707" s="3"/>
+    </row>
     <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1708" s="3"/>
     </row>
@@ -8772,21 +9279,18 @@
     <row r="1712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1712" s="3"/>
     </row>
-    <row r="1713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1713" s="3"/>
-    </row>
     <row r="1714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1714" s="3"/>
     </row>
+    <row r="1715" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1715" s="3"/>
+    </row>
     <row r="1716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1716" s="3"/>
     </row>
     <row r="1717" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1717" s="3"/>
     </row>
-    <row r="1718" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1718" s="3"/>
-    </row>
     <row r="1719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1719" s="3"/>
     </row>
@@ -8802,27 +9306,27 @@
     <row r="1723" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1723" s="3"/>
     </row>
+    <row r="1724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1724" s="3"/>
+    </row>
     <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1725" s="3"/>
     </row>
     <row r="1726" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1726" s="3"/>
     </row>
-    <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1727" s="3"/>
-    </row>
     <row r="1728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1728" s="3"/>
     </row>
+    <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1729" s="3"/>
+    </row>
     <row r="1730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1730" s="3"/>
     </row>
     <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1731" s="3"/>
     </row>
-    <row r="1732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1732" s="3"/>
-    </row>
     <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1733" s="3"/>
     </row>
@@ -8847,15 +9351,15 @@
     <row r="1740" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1740" s="3"/>
     </row>
+    <row r="1741" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1741" s="3"/>
+    </row>
     <row r="1742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1742" s="3"/>
     </row>
     <row r="1743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1743" s="3"/>
     </row>
-    <row r="1744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1744" s="3"/>
-    </row>
     <row r="1745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1745" s="3"/>
     </row>
@@ -8886,15 +9390,15 @@
     <row r="1754" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1754" s="3"/>
     </row>
+    <row r="1755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1755" s="3"/>
+    </row>
     <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1756" s="3"/>
     </row>
     <row r="1757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1757" s="3"/>
     </row>
-    <row r="1758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1758" s="3"/>
-    </row>
     <row r="1759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1759" s="3"/>
     </row>
@@ -8928,39 +9432,39 @@
     <row r="1769" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1769" s="3"/>
     </row>
+    <row r="1770" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1770" s="3"/>
+    </row>
     <row r="1771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1771" s="3"/>
     </row>
     <row r="1772" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1772" s="3"/>
     </row>
-    <row r="1773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1773" s="3"/>
-    </row>
     <row r="1774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1774" s="3"/>
     </row>
+    <row r="1775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1775" s="3"/>
+    </row>
     <row r="1776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1776" s="3"/>
     </row>
     <row r="1777" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1777" s="3"/>
     </row>
-    <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1778" s="3"/>
-    </row>
     <row r="1779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1779" s="3"/>
     </row>
+    <row r="1780" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1780" s="3"/>
+    </row>
     <row r="1781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1781" s="3"/>
     </row>
     <row r="1782" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1782" s="3"/>
     </row>
-    <row r="1783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1783" s="3"/>
-    </row>
     <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1784" s="3"/>
     </row>
@@ -8997,15 +9501,15 @@
     <row r="1795" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1795" s="3"/>
     </row>
+    <row r="1796" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1796" s="3"/>
+    </row>
     <row r="1797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1797" s="3"/>
     </row>
     <row r="1798" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1798" s="3"/>
     </row>
-    <row r="1799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1799" s="3"/>
-    </row>
     <row r="1800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1800" s="3"/>
     </row>
@@ -9018,14 +9522,17 @@
     <row r="1803" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1803" s="3"/>
     </row>
+    <row r="1804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1804" s="3"/>
+    </row>
     <row r="1805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1805" s="3"/>
     </row>
     <row r="1806" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1806" s="3"/>
     </row>
-    <row r="1807" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1807" s="3"/>
+    <row r="1808" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1808" s="3"/>
     </row>
     <row r="1809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1809" s="3"/>
@@ -9033,9 +9540,6 @@
     <row r="1810" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1810" s="3"/>
     </row>
-    <row r="1811" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1811" s="3"/>
-    </row>
     <row r="1812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1812" s="3"/>
     </row>
@@ -9045,15 +9549,15 @@
     <row r="1814" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1814" s="3"/>
     </row>
+    <row r="1815" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1815" s="3"/>
+    </row>
+    <row r="1816" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1816" s="3"/>
+    </row>
     <row r="1817" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1817" s="3"/>
     </row>
-    <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1818" s="3"/>
-    </row>
-    <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1819" s="3"/>
-    </row>
     <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1820" s="3"/>
     </row>
@@ -9063,14 +9567,17 @@
     <row r="1822" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1822" s="3"/>
     </row>
-    <row r="1827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1827" s="3"/>
-    </row>
-    <row r="1828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1828" s="3"/>
-    </row>
-    <row r="1829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1829" s="3"/>
+    <row r="1823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1823" s="3"/>
+    </row>
+    <row r="1824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1824" s="3"/>
+    </row>
+    <row r="1825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1825" s="3"/>
+    </row>
+    <row r="1830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1830" s="3"/>
     </row>
     <row r="1831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1831" s="3"/>
@@ -9078,9 +9585,6 @@
     <row r="1832" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1832" s="3"/>
     </row>
-    <row r="1833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1833" s="3"/>
-    </row>
     <row r="1834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1834" s="3"/>
     </row>
@@ -9090,18 +9594,21 @@
     <row r="1836" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1836" s="3"/>
     </row>
+    <row r="1837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1837" s="3"/>
+    </row>
+    <row r="1838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1838" s="3"/>
+    </row>
     <row r="1839" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1839" s="3"/>
     </row>
-    <row r="1840" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1840" s="3"/>
+    <row r="1842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1842" s="3"/>
     </row>
     <row r="1843" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1843" s="3"/>
     </row>
-    <row r="1845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1845" s="3"/>
-    </row>
     <row r="1846" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1846" s="3"/>
     </row>
@@ -9111,26 +9618,26 @@
     <row r="1849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1849" s="3"/>
     </row>
-    <row r="1850" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1850" s="3"/>
-    </row>
-    <row r="1854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1854" s="3"/>
-    </row>
-    <row r="1855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1855" s="3"/>
-    </row>
-    <row r="1856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1856" s="3"/>
+    <row r="1851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1851" s="3"/>
+    </row>
+    <row r="1852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1852" s="3"/>
+    </row>
+    <row r="1853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1853" s="3"/>
     </row>
     <row r="1857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1857" s="3"/>
     </row>
+    <row r="1858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1858" s="3"/>
+    </row>
     <row r="1859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1859" s="3"/>
     </row>
-    <row r="1861" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1861" s="3"/>
+    <row r="1860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1860" s="3"/>
     </row>
     <row r="1862" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1862" s="3"/>
@@ -9144,14 +9651,14 @@
     <row r="1867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1867" s="3"/>
     </row>
-    <row r="1869" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1869" s="3"/>
+    <row r="1868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1868" s="3"/>
     </row>
     <row r="1870" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1870" s="3"/>
     </row>
-    <row r="1871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1871" s="3"/>
+    <row r="1872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1872" s="3"/>
     </row>
     <row r="1873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1873" s="3"/>
@@ -9159,9 +9666,6 @@
     <row r="1874" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1874" s="3"/>
     </row>
-    <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1875" s="3"/>
-    </row>
     <row r="1876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1876" s="3"/>
     </row>
@@ -9171,15 +9675,15 @@
     <row r="1878" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1878" s="3"/>
     </row>
+    <row r="1879" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1879" s="3"/>
+    </row>
     <row r="1880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1880" s="3"/>
     </row>
     <row r="1881" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1881" s="3"/>
     </row>
-    <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1882" s="3"/>
-    </row>
     <row r="1883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1883" s="3"/>
     </row>
@@ -9198,21 +9702,24 @@
     <row r="1888" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1888" s="3"/>
     </row>
+    <row r="1889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1889" s="3"/>
+    </row>
     <row r="1890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1890" s="3"/>
     </row>
     <row r="1891" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1891" s="3"/>
     </row>
-    <row r="1892" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1892" s="3"/>
-    </row>
     <row r="1893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1893" s="3"/>
     </row>
     <row r="1894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1894" s="3"/>
     </row>
+    <row r="1895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1895" s="3"/>
+    </row>
     <row r="1896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1896" s="3"/>
     </row>
@@ -9225,75 +9732,75 @@
     <row r="1900" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1900" s="3"/>
     </row>
-    <row r="1901" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1901" s="3"/>
-    </row>
     <row r="1902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1902" s="3"/>
     </row>
+    <row r="1903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1903" s="3"/>
+    </row>
     <row r="1904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1904" s="3"/>
     </row>
-    <row r="1909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1909" s="3"/>
-    </row>
-    <row r="1910" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1910" s="3"/>
-    </row>
-    <row r="1911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1911" s="3"/>
+    <row r="1905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1905" s="3"/>
+    </row>
+    <row r="1907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1907" s="3"/>
     </row>
     <row r="1912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1912" s="3"/>
     </row>
+    <row r="1913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1913" s="3"/>
+    </row>
+    <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1914" s="3"/>
+    </row>
     <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1915" s="3"/>
     </row>
-    <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1916" s="3"/>
-    </row>
-    <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1917" s="3"/>
-    </row>
     <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1918" s="3"/>
     </row>
     <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1919" s="3"/>
     </row>
+    <row r="1920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1920" s="3"/>
+    </row>
     <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1921" s="3"/>
     </row>
+    <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1922" s="3"/>
+    </row>
     <row r="1924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1924" s="3"/>
     </row>
-    <row r="1925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1925" s="3"/>
+    <row r="1927" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1927" s="3"/>
     </row>
     <row r="1928" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1928" s="3"/>
     </row>
-    <row r="1929" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1929" s="3"/>
-    </row>
     <row r="1931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1931" s="3"/>
     </row>
     <row r="1932" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1932" s="3"/>
     </row>
-    <row r="1933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1933" s="3"/>
-    </row>
     <row r="1934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1934" s="3"/>
     </row>
+    <row r="1935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1935" s="3"/>
+    </row>
+    <row r="1936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1936" s="3"/>
+    </row>
     <row r="1937" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1937" s="3"/>
     </row>
-    <row r="1938" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1938" s="3"/>
-    </row>
     <row r="1940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1940" s="3"/>
     </row>
@@ -9306,20 +9813,20 @@
     <row r="1944" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1944" s="3"/>
     </row>
-    <row r="1945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1945" s="3"/>
+    <row r="1946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1946" s="3"/>
     </row>
     <row r="1947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1947" s="3"/>
     </row>
-    <row r="1949" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1949" s="3"/>
+    <row r="1948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1948" s="3"/>
     </row>
     <row r="1950" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1950" s="3"/>
     </row>
-    <row r="1951" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1951" s="3"/>
+    <row r="1952" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1952" s="3"/>
     </row>
     <row r="1953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1953" s="3"/>
@@ -9327,21 +9834,18 @@
     <row r="1954" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1954" s="3"/>
     </row>
-    <row r="1955" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1955" s="3"/>
-    </row>
     <row r="1956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1956" s="3"/>
     </row>
+    <row r="1957" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1957" s="3"/>
+    </row>
     <row r="1958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1958" s="3"/>
     </row>
     <row r="1959" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1959" s="3"/>
     </row>
-    <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1960" s="3"/>
-    </row>
     <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1961" s="3"/>
     </row>
@@ -9360,14 +9864,17 @@
     <row r="1966" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1966" s="3"/>
     </row>
+    <row r="1967" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1967" s="3"/>
+    </row>
+    <row r="1968" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1968" s="3"/>
+    </row>
     <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1969" s="3"/>
     </row>
-    <row r="1970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1970" s="3"/>
-    </row>
-    <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1971" s="3"/>
+    <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1972" s="3"/>
     </row>
     <row r="1973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1973" s="3"/>
@@ -9375,20 +9882,20 @@
     <row r="1974" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1974" s="3"/>
     </row>
-    <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1975" s="3"/>
+    <row r="1976" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1976" s="3"/>
     </row>
     <row r="1977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1977" s="3"/>
     </row>
+    <row r="1978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1978" s="3"/>
+    </row>
     <row r="1980" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1980" s="3"/>
     </row>
-    <row r="1981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1981" s="3"/>
-    </row>
-    <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1982" s="3"/>
+    <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1983" s="3"/>
     </row>
     <row r="1984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1984" s="3"/>
@@ -9396,9 +9903,6 @@
     <row r="1985" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1985" s="3"/>
     </row>
-    <row r="1986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1986" s="3"/>
-    </row>
     <row r="1987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1987" s="3"/>
     </row>
@@ -9420,17 +9924,20 @@
     <row r="1993" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1993" s="3"/>
     </row>
+    <row r="1994" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1994" s="3"/>
+    </row>
     <row r="1995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1995" s="3"/>
     </row>
-    <row r="1997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1997" s="3"/>
+    <row r="1996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1996" s="3"/>
     </row>
     <row r="1998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1998" s="3"/>
     </row>
-    <row r="1999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1999" s="3"/>
+    <row r="2000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2000" s="3"/>
     </row>
     <row r="2001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2001" s="3"/>
@@ -9438,27 +9945,24 @@
     <row r="2002" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2002" s="3"/>
     </row>
-    <row r="2003" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2003" s="3"/>
-    </row>
     <row r="2004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2004" s="3"/>
     </row>
     <row r="2005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2005" s="3"/>
     </row>
-    <row r="2010" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2010" s="3"/>
-    </row>
-    <row r="2012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2012" s="3"/>
+    <row r="2006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2006" s="3"/>
+    </row>
+    <row r="2007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2007" s="3"/>
+    </row>
+    <row r="2008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2008" s="3"/>
     </row>
     <row r="2013" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2013" s="3"/>
     </row>
-    <row r="2014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2014" s="3"/>
-    </row>
     <row r="2015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2015" s="3"/>
     </row>
@@ -9483,23 +9987,26 @@
     <row r="2022" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2022" s="3"/>
     </row>
+    <row r="2023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2023" s="3"/>
+    </row>
     <row r="2024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2024" s="3"/>
     </row>
     <row r="2025" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2025" s="3"/>
     </row>
-    <row r="2026" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2026" s="3"/>
+    <row r="2027" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2027" s="3"/>
+    </row>
+    <row r="2028" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2028" s="3"/>
     </row>
     <row r="2029" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2029" s="3"/>
     </row>
-    <row r="2030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2030" s="3"/>
-    </row>
-    <row r="2031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2031" s="3"/>
+    <row r="2032" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2032" s="3"/>
     </row>
     <row r="2033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2033" s="3"/>
@@ -9507,9 +10014,6 @@
     <row r="2034" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2034" s="3"/>
     </row>
-    <row r="2035" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2035" s="3"/>
-    </row>
     <row r="2036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2036" s="3"/>
     </row>
@@ -9519,17 +10023,20 @@
     <row r="2038" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2038" s="3"/>
     </row>
-    <row r="2042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2042" s="3"/>
-    </row>
-    <row r="2044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2044" s="3"/>
+    <row r="2039" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2039" s="3"/>
+    </row>
+    <row r="2040" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2040" s="3"/>
+    </row>
+    <row r="2041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2041" s="3"/>
     </row>
     <row r="2045" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2045" s="3"/>
     </row>
-    <row r="2046" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2046" s="3"/>
+    <row r="2047" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2047" s="3"/>
     </row>
     <row r="2048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2048" s="3"/>
@@ -9543,35 +10050,32 @@
     <row r="2052" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2052" s="3"/>
     </row>
+    <row r="2054" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2054" s="3"/>
+    </row>
     <row r="2055" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2055" s="3"/>
     </row>
     <row r="2058" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2058" s="3"/>
     </row>
-    <row r="2059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2059" s="3"/>
-    </row>
-    <row r="2060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2060" s="3"/>
-    </row>
     <row r="2061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2061" s="3"/>
     </row>
+    <row r="2062" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2062" s="3"/>
+    </row>
     <row r="2063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2063" s="3"/>
     </row>
     <row r="2064" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2064" s="3"/>
     </row>
-    <row r="2069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2069" s="3"/>
-    </row>
-    <row r="2070" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2070" s="3"/>
-    </row>
-    <row r="2071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2071" s="3"/>
+    <row r="2066" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2066" s="3"/>
+    </row>
+    <row r="2067" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2067" s="3"/>
     </row>
     <row r="2072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2072" s="3"/>
@@ -9594,18 +10098,18 @@
     <row r="2078" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2078" s="3"/>
     </row>
+    <row r="2079" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2079" s="3"/>
+    </row>
     <row r="2080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2080" s="3"/>
     </row>
-    <row r="2082" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2082" s="3"/>
+    <row r="2081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2081" s="3"/>
     </row>
     <row r="2083" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2083" s="3"/>
     </row>
-    <row r="2084" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2084" s="3"/>
-    </row>
     <row r="2085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2085" s="3"/>
     </row>
@@ -9618,32 +10122,32 @@
     <row r="2088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2088" s="3"/>
     </row>
-    <row r="2094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2094" s="3"/>
-    </row>
-    <row r="2095" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2095" s="3"/>
-    </row>
-    <row r="2096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2096" s="3"/>
+    <row r="2089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2089" s="3"/>
+    </row>
+    <row r="2090" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2090" s="3"/>
+    </row>
+    <row r="2091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2091" s="3"/>
     </row>
     <row r="2097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2097" s="3"/>
     </row>
+    <row r="2098" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2098" s="3"/>
+    </row>
     <row r="2099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2099" s="3"/>
     </row>
-    <row r="2103" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2103" s="3"/>
-    </row>
-    <row r="2107" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2107" s="3"/>
-    </row>
-    <row r="2108" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2108" s="3"/>
-    </row>
-    <row r="2109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2109" s="3"/>
+    <row r="2100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2100" s="3"/>
+    </row>
+    <row r="2102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2102" s="3"/>
+    </row>
+    <row r="2106" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2106" s="3"/>
     </row>
     <row r="2110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2110" s="3"/>
@@ -9651,45 +10155,45 @@
     <row r="2111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2111" s="3"/>
     </row>
+    <row r="2112" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2112" s="3"/>
+    </row>
+    <row r="2113" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2113" s="3"/>
+    </row>
     <row r="2114" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2114" s="3"/>
     </row>
-    <row r="2115" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2115" s="3"/>
-    </row>
-    <row r="2116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2116" s="3"/>
-    </row>
     <row r="2117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2117" s="3"/>
     </row>
     <row r="2118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2118" s="3"/>
     </row>
+    <row r="2119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2119" s="3"/>
+    </row>
+    <row r="2120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2120" s="3"/>
+    </row>
     <row r="2121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2121" s="3"/>
     </row>
-    <row r="2125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2125" s="3"/>
-    </row>
-    <row r="2130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2130" s="3"/>
-    </row>
-    <row r="2131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2131" s="3"/>
+    <row r="2124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2124" s="3"/>
+    </row>
+    <row r="2128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2128" s="3"/>
     </row>
     <row r="2133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2133" s="3"/>
     </row>
-    <row r="2135" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2135" s="3"/>
+    <row r="2134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2134" s="3"/>
     </row>
     <row r="2136" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2136" s="3"/>
     </row>
-    <row r="2137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2137" s="3"/>
-    </row>
     <row r="2138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2138" s="3"/>
     </row>
@@ -9720,32 +10224,38 @@
     <row r="2147" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2147" s="3"/>
     </row>
+    <row r="2148" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2148" s="3"/>
+    </row>
     <row r="2149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2149" s="3"/>
     </row>
     <row r="2150" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2150" s="3"/>
     </row>
-    <row r="2154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2154" s="3"/>
+    <row r="2152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2152" s="3"/>
+    </row>
+    <row r="2153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2153" s="3"/>
     </row>
     <row r="2157" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2157" s="3"/>
     </row>
-    <row r="2162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2162" s="3"/>
-    </row>
-    <row r="2163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2163" s="3"/>
-    </row>
-    <row r="2170" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2170" s="3"/>
-    </row>
-    <row r="2175" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2175" s="3"/>
-    </row>
-    <row r="2179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2179" s="3"/>
+    <row r="2160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2160" s="3"/>
+    </row>
+    <row r="2165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2165" s="3"/>
+    </row>
+    <row r="2166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2166" s="3"/>
+    </row>
+    <row r="2173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2173" s="3"/>
+    </row>
+    <row r="2178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2178" s="3"/>
     </row>
     <row r="2182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2182" s="3"/>
@@ -9753,56 +10263,53 @@
     <row r="2185" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2185" s="3"/>
     </row>
-    <row r="2186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2186" s="3"/>
-    </row>
-    <row r="2187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2187" s="3"/>
-    </row>
-    <row r="2191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2191" s="3"/>
-    </row>
-    <row r="2192" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2192" s="3"/>
-    </row>
-    <row r="2193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2193" s="3"/>
+    <row r="2188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2188" s="3"/>
+    </row>
+    <row r="2189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2189" s="3"/>
+    </row>
+    <row r="2190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2190" s="3"/>
     </row>
     <row r="2194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2194" s="3"/>
     </row>
-    <row r="2201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2201" s="3"/>
-    </row>
-    <row r="2203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2203" s="3"/>
-    </row>
-    <row r="2205" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2205" s="3"/>
+    <row r="2195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2195" s="3"/>
+    </row>
+    <row r="2196" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2196" s="3"/>
+    </row>
+    <row r="2197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2197" s="3"/>
+    </row>
+    <row r="2204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2204" s="3"/>
     </row>
     <row r="2206" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2206" s="3"/>
     </row>
-    <row r="2207" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2207" s="3"/>
-    </row>
     <row r="2208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2208" s="3"/>
     </row>
     <row r="2209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2209" s="3"/>
     </row>
+    <row r="2210" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2210" s="3"/>
+    </row>
+    <row r="2211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2211" s="3"/>
+    </row>
     <row r="2212" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2212" s="3"/>
     </row>
-    <row r="2216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2216" s="3"/>
-    </row>
-    <row r="2217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2217" s="3"/>
-    </row>
-    <row r="2218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2218" s="3"/>
+    <row r="2215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2215" s="3"/>
+    </row>
+    <row r="2219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2219" s="3"/>
     </row>
     <row r="2220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2220" s="3"/>
@@ -9810,29 +10317,26 @@
     <row r="2221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2221" s="3"/>
     </row>
-    <row r="2225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2225" s="3"/>
+    <row r="2223" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2223" s="3"/>
+    </row>
+    <row r="2224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2224" s="3"/>
     </row>
     <row r="2228" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2228" s="3"/>
     </row>
-    <row r="2232" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2232" s="3"/>
-    </row>
-    <row r="2234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2234" s="3"/>
+    <row r="2231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2231" s="3"/>
     </row>
     <row r="2235" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2235" s="3"/>
     </row>
-    <row r="2240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2240" s="3"/>
-    </row>
-    <row r="2241" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2241" s="3"/>
-    </row>
-    <row r="2242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2242" s="3"/>
+    <row r="2237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2237" s="3"/>
+    </row>
+    <row r="2238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2238" s="3"/>
     </row>
     <row r="2243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2243" s="3"/>
@@ -9840,77 +10344,83 @@
     <row r="2244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2244" s="3"/>
     </row>
+    <row r="2245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2245" s="3"/>
+    </row>
+    <row r="2246" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2246" s="3"/>
+    </row>
     <row r="2247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2247" s="3"/>
     </row>
-    <row r="2249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2249" s="3"/>
-    </row>
     <row r="2250" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2250" s="3"/>
     </row>
-    <row r="2251" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2251" s="3"/>
-    </row>
     <row r="2252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2252" s="3"/>
     </row>
-    <row r="2258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2258" s="3"/>
-    </row>
-    <row r="2259" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2259" s="3"/>
-    </row>
-    <row r="2260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2260" s="3"/>
+    <row r="2253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2253" s="3"/>
+    </row>
+    <row r="2254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2254" s="3"/>
+    </row>
+    <row r="2255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2255" s="3"/>
     </row>
     <row r="2261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2261" s="3"/>
     </row>
+    <row r="2262" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2262" s="3"/>
+    </row>
     <row r="2263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2263" s="3"/>
     </row>
-    <row r="2265" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2265" s="3"/>
-    </row>
-    <row r="2269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2269" s="3"/>
-    </row>
-    <row r="2270" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2270" s="3"/>
+    <row r="2264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2264" s="3"/>
+    </row>
+    <row r="2266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2266" s="3"/>
+    </row>
+    <row r="2268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2268" s="3"/>
     </row>
     <row r="2272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2272" s="3"/>
     </row>
-    <row r="2277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2277" s="3"/>
-    </row>
-    <row r="2279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2279" s="3"/>
-    </row>
-    <row r="2281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2281" s="3"/>
+    <row r="2273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2273" s="3"/>
+    </row>
+    <row r="2275" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2275" s="3"/>
+    </row>
+    <row r="2280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2280" s="3"/>
     </row>
     <row r="2282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2282" s="3"/>
     </row>
-    <row r="2283" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2283" s="3"/>
-    </row>
-    <row r="2287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2287" s="3"/>
-    </row>
-    <row r="2288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2288" s="3"/>
-    </row>
-    <row r="2289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2289" s="3"/>
-    </row>
-    <row r="2293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2293" s="3"/>
-    </row>
-    <row r="2294" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2294" s="3"/>
+    <row r="2284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2284" s="3"/>
+    </row>
+    <row r="2285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2285" s="3"/>
+    </row>
+    <row r="2286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2286" s="3"/>
+    </row>
+    <row r="2290" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2290" s="3"/>
+    </row>
+    <row r="2291" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2291" s="3"/>
+    </row>
+    <row r="2292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2292" s="3"/>
+    </row>
+    <row r="2296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2296" s="3"/>
     </row>
     <row r="2297" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2297" s="3"/>
@@ -9918,83 +10428,77 @@
     <row r="2300" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2300" s="3"/>
     </row>
-    <row r="2301" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2301" s="3"/>
-    </row>
-    <row r="2302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2302" s="3"/>
+    <row r="2303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2303" s="3"/>
+    </row>
+    <row r="2304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2304" s="3"/>
     </row>
     <row r="2305" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2305" s="3"/>
     </row>
-    <row r="2307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2307" s="3"/>
-    </row>
     <row r="2308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2308" s="3"/>
     </row>
-    <row r="2312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2312" s="3"/>
+    <row r="2310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2310" s="3"/>
+    </row>
+    <row r="2311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2311" s="3"/>
     </row>
     <row r="2315" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2315" s="3"/>
     </row>
-    <row r="2316" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2316" s="3"/>
-    </row>
     <row r="2318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2318" s="3"/>
     </row>
-    <row r="2320" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2320" s="3"/>
-    </row>
-    <row r="2322" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2322" s="3"/>
-    </row>
-    <row r="2330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2330" s="3"/>
-    </row>
-    <row r="2332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2332" s="3"/>
-    </row>
-    <row r="2334" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2334" s="3"/>
+    <row r="2319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2319" s="3"/>
+    </row>
+    <row r="2321" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2321" s="3"/>
+    </row>
+    <row r="2323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2323" s="3"/>
+    </row>
+    <row r="2325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2325" s="3"/>
+    </row>
+    <row r="2333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2333" s="3"/>
     </row>
     <row r="2335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2335" s="3"/>
     </row>
-    <row r="2336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2336" s="3"/>
+    <row r="2337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2337" s="3"/>
     </row>
     <row r="2338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2338" s="3"/>
     </row>
+    <row r="2339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2339" s="3"/>
+    </row>
     <row r="2341" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2341" s="3"/>
     </row>
-    <row r="2343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2343" s="3"/>
-    </row>
     <row r="2344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2344" s="3"/>
     </row>
-    <row r="2345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2345" s="3"/>
-    </row>
     <row r="2346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2346" s="3"/>
     </row>
     <row r="2347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2347" s="3"/>
     </row>
-    <row r="2355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2355" s="3"/>
-    </row>
-    <row r="2356" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2356" s="3"/>
-    </row>
-    <row r="2357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2357" s="3"/>
+    <row r="2348" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2348" s="3"/>
+    </row>
+    <row r="2349" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2349" s="3"/>
+    </row>
+    <row r="2350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2350" s="3"/>
     </row>
     <row r="2358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2358" s="3"/>
@@ -10002,113 +10506,116 @@
     <row r="2359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2359" s="3"/>
     </row>
+    <row r="2360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2360" s="3"/>
+    </row>
     <row r="2361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2361" s="3"/>
     </row>
+    <row r="2362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2362" s="3"/>
+    </row>
     <row r="2364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2364" s="3"/>
     </row>
-    <row r="2365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2365" s="3"/>
-    </row>
-    <row r="2366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2366" s="3"/>
-    </row>
     <row r="2367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2367" s="3"/>
     </row>
     <row r="2368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2368" s="3"/>
     </row>
+    <row r="2369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2369" s="3"/>
+    </row>
+    <row r="2370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2370" s="3"/>
+    </row>
     <row r="2371" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2371" s="3"/>
     </row>
-    <row r="2373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2373" s="3"/>
-    </row>
     <row r="2374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2374" s="3"/>
     </row>
-    <row r="2375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2375" s="3"/>
-    </row>
-    <row r="2379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2379" s="3"/>
-    </row>
-    <row r="2388" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2388" s="3"/>
-    </row>
-    <row r="2392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2392" s="3"/>
+    <row r="2376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2376" s="3"/>
+    </row>
+    <row r="2377" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2377" s="3"/>
+    </row>
+    <row r="2378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2378" s="3"/>
+    </row>
+    <row r="2382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2382" s="3"/>
+    </row>
+    <row r="2391" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2391" s="3"/>
     </row>
     <row r="2395" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2395" s="3"/>
     </row>
-    <row r="2396" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2396" s="3"/>
-    </row>
     <row r="2398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2398" s="3"/>
     </row>
-    <row r="2407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2407" s="3"/>
+    <row r="2399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2399" s="3"/>
+    </row>
+    <row r="2401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2401" s="3"/>
     </row>
     <row r="2410" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2410" s="3"/>
     </row>
-    <row r="2411" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2411" s="3"/>
-    </row>
-    <row r="2412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2412" s="3"/>
+    <row r="2413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2413" s="3"/>
     </row>
     <row r="2414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2414" s="3"/>
     </row>
-    <row r="2420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2420" s="3"/>
-    </row>
-    <row r="2421" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2421" s="3"/>
-    </row>
-    <row r="2426" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2426" s="3"/>
+    <row r="2415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2415" s="3"/>
+    </row>
+    <row r="2417" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2417" s="3"/>
+    </row>
+    <row r="2423" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2423" s="3"/>
+    </row>
+    <row r="2424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2424" s="3"/>
     </row>
     <row r="2429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2429" s="3"/>
     </row>
-    <row r="2430" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2430" s="3"/>
-    </row>
     <row r="2432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2432" s="3"/>
     </row>
+    <row r="2433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2433" s="3"/>
+    </row>
     <row r="2435" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2435" s="3"/>
     </row>
-    <row r="2437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2437" s="3"/>
-    </row>
-    <row r="2439" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2439" s="3"/>
-    </row>
-    <row r="2446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2446" s="3"/>
-    </row>
-    <row r="2447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2447" s="3"/>
+    <row r="2438" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2438" s="3"/>
+    </row>
+    <row r="2440" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2440" s="3"/>
+    </row>
+    <row r="2442" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2442" s="3"/>
     </row>
     <row r="2449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2449" s="3"/>
     </row>
-    <row r="2451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2451" s="3"/>
-    </row>
-    <row r="2455" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2455" s="3"/>
-    </row>
-    <row r="2456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2456" s="3"/>
+    <row r="2450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2450" s="3"/>
+    </row>
+    <row r="2452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2452" s="3"/>
+    </row>
+    <row r="2454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2454" s="3"/>
     </row>
     <row r="2458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2458" s="3"/>
@@ -10122,23 +10629,23 @@
     <row r="2462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2462" s="3"/>
     </row>
-    <row r="2466" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2466" s="3"/>
-    </row>
-    <row r="2468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2468" s="3"/>
+    <row r="2464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2464" s="3"/>
+    </row>
+    <row r="2465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2465" s="3"/>
+    </row>
+    <row r="2469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2469" s="3"/>
     </row>
     <row r="2471" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2471" s="3"/>
     </row>
-    <row r="2478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2478" s="3"/>
-    </row>
-    <row r="2479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2479" s="3"/>
-    </row>
-    <row r="2480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2480" s="3"/>
+    <row r="2474" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2474" s="3"/>
+    </row>
+    <row r="2481" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2481" s="3"/>
     </row>
     <row r="2482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2482" s="3"/>
@@ -10146,17 +10653,14 @@
     <row r="2483" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2483" s="3"/>
     </row>
-    <row r="2488" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2488" s="3"/>
-    </row>
-    <row r="2494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2494" s="3"/>
-    </row>
-    <row r="2495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2495" s="3"/>
-    </row>
-    <row r="2496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2496" s="3"/>
+    <row r="2485" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2485" s="3"/>
+    </row>
+    <row r="2486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2486" s="3"/>
+    </row>
+    <row r="2491" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2491" s="3"/>
     </row>
     <row r="2497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2497" s="3"/>
@@ -10164,83 +10668,89 @@
     <row r="2498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2498" s="3"/>
     </row>
+    <row r="2499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2499" s="3"/>
+    </row>
+    <row r="2500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2500" s="3"/>
+    </row>
     <row r="2501" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2501" s="3"/>
     </row>
     <row r="2504" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2504" s="3"/>
     </row>
-    <row r="2505" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2505" s="3"/>
-    </row>
-    <row r="2506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2506" s="3"/>
-    </row>
     <row r="2507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2507" s="3"/>
     </row>
-    <row r="2513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2513" s="3"/>
-    </row>
-    <row r="2515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2515" s="3"/>
-    </row>
-    <row r="2517" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2517" s="3"/>
-    </row>
-    <row r="2519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2519" s="3"/>
-    </row>
-    <row r="2521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2521" s="3"/>
-    </row>
-    <row r="2523" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2523" s="3"/>
+    <row r="2508" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2508" s="3"/>
+    </row>
+    <row r="2509" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2509" s="3"/>
+    </row>
+    <row r="2510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2510" s="3"/>
+    </row>
+    <row r="2516" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2516" s="3"/>
+    </row>
+    <row r="2518" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2518" s="3"/>
+    </row>
+    <row r="2520" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2520" s="3"/>
+    </row>
+    <row r="2522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2522" s="3"/>
     </row>
     <row r="2524" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2524" s="3"/>
     </row>
-    <row r="2528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2528" s="3"/>
-    </row>
-    <row r="2529" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2529" s="3"/>
+    <row r="2526" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2526" s="3"/>
+    </row>
+    <row r="2527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2527" s="3"/>
     </row>
     <row r="2531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2531" s="3"/>
     </row>
-    <row r="2537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2537" s="3"/>
-    </row>
-    <row r="2538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2538" s="3"/>
-    </row>
-    <row r="2548" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2548" s="3"/>
+    <row r="2532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2532" s="3"/>
+    </row>
+    <row r="2534" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2534" s="3"/>
+    </row>
+    <row r="2540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2540" s="3"/>
+    </row>
+    <row r="2541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2541" s="3"/>
     </row>
     <row r="2551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2551" s="3"/>
     </row>
-    <row r="2552" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2552" s="3"/>
-    </row>
     <row r="2554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2554" s="3"/>
     </row>
+    <row r="2555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2555" s="3"/>
+    </row>
     <row r="2557" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2557" s="3"/>
     </row>
-    <row r="2558" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2558" s="3"/>
-    </row>
-    <row r="2559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2559" s="3"/>
-    </row>
-    <row r="2563" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2563" s="3"/>
-    </row>
-    <row r="2572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2572" s="3"/>
+    <row r="2560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2560" s="3"/>
+    </row>
+    <row r="2561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2561" s="3"/>
+    </row>
+    <row r="2562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2562" s="3"/>
+    </row>
+    <row r="2566" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2566" s="3"/>
     </row>
     <row r="2575" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2575" s="3"/>
@@ -10248,14 +10758,11 @@
     <row r="2578" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2578" s="3"/>
     </row>
-    <row r="2584" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2584" s="3"/>
-    </row>
-    <row r="2590" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2590" s="3"/>
-    </row>
-    <row r="2591" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2591" s="3"/>
+    <row r="2581" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2581" s="3"/>
+    </row>
+    <row r="2587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2587" s="3"/>
     </row>
     <row r="2593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2593" s="3"/>
@@ -10263,128 +10770,128 @@
     <row r="2594" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2594" s="3"/>
     </row>
+    <row r="2596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2596" s="3"/>
+    </row>
     <row r="2597" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2597" s="3"/>
     </row>
-    <row r="2599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2599" s="3"/>
-    </row>
-    <row r="2608" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2608" s="3"/>
-    </row>
-    <row r="2612" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2612" s="3"/>
-    </row>
-    <row r="2616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2616" s="3"/>
+    <row r="2600" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2600" s="3"/>
+    </row>
+    <row r="2602" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2602" s="3"/>
+    </row>
+    <row r="2611" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2611" s="3"/>
+    </row>
+    <row r="2615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2615" s="3"/>
     </row>
     <row r="2619" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2619" s="3"/>
     </row>
-    <row r="2626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2626" s="3"/>
-    </row>
-    <row r="2634" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2634" s="3"/>
-    </row>
-    <row r="2636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2636" s="3"/>
+    <row r="2622" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2622" s="3"/>
+    </row>
+    <row r="2629" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2629" s="3"/>
     </row>
     <row r="2637" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2637" s="3"/>
     </row>
-    <row r="2642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2642" s="3"/>
-    </row>
-    <row r="2643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2643" s="3"/>
-    </row>
-    <row r="2649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2649" s="3"/>
-    </row>
-    <row r="2650" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2650" s="3"/>
-    </row>
-    <row r="2654" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2654" s="3"/>
-    </row>
-    <row r="2655" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2655" s="3"/>
-    </row>
-    <row r="2659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2659" s="3"/>
-    </row>
-    <row r="2666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2666" s="3"/>
-    </row>
-    <row r="2667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2667" s="3"/>
+    <row r="2639" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2639" s="3"/>
+    </row>
+    <row r="2640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2640" s="3"/>
+    </row>
+    <row r="2645" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2645" s="3"/>
+    </row>
+    <row r="2646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2646" s="3"/>
+    </row>
+    <row r="2652" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2652" s="3"/>
+    </row>
+    <row r="2653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2653" s="3"/>
+    </row>
+    <row r="2657" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2657" s="3"/>
+    </row>
+    <row r="2658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2658" s="3"/>
+    </row>
+    <row r="2662" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2662" s="3"/>
     </row>
     <row r="2669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2669" s="3"/>
     </row>
+    <row r="2670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2670" s="3"/>
+    </row>
     <row r="2672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2672" s="3"/>
     </row>
-    <row r="2674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2674" s="3"/>
-    </row>
-    <row r="2676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2676" s="3"/>
-    </row>
-    <row r="2683" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2683" s="3"/>
-    </row>
-    <row r="2684" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2684" s="3"/>
-    </row>
-    <row r="2691" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2691" s="3"/>
-    </row>
-    <row r="2692" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2692" s="3"/>
-    </row>
-    <row r="2697" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2697" s="3"/>
-    </row>
-    <row r="2698" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2698" s="3"/>
-    </row>
-    <row r="2705" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2705" s="3"/>
+    <row r="2675" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2675" s="3"/>
+    </row>
+    <row r="2677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2677" s="3"/>
+    </row>
+    <row r="2679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2679" s="3"/>
+    </row>
+    <row r="2686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2686" s="3"/>
+    </row>
+    <row r="2687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2687" s="3"/>
+    </row>
+    <row r="2694" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2694" s="3"/>
+    </row>
+    <row r="2695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2695" s="3"/>
+    </row>
+    <row r="2700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2700" s="3"/>
+    </row>
+    <row r="2701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2701" s="3"/>
     </row>
     <row r="2708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2708" s="3"/>
     </row>
-    <row r="2710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2710" s="3"/>
-    </row>
-    <row r="2714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2714" s="3"/>
-    </row>
-    <row r="2729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2729" s="3"/>
-    </row>
-    <row r="2730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2730" s="3"/>
+    <row r="2711" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2711" s="3"/>
+    </row>
+    <row r="2713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2713" s="3"/>
+    </row>
+    <row r="2717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2717" s="3"/>
     </row>
     <row r="2732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2732" s="3"/>
     </row>
-    <row r="2736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2736" s="3"/>
-    </row>
-    <row r="2740" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2740" s="3"/>
-    </row>
-    <row r="2742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2742" s="3"/>
+    <row r="2733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2733" s="3"/>
+    </row>
+    <row r="2735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2735" s="3"/>
+    </row>
+    <row r="2739" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2739" s="3"/>
     </row>
     <row r="2743" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2743" s="3"/>
     </row>
-    <row r="2744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2744" s="3"/>
+    <row r="2745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2745" s="3"/>
     </row>
     <row r="2746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2746" s="3"/>
@@ -10392,182 +10899,185 @@
     <row r="2747" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2747" s="3"/>
     </row>
-    <row r="2754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2754" s="3"/>
+    <row r="2749" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2749" s="3"/>
+    </row>
+    <row r="2750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2750" s="3"/>
     </row>
     <row r="2757" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2757" s="3"/>
     </row>
-    <row r="2758" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2758" s="3"/>
-    </row>
-    <row r="2765" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2765" s="3"/>
-    </row>
-    <row r="2773" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2773" s="3"/>
-    </row>
-    <row r="2774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2774" s="3"/>
-    </row>
-    <row r="2782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2782" s="3"/>
-    </row>
-    <row r="2783" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2783" s="3"/>
-    </row>
-    <row r="2790" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2790" s="3"/>
-    </row>
-    <row r="2796" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2796" s="3"/>
-    </row>
-    <row r="2797" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2797" s="3"/>
+    <row r="2760" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2760" s="3"/>
+    </row>
+    <row r="2761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2761" s="3"/>
+    </row>
+    <row r="2768" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2768" s="3"/>
+    </row>
+    <row r="2776" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2776" s="3"/>
+    </row>
+    <row r="2777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2777" s="3"/>
+    </row>
+    <row r="2785" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2785" s="3"/>
+    </row>
+    <row r="2786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2786" s="3"/>
+    </row>
+    <row r="2793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2793" s="3"/>
     </row>
     <row r="2799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2799" s="3"/>
     </row>
-    <row r="2801" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2801" s="3"/>
-    </row>
-    <row r="2803" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2803" s="3"/>
-    </row>
-    <row r="2824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2824" s="3"/>
-    </row>
-    <row r="2828" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2828" s="3"/>
-    </row>
-    <row r="2833" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2833" s="3"/>
-    </row>
-    <row r="2835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2835" s="3"/>
-    </row>
-    <row r="2839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2839" s="3"/>
-    </row>
-    <row r="2846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2846" s="3"/>
-    </row>
-    <row r="2848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2848" s="3"/>
+    <row r="2800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2800" s="3"/>
+    </row>
+    <row r="2802" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2802" s="3"/>
+    </row>
+    <row r="2804" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2804" s="3"/>
+    </row>
+    <row r="2806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2806" s="3"/>
+    </row>
+    <row r="2827" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2827" s="3"/>
+    </row>
+    <row r="2831" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2831" s="3"/>
+    </row>
+    <row r="2836" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2836" s="3"/>
+    </row>
+    <row r="2838" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2838" s="3"/>
+    </row>
+    <row r="2842" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2842" s="3"/>
     </row>
     <row r="2849" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2849" s="3"/>
     </row>
+    <row r="2851" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2851" s="3"/>
+    </row>
     <row r="2852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2852" s="3"/>
     </row>
     <row r="2855" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2855" s="3"/>
     </row>
-    <row r="2857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2857" s="3"/>
-    </row>
-    <row r="2886" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2886" s="3"/>
-    </row>
-    <row r="2893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2893" s="3"/>
-    </row>
-    <row r="2900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2900" s="3"/>
-    </row>
-    <row r="2905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2905" s="3"/>
-    </row>
-    <row r="2906" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2906" s="3"/>
-    </row>
-    <row r="2911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2911" s="3"/>
+    <row r="2858" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2858" s="3"/>
+    </row>
+    <row r="2860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2860" s="3"/>
+    </row>
+    <row r="2889" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2889" s="3"/>
+    </row>
+    <row r="2896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2896" s="3"/>
+    </row>
+    <row r="2903" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2903" s="3"/>
+    </row>
+    <row r="2908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2908" s="3"/>
+    </row>
+    <row r="2909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2909" s="3"/>
     </row>
     <row r="2914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2914" s="3"/>
     </row>
-    <row r="2919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2919" s="3"/>
-    </row>
-    <row r="2921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2921" s="3"/>
+    <row r="2917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2917" s="3"/>
     </row>
     <row r="2922" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2922" s="3"/>
     </row>
-    <row r="2932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2932" s="3"/>
-    </row>
-    <row r="2933" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2933" s="3"/>
-    </row>
-    <row r="2943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2943" s="3"/>
-    </row>
-    <row r="2944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2944" s="3"/>
-    </row>
-    <row r="2959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2959" s="3"/>
-    </row>
-    <row r="2960" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2960" s="3"/>
-    </row>
-    <row r="2968" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2968" s="3"/>
-    </row>
-    <row r="2969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2969" s="3"/>
-    </row>
-    <row r="2975" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2975" s="3"/>
-    </row>
-    <row r="2979" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2979" s="3"/>
-    </row>
-    <row r="2984" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2984" s="3"/>
-    </row>
-    <row r="2993" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2993" s="3"/>
-    </row>
-    <row r="2994" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2994" s="3"/>
+    <row r="2924" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2924" s="3"/>
+    </row>
+    <row r="2925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2925" s="3"/>
+    </row>
+    <row r="2935" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2935" s="3"/>
+    </row>
+    <row r="2936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2936" s="3"/>
+    </row>
+    <row r="2946" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2946" s="3"/>
+    </row>
+    <row r="2947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2947" s="3"/>
+    </row>
+    <row r="2962" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2962" s="3"/>
+    </row>
+    <row r="2963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2963" s="3"/>
+    </row>
+    <row r="2971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2971" s="3"/>
+    </row>
+    <row r="2972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2972" s="3"/>
+    </row>
+    <row r="2978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2978" s="3"/>
+    </row>
+    <row r="2982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2982" s="3"/>
+    </row>
+    <row r="2987" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2987" s="3"/>
     </row>
     <row r="2996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2996" s="3"/>
     </row>
-    <row r="3014" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3014" s="3"/>
+    <row r="2997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2997" s="3"/>
+    </row>
+    <row r="2999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2999" s="3"/>
     </row>
     <row r="3017" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3017" s="3"/>
     </row>
-    <row r="3018" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3018" s="3"/>
+    <row r="3020" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3020" s="3"/>
     </row>
     <row r="3021" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3021" s="3"/>
     </row>
-    <row r="3040" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3040" s="3"/>
-    </row>
-    <row r="3047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3047" s="3"/>
+    <row r="3024" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3024" s="3"/>
+    </row>
+    <row r="3043" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3043" s="3"/>
     </row>
     <row r="3050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3050" s="3"/>
     </row>
-    <row r="3056" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3056" s="3"/>
+    <row r="3053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3053" s="3"/>
     </row>
     <row r="3059" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3059" s="3"/>
     </row>
-    <row r="3066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3066" s="3"/>
+    <row r="3062" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3062" s="3"/>
     </row>
     <row r="3069" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3069" s="3"/>
@@ -10575,134 +11085,134 @@
     <row r="3072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3072" s="3"/>
     </row>
-    <row r="3073" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3073" s="3"/>
-    </row>
-    <row r="3089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3089" s="3"/>
-    </row>
-    <row r="3117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3117" s="3"/>
-    </row>
-    <row r="3122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3122" s="3"/>
-    </row>
-    <row r="3126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3126" s="3"/>
-    </row>
-    <row r="3137" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3137" s="3"/>
-    </row>
-    <row r="3153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3153" s="3"/>
-    </row>
-    <row r="3157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3157" s="3"/>
-    </row>
-    <row r="3161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3161" s="3"/>
+    <row r="3075" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3075" s="3"/>
+    </row>
+    <row r="3076" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3076" s="3"/>
+    </row>
+    <row r="3092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3092" s="3"/>
+    </row>
+    <row r="3120" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3120" s="3"/>
+    </row>
+    <row r="3125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3125" s="3"/>
+    </row>
+    <row r="3129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3129" s="3"/>
+    </row>
+    <row r="3140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3140" s="3"/>
+    </row>
+    <row r="3156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3156" s="3"/>
+    </row>
+    <row r="3160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3160" s="3"/>
     </row>
     <row r="3164" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3164" s="3"/>
     </row>
-    <row r="3176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3176" s="3"/>
-    </row>
-    <row r="3180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3180" s="3"/>
-    </row>
-    <row r="3185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3185" s="3"/>
+    <row r="3167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3167" s="3"/>
+    </row>
+    <row r="3179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3179" s="3"/>
+    </row>
+    <row r="3183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3183" s="3"/>
     </row>
     <row r="3188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3188" s="3"/>
     </row>
-    <row r="3193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3193" s="3"/>
+    <row r="3191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3191" s="3"/>
     </row>
     <row r="3196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3196" s="3"/>
     </row>
-    <row r="3200" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3200" s="3"/>
-    </row>
-    <row r="3214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3214" s="3"/>
-    </row>
-    <row r="3215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3215" s="3"/>
-    </row>
-    <row r="3224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3224" s="3"/>
-    </row>
-    <row r="3225" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3225" s="3"/>
-    </row>
-    <row r="3235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3235" s="3"/>
-    </row>
-    <row r="3237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3237" s="3"/>
-    </row>
-    <row r="3246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3246" s="3"/>
-    </row>
-    <row r="3282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3282" s="3"/>
-    </row>
-    <row r="3293" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3293" s="3"/>
-    </row>
-    <row r="3300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3300" s="3"/>
-    </row>
-    <row r="3302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3302" s="3"/>
-    </row>
-    <row r="3327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3327" s="3"/>
-    </row>
-    <row r="3341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3341" s="3"/>
-    </row>
-    <row r="3348" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3348" s="3"/>
-    </row>
-    <row r="3355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3355" s="3"/>
+    <row r="3199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3199" s="3"/>
+    </row>
+    <row r="3203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3203" s="3"/>
+    </row>
+    <row r="3217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3217" s="3"/>
+    </row>
+    <row r="3218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3218" s="3"/>
+    </row>
+    <row r="3227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3227" s="3"/>
+    </row>
+    <row r="3228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3228" s="3"/>
+    </row>
+    <row r="3238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3238" s="3"/>
+    </row>
+    <row r="3240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3240" s="3"/>
+    </row>
+    <row r="3249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3249" s="3"/>
+    </row>
+    <row r="3285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3285" s="3"/>
+    </row>
+    <row r="3296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3296" s="3"/>
+    </row>
+    <row r="3303" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3303" s="3"/>
+    </row>
+    <row r="3305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3305" s="3"/>
+    </row>
+    <row r="3330" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3330" s="3"/>
+    </row>
+    <row r="3344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3344" s="3"/>
+    </row>
+    <row r="3351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3351" s="3"/>
     </row>
     <row r="3358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3358" s="3"/>
     </row>
-    <row r="3365" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3365" s="3"/>
-    </row>
-    <row r="3377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3377" s="3"/>
-    </row>
-    <row r="3391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3391" s="3"/>
-    </row>
-    <row r="3392" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3392" s="3"/>
-    </row>
-    <row r="3399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3399" s="3"/>
-    </row>
-    <row r="3407" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3407" s="3"/>
-    </row>
-    <row r="3409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3409" s="3"/>
-    </row>
-    <row r="3441" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3441" s="3"/>
+    <row r="3361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3361" s="3"/>
+    </row>
+    <row r="3368" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3368" s="3"/>
+    </row>
+    <row r="3380" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3380" s="3"/>
+    </row>
+    <row r="3394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3394" s="3"/>
+    </row>
+    <row r="3395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3395" s="3"/>
+    </row>
+    <row r="3402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3402" s="3"/>
+    </row>
+    <row r="3410" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3410" s="3"/>
+    </row>
+    <row r="3412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3412" s="3"/>
     </row>
     <row r="3444" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3444" s="3"/>
     </row>
-    <row r="3448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3448" s="3"/>
+    <row r="3447" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3447" s="3"/>
     </row>
     <row r="3451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3451" s="3"/>
@@ -10710,188 +11220,191 @@
     <row r="3454" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3454" s="3"/>
     </row>
-    <row r="3460" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3460" s="3"/>
-    </row>
-    <row r="3467" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3467" s="3"/>
-    </row>
-    <row r="3468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3468" s="3"/>
-    </row>
-    <row r="3473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3473" s="3"/>
-    </row>
-    <row r="3475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3475" s="3"/>
+    <row r="3457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3457" s="3"/>
+    </row>
+    <row r="3463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3463" s="3"/>
+    </row>
+    <row r="3470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3470" s="3"/>
+    </row>
+    <row r="3471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3471" s="3"/>
     </row>
     <row r="3476" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3476" s="3"/>
     </row>
-    <row r="3492" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3492" s="3"/>
-    </row>
-    <row r="3493" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3493" s="3"/>
-    </row>
-    <row r="3497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3497" s="3"/>
-    </row>
-    <row r="3510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3510" s="3"/>
-    </row>
-    <row r="3528" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3528" s="3"/>
-    </row>
-    <row r="3535" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3535" s="3"/>
-    </row>
-    <row r="3572" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3572" s="3"/>
-    </row>
-    <row r="3585" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3585" s="3"/>
-    </row>
-    <row r="3593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3593" s="3"/>
-    </row>
-    <row r="3601" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3601" s="3"/>
-    </row>
-    <row r="3602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3602" s="3"/>
-    </row>
-    <row r="3623" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3623" s="3"/>
-    </row>
-    <row r="3663" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3663" s="3"/>
-    </row>
-    <row r="3669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3669" s="3"/>
-    </row>
-    <row r="3677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3677" s="3"/>
-    </row>
-    <row r="3699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3699" s="3"/>
-    </row>
-    <row r="3720" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3720" s="3"/>
-    </row>
-    <row r="3726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3726" s="3"/>
-    </row>
-    <row r="3727" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3727" s="3"/>
-    </row>
-    <row r="3733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3733" s="3"/>
-    </row>
-    <row r="3741" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3741" s="3"/>
-    </row>
-    <row r="3752" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3752" s="3"/>
-    </row>
-    <row r="3789" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3789" s="3"/>
-    </row>
-    <row r="3821" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3821" s="3"/>
-    </row>
-    <row r="3841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3841" s="3"/>
-    </row>
-    <row r="3863" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3863" s="3"/>
-    </row>
-    <row r="3873" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3873" s="3"/>
-    </row>
-    <row r="3879" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3879" s="3"/>
-    </row>
-    <row r="3888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3888" s="3"/>
-    </row>
-    <row r="3890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3890" s="3"/>
+    <row r="3478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3478" s="3"/>
+    </row>
+    <row r="3479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3479" s="3"/>
+    </row>
+    <row r="3495" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3495" s="3"/>
+    </row>
+    <row r="3496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3496" s="3"/>
+    </row>
+    <row r="3500" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3500" s="3"/>
+    </row>
+    <row r="3513" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3513" s="3"/>
+    </row>
+    <row r="3531" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3531" s="3"/>
+    </row>
+    <row r="3538" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3538" s="3"/>
+    </row>
+    <row r="3575" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3575" s="3"/>
+    </row>
+    <row r="3588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3588" s="3"/>
+    </row>
+    <row r="3596" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3596" s="3"/>
+    </row>
+    <row r="3604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3604" s="3"/>
+    </row>
+    <row r="3605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3605" s="3"/>
+    </row>
+    <row r="3626" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3626" s="3"/>
+    </row>
+    <row r="3666" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3666" s="3"/>
+    </row>
+    <row r="3672" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3672" s="3"/>
+    </row>
+    <row r="3680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3680" s="3"/>
+    </row>
+    <row r="3702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3702" s="3"/>
+    </row>
+    <row r="3723" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3723" s="3"/>
+    </row>
+    <row r="3729" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3729" s="3"/>
+    </row>
+    <row r="3730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3730" s="3"/>
+    </row>
+    <row r="3736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3736" s="3"/>
+    </row>
+    <row r="3744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3744" s="3"/>
+    </row>
+    <row r="3755" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3755" s="3"/>
+    </row>
+    <row r="3792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3792" s="3"/>
+    </row>
+    <row r="3824" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3824" s="3"/>
+    </row>
+    <row r="3844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3844" s="3"/>
+    </row>
+    <row r="3866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3866" s="3"/>
+    </row>
+    <row r="3876" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3876" s="3"/>
+    </row>
+    <row r="3882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3882" s="3"/>
+    </row>
+    <row r="3891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3891" s="3"/>
     </row>
     <row r="3893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3893" s="3"/>
     </row>
-    <row r="3916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3916" s="3"/>
-    </row>
-    <row r="3917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3917" s="3"/>
-    </row>
-    <row r="3941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3941" s="3"/>
-    </row>
-    <row r="3995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3995" s="3"/>
-    </row>
-    <row r="4004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4004" s="3"/>
-    </row>
-    <row r="4028" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4028" s="3"/>
-    </row>
-    <row r="4085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4085" s="3"/>
-    </row>
-    <row r="4086" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4086" s="3"/>
-    </row>
-    <row r="4099" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4099" s="3"/>
-    </row>
-    <row r="4160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4160" s="3"/>
-    </row>
-    <row r="4185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4185" s="3"/>
-    </row>
-    <row r="4201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4201" s="3"/>
-    </row>
-    <row r="4212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4212" s="3"/>
-    </row>
-    <row r="4233" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4233" s="3"/>
-    </row>
-    <row r="4264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4264" s="3"/>
-    </row>
-    <row r="4310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4310" s="3"/>
-    </row>
-    <row r="4330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4330" s="3"/>
-    </row>
-    <row r="4657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4657" s="3"/>
-    </row>
-    <row r="4868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4868" s="3"/>
-    </row>
-    <row r="5002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5002" s="3"/>
-    </row>
-    <row r="5148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5148" s="3"/>
-    </row>
-    <row r="5297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5297" s="3"/>
-    </row>
-    <row r="5417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5417" s="3"/>
-    </row>
-    <row r="5519" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5519" s="3"/>
+    <row r="3896" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3896" s="3"/>
+    </row>
+    <row r="3919" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3919" s="3"/>
+    </row>
+    <row r="3920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3920" s="3"/>
+    </row>
+    <row r="3944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3944" s="3"/>
+    </row>
+    <row r="3998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3998" s="3"/>
+    </row>
+    <row r="4007" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4007" s="3"/>
+    </row>
+    <row r="4031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4031" s="3"/>
+    </row>
+    <row r="4088" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4088" s="3"/>
+    </row>
+    <row r="4089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4089" s="3"/>
+    </row>
+    <row r="4102" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4102" s="3"/>
+    </row>
+    <row r="4163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4163" s="3"/>
+    </row>
+    <row r="4188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4188" s="3"/>
+    </row>
+    <row r="4204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4204" s="3"/>
+    </row>
+    <row r="4215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4215" s="3"/>
+    </row>
+    <row r="4236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4236" s="3"/>
+    </row>
+    <row r="4267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4267" s="3"/>
+    </row>
+    <row r="4313" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4313" s="3"/>
+    </row>
+    <row r="4333" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4333" s="3"/>
+    </row>
+    <row r="4660" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4660" s="3"/>
+    </row>
+    <row r="4871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4871" s="3"/>
+    </row>
+    <row r="5005" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5005" s="3"/>
+    </row>
+    <row r="5151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5151" s="3"/>
+    </row>
+    <row r="5300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5300" s="3"/>
+    </row>
+    <row r="5420" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5420" s="3"/>
+    </row>
+    <row r="5522" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5522" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -10901,31 +11414,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:U102"/>
+  <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K42" sqref="K42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="7" max="8" width="15.140625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="15" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>1</v>
-      </c>
+    <row r="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="G1" t="s">
         <v>29</v>
       </c>
@@ -10959,270 +11461,190 @@
       <c r="U1" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="2" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>295</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>69.010000000000005</v>
       </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2">
-        <v>70.010000000000005</v>
-      </c>
-      <c r="G2">
-        <v>0.02</v>
-      </c>
-      <c r="H2">
-        <v>2E-3</v>
-      </c>
-      <c r="I2">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K2">
-        <v>0.1</v>
-      </c>
-      <c r="L2">
+      <c r="C3">
         <v>0.3</v>
       </c>
-      <c r="N2">
+      <c r="D3" s="8">
+        <f>B3+C3</f>
+        <v>69.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>290</v>
+      </c>
+      <c r="B4">
+        <v>68.83</v>
+      </c>
+      <c r="C4">
         <v>0.3</v>
       </c>
-      <c r="O2">
-        <v>0.5</v>
-      </c>
-      <c r="Q2">
-        <v>0.5</v>
-      </c>
-      <c r="R2">
-        <v>0.7</v>
-      </c>
-      <c r="T2">
-        <v>0.2</v>
-      </c>
-      <c r="U2">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>290</v>
-      </c>
-      <c r="B3">
-        <v>68.83</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>69.83</v>
-      </c>
-      <c r="G3">
-        <v>0.02</v>
-      </c>
-      <c r="H3">
-        <v>2E-3</v>
-      </c>
-      <c r="I3">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K3">
-        <v>0.1</v>
-      </c>
-      <c r="L3">
-        <v>0.3</v>
-      </c>
-      <c r="N3">
-        <v>0.3</v>
-      </c>
-      <c r="O3">
-        <v>0.5</v>
-      </c>
-      <c r="Q3">
-        <v>0.5</v>
-      </c>
-      <c r="R3">
-        <v>0.7</v>
-      </c>
-      <c r="T3">
-        <v>0.2</v>
-      </c>
-      <c r="U3">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>285</v>
-      </c>
-      <c r="B4">
-        <v>68.650000000000006</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>69.650000000000006</v>
+      <c r="D4" s="8">
+        <f t="shared" ref="D4:D7" si="0">B4+C4</f>
+        <v>69.13</v>
       </c>
       <c r="G4">
-        <v>0.02</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H4">
         <v>2E-3</v>
       </c>
       <c r="I4">
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="K4">
-        <v>0.1</v>
-      </c>
-      <c r="L4">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>285</v>
+      </c>
+      <c r="B5">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="C5">
         <v>0.3</v>
       </c>
-      <c r="N4">
+      <c r="D5" s="8">
+        <f t="shared" si="0"/>
+        <v>68.95</v>
+      </c>
+      <c r="G5">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H5">
+        <v>2E-3</v>
+      </c>
+      <c r="I5">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>280</v>
+      </c>
+      <c r="B6" s="8">
+        <v>68.475651999999997</v>
+      </c>
+      <c r="C6">
         <v>0.3</v>
       </c>
-      <c r="O4">
-        <v>0.5</v>
-      </c>
-      <c r="Q4">
-        <v>0.5</v>
-      </c>
-      <c r="R4">
-        <v>0.7</v>
-      </c>
-      <c r="T4">
-        <v>0.2</v>
-      </c>
-      <c r="U4">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>280</v>
-      </c>
-      <c r="B5" s="8">
-        <v>68.475651999999997</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5" s="8">
-        <f>B5+C5</f>
-        <v>69.475651999999997</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>275</v>
-      </c>
-      <c r="B6">
-        <v>68.3</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>69.3</v>
+      <c r="D6" s="8">
+        <f>B6+C6</f>
+        <v>68.775651999999994</v>
       </c>
       <c r="G6">
-        <v>0.02</v>
+        <v>7.0000000000000001E-3</v>
       </c>
       <c r="H6">
         <v>2E-3</v>
       </c>
       <c r="I6">
-        <v>4.0000000000000002E-4</v>
+        <v>2.0000000000000001E-4</v>
       </c>
       <c r="K6">
-        <v>0.1</v>
+        <v>0.02</v>
       </c>
       <c r="L6">
+        <v>0.105</v>
+      </c>
+      <c r="N6">
+        <v>0.105</v>
+      </c>
+      <c r="O6">
+        <v>0.17</v>
+      </c>
+      <c r="T6">
+        <v>4.4999999999999998E-2</v>
+      </c>
+      <c r="U6">
+        <v>0.105</v>
+      </c>
+      <c r="X6">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>275</v>
+      </c>
+      <c r="B7">
+        <v>68.3</v>
+      </c>
+      <c r="C7">
         <v>0.3</v>
       </c>
-      <c r="N6">
-        <v>0.3</v>
-      </c>
-      <c r="O6">
-        <v>0.5</v>
-      </c>
-      <c r="Q6">
-        <v>0.5</v>
-      </c>
-      <c r="R6">
-        <v>0.7</v>
-      </c>
-      <c r="T6">
-        <v>0.2</v>
-      </c>
-      <c r="U6">
-        <v>0.47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="D7" s="8">
+        <f t="shared" si="0"/>
+        <v>68.599999999999994</v>
+      </c>
+      <c r="G7" s="9">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H7" s="9">
+        <v>2E-3</v>
+      </c>
+      <c r="I7" s="9">
+        <v>2.0000000000000001E-4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>0</v>
       </c>
-      <c r="C8" t="s">
+      <c r="C9" t="s">
         <v>2</v>
       </c>
-      <c r="D8" t="s">
+      <c r="D9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A9">
+    <row r="10" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A10">
         <v>295</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>69.010000000000005</v>
-      </c>
-      <c r="C9">
-        <v>0.5</v>
-      </c>
-      <c r="D9" s="8">
-        <v>69.512365500000001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>290</v>
-      </c>
-      <c r="B10">
-        <v>68.83</v>
       </c>
       <c r="C10">
         <v>0.5</v>
       </c>
       <c r="D10" s="8">
-        <v>69.333461</v>
-      </c>
-      <c r="G10">
-        <v>8.0000000000000002E-3</v>
-      </c>
-      <c r="H10">
-        <v>2E-3</v>
-      </c>
-      <c r="I10">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+        <v>69.512365500000001</v>
+      </c>
+    </row>
+    <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B11">
-        <v>68.650000000000006</v>
+        <v>68.83</v>
       </c>
       <c r="C11">
         <v>0.5</v>
       </c>
       <c r="D11" s="8">
-        <v>69.154556499999998</v>
+        <v>69.333461</v>
       </c>
       <c r="G11">
         <v>8.0000000000000002E-3</v>
@@ -11234,33 +11656,42 @@
         <v>2.9999999999999997E-4</v>
       </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>280</v>
-      </c>
-      <c r="B12" s="8">
-        <v>68.475651999999997</v>
+        <v>285</v>
+      </c>
+      <c r="B12">
+        <v>68.650000000000006</v>
       </c>
       <c r="C12">
         <v>0.5</v>
       </c>
       <c r="D12" s="8">
-        <f>B12+C12</f>
-        <v>68.975651999999997</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+        <v>69.154556499999998</v>
+      </c>
+      <c r="G12">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H12">
+        <v>2E-3</v>
+      </c>
+      <c r="I12">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>275</v>
-      </c>
-      <c r="B13">
-        <v>68.3</v>
+        <v>280</v>
+      </c>
+      <c r="B13" s="8">
+        <v>68.475651999999997</v>
       </c>
       <c r="C13">
         <v>0.5</v>
       </c>
       <c r="D13" s="8">
-        <v>68.796747499999995</v>
+        <f>B13+C13</f>
+        <v>68.975651999999997</v>
       </c>
       <c r="G13">
         <v>8.0000000000000002E-3</v>
@@ -11271,339 +11702,530 @@
       <c r="I13">
         <v>2.9999999999999997E-4</v>
       </c>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
+      <c r="X13">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>275</v>
+      </c>
+      <c r="B14">
+        <v>68.3</v>
+      </c>
+      <c r="C14">
+        <v>0.5</v>
+      </c>
+      <c r="D14" s="8">
+        <v>68.796747499999995</v>
+      </c>
+      <c r="G14">
+        <v>8.0000000000000002E-3</v>
+      </c>
+      <c r="H14">
+        <v>2E-3</v>
+      </c>
+      <c r="I14">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>0</v>
       </c>
-      <c r="C15" t="s">
+      <c r="C16" t="s">
         <v>2</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D16" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16">
+    <row r="17" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A17">
         <v>295</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>69.010000000000005</v>
       </c>
-      <c r="C16">
-        <v>0.3</v>
-      </c>
-      <c r="D16" s="8">
-        <f>B16+C16</f>
-        <v>69.31</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17">
+      <c r="C17">
+        <v>0.8</v>
+      </c>
+      <c r="D17" s="8">
+        <f>B17+C17</f>
+        <v>69.81</v>
+      </c>
+    </row>
+    <row r="18" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A18">
         <v>290</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>68.83</v>
       </c>
-      <c r="C17">
-        <v>0.3</v>
-      </c>
-      <c r="D17" s="8">
-        <f t="shared" ref="D17:D20" si="0">B17+C17</f>
-        <v>69.13</v>
-      </c>
-      <c r="G17">
+      <c r="C18">
+        <v>0.8</v>
+      </c>
+      <c r="D18" s="8">
+        <f t="shared" ref="D18" si="1">B18+C18</f>
+        <v>69.63</v>
+      </c>
+      <c r="G18" s="9">
         <v>7.0000000000000001E-3</v>
       </c>
-      <c r="H17">
+      <c r="H18" s="9">
         <v>2E-3</v>
       </c>
-      <c r="I17">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18">
+      <c r="I18" s="9">
+        <v>2.9999999999999997E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A19">
         <v>285</v>
       </c>
-      <c r="B18">
+      <c r="B19">
         <v>68.650000000000006</v>
       </c>
-      <c r="C18">
-        <v>0.3</v>
-      </c>
-      <c r="D18" s="8">
-        <f t="shared" si="0"/>
-        <v>68.95</v>
-      </c>
-      <c r="G18">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H18">
-        <v>2E-3</v>
-      </c>
-      <c r="I18">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>280</v>
-      </c>
-      <c r="B19" s="8">
-        <v>68.475651999999997</v>
-      </c>
       <c r="C19">
-        <v>0.3</v>
+        <v>0.8</v>
       </c>
       <c r="D19" s="8">
         <f>B19+C19</f>
-        <v>68.775651999999994</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+        <v>69.45</v>
+      </c>
+      <c r="G19">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H19">
+        <v>2E-3</v>
+      </c>
+      <c r="I19">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J19" s="10"/>
+    </row>
+    <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20">
+        <v>280</v>
+      </c>
+      <c r="B20" s="8">
+        <v>68.475651999999997</v>
+      </c>
+      <c r="C20">
+        <v>0.8</v>
+      </c>
+      <c r="D20" s="8">
+        <f>B20+C20</f>
+        <v>69.275651999999994</v>
+      </c>
+      <c r="G20">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H20">
+        <v>2E-3</v>
+      </c>
+      <c r="I20">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J20" s="10"/>
+      <c r="K20">
+        <v>0.12</v>
+      </c>
+      <c r="L20">
+        <v>0.21</v>
+      </c>
+      <c r="N20">
+        <v>0.25</v>
+      </c>
+      <c r="O20">
+        <v>0.42</v>
+      </c>
+      <c r="Q20">
+        <v>0.43</v>
+      </c>
+      <c r="R20">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="T20">
+        <v>0.2</v>
+      </c>
+      <c r="U20">
+        <v>0.38</v>
+      </c>
+      <c r="X20">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A21">
         <v>275</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>68.3</v>
       </c>
-      <c r="C20">
+      <c r="C21">
+        <v>0.8</v>
+      </c>
+      <c r="D21" s="8">
+        <f>B21+C21</f>
+        <v>69.099999999999994</v>
+      </c>
+      <c r="G21">
+        <v>7.0000000000000001E-3</v>
+      </c>
+      <c r="H21">
+        <v>2E-3</v>
+      </c>
+      <c r="I21">
+        <v>2.9999999999999997E-4</v>
+      </c>
+      <c r="J21" s="10"/>
+    </row>
+    <row r="22" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="J22" s="10"/>
+    </row>
+    <row r="23" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A23" s="3"/>
+      <c r="B23" s="3"/>
+      <c r="J23" s="10"/>
+    </row>
+    <row r="24" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>40</v>
+      </c>
+      <c r="C24" t="s">
+        <v>2</v>
+      </c>
+      <c r="D24" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>295</v>
+      </c>
+      <c r="B25">
+        <v>69.010000000000005</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+      <c r="D25">
+        <v>70.010000000000005</v>
+      </c>
+      <c r="G25">
+        <v>0.02</v>
+      </c>
+      <c r="H25">
+        <v>2E-3</v>
+      </c>
+      <c r="I25">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K25">
+        <v>0.1</v>
+      </c>
+      <c r="L25">
         <v>0.3</v>
       </c>
-      <c r="D20" s="8">
-        <f t="shared" si="0"/>
-        <v>68.599999999999994</v>
-      </c>
-      <c r="G20" s="9">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H20" s="9">
-        <v>2E-3</v>
-      </c>
-      <c r="I20" s="9">
-        <v>2.0000000000000001E-4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A22" s="3"/>
-      <c r="B22" s="3"/>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s">
-        <v>2</v>
-      </c>
-      <c r="D23" t="s">
+      <c r="N25">
+        <v>0.3</v>
+      </c>
+      <c r="O25">
+        <v>0.5</v>
+      </c>
+      <c r="Q25">
+        <v>0.5</v>
+      </c>
+      <c r="R25">
+        <v>0.7</v>
+      </c>
+      <c r="T25">
+        <v>0.2</v>
+      </c>
+      <c r="U25">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="26" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>290</v>
+      </c>
+      <c r="B26">
+        <v>68.83</v>
+      </c>
+      <c r="C26">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>295</v>
-      </c>
-      <c r="B24">
-        <v>69.010000000000005</v>
-      </c>
-      <c r="C24">
-        <v>0.8</v>
-      </c>
-      <c r="D24" s="8">
-        <f>B24+C24</f>
-        <v>69.81</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>290</v>
-      </c>
-      <c r="B25">
-        <v>68.83</v>
-      </c>
-      <c r="C25">
-        <v>0.8</v>
-      </c>
-      <c r="D25" s="8">
-        <f t="shared" ref="D25" si="1">B25+C25</f>
-        <v>69.63</v>
-      </c>
-      <c r="G25" s="9">
-        <v>7.0000000000000001E-3</v>
-      </c>
-      <c r="H25" s="9">
-        <v>2E-3</v>
-      </c>
-      <c r="I25" s="9">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>285</v>
-      </c>
-      <c r="B26">
-        <v>68.650000000000006</v>
-      </c>
-      <c r="C26">
-        <v>0.8</v>
-      </c>
-      <c r="D26" s="8">
-        <f>B26+C26</f>
-        <v>69.45</v>
+      <c r="D26">
+        <v>69.83</v>
       </c>
       <c r="G26">
-        <v>7.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="H26">
         <v>2E-3</v>
       </c>
       <c r="I26">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K26">
+        <v>0.1</v>
+      </c>
+      <c r="L26">
+        <v>0.3</v>
+      </c>
+      <c r="N26">
+        <v>0.3</v>
+      </c>
+      <c r="O26">
+        <v>0.5</v>
+      </c>
+      <c r="Q26">
+        <v>0.5</v>
+      </c>
+      <c r="R26">
+        <v>0.7</v>
+      </c>
+      <c r="T26">
+        <v>0.2</v>
+      </c>
+      <c r="U26">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="27" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A27">
+        <v>285</v>
+      </c>
+      <c r="B27">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="G27">
+        <v>0.02</v>
+      </c>
+      <c r="H27">
+        <v>2E-3</v>
+      </c>
+      <c r="I27">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K27">
+        <v>0.1</v>
+      </c>
+      <c r="L27">
+        <v>0.3</v>
+      </c>
+      <c r="N27">
+        <v>0.3</v>
+      </c>
+      <c r="O27">
+        <v>0.5</v>
+      </c>
+      <c r="Q27">
+        <v>0.5</v>
+      </c>
+      <c r="R27">
+        <v>0.7</v>
+      </c>
+      <c r="T27">
+        <v>0.2</v>
+      </c>
+      <c r="U27">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A28">
         <v>280</v>
       </c>
-      <c r="B27" s="8">
+      <c r="B28" s="8">
         <v>68.475651999999997</v>
       </c>
-      <c r="C27">
-        <v>0.8</v>
-      </c>
-      <c r="D27" s="8">
-        <f>B27+C27</f>
-        <v>69.275651999999994</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>275</v>
-      </c>
-      <c r="B28">
-        <v>68.3</v>
-      </c>
       <c r="C28">
-        <v>0.8</v>
+        <v>1</v>
       </c>
       <c r="D28" s="8">
         <f>B28+C28</f>
-        <v>69.099999999999994</v>
+        <v>69.475651999999997</v>
       </c>
       <c r="G28">
-        <v>7.0000000000000001E-3</v>
+        <v>0.02</v>
       </c>
       <c r="H28">
         <v>2E-3</v>
       </c>
       <c r="I28">
-        <v>2.9999999999999997E-4</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K28">
+        <v>0.1</v>
+      </c>
+      <c r="L28">
+        <v>0.3</v>
+      </c>
+      <c r="N28">
+        <v>0.3</v>
+      </c>
+      <c r="O28">
+        <v>0.5</v>
+      </c>
+      <c r="Q28">
+        <v>0.5</v>
+      </c>
+      <c r="R28">
+        <v>0.7</v>
+      </c>
+      <c r="T28">
+        <v>0.2</v>
+      </c>
+      <c r="U28">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>275</v>
+      </c>
+      <c r="B29">
+        <v>68.3</v>
+      </c>
+      <c r="C29">
+        <v>1</v>
+      </c>
+      <c r="D29">
+        <v>69.3</v>
+      </c>
+      <c r="G29">
+        <v>0.02</v>
+      </c>
+      <c r="H29">
+        <v>2E-3</v>
+      </c>
+      <c r="I29">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="K29">
+        <v>0.1</v>
+      </c>
+      <c r="L29">
+        <v>0.3</v>
+      </c>
+      <c r="N29">
+        <v>0.3</v>
+      </c>
+      <c r="O29">
+        <v>0.5</v>
+      </c>
+      <c r="Q29">
+        <v>0.5</v>
+      </c>
+      <c r="R29">
+        <v>0.7</v>
+      </c>
+      <c r="T29">
+        <v>0.2</v>
+      </c>
+      <c r="U29">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="31" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
         <v>0</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C31" t="s">
         <v>2</v>
       </c>
-      <c r="D30" t="s">
+      <c r="D31" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A31">
+    <row r="32" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A32">
         <v>295</v>
       </c>
-      <c r="B31">
+      <c r="B32">
         <v>69.010000000000005</v>
-      </c>
-      <c r="C31">
-        <v>1.3</v>
-      </c>
-      <c r="D31" s="8">
-        <f>B31+C31</f>
-        <v>70.31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>290</v>
-      </c>
-      <c r="B32">
-        <v>68.83</v>
       </c>
       <c r="C32">
         <v>1.3</v>
       </c>
       <c r="D32" s="8">
-        <f t="shared" ref="D32:D33" si="2">B32+C32</f>
-        <v>70.13</v>
-      </c>
-      <c r="G32">
-        <v>0.01</v>
-      </c>
-      <c r="H32">
-        <v>2E-3</v>
-      </c>
-      <c r="I32">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+        <f>B32+C32</f>
+        <v>70.31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A33">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B33">
-        <v>68.650000000000006</v>
+        <v>68.83</v>
       </c>
       <c r="C33">
         <v>1.3</v>
       </c>
       <c r="D33" s="8">
+        <f t="shared" ref="D33:D34" si="2">B33+C33</f>
+        <v>70.13</v>
+      </c>
+      <c r="G33">
+        <v>0.01</v>
+      </c>
+      <c r="H33">
+        <v>2E-3</v>
+      </c>
+      <c r="I33">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>285</v>
+      </c>
+      <c r="B34">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="C34">
+        <v>1.3</v>
+      </c>
+      <c r="D34" s="8">
         <f t="shared" si="2"/>
         <v>69.95</v>
       </c>
-      <c r="G33">
+      <c r="G34">
         <v>0.01</v>
       </c>
-      <c r="H33">
+      <c r="H34">
         <v>2E-3</v>
       </c>
-      <c r="I33">
+      <c r="I34">
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A34">
+    <row r="35" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A35">
         <v>280</v>
       </c>
-      <c r="B34" s="8">
+      <c r="B35" s="8">
         <v>68.475651999999997</v>
-      </c>
-      <c r="C34">
-        <v>1.3</v>
-      </c>
-      <c r="D34" s="8">
-        <f>B34+C34</f>
-        <v>69.775651999999994</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>275</v>
-      </c>
-      <c r="B35">
-        <v>68.3</v>
       </c>
       <c r="C35">
         <v>1.3</v>
       </c>
       <c r="D35" s="8">
         <f>B35+C35</f>
-        <v>69.599999999999994</v>
+        <v>69.775651999999994</v>
       </c>
       <c r="G35">
         <v>0.01</v>
@@ -11614,114 +12236,126 @@
       <c r="I35">
         <v>4.0000000000000002E-4</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A36" s="3"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
+      <c r="K35">
+        <v>0.15</v>
+      </c>
+      <c r="L35">
+        <v>0.35</v>
+      </c>
+      <c r="N35">
+        <v>0.42</v>
+      </c>
+      <c r="O35">
+        <v>0.65</v>
+      </c>
+      <c r="Q35">
+        <v>0.7</v>
+      </c>
+      <c r="R35">
+        <v>0.9</v>
+      </c>
+      <c r="T35">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="U35">
+        <v>0.6</v>
+      </c>
+      <c r="X35">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="36" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>275</v>
+      </c>
+      <c r="B36">
+        <v>68.3</v>
+      </c>
+      <c r="C36">
+        <v>1.3</v>
+      </c>
+      <c r="D36" s="8">
+        <f>B36+C36</f>
+        <v>69.599999999999994</v>
+      </c>
+      <c r="G36">
+        <v>0.01</v>
+      </c>
+      <c r="H36">
+        <v>2E-3</v>
+      </c>
+      <c r="I36">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A38" s="3"/>
+      <c r="B38" s="3"/>
+    </row>
+    <row r="39" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
         <v>0</v>
       </c>
-      <c r="C37" t="s">
+      <c r="C39" t="s">
         <v>2</v>
       </c>
-      <c r="D37" t="s">
+      <c r="D39" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A38">
+    <row r="40" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A40">
         <v>295</v>
       </c>
-      <c r="B38">
+      <c r="B40">
         <v>69.010000000000005</v>
-      </c>
-      <c r="C38">
-        <v>1.5</v>
-      </c>
-      <c r="D38" s="8">
-        <f>B38+C38</f>
-        <v>70.510000000000005</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>290</v>
-      </c>
-      <c r="B39">
-        <v>68.83</v>
-      </c>
-      <c r="C39">
-        <v>1.5</v>
-      </c>
-      <c r="D39" s="8">
-        <f t="shared" ref="D39:D40" si="3">B39+C39</f>
-        <v>70.33</v>
-      </c>
-      <c r="G39">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H39">
-        <v>2E-3</v>
-      </c>
-      <c r="I39">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>285</v>
-      </c>
-      <c r="B40">
-        <v>68.650000000000006</v>
       </c>
       <c r="C40">
         <v>1.5</v>
       </c>
       <c r="D40" s="8">
+        <f>B40+C40</f>
+        <v>70.510000000000005</v>
+      </c>
+    </row>
+    <row r="41" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>290</v>
+      </c>
+      <c r="B41">
+        <v>68.83</v>
+      </c>
+      <c r="C41">
+        <v>1.5</v>
+      </c>
+      <c r="D41" s="8">
+        <f t="shared" ref="D41:D42" si="3">B41+C41</f>
+        <v>70.33</v>
+      </c>
+      <c r="G41">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H41">
+        <v>2E-3</v>
+      </c>
+      <c r="I41">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>285</v>
+      </c>
+      <c r="B42">
+        <v>68.650000000000006</v>
+      </c>
+      <c r="C42">
+        <v>1.5</v>
+      </c>
+      <c r="D42" s="8">
         <f t="shared" si="3"/>
         <v>70.150000000000006</v>
       </c>
-      <c r="G40">
-        <v>1.2E-2</v>
-      </c>
-      <c r="H40">
-        <v>2E-3</v>
-      </c>
-      <c r="I40">
-        <v>4.0000000000000002E-4</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>280</v>
-      </c>
-      <c r="B41" s="8">
-        <v>68.475651999999997</v>
-      </c>
-      <c r="C41">
-        <v>1.5</v>
-      </c>
-      <c r="D41" s="8">
-        <f>B41+C41</f>
-        <v>69.975651999999997</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>275</v>
-      </c>
-      <c r="B42">
-        <v>68.3</v>
-      </c>
-      <c r="C42">
-        <v>1.5</v>
-      </c>
-      <c r="D42" s="8">
-        <f>B42+C42</f>
-        <v>69.8</v>
-      </c>
       <c r="G42">
         <v>1.2E-2</v>
       </c>
@@ -11732,165 +12366,130 @@
         <v>4.0000000000000002E-4</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A46" s="3"/>
-      <c r="B46" s="3"/>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A48" s="3"/>
-      <c r="B48" s="3"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" s="3"/>
-      <c r="B51" s="3"/>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" s="3"/>
-      <c r="B54" s="3"/>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" s="3"/>
-      <c r="B55" s="3"/>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59" s="3"/>
-      <c r="B59" s="3"/>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" s="3"/>
-      <c r="B62" s="3"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65" s="3"/>
-      <c r="B65" s="3"/>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" s="3"/>
-      <c r="B69" s="3"/>
+    <row r="43" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>280</v>
+      </c>
+      <c r="B43" s="8">
+        <v>68.475651999999997</v>
+      </c>
+      <c r="C43">
+        <v>1.5</v>
+      </c>
+      <c r="D43" s="8">
+        <f>B43+C43</f>
+        <v>69.975651999999997</v>
+      </c>
+      <c r="G43">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H43">
+        <v>2E-3</v>
+      </c>
+      <c r="I43">
+        <v>4.0000000000000002E-4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>41</v>
+      </c>
+      <c r="X43">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:24" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>275</v>
+      </c>
+      <c r="B44">
+        <v>68.3</v>
+      </c>
+      <c r="C44">
+        <v>1.5</v>
+      </c>
+      <c r="D44" s="8">
+        <f>B44+C44</f>
+        <v>69.8</v>
+      </c>
+      <c r="G44">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H44">
+        <v>2E-3</v>
+      </c>
+      <c r="I44">
+        <v>4.0000000000000002E-4</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70" s="3"/>
       <c r="B70" s="3"/>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73" s="3"/>
-      <c r="B73" s="3"/>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77" s="3"/>
-      <c r="B77" s="3"/>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78" s="3"/>
       <c r="B78" s="3"/>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="3"/>
-      <c r="B82" s="3"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="3"/>
-      <c r="B85" s="3"/>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="3"/>
       <c r="B86" s="3"/>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="3"/>
-      <c r="B89" s="3"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="3"/>
-      <c r="B93" s="3"/>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="3"/>
       <c r="B94" s="3"/>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="3"/>
-      <c r="B96" s="3"/>
-    </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="3"/>
-      <c r="B101" s="3"/>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A102" s="3"/>
       <c r="B102" s="3"/>
     </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C5"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>295</v>
-      </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>70.010000000000005</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>290</v>
-      </c>
-      <c r="B3">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>69.83</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>285</v>
-      </c>
-      <c r="B4">
-        <v>1</v>
-      </c>
-      <c r="C4">
-        <v>69.650000000000006</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>275</v>
-      </c>
-      <c r="B5">
-        <v>1</v>
-      </c>
-      <c r="C5">
-        <v>69.3</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/AP_DC_X-talk/dt_spectrum_results.xlsx
+++ b/AP_DC_X-talk/dt_spectrum_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hamamatsu S10362-11-100C apf" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="42">
   <si>
     <t>T</t>
   </si>
@@ -144,9 +144,6 @@
     <t>V_BD</t>
   </si>
   <si>
-    <t>нет производной</t>
-  </si>
-  <si>
     <t>N files</t>
   </si>
 </sst>
@@ -247,6 +244,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -599,6 +597,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -951,6 +950,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4250,8 +4250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM5522"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G24" sqref="G24"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Y26" sqref="Y26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4459,15 +4459,90 @@
         <v>69.475651999999997</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
+      <c r="F5" s="1">
+        <v>179878</v>
+      </c>
+      <c r="G5" s="1">
+        <v>21762</v>
+      </c>
+      <c r="H5" s="1">
+        <v>2821</v>
+      </c>
       <c r="I5" s="1"/>
-      <c r="K5" s="4"/>
-      <c r="L5" s="4"/>
-      <c r="M5" s="4"/>
-      <c r="T5" s="3"/>
-      <c r="U5" s="4"/>
+      <c r="K5" s="4">
+        <f>F5/SUM(F5:I5)</f>
+        <v>0.87976680149270525</v>
+      </c>
+      <c r="L5" s="4">
+        <f>G5/SUM(F5:I5)</f>
+        <v>0.10643594621957243</v>
+      </c>
+      <c r="M5" s="4">
+        <f>H5/SUM(F5:I5)</f>
+        <v>1.3797252287722352E-2</v>
+      </c>
+      <c r="R5">
+        <f>S5 * 1000*1000</f>
+        <v>247.50899999999999</v>
+      </c>
+      <c r="S5">
+        <v>2.4750899999999998E-4</v>
+      </c>
+      <c r="T5" s="3">
+        <v>7.7874699999999998E-7</v>
+      </c>
+      <c r="U5" s="4">
+        <f>T5/S5</f>
+        <v>3.1463381129575086E-3</v>
+      </c>
+      <c r="W5">
+        <f>1/X5</f>
+        <v>21.894821655730201</v>
+      </c>
+      <c r="X5">
+        <v>4.5672900000000002E-2</v>
+      </c>
+      <c r="Y5">
+        <v>2.82519E-3</v>
+      </c>
+      <c r="Z5" s="4">
+        <f>Y5/X5</f>
+        <v>6.185703119355241E-2</v>
+      </c>
+      <c r="AB5">
+        <f>1/AC5</f>
+        <v>145.09786851231155</v>
+      </c>
+      <c r="AC5">
+        <v>6.8919000000000003E-3</v>
+      </c>
+      <c r="AD5">
+        <v>1.27565E-4</v>
+      </c>
+      <c r="AE5" s="4">
+        <f>AD5/AC5</f>
+        <v>1.8509409596773024E-2</v>
+      </c>
+      <c r="AG5" s="4">
+        <v>0.202547</v>
+      </c>
+      <c r="AH5">
+        <v>2.1545499999999999E-3</v>
+      </c>
+      <c r="AI5" s="4">
+        <f>AH5/AG5</f>
+        <v>1.0637284185892656E-2</v>
+      </c>
+      <c r="AK5" s="4">
+        <v>8.6434399999999995E-2</v>
+      </c>
+      <c r="AL5">
+        <v>3.3702099999999998E-3</v>
+      </c>
+      <c r="AM5" s="4">
+        <f>AL5/AK5</f>
+        <v>3.8991535777421954E-2</v>
+      </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
@@ -4917,6 +4992,139 @@
         <v>275</v>
       </c>
     </row>
+    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>0</v>
+      </c>
+      <c r="B24" t="s">
+        <v>2</v>
+      </c>
+      <c r="C24" t="s">
+        <v>1</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F24" t="s">
+        <v>10</v>
+      </c>
+      <c r="G24" t="s">
+        <v>11</v>
+      </c>
+      <c r="H24" t="s">
+        <v>12</v>
+      </c>
+      <c r="I24" t="s">
+        <v>13</v>
+      </c>
+      <c r="K24" t="s">
+        <v>25</v>
+      </c>
+      <c r="L24" t="s">
+        <v>26</v>
+      </c>
+      <c r="M24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N24" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R24" t="s">
+        <v>23</v>
+      </c>
+      <c r="S24" t="s">
+        <v>3</v>
+      </c>
+      <c r="T24" t="s">
+        <v>24</v>
+      </c>
+      <c r="U24" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W24" t="s">
+        <v>21</v>
+      </c>
+      <c r="X24" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB24" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD24" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG24" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH24" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ24" s="2"/>
+      <c r="AK24" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL24" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM24" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="26" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="27" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="28" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>280</v>
+      </c>
+      <c r="B28">
+        <v>1.5</v>
+      </c>
+      <c r="C28" s="8">
+        <v>69.975651999999997</v>
+      </c>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="4"/>
+      <c r="Z28" s="4"/>
+      <c r="AE28" s="4"/>
+      <c r="AI28" s="4"/>
+      <c r="AM28" s="4"/>
+    </row>
+    <row r="29" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>275</v>
+      </c>
+    </row>
     <row r="98" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A98" s="3"/>
     </row>
@@ -11416,8 +11624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K42" sqref="K42"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="P43" sqref="P43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11462,7 +11670,7 @@
         <v>35</v>
       </c>
       <c r="X1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
@@ -11947,7 +12155,7 @@
         <v>0.2</v>
       </c>
       <c r="U25">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="26" spans="1:24" x14ac:dyDescent="0.25">
@@ -11994,7 +12202,7 @@
         <v>0.2</v>
       </c>
       <c r="U26">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="27" spans="1:24" x14ac:dyDescent="0.25">
@@ -12041,7 +12249,7 @@
         <v>0.2</v>
       </c>
       <c r="U27">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="28" spans="1:24" x14ac:dyDescent="0.25">
@@ -12089,7 +12297,7 @@
         <v>0.2</v>
       </c>
       <c r="U28">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="29" spans="1:24" x14ac:dyDescent="0.25">
@@ -12136,7 +12344,7 @@
         <v>0.2</v>
       </c>
       <c r="U29">
-        <v>0.49</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="31" spans="1:24" x14ac:dyDescent="0.25">
@@ -12389,8 +12597,17 @@
       <c r="I43">
         <v>4.0000000000000002E-4</v>
       </c>
-      <c r="N43" t="s">
-        <v>41</v>
+      <c r="K43">
+        <v>0.2</v>
+      </c>
+      <c r="L43">
+        <v>0.4</v>
+      </c>
+      <c r="N43">
+        <v>0.5</v>
+      </c>
+      <c r="O43">
+        <v>0.7</v>
       </c>
       <c r="X43">
         <v>1000</v>

--- a/AP_DC_X-talk/dt_spectrum_results.xlsx
+++ b/AP_DC_X-talk/dt_spectrum_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hamamatsu S10362-11-100C apf" sheetId="1" r:id="rId1"/>
@@ -4250,8 +4250,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AM5522"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Y26" sqref="Y26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11624,8 +11624,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="P43" sqref="P43"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -12609,6 +12609,12 @@
       <c r="O43">
         <v>0.7</v>
       </c>
+      <c r="T43">
+        <v>0.3</v>
+      </c>
+      <c r="U43">
+        <v>0.7</v>
+      </c>
       <c r="X43">
         <v>1000</v>
       </c>

--- a/AP_DC_X-talk/dt_spectrum_results.xlsx
+++ b/AP_DC_X-talk/dt_spectrum_results.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="43">
   <si>
     <t>T</t>
   </si>
@@ -145,6 +145,9 @@
   </si>
   <si>
     <t>N files</t>
+  </si>
+  <si>
+    <t>странный провал в спектре</t>
   </si>
 </sst>
 </file>
@@ -4248,7 +4251,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM5522"/>
+  <dimension ref="A1:AM5521"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
@@ -4368,55 +4371,14 @@
       <c r="A2">
         <v>295</v>
       </c>
-      <c r="B2">
-        <v>1</v>
-      </c>
-      <c r="C2">
-        <v>70.010000000000005</v>
-      </c>
       <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>20061</v>
-      </c>
-      <c r="G2" s="1">
-        <v>2204</v>
-      </c>
-      <c r="H2" s="1">
-        <v>267</v>
-      </c>
-      <c r="I2" s="1">
-        <v>10</v>
-      </c>
-      <c r="K2" s="4">
-        <f>F2/SUM(F2:I2)</f>
-        <v>0.8899387809422411</v>
-      </c>
-      <c r="L2" s="4">
-        <f>G2/SUM(F2:I2)</f>
-        <v>9.7773045869931685E-2</v>
-      </c>
-      <c r="M2" s="4">
-        <f>H2/SUM(F2:I2)</f>
-        <v>1.1844556827255789E-2</v>
-      </c>
-      <c r="N2" s="4">
-        <f>I2/SUM(F2:I2)</f>
-        <v>4.4361636057137785E-4</v>
-      </c>
-      <c r="R2">
-        <f>S2 * 1000*1000</f>
-        <v>333.09</v>
-      </c>
-      <c r="S2">
-        <v>3.3309000000000002E-4</v>
-      </c>
-      <c r="T2" s="3">
-        <v>2.8527299999999998E-6</v>
-      </c>
-      <c r="U2" s="4">
-        <f>T2/S2</f>
-        <v>8.5644420426911633E-3</v>
-      </c>
+      <c r="F2" s="1"/>
+      <c r="G2" s="1"/>
+      <c r="H2" s="1"/>
+      <c r="I2" s="1"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="4"/>
     </row>
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
@@ -4453,204 +4415,123 @@
         <v>280</v>
       </c>
       <c r="B5">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="C5" s="8">
-        <v>69.475651999999997</v>
+        <v>68.975651999999997</v>
       </c>
       <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>179878</v>
-      </c>
-      <c r="G5" s="1">
-        <v>21762</v>
-      </c>
-      <c r="H5" s="1">
-        <v>2821</v>
-      </c>
       <c r="I5" s="1"/>
-      <c r="K5" s="4">
+      <c r="K5" s="4" t="e">
         <f>F5/SUM(F5:I5)</f>
-        <v>0.87976680149270525</v>
-      </c>
-      <c r="L5" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L5" s="4" t="e">
         <f>G5/SUM(F5:I5)</f>
-        <v>0.10643594621957243</v>
-      </c>
-      <c r="M5" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M5" s="4" t="e">
         <f>H5/SUM(F5:I5)</f>
-        <v>1.3797252287722352E-2</v>
+        <v>#DIV/0!</v>
       </c>
       <c r="R5">
         <f>S5 * 1000*1000</f>
-        <v>247.50899999999999</v>
-      </c>
-      <c r="S5">
-        <v>2.4750899999999998E-4</v>
-      </c>
-      <c r="T5" s="3">
-        <v>7.7874699999999998E-7</v>
-      </c>
-      <c r="U5" s="4">
+        <v>0</v>
+      </c>
+      <c r="T5" s="3"/>
+      <c r="U5" s="4" t="e">
         <f>T5/S5</f>
-        <v>3.1463381129575086E-3</v>
-      </c>
-      <c r="W5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W5" t="e">
         <f>1/X5</f>
-        <v>21.894821655730201</v>
-      </c>
-      <c r="X5">
-        <v>4.5672900000000002E-2</v>
-      </c>
-      <c r="Y5">
-        <v>2.82519E-3</v>
-      </c>
-      <c r="Z5" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z5" s="4" t="e">
         <f>Y5/X5</f>
-        <v>6.185703119355241E-2</v>
-      </c>
-      <c r="AB5">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB5" t="e">
         <f>1/AC5</f>
-        <v>145.09786851231155</v>
-      </c>
-      <c r="AC5">
-        <v>6.8919000000000003E-3</v>
-      </c>
-      <c r="AD5">
-        <v>1.27565E-4</v>
-      </c>
-      <c r="AE5" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE5" s="4" t="e">
         <f>AD5/AC5</f>
-        <v>1.8509409596773024E-2</v>
-      </c>
-      <c r="AG5" s="4">
-        <v>0.202547</v>
-      </c>
-      <c r="AH5">
-        <v>2.1545499999999999E-3</v>
-      </c>
-      <c r="AI5" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI5" s="4" t="e">
         <f>AH5/AG5</f>
-        <v>1.0637284185892656E-2</v>
-      </c>
-      <c r="AK5" s="4">
-        <v>8.6434399999999995E-2</v>
-      </c>
-      <c r="AL5">
-        <v>3.3702099999999998E-3</v>
-      </c>
-      <c r="AM5" s="4">
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM5" s="4" t="e">
         <f>AL5/AK5</f>
-        <v>3.8991535777421954E-2</v>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="6" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>275</v>
-      </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>69.3</v>
       </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
       <c r="H6" s="1"/>
-      <c r="R6">
-        <f>S6 * 1000*1000</f>
-        <v>150.30500000000001</v>
-      </c>
-      <c r="S6">
-        <v>1.5030499999999999E-4</v>
-      </c>
-      <c r="T6" s="3">
-        <v>3.7083000000000001E-6</v>
-      </c>
-      <c r="U6" s="4">
-        <f>T6/S6</f>
-        <v>2.4671833937660093E-2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-    </row>
-    <row r="8" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="T6" s="3"/>
+      <c r="U6" s="4"/>
+    </row>
+    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>0</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" t="s">
+      <c r="C10" t="s">
         <v>1</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="G9" t="s">
+      <c r="G10" t="s">
         <v>11</v>
       </c>
-      <c r="H9" t="s">
+      <c r="H10" t="s">
         <v>12</v>
       </c>
-      <c r="I9" t="s">
+      <c r="I10" t="s">
         <v>13</v>
       </c>
-      <c r="K9" t="s">
+      <c r="K10" t="s">
         <v>25</v>
       </c>
-      <c r="L9" t="s">
+      <c r="L10" t="s">
         <v>26</v>
       </c>
-      <c r="M9" t="s">
+      <c r="M10" t="s">
         <v>27</v>
       </c>
-      <c r="N9" s="4" t="s">
+      <c r="N10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R9" t="s">
+      <c r="R10" t="s">
         <v>23</v>
       </c>
-      <c r="S9" t="s">
+      <c r="S10" t="s">
         <v>3</v>
       </c>
-      <c r="T9" t="s">
+      <c r="T10" t="s">
         <v>24</v>
       </c>
-      <c r="U9" s="4" t="s">
+      <c r="U10" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>295</v>
-      </c>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
     </row>
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>290</v>
+        <v>295</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -4660,12 +4541,10 @@
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
       <c r="M11" s="4"/>
-      <c r="T11" s="3"/>
-      <c r="U11" s="4"/>
     </row>
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -4680,489 +4559,1005 @@
     </row>
     <row r="13" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>280</v>
-      </c>
-      <c r="B13">
-        <v>0.8</v>
-      </c>
-      <c r="C13" s="8">
-        <v>69.275651999999994</v>
+        <v>285</v>
       </c>
       <c r="E13" s="1"/>
-      <c r="F13">
-        <v>114404</v>
-      </c>
-      <c r="G13">
-        <v>9920</v>
-      </c>
-      <c r="H13">
-        <v>996</v>
-      </c>
+      <c r="F13" s="1"/>
+      <c r="G13" s="1"/>
+      <c r="H13" s="1"/>
       <c r="I13" s="1"/>
-      <c r="K13" s="4">
-        <f>F13/SUM(F13:I13)</f>
-        <v>0.91289498882859876</v>
-      </c>
-      <c r="L13" s="4">
-        <f>G13/SUM(F13:I13)</f>
-        <v>7.9157357165655917E-2</v>
-      </c>
-      <c r="M13" s="4">
-        <f>H13/SUM(F13:I13)</f>
-        <v>7.9476540057452916E-3</v>
-      </c>
-      <c r="R13">
-        <f>S13 * 1000*1000</f>
-        <v>138.82300000000001</v>
-      </c>
-      <c r="S13">
-        <v>1.38823E-4</v>
-      </c>
-      <c r="T13" s="3">
-        <v>7.1484799999999997E-7</v>
-      </c>
-      <c r="U13" s="4">
-        <f>T13/S13</f>
-        <v>5.149348450905109E-3</v>
-      </c>
-      <c r="W13">
-        <f>1/X13</f>
-        <v>32.593567985293781</v>
-      </c>
-      <c r="X13">
-        <v>3.0680900000000001E-2</v>
-      </c>
-      <c r="Y13">
-        <v>4.6992300000000004E-3</v>
-      </c>
-      <c r="Z13" s="4">
-        <f>Y13/X13</f>
-        <v>0.1531646724835321</v>
-      </c>
-      <c r="AB13">
-        <f>1/AC13</f>
-        <v>131.36720417747708</v>
-      </c>
-      <c r="AC13">
-        <v>7.6122500000000001E-3</v>
-      </c>
-      <c r="AD13">
-        <v>2.9050300000000001E-4</v>
-      </c>
-      <c r="AE13" s="4">
-        <f>AD13/AC13</f>
-        <v>3.816256691516963E-2</v>
-      </c>
-      <c r="AG13" s="4">
-        <v>0.132691</v>
-      </c>
-      <c r="AH13">
-        <v>4.7023999999999998E-3</v>
-      </c>
-      <c r="AI13" s="4">
-        <f>AH13/AG13</f>
-        <v>3.5438726062807575E-2</v>
-      </c>
-      <c r="AK13" s="4">
-        <v>4.1886899999999998E-2</v>
-      </c>
-      <c r="AL13">
-        <v>4.4961899999999997E-3</v>
-      </c>
-      <c r="AM13" s="4">
-        <f>AL13/AK13</f>
-        <v>0.10734119736719595</v>
-      </c>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="4"/>
+      <c r="T13" s="3"/>
+      <c r="U13" s="4"/>
     </row>
     <row r="14" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A14">
+        <v>280</v>
+      </c>
+      <c r="B14">
+        <v>0.8</v>
+      </c>
+      <c r="C14" s="8">
+        <v>69.275651999999994</v>
+      </c>
+      <c r="E14" s="1"/>
+      <c r="F14">
+        <v>114404</v>
+      </c>
+      <c r="G14">
+        <v>9920</v>
+      </c>
+      <c r="H14">
+        <v>996</v>
+      </c>
+      <c r="I14" s="1"/>
+      <c r="K14" s="4">
+        <f>F14/SUM(F14:I14)</f>
+        <v>0.91289498882859876</v>
+      </c>
+      <c r="L14" s="4">
+        <f>G14/SUM(F14:I14)</f>
+        <v>7.9157357165655917E-2</v>
+      </c>
+      <c r="M14" s="4">
+        <f>H14/SUM(F14:I14)</f>
+        <v>7.9476540057452916E-3</v>
+      </c>
+      <c r="R14">
+        <f>S14 * 1000*1000</f>
+        <v>138.82300000000001</v>
+      </c>
+      <c r="S14">
+        <v>1.38823E-4</v>
+      </c>
+      <c r="T14" s="3">
+        <v>7.1484799999999997E-7</v>
+      </c>
+      <c r="U14" s="4">
+        <f>T14/S14</f>
+        <v>5.149348450905109E-3</v>
+      </c>
+      <c r="W14">
+        <f>1/X14</f>
+        <v>32.593567985293781</v>
+      </c>
+      <c r="X14">
+        <v>3.0680900000000001E-2</v>
+      </c>
+      <c r="Y14">
+        <v>4.6992300000000004E-3</v>
+      </c>
+      <c r="Z14" s="4">
+        <f>Y14/X14</f>
+        <v>0.1531646724835321</v>
+      </c>
+      <c r="AB14">
+        <f>1/AC14</f>
+        <v>131.36720417747708</v>
+      </c>
+      <c r="AC14">
+        <v>7.6122500000000001E-3</v>
+      </c>
+      <c r="AD14">
+        <v>2.9050300000000001E-4</v>
+      </c>
+      <c r="AE14" s="4">
+        <f>AD14/AC14</f>
+        <v>3.816256691516963E-2</v>
+      </c>
+      <c r="AG14" s="4">
+        <v>0.132691</v>
+      </c>
+      <c r="AH14">
+        <v>4.7023999999999998E-3</v>
+      </c>
+      <c r="AI14" s="4">
+        <f>AH14/AG14</f>
+        <v>3.5438726062807575E-2</v>
+      </c>
+      <c r="AK14" s="4">
+        <v>4.1886899999999998E-2</v>
+      </c>
+      <c r="AL14">
+        <v>4.4961899999999997E-3</v>
+      </c>
+      <c r="AM14" s="4">
+        <f>AL14/AK14</f>
+        <v>0.10734119736719595</v>
+      </c>
+    </row>
+    <row r="15" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A15">
         <v>275</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="T14" s="3"/>
-      <c r="U14" s="4"/>
-    </row>
-    <row r="16" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
+      <c r="E15" s="1"/>
+      <c r="F15" s="1"/>
+      <c r="G15" s="1"/>
+      <c r="H15" s="1"/>
+      <c r="T15" s="3"/>
+      <c r="U15" s="4"/>
+    </row>
+    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>0</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B17" t="s">
         <v>2</v>
       </c>
-      <c r="C16" t="s">
+      <c r="C17" t="s">
         <v>1</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E17" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F17" t="s">
         <v>10</v>
       </c>
-      <c r="G16" t="s">
+      <c r="G17" t="s">
         <v>11</v>
       </c>
-      <c r="H16" t="s">
+      <c r="H17" t="s">
         <v>12</v>
       </c>
-      <c r="I16" t="s">
+      <c r="I17" t="s">
         <v>13</v>
       </c>
-      <c r="K16" t="s">
+      <c r="K17" t="s">
         <v>25</v>
       </c>
-      <c r="L16" t="s">
+      <c r="L17" t="s">
         <v>26</v>
       </c>
-      <c r="M16" t="s">
+      <c r="M17" t="s">
         <v>27</v>
       </c>
-      <c r="N16" s="4" t="s">
+      <c r="N17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R16" t="s">
+      <c r="R17" t="s">
         <v>23</v>
       </c>
-      <c r="S16" t="s">
+      <c r="S17" t="s">
         <v>3</v>
       </c>
-      <c r="T16" t="s">
+      <c r="T17" t="s">
         <v>24</v>
       </c>
-      <c r="U16" s="4" t="s">
+      <c r="U17" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W16" t="s">
+      <c r="W17" t="s">
         <v>21</v>
       </c>
-      <c r="X16" t="s">
+      <c r="X17" t="s">
         <v>4</v>
       </c>
-      <c r="Y16" t="s">
+      <c r="Y17" t="s">
         <v>15</v>
       </c>
-      <c r="Z16" t="s">
+      <c r="Z17" t="s">
         <v>20</v>
       </c>
-      <c r="AB16" s="6" t="s">
+      <c r="AB17" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AC16" t="s">
+      <c r="AC17" t="s">
         <v>5</v>
       </c>
-      <c r="AD16" t="s">
+      <c r="AD17" t="s">
         <v>16</v>
       </c>
-      <c r="AE16" t="s">
+      <c r="AE17" t="s">
         <v>20</v>
       </c>
-      <c r="AG16" s="4" t="s">
+      <c r="AG17" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AH16" t="s">
+      <c r="AH17" t="s">
         <v>18</v>
       </c>
-      <c r="AI16" t="s">
+      <c r="AI17" t="s">
         <v>20</v>
       </c>
-      <c r="AJ16" s="2"/>
-      <c r="AK16" s="4" t="s">
+      <c r="AJ17" s="2"/>
+      <c r="AK17" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AL16" t="s">
+      <c r="AL17" t="s">
         <v>19</v>
       </c>
-      <c r="AM16" s="2" t="s">
+      <c r="AM17" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>295</v>
       </c>
     </row>
     <row r="18" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>290</v>
+        <v>295</v>
+      </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>70.010000000000005</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1">
+        <v>20061</v>
+      </c>
+      <c r="G18" s="1">
+        <v>2204</v>
+      </c>
+      <c r="H18" s="1">
+        <v>267</v>
+      </c>
+      <c r="I18" s="1">
+        <v>10</v>
+      </c>
+      <c r="K18" s="4">
+        <f>F18/SUM(F18:I18)</f>
+        <v>0.8899387809422411</v>
+      </c>
+      <c r="L18" s="4">
+        <f>G18/SUM(F18:I18)</f>
+        <v>9.7773045869931685E-2</v>
+      </c>
+      <c r="M18" s="4">
+        <f>H18/SUM(F18:I18)</f>
+        <v>1.1844556827255789E-2</v>
+      </c>
+      <c r="N18" s="4">
+        <f>I18/SUM(F18:I18)</f>
+        <v>4.4361636057137785E-4</v>
+      </c>
+      <c r="R18">
+        <f>S18 * 1000*1000</f>
+        <v>333.09</v>
+      </c>
+      <c r="S18">
+        <v>3.3309000000000002E-4</v>
+      </c>
+      <c r="T18" s="3">
+        <v>2.8527299999999998E-6</v>
+      </c>
+      <c r="U18" s="4">
+        <f>T18/S18</f>
+        <v>8.5644420426911633E-3</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>285</v>
-      </c>
+        <v>290</v>
+      </c>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="K19" s="4"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="4"/>
+      <c r="T19" s="3"/>
+      <c r="U19" s="4"/>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>280</v>
-      </c>
-      <c r="B20">
-        <v>1.3</v>
-      </c>
-      <c r="C20" s="8">
-        <v>69.775651999999994</v>
-      </c>
-      <c r="F20">
-        <v>31792</v>
-      </c>
-      <c r="G20">
-        <v>4849</v>
-      </c>
-      <c r="H20">
-        <v>180</v>
-      </c>
-      <c r="K20" s="4">
-        <f>F20/SUM(F20:I20)</f>
-        <v>0.86342033078949509</v>
-      </c>
-      <c r="L20" s="4">
-        <f>G20/SUM(F20:I20)</f>
-        <v>0.13169115450422314</v>
-      </c>
-      <c r="M20" s="4">
-        <f>H20/SUM(F20:I20)</f>
-        <v>4.8885147062817415E-3</v>
-      </c>
-      <c r="R20">
-        <f>S20 * 1000*1000</f>
-        <v>192.79200000000003</v>
-      </c>
-      <c r="S20">
-        <v>1.9279200000000001E-4</v>
-      </c>
-      <c r="T20" s="3">
-        <v>1.7244200000000001E-6</v>
-      </c>
-      <c r="U20" s="4">
-        <f>T20/S20</f>
-        <v>8.9444582762770244E-3</v>
-      </c>
-      <c r="W20">
-        <f>1/X20</f>
-        <v>20.219911760305077</v>
-      </c>
-      <c r="X20">
-        <v>4.9456199999999999E-2</v>
-      </c>
-      <c r="Y20">
-        <v>5.0201200000000003E-3</v>
-      </c>
-      <c r="Z20" s="4">
-        <f>Y20/X20</f>
-        <v>0.10150638342614274</v>
-      </c>
-      <c r="AB20">
-        <f>1/AC20</f>
-        <v>133.57501506058296</v>
-      </c>
-      <c r="AC20">
-        <v>7.4864299999999996E-3</v>
-      </c>
-      <c r="AD20">
-        <v>2.02776E-4</v>
-      </c>
-      <c r="AE20" s="4">
-        <f>AD20/AC20</f>
-        <v>2.708580725392477E-2</v>
-      </c>
-      <c r="AG20" s="4">
-        <v>0.30463600000000002</v>
-      </c>
-      <c r="AH20">
-        <v>4.9131599999999997E-3</v>
-      </c>
-      <c r="AI20" s="4">
-        <f>AH20/AG20</f>
-        <v>1.6127969117241559E-2</v>
-      </c>
-      <c r="AK20" s="4">
-        <v>0.136633</v>
-      </c>
-      <c r="AL20">
-        <v>1.01552E-2</v>
-      </c>
-      <c r="AM20" s="4">
-        <f>AL20/AK20</f>
-        <v>7.4324650706637491E-2</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="K20" s="4"/>
+      <c r="L20" s="4"/>
+      <c r="M20" s="4"/>
+      <c r="T20" s="3"/>
+      <c r="U20" s="4"/>
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>280</v>
+      </c>
+      <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21" s="8">
+        <v>69.475651999999997</v>
+      </c>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1">
+        <v>179878</v>
+      </c>
+      <c r="G21" s="1">
+        <v>21762</v>
+      </c>
+      <c r="H21" s="1">
+        <v>2821</v>
+      </c>
+      <c r="I21" s="1"/>
+      <c r="K21" s="4">
+        <f>F21/SUM(F21:I21)</f>
+        <v>0.87976680149270525</v>
+      </c>
+      <c r="L21" s="4">
+        <f>G21/SUM(F21:I21)</f>
+        <v>0.10643594621957243</v>
+      </c>
+      <c r="M21" s="4">
+        <f>H21/SUM(F21:I21)</f>
+        <v>1.3797252287722352E-2</v>
+      </c>
+      <c r="R21">
+        <f>S21 * 1000*1000</f>
+        <v>247.50899999999999</v>
+      </c>
+      <c r="S21">
+        <v>2.4750899999999998E-4</v>
+      </c>
+      <c r="T21" s="3">
+        <v>7.7874699999999998E-7</v>
+      </c>
+      <c r="U21" s="4">
+        <f>T21/S21</f>
+        <v>3.1463381129575086E-3</v>
+      </c>
+      <c r="W21">
+        <f>1/X21</f>
+        <v>21.894821655730201</v>
+      </c>
+      <c r="X21">
+        <v>4.5672900000000002E-2</v>
+      </c>
+      <c r="Y21">
+        <v>2.82519E-3</v>
+      </c>
+      <c r="Z21" s="4">
+        <f>Y21/X21</f>
+        <v>6.185703119355241E-2</v>
+      </c>
+      <c r="AB21">
+        <f>1/AC21</f>
+        <v>145.09786851231155</v>
+      </c>
+      <c r="AC21">
+        <v>6.8919000000000003E-3</v>
+      </c>
+      <c r="AD21">
+        <v>1.27565E-4</v>
+      </c>
+      <c r="AE21" s="4">
+        <f>AD21/AC21</f>
+        <v>1.8509409596773024E-2</v>
+      </c>
+      <c r="AG21" s="4">
+        <v>0.202547</v>
+      </c>
+      <c r="AH21">
+        <v>2.1545499999999999E-3</v>
+      </c>
+      <c r="AI21" s="4">
+        <f>AH21/AG21</f>
+        <v>1.0637284185892656E-2</v>
+      </c>
+      <c r="AK21" s="4">
+        <v>8.6434399999999995E-2</v>
+      </c>
+      <c r="AL21">
+        <v>3.3702099999999998E-3</v>
+      </c>
+      <c r="AM21" s="4">
+        <f>AL21/AK21</f>
+        <v>3.8991535777421954E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A22">
         <v>275</v>
       </c>
-    </row>
-    <row r="24" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="B22">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>69.3</v>
+      </c>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="R22">
+        <f>S22 * 1000*1000</f>
+        <v>150.30500000000001</v>
+      </c>
+      <c r="S22">
+        <v>1.5030499999999999E-4</v>
+      </c>
+      <c r="T22" s="3">
+        <v>3.7083000000000001E-6</v>
+      </c>
+      <c r="U22" s="4">
+        <f>T22/S22</f>
+        <v>2.4671833937660093E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
         <v>0</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B25" t="s">
         <v>2</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C25" t="s">
         <v>1</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E25" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F25" t="s">
         <v>10</v>
       </c>
-      <c r="G24" t="s">
+      <c r="G25" t="s">
         <v>11</v>
       </c>
-      <c r="H24" t="s">
+      <c r="H25" t="s">
         <v>12</v>
       </c>
-      <c r="I24" t="s">
+      <c r="I25" t="s">
         <v>13</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K25" t="s">
         <v>25</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L25" t="s">
         <v>26</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M25" t="s">
         <v>27</v>
       </c>
-      <c r="N24" s="4" t="s">
+      <c r="N25" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R25" t="s">
         <v>23</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S25" t="s">
         <v>3</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T25" t="s">
         <v>24</v>
       </c>
-      <c r="U24" s="4" t="s">
+      <c r="U25" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W25" t="s">
         <v>21</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X25" t="s">
         <v>4</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y25" t="s">
         <v>15</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Z25" t="s">
         <v>20</v>
       </c>
-      <c r="AB24" s="6" t="s">
+      <c r="AB25" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AC25" t="s">
         <v>5</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AD25" t="s">
         <v>16</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AE25" t="s">
         <v>20</v>
       </c>
-      <c r="AG24" s="4" t="s">
+      <c r="AG25" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AH25" t="s">
         <v>18</v>
       </c>
-      <c r="AI24" t="s">
+      <c r="AI25" t="s">
         <v>20</v>
       </c>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="4" t="s">
+      <c r="AJ25" s="2"/>
+      <c r="AK25" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AL24" t="s">
+      <c r="AL25" t="s">
         <v>19</v>
       </c>
-      <c r="AM24" s="2" t="s">
+      <c r="AM25" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="25" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>295</v>
       </c>
     </row>
     <row r="26" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>290</v>
+        <v>295</v>
       </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>285</v>
+        <v>290</v>
       </c>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B28">
-        <v>1.5</v>
-      </c>
-      <c r="C28" s="8">
-        <v>69.975651999999997</v>
-      </c>
-      <c r="K28" s="4"/>
-      <c r="L28" s="4"/>
-      <c r="M28" s="4"/>
-      <c r="T28" s="3"/>
-      <c r="U28" s="4"/>
-      <c r="Z28" s="4"/>
-      <c r="AE28" s="4"/>
-      <c r="AI28" s="4"/>
-      <c r="AM28" s="4"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C28">
+        <v>69.75</v>
+      </c>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
+        <v>280</v>
+      </c>
+      <c r="B29">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C29" s="8">
+        <v>69.575651999999991</v>
+      </c>
+      <c r="K29" s="4" t="e">
+        <f>F29/SUM(F29:I29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L29" s="4" t="e">
+        <f>G29/SUM(F29:I29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M29" s="4" t="e">
+        <f>H29/SUM(F29:I29)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R29">
+        <f>S29 * 1000*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T29" s="3"/>
+      <c r="U29" s="4" t="e">
+        <f>T29/S29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W29" t="e">
+        <f>1/X29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z29" s="4" t="e">
+        <f>Y29/X29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB29" t="e">
+        <f>1/AC29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE29" s="4" t="e">
+        <f>AD29/AC29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI29" s="4" t="e">
+        <f>AH29/AG29</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM29" s="4" t="e">
+        <f>AL29/AK29</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="30" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>275</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A98" s="3"/>
-    </row>
-    <row r="106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A106" s="3"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A120" s="3"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A122" s="3"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A126" s="3"/>
+    <row r="35" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B35" t="s">
+        <v>2</v>
+      </c>
+      <c r="C35" t="s">
+        <v>1</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F35" t="s">
+        <v>10</v>
+      </c>
+      <c r="G35" t="s">
+        <v>11</v>
+      </c>
+      <c r="H35" t="s">
+        <v>12</v>
+      </c>
+      <c r="I35" t="s">
+        <v>13</v>
+      </c>
+      <c r="K35" t="s">
+        <v>25</v>
+      </c>
+      <c r="L35" t="s">
+        <v>26</v>
+      </c>
+      <c r="M35" t="s">
+        <v>27</v>
+      </c>
+      <c r="N35" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R35" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" t="s">
+        <v>3</v>
+      </c>
+      <c r="T35" t="s">
+        <v>24</v>
+      </c>
+      <c r="U35" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W35" t="s">
+        <v>21</v>
+      </c>
+      <c r="X35" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB35" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC35" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD35" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG35" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH35" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI35" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ35" s="2"/>
+      <c r="AK35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL35" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM35" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="36" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="38" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="39" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>280</v>
+      </c>
+      <c r="B39">
+        <v>1.3</v>
+      </c>
+      <c r="C39" s="8">
+        <v>69.775651999999994</v>
+      </c>
+      <c r="F39">
+        <v>31792</v>
+      </c>
+      <c r="G39">
+        <v>4849</v>
+      </c>
+      <c r="H39">
+        <v>180</v>
+      </c>
+      <c r="K39" s="4">
+        <f>F39/SUM(F39:I39)</f>
+        <v>0.86342033078949509</v>
+      </c>
+      <c r="L39" s="4">
+        <f>G39/SUM(F39:I39)</f>
+        <v>0.13169115450422314</v>
+      </c>
+      <c r="M39" s="4">
+        <f>H39/SUM(F39:I39)</f>
+        <v>4.8885147062817415E-3</v>
+      </c>
+      <c r="R39">
+        <f>S39 * 1000*1000</f>
+        <v>192.79200000000003</v>
+      </c>
+      <c r="S39">
+        <v>1.9279200000000001E-4</v>
+      </c>
+      <c r="T39" s="3">
+        <v>1.7244200000000001E-6</v>
+      </c>
+      <c r="U39" s="4">
+        <f>T39/S39</f>
+        <v>8.9444582762770244E-3</v>
+      </c>
+      <c r="W39">
+        <f>1/X39</f>
+        <v>20.219911760305077</v>
+      </c>
+      <c r="X39">
+        <v>4.9456199999999999E-2</v>
+      </c>
+      <c r="Y39">
+        <v>5.0201200000000003E-3</v>
+      </c>
+      <c r="Z39" s="4">
+        <f>Y39/X39</f>
+        <v>0.10150638342614274</v>
+      </c>
+      <c r="AB39">
+        <f>1/AC39</f>
+        <v>133.57501506058296</v>
+      </c>
+      <c r="AC39">
+        <v>7.4864299999999996E-3</v>
+      </c>
+      <c r="AD39">
+        <v>2.02776E-4</v>
+      </c>
+      <c r="AE39" s="4">
+        <f>AD39/AC39</f>
+        <v>2.708580725392477E-2</v>
+      </c>
+      <c r="AG39" s="4">
+        <v>0.30463600000000002</v>
+      </c>
+      <c r="AH39">
+        <v>4.9131599999999997E-3</v>
+      </c>
+      <c r="AI39" s="4">
+        <f>AH39/AG39</f>
+        <v>1.6127969117241559E-2</v>
+      </c>
+      <c r="AK39" s="4">
+        <v>0.136633</v>
+      </c>
+      <c r="AL39">
+        <v>1.01552E-2</v>
+      </c>
+      <c r="AM39" s="4">
+        <f>AL39/AK39</f>
+        <v>7.4324650706637491E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="43" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>0</v>
+      </c>
+      <c r="B43" t="s">
+        <v>2</v>
+      </c>
+      <c r="C43" t="s">
+        <v>1</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F43" t="s">
+        <v>10</v>
+      </c>
+      <c r="G43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H43" t="s">
+        <v>12</v>
+      </c>
+      <c r="I43" t="s">
+        <v>13</v>
+      </c>
+      <c r="K43" t="s">
+        <v>25</v>
+      </c>
+      <c r="L43" t="s">
+        <v>26</v>
+      </c>
+      <c r="M43" t="s">
+        <v>27</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R43" t="s">
+        <v>23</v>
+      </c>
+      <c r="S43" t="s">
+        <v>3</v>
+      </c>
+      <c r="T43" t="s">
+        <v>24</v>
+      </c>
+      <c r="U43" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W43" t="s">
+        <v>21</v>
+      </c>
+      <c r="X43" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y43" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB43" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC43" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD43" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG43" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH43" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI43" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ43" s="2"/>
+      <c r="AK43" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL43" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM43" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="45" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="46" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>280</v>
+      </c>
+      <c r="B47">
+        <v>1.5</v>
+      </c>
+      <c r="C47" s="8">
+        <v>69.975651999999997</v>
+      </c>
+      <c r="F47">
+        <v>104800</v>
+      </c>
+      <c r="G47">
+        <v>17143</v>
+      </c>
+      <c r="H47">
+        <v>535</v>
+      </c>
+      <c r="K47" s="4">
+        <f>F47/SUM(F47:I47)</f>
+        <v>0.85566387432845081</v>
+      </c>
+      <c r="L47" s="4">
+        <f>G47/SUM(F47:I47)</f>
+        <v>0.13996799425202894</v>
+      </c>
+      <c r="M47" s="4">
+        <f>H47/SUM(F47:I47)</f>
+        <v>4.3681314195202405E-3</v>
+      </c>
+      <c r="R47" t="s">
+        <v>42</v>
+      </c>
+      <c r="T47" s="3"/>
+      <c r="U47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AE47" s="4"/>
+      <c r="AI47" s="4"/>
+      <c r="AM47" s="4"/>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A97" s="3"/>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A105" s="3"/>
+    </row>
+    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A119" s="3"/>
+    </row>
+    <row r="121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3"/>
+    </row>
+    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3"/>
+    </row>
+    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A129" s="3"/>
     </row>
     <row r="130" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A130" s="3"/>
     </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A131" s="3"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A141" s="3"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A148" s="3"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A155" s="3"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A158" s="3"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A161" s="3"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A167" s="3"/>
+    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A140" s="3"/>
+    </row>
+    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A147" s="3"/>
+    </row>
+    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A154" s="3"/>
+    </row>
+    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A157" s="3"/>
+    </row>
+    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A160" s="3"/>
+    </row>
+    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A166" s="3"/>
+    </row>
+    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A168" s="3"/>
     </row>
     <row r="169" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A169" s="3"/>
@@ -5173,35 +5568,35 @@
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A172" s="3"/>
+    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A176" s="3"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A177" s="3"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A178" s="3"/>
+    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A179" s="3"/>
     </row>
     <row r="180" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A180" s="3"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A181" s="3"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A183" s="3"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A187" s="3"/>
+    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A182" s="3"/>
+    </row>
+    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A186" s="3"/>
+    </row>
+    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A188" s="3"/>
     </row>
     <row r="189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A189" s="3"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A190" s="3"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A194" s="3"/>
+    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A193" s="3"/>
+    </row>
+    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A195" s="3"/>
     </row>
     <row r="196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A196" s="3"/>
@@ -5212,23 +5607,23 @@
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A199" s="3"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A201" s="3"/>
+    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A200" s="3"/>
+    </row>
+    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A202" s="3"/>
     </row>
     <row r="203" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A203" s="3"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A204" s="3"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A206" s="3"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A212" s="3"/>
+    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A205" s="3"/>
+    </row>
+    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A211" s="3"/>
+    </row>
+    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A213" s="3"/>
     </row>
     <row r="214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A214" s="3"/>
@@ -5236,14 +5631,14 @@
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A216" s="3"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A218" s="3"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A220" s="3"/>
+    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A217" s="3"/>
+    </row>
+    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A219" s="3"/>
+    </row>
+    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A221" s="3"/>
     </row>
     <row r="222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A222" s="3"/>
@@ -5263,26 +5658,26 @@
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A228" s="3"/>
+    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A229" s="3"/>
     </row>
     <row r="230" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A230" s="3"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A231" s="3"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A235" s="3"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A237" s="3"/>
+    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A234" s="3"/>
+    </row>
+    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A236" s="3"/>
+    </row>
+    <row r="238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A238" s="3"/>
     </row>
     <row r="239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A239" s="3"/>
     </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A240" s="3"/>
+    <row r="241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A241" s="3"/>
     </row>
     <row r="242" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A242" s="3"/>
@@ -5290,8 +5685,8 @@
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
     </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A244" s="3"/>
+    <row r="245" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A245" s="3"/>
     </row>
     <row r="246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A246" s="3"/>
@@ -5311,14 +5706,14 @@
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
     </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A252" s="3"/>
+    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A254" s="3"/>
     </row>
     <row r="255" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A255" s="3"/>
     </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A256" s="3"/>
+    <row r="257" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A257" s="3"/>
     </row>
     <row r="258" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A258" s="3"/>
@@ -5326,8 +5721,8 @@
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
     </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A260" s="3"/>
+    <row r="261" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A261" s="3"/>
     </row>
     <row r="262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A262" s="3"/>
@@ -5344,11 +5739,11 @@
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
     </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A267" s="3"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A269" s="3"/>
+    <row r="268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A268" s="3"/>
+    </row>
+    <row r="270" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A270" s="3"/>
     </row>
     <row r="271" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A271" s="3"/>
@@ -5356,8 +5751,8 @@
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
     </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A273" s="3"/>
+    <row r="274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A274" s="3"/>
     </row>
     <row r="275" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A275" s="3"/>
@@ -5365,8 +5760,8 @@
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
     </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A277" s="3"/>
+    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A280" s="3"/>
     </row>
     <row r="281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A281" s="3"/>
@@ -5377,14 +5772,14 @@
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
     </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A284" s="3"/>
+    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A286" s="3"/>
     </row>
     <row r="287" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A287" s="3"/>
     </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A288" s="3"/>
+    <row r="289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A289" s="3"/>
     </row>
     <row r="290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A290" s="3"/>
@@ -5401,17 +5796,17 @@
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
     </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A295" s="3"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A297" s="3"/>
+    <row r="296" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A296" s="3"/>
+    </row>
+    <row r="298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A298" s="3"/>
     </row>
     <row r="299" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A299" s="3"/>
     </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A300" s="3"/>
+    <row r="301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A301" s="3"/>
     </row>
     <row r="302" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A302" s="3"/>
@@ -5434,8 +5829,8 @@
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
     </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A309" s="3"/>
+    <row r="310" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A310" s="3"/>
     </row>
     <row r="311" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A311" s="3"/>
@@ -5455,8 +5850,8 @@
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
     </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A317" s="3"/>
+    <row r="318" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A318" s="3"/>
     </row>
     <row r="319" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A319" s="3"/>
@@ -5473,14 +5868,14 @@
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
     </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A324" s="3"/>
+    <row r="325" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A325" s="3"/>
     </row>
     <row r="326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A326" s="3"/>
     </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A327" s="3"/>
+    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A329" s="3"/>
     </row>
     <row r="330" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A330" s="3"/>
@@ -5500,8 +5895,8 @@
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
     </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A336" s="3"/>
+    <row r="337" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A337" s="3"/>
     </row>
     <row r="338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A338" s="3"/>
@@ -5509,11 +5904,11 @@
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
     </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A340" s="3"/>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A343" s="3"/>
+    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A342" s="3"/>
+    </row>
+    <row r="344" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A344" s="3"/>
     </row>
     <row r="345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A345" s="3"/>
@@ -5536,14 +5931,14 @@
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
     </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A352" s="3"/>
+    <row r="353" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A353" s="3"/>
     </row>
     <row r="354" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A354" s="3"/>
     </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A355" s="3"/>
+    <row r="356" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A356" s="3"/>
     </row>
     <row r="357" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A357" s="3"/>
@@ -5572,14 +5967,14 @@
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
     </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A366" s="3"/>
+    <row r="367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A367" s="3"/>
     </row>
     <row r="368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A368" s="3"/>
     </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A369" s="3"/>
+    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A371" s="3"/>
     </row>
     <row r="372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A372" s="3"/>
@@ -5590,8 +5985,8 @@
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
     </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A375" s="3"/>
+    <row r="376" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A376" s="3"/>
     </row>
     <row r="377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A377" s="3"/>
@@ -5605,8 +6000,8 @@
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
     </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A381" s="3"/>
+    <row r="382" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A382" s="3"/>
     </row>
     <row r="383" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A383" s="3"/>
@@ -5671,11 +6066,11 @@
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
     </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A404" s="3"/>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A406" s="3"/>
+    <row r="405" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A405" s="3"/>
+    </row>
+    <row r="407" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A407" s="3"/>
     </row>
     <row r="408" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A408" s="3"/>
@@ -5692,8 +6087,8 @@
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
     </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A413" s="3"/>
+    <row r="414" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A414" s="3"/>
     </row>
     <row r="415" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A415" s="3"/>
@@ -6361,8 +6756,8 @@
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
     </row>
-    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A637" s="3"/>
+    <row r="638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A638" s="3"/>
     </row>
     <row r="639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A639" s="3"/>
@@ -7723,8 +8118,8 @@
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091" s="3"/>
     </row>
-    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1092" s="3"/>
+    <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1093" s="3"/>
     </row>
     <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1094" s="3"/>
@@ -7864,8 +8259,8 @@
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1139" s="3"/>
     </row>
-    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1140" s="3"/>
+    <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1141" s="3"/>
     </row>
     <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1142" s="3"/>
@@ -8086,8 +8481,8 @@
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1214" s="3"/>
     </row>
-    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1215" s="3"/>
+    <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1216" s="3"/>
     </row>
     <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1217" s="3"/>
@@ -8371,8 +8766,8 @@
     <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1310" s="3"/>
     </row>
-    <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1311" s="3"/>
+    <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1312" s="3"/>
     </row>
     <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1313" s="3"/>
@@ -8404,8 +8799,8 @@
     <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1322" s="3"/>
     </row>
-    <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1323" s="3"/>
+    <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1324" s="3"/>
     </row>
     <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1325" s="3"/>
@@ -8515,8 +8910,8 @@
     <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1360" s="3"/>
     </row>
-    <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1361" s="3"/>
+    <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1362" s="3"/>
     </row>
     <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1363" s="3"/>
@@ -8548,8 +8943,8 @@
     <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1372" s="3"/>
     </row>
-    <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1373" s="3"/>
+    <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1374" s="3"/>
     </row>
     <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1375" s="3"/>
@@ -8707,8 +9102,8 @@
     <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1426" s="3"/>
     </row>
-    <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1427" s="3"/>
+    <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1428" s="3"/>
     </row>
     <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1429" s="3"/>
@@ -8773,8 +9168,8 @@
     <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1449" s="3"/>
     </row>
-    <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1450" s="3"/>
+    <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1451" s="3"/>
     </row>
     <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1452" s="3"/>
@@ -8782,8 +9177,8 @@
     <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1453" s="3"/>
     </row>
-    <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1454" s="3"/>
+    <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1455" s="3"/>
     </row>
     <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1456" s="3"/>
@@ -8806,8 +9201,8 @@
     <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1462" s="3"/>
     </row>
-    <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1463" s="3"/>
+    <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1464" s="3"/>
     </row>
     <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1465" s="3"/>
@@ -8842,8 +9237,8 @@
     <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1475" s="3"/>
     </row>
-    <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1476" s="3"/>
+    <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1478" s="3"/>
     </row>
     <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1479" s="3"/>
@@ -9016,8 +9411,8 @@
     <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1535" s="3"/>
     </row>
-    <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1536" s="3"/>
+    <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1537" s="3"/>
     </row>
     <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1538" s="3"/>
@@ -9025,8 +9420,8 @@
     <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1539" s="3"/>
     </row>
-    <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1540" s="3"/>
+    <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1541" s="3"/>
     </row>
     <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1542" s="3"/>
@@ -9049,8 +9444,8 @@
     <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1548" s="3"/>
     </row>
-    <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1549" s="3"/>
+    <row r="1550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1550" s="3"/>
     </row>
     <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1551" s="3"/>
@@ -9079,8 +9474,8 @@
     <row r="1559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1559" s="3"/>
     </row>
-    <row r="1560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1560" s="3"/>
+    <row r="1561" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1561" s="3"/>
     </row>
     <row r="1562" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1562" s="3"/>
@@ -9208,8 +9603,8 @@
     <row r="1603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1603" s="3"/>
     </row>
-    <row r="1604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1604" s="3"/>
+    <row r="1605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1605" s="3"/>
     </row>
     <row r="1606" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1606" s="3"/>
@@ -9235,8 +9630,8 @@
     <row r="1613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1613" s="3"/>
     </row>
-    <row r="1614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1614" s="3"/>
+    <row r="1615" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1615" s="3"/>
     </row>
     <row r="1616" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1616" s="3"/>
@@ -9283,8 +9678,8 @@
     <row r="1630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1630" s="3"/>
     </row>
-    <row r="1631" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1631" s="3"/>
+    <row r="1632" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1632" s="3"/>
     </row>
     <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1633" s="3"/>
@@ -9298,20 +9693,20 @@
     <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1636" s="3"/>
     </row>
-    <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1637" s="3"/>
+    <row r="1638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1638" s="3"/>
     </row>
     <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1639" s="3"/>
     </row>
-    <row r="1640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1640" s="3"/>
+    <row r="1641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1641" s="3"/>
     </row>
     <row r="1642" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1642" s="3"/>
     </row>
-    <row r="1643" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1643" s="3"/>
+    <row r="1644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1644" s="3"/>
     </row>
     <row r="1645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1645" s="3"/>
@@ -9325,8 +9720,8 @@
     <row r="1648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1648" s="3"/>
     </row>
-    <row r="1649" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1649" s="3"/>
+    <row r="1650" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1650" s="3"/>
     </row>
     <row r="1651" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1651" s="3"/>
@@ -9349,8 +9744,8 @@
     <row r="1657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1657" s="3"/>
     </row>
-    <row r="1658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1658" s="3"/>
+    <row r="1659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1659" s="3"/>
     </row>
     <row r="1660" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1660" s="3"/>
@@ -9373,14 +9768,14 @@
     <row r="1666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1666" s="3"/>
     </row>
-    <row r="1667" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1667" s="3"/>
+    <row r="1668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1668" s="3"/>
     </row>
     <row r="1669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1669" s="3"/>
     </row>
-    <row r="1670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1670" s="3"/>
+    <row r="1671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1671" s="3"/>
     </row>
     <row r="1672" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1672" s="3"/>
@@ -9394,14 +9789,14 @@
     <row r="1675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1675" s="3"/>
     </row>
-    <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1676" s="3"/>
+    <row r="1677" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1677" s="3"/>
     </row>
     <row r="1678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1678" s="3"/>
     </row>
-    <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1679" s="3"/>
+    <row r="1681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1681" s="3"/>
     </row>
     <row r="1682" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1682" s="3"/>
@@ -9412,8 +9807,8 @@
     <row r="1684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1684" s="3"/>
     </row>
-    <row r="1685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1685" s="3"/>
+    <row r="1686" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1686" s="3"/>
     </row>
     <row r="1687" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1687" s="3"/>
@@ -9451,8 +9846,8 @@
     <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1698" s="3"/>
     </row>
-    <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1699" s="3"/>
+    <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1700" s="3"/>
     </row>
     <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1701" s="3"/>
@@ -9478,14 +9873,14 @@
     <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1708" s="3"/>
     </row>
-    <row r="1709" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1709" s="3"/>
+    <row r="1710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1710" s="3"/>
     </row>
     <row r="1711" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1711" s="3"/>
     </row>
-    <row r="1712" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1712" s="3"/>
+    <row r="1713" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1713" s="3"/>
     </row>
     <row r="1714" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1714" s="3"/>
@@ -9496,8 +9891,8 @@
     <row r="1716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1716" s="3"/>
     </row>
-    <row r="1717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1717" s="3"/>
+    <row r="1718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1718" s="3"/>
     </row>
     <row r="1719" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1719" s="3"/>
@@ -9520,8 +9915,8 @@
     <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1725" s="3"/>
     </row>
-    <row r="1726" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1726" s="3"/>
+    <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1727" s="3"/>
     </row>
     <row r="1728" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1728" s="3"/>
@@ -9532,8 +9927,8 @@
     <row r="1730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1730" s="3"/>
     </row>
-    <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1731" s="3"/>
+    <row r="1732" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1732" s="3"/>
     </row>
     <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1733" s="3"/>
@@ -9565,8 +9960,8 @@
     <row r="1742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1742" s="3"/>
     </row>
-    <row r="1743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1743" s="3"/>
+    <row r="1744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1744" s="3"/>
     </row>
     <row r="1745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1745" s="3"/>
@@ -9604,8 +9999,8 @@
     <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1756" s="3"/>
     </row>
-    <row r="1757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1757" s="3"/>
+    <row r="1758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1758" s="3"/>
     </row>
     <row r="1759" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1759" s="3"/>
@@ -9646,8 +10041,8 @@
     <row r="1771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1771" s="3"/>
     </row>
-    <row r="1772" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1772" s="3"/>
+    <row r="1773" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1773" s="3"/>
     </row>
     <row r="1774" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1774" s="3"/>
@@ -9658,8 +10053,8 @@
     <row r="1776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1776" s="3"/>
     </row>
-    <row r="1777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1777" s="3"/>
+    <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1778" s="3"/>
     </row>
     <row r="1779" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1779" s="3"/>
@@ -9670,8 +10065,8 @@
     <row r="1781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1781" s="3"/>
     </row>
-    <row r="1782" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1782" s="3"/>
+    <row r="1783" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1783" s="3"/>
     </row>
     <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1784" s="3"/>
@@ -9715,8 +10110,8 @@
     <row r="1797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1797" s="3"/>
     </row>
-    <row r="1798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1798" s="3"/>
+    <row r="1799" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1799" s="3"/>
     </row>
     <row r="1800" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1800" s="3"/>
@@ -9736,8 +10131,8 @@
     <row r="1805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1805" s="3"/>
     </row>
-    <row r="1806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1806" s="3"/>
+    <row r="1807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1807" s="3"/>
     </row>
     <row r="1808" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1808" s="3"/>
@@ -9745,8 +10140,8 @@
     <row r="1809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1809" s="3"/>
     </row>
-    <row r="1810" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1810" s="3"/>
+    <row r="1811" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1811" s="3"/>
     </row>
     <row r="1812" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1812" s="3"/>
@@ -9763,8 +10158,8 @@
     <row r="1816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1816" s="3"/>
     </row>
-    <row r="1817" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1817" s="3"/>
+    <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1819" s="3"/>
     </row>
     <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1820" s="3"/>
@@ -9781,8 +10176,8 @@
     <row r="1824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1824" s="3"/>
     </row>
-    <row r="1825" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1825" s="3"/>
+    <row r="1829" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1829" s="3"/>
     </row>
     <row r="1830" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1830" s="3"/>
@@ -9790,8 +10185,8 @@
     <row r="1831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1831" s="3"/>
     </row>
-    <row r="1832" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1832" s="3"/>
+    <row r="1833" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1833" s="3"/>
     </row>
     <row r="1834" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1834" s="3"/>
@@ -9808,23 +10203,23 @@
     <row r="1838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1838" s="3"/>
     </row>
-    <row r="1839" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1839" s="3"/>
+    <row r="1841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1841" s="3"/>
     </row>
     <row r="1842" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1842" s="3"/>
     </row>
-    <row r="1843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1843" s="3"/>
-    </row>
-    <row r="1846" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1846" s="3"/>
+    <row r="1845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1845" s="3"/>
+    </row>
+    <row r="1847" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1847" s="3"/>
     </row>
     <row r="1848" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1848" s="3"/>
     </row>
-    <row r="1849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1849" s="3"/>
+    <row r="1850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1850" s="3"/>
     </row>
     <row r="1851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1851" s="3"/>
@@ -9832,8 +10227,8 @@
     <row r="1852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1852" s="3"/>
     </row>
-    <row r="1853" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1853" s="3"/>
+    <row r="1856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1856" s="3"/>
     </row>
     <row r="1857" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1857" s="3"/>
@@ -9844,26 +10239,26 @@
     <row r="1859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1859" s="3"/>
     </row>
-    <row r="1860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1860" s="3"/>
-    </row>
-    <row r="1862" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1862" s="3"/>
+    <row r="1861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1861" s="3"/>
+    </row>
+    <row r="1863" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1863" s="3"/>
     </row>
     <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1864" s="3"/>
     </row>
-    <row r="1865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1865" s="3"/>
+    <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1866" s="3"/>
     </row>
     <row r="1867" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1867" s="3"/>
     </row>
-    <row r="1868" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1868" s="3"/>
-    </row>
-    <row r="1870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1870" s="3"/>
+    <row r="1869" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1869" s="3"/>
+    </row>
+    <row r="1871" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1871" s="3"/>
     </row>
     <row r="1872" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1872" s="3"/>
@@ -9871,8 +10266,8 @@
     <row r="1873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1873" s="3"/>
     </row>
-    <row r="1874" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1874" s="3"/>
+    <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1875" s="3"/>
     </row>
     <row r="1876" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1876" s="3"/>
@@ -9889,8 +10284,8 @@
     <row r="1880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1880" s="3"/>
     </row>
-    <row r="1881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1881" s="3"/>
+    <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1882" s="3"/>
     </row>
     <row r="1883" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1883" s="3"/>
@@ -9916,8 +10311,8 @@
     <row r="1890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1890" s="3"/>
     </row>
-    <row r="1891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1891" s="3"/>
+    <row r="1892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1892" s="3"/>
     </row>
     <row r="1893" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1893" s="3"/>
@@ -9931,14 +10326,14 @@
     <row r="1896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1896" s="3"/>
     </row>
-    <row r="1897" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1897" s="3"/>
+    <row r="1898" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1898" s="3"/>
     </row>
     <row r="1899" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1899" s="3"/>
     </row>
-    <row r="1900" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1900" s="3"/>
+    <row r="1901" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1901" s="3"/>
     </row>
     <row r="1902" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1902" s="3"/>
@@ -9949,11 +10344,11 @@
     <row r="1904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1904" s="3"/>
     </row>
-    <row r="1905" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1905" s="3"/>
-    </row>
-    <row r="1907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1907" s="3"/>
+    <row r="1906" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1906" s="3"/>
+    </row>
+    <row r="1911" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1911" s="3"/>
     </row>
     <row r="1912" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1912" s="3"/>
@@ -9964,8 +10359,8 @@
     <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1914" s="3"/>
     </row>
-    <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1915" s="3"/>
+    <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1917" s="3"/>
     </row>
     <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1918" s="3"/>
@@ -9979,23 +10374,23 @@
     <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1921" s="3"/>
     </row>
-    <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1922" s="3"/>
-    </row>
-    <row r="1924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1924" s="3"/>
+    <row r="1923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1923" s="3"/>
+    </row>
+    <row r="1926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1926" s="3"/>
     </row>
     <row r="1927" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1927" s="3"/>
     </row>
-    <row r="1928" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1928" s="3"/>
+    <row r="1930" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1930" s="3"/>
     </row>
     <row r="1931" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1931" s="3"/>
     </row>
-    <row r="1932" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1932" s="3"/>
+    <row r="1933" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1933" s="3"/>
     </row>
     <row r="1934" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1934" s="3"/>
@@ -10006,20 +10401,20 @@
     <row r="1936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1936" s="3"/>
     </row>
-    <row r="1937" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1937" s="3"/>
+    <row r="1939" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1939" s="3"/>
     </row>
     <row r="1940" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1940" s="3"/>
     </row>
-    <row r="1941" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1941" s="3"/>
+    <row r="1942" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1942" s="3"/>
     </row>
     <row r="1943" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1943" s="3"/>
     </row>
-    <row r="1944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1944" s="3"/>
+    <row r="1945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1945" s="3"/>
     </row>
     <row r="1946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1946" s="3"/>
@@ -10027,11 +10422,11 @@
     <row r="1947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1947" s="3"/>
     </row>
-    <row r="1948" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1948" s="3"/>
-    </row>
-    <row r="1950" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1950" s="3"/>
+    <row r="1949" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1949" s="3"/>
+    </row>
+    <row r="1951" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1951" s="3"/>
     </row>
     <row r="1952" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1952" s="3"/>
@@ -10039,8 +10434,8 @@
     <row r="1953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1953" s="3"/>
     </row>
-    <row r="1954" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1954" s="3"/>
+    <row r="1955" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1955" s="3"/>
     </row>
     <row r="1956" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1956" s="3"/>
@@ -10051,8 +10446,8 @@
     <row r="1958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1958" s="3"/>
     </row>
-    <row r="1959" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1959" s="3"/>
+    <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1960" s="3"/>
     </row>
     <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1961" s="3"/>
@@ -10078,8 +10473,8 @@
     <row r="1968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1968" s="3"/>
     </row>
-    <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1969" s="3"/>
+    <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1971" s="3"/>
     </row>
     <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1972" s="3"/>
@@ -10087,8 +10482,8 @@
     <row r="1973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1973" s="3"/>
     </row>
-    <row r="1974" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1974" s="3"/>
+    <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1975" s="3"/>
     </row>
     <row r="1976" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1976" s="3"/>
@@ -10096,11 +10491,11 @@
     <row r="1977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1977" s="3"/>
     </row>
-    <row r="1978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1978" s="3"/>
-    </row>
-    <row r="1980" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1980" s="3"/>
+    <row r="1979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1979" s="3"/>
+    </row>
+    <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1982" s="3"/>
     </row>
     <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1983" s="3"/>
@@ -10108,8 +10503,8 @@
     <row r="1984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1984" s="3"/>
     </row>
-    <row r="1985" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1985" s="3"/>
+    <row r="1986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1986" s="3"/>
     </row>
     <row r="1987" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1987" s="3"/>
@@ -10138,11 +10533,11 @@
     <row r="1995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1995" s="3"/>
     </row>
-    <row r="1996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1996" s="3"/>
-    </row>
-    <row r="1998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1998" s="3"/>
+    <row r="1997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1997" s="3"/>
+    </row>
+    <row r="1999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1999" s="3"/>
     </row>
     <row r="2000" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2000" s="3"/>
@@ -10150,8 +10545,8 @@
     <row r="2001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2001" s="3"/>
     </row>
-    <row r="2002" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2002" s="3"/>
+    <row r="2003" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2003" s="3"/>
     </row>
     <row r="2004" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2004" s="3"/>
@@ -10165,11 +10560,11 @@
     <row r="2007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2007" s="3"/>
     </row>
-    <row r="2008" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2008" s="3"/>
-    </row>
-    <row r="2013" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2013" s="3"/>
+    <row r="2012" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2012" s="3"/>
+    </row>
+    <row r="2014" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2014" s="3"/>
     </row>
     <row r="2015" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2015" s="3"/>
@@ -10201,8 +10596,8 @@
     <row r="2024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2024" s="3"/>
     </row>
-    <row r="2025" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2025" s="3"/>
+    <row r="2026" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2026" s="3"/>
     </row>
     <row r="2027" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2027" s="3"/>
@@ -10210,8 +10605,8 @@
     <row r="2028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2028" s="3"/>
     </row>
-    <row r="2029" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2029" s="3"/>
+    <row r="2031" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2031" s="3"/>
     </row>
     <row r="2032" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2032" s="3"/>
@@ -10219,8 +10614,8 @@
     <row r="2033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2033" s="3"/>
     </row>
-    <row r="2034" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2034" s="3"/>
+    <row r="2035" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2035" s="3"/>
     </row>
     <row r="2036" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2036" s="3"/>
@@ -10237,11 +10632,11 @@
     <row r="2040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2040" s="3"/>
     </row>
-    <row r="2041" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2041" s="3"/>
-    </row>
-    <row r="2045" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2045" s="3"/>
+    <row r="2044" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2044" s="3"/>
+    </row>
+    <row r="2046" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2046" s="3"/>
     </row>
     <row r="2047" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2047" s="3"/>
@@ -10249,23 +10644,23 @@
     <row r="2048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2048" s="3"/>
     </row>
-    <row r="2049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2049" s="3"/>
+    <row r="2050" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2050" s="3"/>
     </row>
     <row r="2051" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2051" s="3"/>
     </row>
-    <row r="2052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2052" s="3"/>
+    <row r="2053" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2053" s="3"/>
     </row>
     <row r="2054" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2054" s="3"/>
     </row>
-    <row r="2055" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2055" s="3"/>
-    </row>
-    <row r="2058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2058" s="3"/>
+    <row r="2057" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2057" s="3"/>
+    </row>
+    <row r="2060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2060" s="3"/>
     </row>
     <row r="2061" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2061" s="3"/>
@@ -10276,14 +10671,14 @@
     <row r="2063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2063" s="3"/>
     </row>
-    <row r="2064" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2064" s="3"/>
+    <row r="2065" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2065" s="3"/>
     </row>
     <row r="2066" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2066" s="3"/>
     </row>
-    <row r="2067" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2067" s="3"/>
+    <row r="2071" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2071" s="3"/>
     </row>
     <row r="2072" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2072" s="3"/>
@@ -10312,11 +10707,11 @@
     <row r="2080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2080" s="3"/>
     </row>
-    <row r="2081" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2081" s="3"/>
-    </row>
-    <row r="2083" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2083" s="3"/>
+    <row r="2082" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2082" s="3"/>
+    </row>
+    <row r="2084" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2084" s="3"/>
     </row>
     <row r="2085" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2085" s="3"/>
@@ -10336,8 +10731,8 @@
     <row r="2090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2090" s="3"/>
     </row>
-    <row r="2091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2091" s="3"/>
+    <row r="2096" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2096" s="3"/>
     </row>
     <row r="2097" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2097" s="3"/>
@@ -10348,14 +10743,14 @@
     <row r="2099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2099" s="3"/>
     </row>
-    <row r="2100" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2100" s="3"/>
-    </row>
-    <row r="2102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2102" s="3"/>
-    </row>
-    <row r="2106" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2106" s="3"/>
+    <row r="2101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2101" s="3"/>
+    </row>
+    <row r="2105" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2105" s="3"/>
+    </row>
+    <row r="2109" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2109" s="3"/>
     </row>
     <row r="2110" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2110" s="3"/>
@@ -10369,8 +10764,8 @@
     <row r="2113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2113" s="3"/>
     </row>
-    <row r="2114" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2114" s="3"/>
+    <row r="2116" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2116" s="3"/>
     </row>
     <row r="2117" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2117" s="3"/>
@@ -10384,23 +10779,23 @@
     <row r="2120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2120" s="3"/>
     </row>
-    <row r="2121" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2121" s="3"/>
-    </row>
-    <row r="2124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2124" s="3"/>
-    </row>
-    <row r="2128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2128" s="3"/>
+    <row r="2123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2123" s="3"/>
+    </row>
+    <row r="2127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2127" s="3"/>
+    </row>
+    <row r="2132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2132" s="3"/>
     </row>
     <row r="2133" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2133" s="3"/>
     </row>
-    <row r="2134" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2134" s="3"/>
-    </row>
-    <row r="2136" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2136" s="3"/>
+    <row r="2135" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2135" s="3"/>
+    </row>
+    <row r="2137" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2137" s="3"/>
     </row>
     <row r="2138" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2138" s="3"/>
@@ -10438,38 +10833,38 @@
     <row r="2149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2149" s="3"/>
     </row>
-    <row r="2150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2150" s="3"/>
+    <row r="2151" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2151" s="3"/>
     </row>
     <row r="2152" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2152" s="3"/>
     </row>
-    <row r="2153" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2153" s="3"/>
-    </row>
-    <row r="2157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2157" s="3"/>
-    </row>
-    <row r="2160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2160" s="3"/>
+    <row r="2156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2156" s="3"/>
+    </row>
+    <row r="2159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2159" s="3"/>
+    </row>
+    <row r="2164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2164" s="3"/>
     </row>
     <row r="2165" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2165" s="3"/>
     </row>
-    <row r="2166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2166" s="3"/>
-    </row>
-    <row r="2173" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2173" s="3"/>
-    </row>
-    <row r="2178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2178" s="3"/>
-    </row>
-    <row r="2182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2182" s="3"/>
-    </row>
-    <row r="2185" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2185" s="3"/>
+    <row r="2172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2172" s="3"/>
+    </row>
+    <row r="2177" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2177" s="3"/>
+    </row>
+    <row r="2181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2181" s="3"/>
+    </row>
+    <row r="2184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2184" s="3"/>
+    </row>
+    <row r="2187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2187" s="3"/>
     </row>
     <row r="2188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2188" s="3"/>
@@ -10477,8 +10872,8 @@
     <row r="2189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2189" s="3"/>
     </row>
-    <row r="2190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2190" s="3"/>
+    <row r="2193" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2193" s="3"/>
     </row>
     <row r="2194" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2194" s="3"/>
@@ -10489,14 +10884,14 @@
     <row r="2196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2196" s="3"/>
     </row>
-    <row r="2197" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2197" s="3"/>
-    </row>
-    <row r="2204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2204" s="3"/>
-    </row>
-    <row r="2206" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2206" s="3"/>
+    <row r="2203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2203" s="3"/>
+    </row>
+    <row r="2205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2205" s="3"/>
+    </row>
+    <row r="2207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2207" s="3"/>
     </row>
     <row r="2208" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2208" s="3"/>
@@ -10510,11 +10905,11 @@
     <row r="2211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2211" s="3"/>
     </row>
-    <row r="2212" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2212" s="3"/>
-    </row>
-    <row r="2215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2215" s="3"/>
+    <row r="2214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2214" s="3"/>
+    </row>
+    <row r="2218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2218" s="3"/>
     </row>
     <row r="2219" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2219" s="3"/>
@@ -10522,29 +10917,29 @@
     <row r="2220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2220" s="3"/>
     </row>
-    <row r="2221" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2221" s="3"/>
+    <row r="2222" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2222" s="3"/>
     </row>
     <row r="2223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2223" s="3"/>
     </row>
-    <row r="2224" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2224" s="3"/>
-    </row>
-    <row r="2228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2228" s="3"/>
-    </row>
-    <row r="2231" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2231" s="3"/>
-    </row>
-    <row r="2235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2235" s="3"/>
+    <row r="2227" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2227" s="3"/>
+    </row>
+    <row r="2230" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2230" s="3"/>
+    </row>
+    <row r="2234" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2234" s="3"/>
+    </row>
+    <row r="2236" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2236" s="3"/>
     </row>
     <row r="2237" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2237" s="3"/>
     </row>
-    <row r="2238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2238" s="3"/>
+    <row r="2242" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2242" s="3"/>
     </row>
     <row r="2243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2243" s="3"/>
@@ -10558,11 +10953,11 @@
     <row r="2246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2246" s="3"/>
     </row>
-    <row r="2247" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2247" s="3"/>
-    </row>
-    <row r="2250" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2250" s="3"/>
+    <row r="2249" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2249" s="3"/>
+    </row>
+    <row r="2251" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2251" s="3"/>
     </row>
     <row r="2252" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2252" s="3"/>
@@ -10573,8 +10968,8 @@
     <row r="2254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2254" s="3"/>
     </row>
-    <row r="2255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2255" s="3"/>
+    <row r="2260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2260" s="3"/>
     </row>
     <row r="2261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2261" s="3"/>
@@ -10585,29 +10980,29 @@
     <row r="2263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2263" s="3"/>
     </row>
-    <row r="2264" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2264" s="3"/>
-    </row>
-    <row r="2266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2266" s="3"/>
-    </row>
-    <row r="2268" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2268" s="3"/>
+    <row r="2265" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2265" s="3"/>
+    </row>
+    <row r="2267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2267" s="3"/>
+    </row>
+    <row r="2271" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2271" s="3"/>
     </row>
     <row r="2272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2272" s="3"/>
     </row>
-    <row r="2273" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2273" s="3"/>
-    </row>
-    <row r="2275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2275" s="3"/>
-    </row>
-    <row r="2280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2280" s="3"/>
-    </row>
-    <row r="2282" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2282" s="3"/>
+    <row r="2274" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2274" s="3"/>
+    </row>
+    <row r="2279" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2279" s="3"/>
+    </row>
+    <row r="2281" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2281" s="3"/>
+    </row>
+    <row r="2283" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2283" s="3"/>
     </row>
     <row r="2284" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2284" s="3"/>
@@ -10615,8 +11010,8 @@
     <row r="2285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2285" s="3"/>
     </row>
-    <row r="2286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2286" s="3"/>
+    <row r="2289" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2289" s="3"/>
     </row>
     <row r="2290" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2290" s="3"/>
@@ -10624,17 +11019,17 @@
     <row r="2291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2291" s="3"/>
     </row>
-    <row r="2292" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2292" s="3"/>
+    <row r="2295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2295" s="3"/>
     </row>
     <row r="2296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2296" s="3"/>
     </row>
-    <row r="2297" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2297" s="3"/>
-    </row>
-    <row r="2300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2300" s="3"/>
+    <row r="2299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2299" s="3"/>
+    </row>
+    <row r="2302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2302" s="3"/>
     </row>
     <row r="2303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2303" s="3"/>
@@ -10642,41 +11037,41 @@
     <row r="2304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2304" s="3"/>
     </row>
-    <row r="2305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2305" s="3"/>
-    </row>
-    <row r="2308" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2308" s="3"/>
+    <row r="2307" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2307" s="3"/>
+    </row>
+    <row r="2309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2309" s="3"/>
     </row>
     <row r="2310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2310" s="3"/>
     </row>
-    <row r="2311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2311" s="3"/>
-    </row>
-    <row r="2315" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2315" s="3"/>
+    <row r="2314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2314" s="3"/>
+    </row>
+    <row r="2317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2317" s="3"/>
     </row>
     <row r="2318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2318" s="3"/>
     </row>
-    <row r="2319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2319" s="3"/>
-    </row>
-    <row r="2321" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2321" s="3"/>
-    </row>
-    <row r="2323" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2323" s="3"/>
-    </row>
-    <row r="2325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2325" s="3"/>
-    </row>
-    <row r="2333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2333" s="3"/>
-    </row>
-    <row r="2335" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2335" s="3"/>
+    <row r="2320" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2320" s="3"/>
+    </row>
+    <row r="2322" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2322" s="3"/>
+    </row>
+    <row r="2324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2324" s="3"/>
+    </row>
+    <row r="2332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2332" s="3"/>
+    </row>
+    <row r="2334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2334" s="3"/>
+    </row>
+    <row r="2336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2336" s="3"/>
     </row>
     <row r="2337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2337" s="3"/>
@@ -10684,14 +11079,14 @@
     <row r="2338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2338" s="3"/>
     </row>
-    <row r="2339" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2339" s="3"/>
-    </row>
-    <row r="2341" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2341" s="3"/>
-    </row>
-    <row r="2344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2344" s="3"/>
+    <row r="2340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2340" s="3"/>
+    </row>
+    <row r="2343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2343" s="3"/>
+    </row>
+    <row r="2345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2345" s="3"/>
     </row>
     <row r="2346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2346" s="3"/>
@@ -10705,8 +11100,8 @@
     <row r="2349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2349" s="3"/>
     </row>
-    <row r="2350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2350" s="3"/>
+    <row r="2357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2357" s="3"/>
     </row>
     <row r="2358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2358" s="3"/>
@@ -10720,11 +11115,11 @@
     <row r="2361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2361" s="3"/>
     </row>
-    <row r="2362" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2362" s="3"/>
-    </row>
-    <row r="2364" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2364" s="3"/>
+    <row r="2363" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2363" s="3"/>
+    </row>
+    <row r="2366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2366" s="3"/>
     </row>
     <row r="2367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2367" s="3"/>
@@ -10738,11 +11133,11 @@
     <row r="2370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2370" s="3"/>
     </row>
-    <row r="2371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2371" s="3"/>
-    </row>
-    <row r="2374" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2374" s="3"/>
+    <row r="2373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2373" s="3"/>
+    </row>
+    <row r="2375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2375" s="3"/>
     </row>
     <row r="2376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2376" s="3"/>
@@ -10750,29 +11145,29 @@
     <row r="2377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2377" s="3"/>
     </row>
-    <row r="2378" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2378" s="3"/>
-    </row>
-    <row r="2382" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2382" s="3"/>
-    </row>
-    <row r="2391" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2391" s="3"/>
-    </row>
-    <row r="2395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2395" s="3"/>
+    <row r="2381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2381" s="3"/>
+    </row>
+    <row r="2390" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2390" s="3"/>
+    </row>
+    <row r="2394" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2394" s="3"/>
+    </row>
+    <row r="2397" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2397" s="3"/>
     </row>
     <row r="2398" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2398" s="3"/>
     </row>
-    <row r="2399" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2399" s="3"/>
-    </row>
-    <row r="2401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2401" s="3"/>
-    </row>
-    <row r="2410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2410" s="3"/>
+    <row r="2400" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2400" s="3"/>
+    </row>
+    <row r="2409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2409" s="3"/>
+    </row>
+    <row r="2412" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2412" s="3"/>
     </row>
     <row r="2413" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2413" s="3"/>
@@ -10780,77 +11175,77 @@
     <row r="2414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2414" s="3"/>
     </row>
-    <row r="2415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2415" s="3"/>
-    </row>
-    <row r="2417" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2417" s="3"/>
+    <row r="2416" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2416" s="3"/>
+    </row>
+    <row r="2422" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2422" s="3"/>
     </row>
     <row r="2423" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2423" s="3"/>
     </row>
-    <row r="2424" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2424" s="3"/>
-    </row>
-    <row r="2429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2429" s="3"/>
+    <row r="2428" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2428" s="3"/>
+    </row>
+    <row r="2431" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2431" s="3"/>
     </row>
     <row r="2432" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2432" s="3"/>
     </row>
-    <row r="2433" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2433" s="3"/>
-    </row>
-    <row r="2435" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2435" s="3"/>
-    </row>
-    <row r="2438" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2438" s="3"/>
-    </row>
-    <row r="2440" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2440" s="3"/>
-    </row>
-    <row r="2442" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2442" s="3"/>
+    <row r="2434" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2434" s="3"/>
+    </row>
+    <row r="2437" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2437" s="3"/>
+    </row>
+    <row r="2439" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2439" s="3"/>
+    </row>
+    <row r="2441" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2441" s="3"/>
+    </row>
+    <row r="2448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2448" s="3"/>
     </row>
     <row r="2449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2449" s="3"/>
     </row>
-    <row r="2450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2450" s="3"/>
-    </row>
-    <row r="2452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2452" s="3"/>
-    </row>
-    <row r="2454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2454" s="3"/>
+    <row r="2451" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2451" s="3"/>
+    </row>
+    <row r="2453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2453" s="3"/>
+    </row>
+    <row r="2457" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2457" s="3"/>
     </row>
     <row r="2458" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2458" s="3"/>
     </row>
-    <row r="2459" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2459" s="3"/>
+    <row r="2460" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2460" s="3"/>
     </row>
     <row r="2461" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2461" s="3"/>
     </row>
-    <row r="2462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2462" s="3"/>
+    <row r="2463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2463" s="3"/>
     </row>
     <row r="2464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2464" s="3"/>
     </row>
-    <row r="2465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2465" s="3"/>
-    </row>
-    <row r="2469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2469" s="3"/>
-    </row>
-    <row r="2471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2471" s="3"/>
-    </row>
-    <row r="2474" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2474" s="3"/>
+    <row r="2468" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2468" s="3"/>
+    </row>
+    <row r="2470" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2470" s="3"/>
+    </row>
+    <row r="2473" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2473" s="3"/>
+    </row>
+    <row r="2480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2480" s="3"/>
     </row>
     <row r="2481" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2481" s="3"/>
@@ -10858,17 +11253,17 @@
     <row r="2482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2482" s="3"/>
     </row>
-    <row r="2483" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2483" s="3"/>
+    <row r="2484" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2484" s="3"/>
     </row>
     <row r="2485" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2485" s="3"/>
     </row>
-    <row r="2486" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2486" s="3"/>
-    </row>
-    <row r="2491" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2491" s="3"/>
+    <row r="2490" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2490" s="3"/>
+    </row>
+    <row r="2496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2496" s="3"/>
     </row>
     <row r="2497" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2497" s="3"/>
@@ -10882,11 +11277,11 @@
     <row r="2500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2500" s="3"/>
     </row>
-    <row r="2501" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2501" s="3"/>
-    </row>
-    <row r="2504" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2504" s="3"/>
+    <row r="2503" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2503" s="3"/>
+    </row>
+    <row r="2506" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2506" s="3"/>
     </row>
     <row r="2507" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2507" s="3"/>
@@ -10897,56 +11292,56 @@
     <row r="2509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2509" s="3"/>
     </row>
-    <row r="2510" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2510" s="3"/>
-    </row>
-    <row r="2516" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2516" s="3"/>
-    </row>
-    <row r="2518" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2518" s="3"/>
-    </row>
-    <row r="2520" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2520" s="3"/>
-    </row>
-    <row r="2522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2522" s="3"/>
-    </row>
-    <row r="2524" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2524" s="3"/>
+    <row r="2515" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2515" s="3"/>
+    </row>
+    <row r="2517" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2517" s="3"/>
+    </row>
+    <row r="2519" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2519" s="3"/>
+    </row>
+    <row r="2521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2521" s="3"/>
+    </row>
+    <row r="2523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2523" s="3"/>
+    </row>
+    <row r="2525" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2525" s="3"/>
     </row>
     <row r="2526" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2526" s="3"/>
     </row>
-    <row r="2527" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2527" s="3"/>
+    <row r="2530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2530" s="3"/>
     </row>
     <row r="2531" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2531" s="3"/>
     </row>
-    <row r="2532" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2532" s="3"/>
-    </row>
-    <row r="2534" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2534" s="3"/>
+    <row r="2533" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2533" s="3"/>
+    </row>
+    <row r="2539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2539" s="3"/>
     </row>
     <row r="2540" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2540" s="3"/>
     </row>
-    <row r="2541" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2541" s="3"/>
-    </row>
-    <row r="2551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2551" s="3"/>
+    <row r="2550" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2550" s="3"/>
+    </row>
+    <row r="2553" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2553" s="3"/>
     </row>
     <row r="2554" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2554" s="3"/>
     </row>
-    <row r="2555" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2555" s="3"/>
-    </row>
-    <row r="2557" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2557" s="3"/>
+    <row r="2556" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2556" s="3"/>
+    </row>
+    <row r="2559" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2559" s="3"/>
     </row>
     <row r="2560" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2560" s="3"/>
@@ -10954,149 +11349,149 @@
     <row r="2561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2561" s="3"/>
     </row>
-    <row r="2562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2562" s="3"/>
-    </row>
-    <row r="2566" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2566" s="3"/>
-    </row>
-    <row r="2575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2575" s="3"/>
-    </row>
-    <row r="2578" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2578" s="3"/>
-    </row>
-    <row r="2581" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2581" s="3"/>
-    </row>
-    <row r="2587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2587" s="3"/>
+    <row r="2565" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2565" s="3"/>
+    </row>
+    <row r="2574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2574" s="3"/>
+    </row>
+    <row r="2577" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2577" s="3"/>
+    </row>
+    <row r="2580" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2580" s="3"/>
+    </row>
+    <row r="2586" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2586" s="3"/>
+    </row>
+    <row r="2592" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2592" s="3"/>
     </row>
     <row r="2593" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2593" s="3"/>
     </row>
-    <row r="2594" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2594" s="3"/>
+    <row r="2595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2595" s="3"/>
     </row>
     <row r="2596" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2596" s="3"/>
     </row>
-    <row r="2597" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2597" s="3"/>
-    </row>
-    <row r="2600" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2600" s="3"/>
-    </row>
-    <row r="2602" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2602" s="3"/>
-    </row>
-    <row r="2611" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2611" s="3"/>
-    </row>
-    <row r="2615" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2615" s="3"/>
-    </row>
-    <row r="2619" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2619" s="3"/>
-    </row>
-    <row r="2622" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2622" s="3"/>
-    </row>
-    <row r="2629" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2629" s="3"/>
-    </row>
-    <row r="2637" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2637" s="3"/>
+    <row r="2599" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2599" s="3"/>
+    </row>
+    <row r="2601" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2601" s="3"/>
+    </row>
+    <row r="2610" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2610" s="3"/>
+    </row>
+    <row r="2614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2614" s="3"/>
+    </row>
+    <row r="2618" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2618" s="3"/>
+    </row>
+    <row r="2621" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2621" s="3"/>
+    </row>
+    <row r="2628" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2628" s="3"/>
+    </row>
+    <row r="2636" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2636" s="3"/>
+    </row>
+    <row r="2638" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2638" s="3"/>
     </row>
     <row r="2639" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2639" s="3"/>
     </row>
-    <row r="2640" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2640" s="3"/>
+    <row r="2644" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2644" s="3"/>
     </row>
     <row r="2645" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2645" s="3"/>
     </row>
-    <row r="2646" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2646" s="3"/>
+    <row r="2651" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2651" s="3"/>
     </row>
     <row r="2652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2652" s="3"/>
     </row>
-    <row r="2653" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2653" s="3"/>
+    <row r="2656" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2656" s="3"/>
     </row>
     <row r="2657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2657" s="3"/>
     </row>
-    <row r="2658" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2658" s="3"/>
-    </row>
-    <row r="2662" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2662" s="3"/>
+    <row r="2661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2661" s="3"/>
+    </row>
+    <row r="2668" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2668" s="3"/>
     </row>
     <row r="2669" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2669" s="3"/>
     </row>
-    <row r="2670" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2670" s="3"/>
-    </row>
-    <row r="2672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2672" s="3"/>
-    </row>
-    <row r="2675" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2675" s="3"/>
-    </row>
-    <row r="2677" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2677" s="3"/>
-    </row>
-    <row r="2679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2679" s="3"/>
+    <row r="2671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2671" s="3"/>
+    </row>
+    <row r="2674" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2674" s="3"/>
+    </row>
+    <row r="2676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2676" s="3"/>
+    </row>
+    <row r="2678" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2678" s="3"/>
+    </row>
+    <row r="2685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2685" s="3"/>
     </row>
     <row r="2686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2686" s="3"/>
     </row>
-    <row r="2687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2687" s="3"/>
+    <row r="2693" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2693" s="3"/>
     </row>
     <row r="2694" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2694" s="3"/>
     </row>
-    <row r="2695" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2695" s="3"/>
+    <row r="2699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2699" s="3"/>
     </row>
     <row r="2700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2700" s="3"/>
     </row>
-    <row r="2701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2701" s="3"/>
-    </row>
-    <row r="2708" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2708" s="3"/>
-    </row>
-    <row r="2711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2711" s="3"/>
-    </row>
-    <row r="2713" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2713" s="3"/>
-    </row>
-    <row r="2717" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2717" s="3"/>
+    <row r="2707" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2707" s="3"/>
+    </row>
+    <row r="2710" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2710" s="3"/>
+    </row>
+    <row r="2712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2712" s="3"/>
+    </row>
+    <row r="2716" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2716" s="3"/>
+    </row>
+    <row r="2731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2731" s="3"/>
     </row>
     <row r="2732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2732" s="3"/>
     </row>
-    <row r="2733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2733" s="3"/>
-    </row>
-    <row r="2735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2735" s="3"/>
-    </row>
-    <row r="2739" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2739" s="3"/>
-    </row>
-    <row r="2743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2743" s="3"/>
+    <row r="2734" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2734" s="3"/>
+    </row>
+    <row r="2738" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2738" s="3"/>
+    </row>
+    <row r="2742" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2742" s="3"/>
+    </row>
+    <row r="2744" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2744" s="3"/>
     </row>
     <row r="2745" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2745" s="3"/>
@@ -11104,515 +11499,512 @@
     <row r="2746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2746" s="3"/>
     </row>
-    <row r="2747" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2747" s="3"/>
+    <row r="2748" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2748" s="3"/>
     </row>
     <row r="2749" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2749" s="3"/>
     </row>
-    <row r="2750" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2750" s="3"/>
-    </row>
-    <row r="2757" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2757" s="3"/>
+    <row r="2756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2756" s="3"/>
+    </row>
+    <row r="2759" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2759" s="3"/>
     </row>
     <row r="2760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2760" s="3"/>
     </row>
-    <row r="2761" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2761" s="3"/>
-    </row>
-    <row r="2768" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2768" s="3"/>
+    <row r="2767" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2767" s="3"/>
+    </row>
+    <row r="2775" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2775" s="3"/>
     </row>
     <row r="2776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2776" s="3"/>
     </row>
-    <row r="2777" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2777" s="3"/>
+    <row r="2784" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2784" s="3"/>
     </row>
     <row r="2785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2785" s="3"/>
     </row>
-    <row r="2786" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2786" s="3"/>
-    </row>
-    <row r="2793" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2793" s="3"/>
+    <row r="2792" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2792" s="3"/>
+    </row>
+    <row r="2798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2798" s="3"/>
     </row>
     <row r="2799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2799" s="3"/>
     </row>
-    <row r="2800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2800" s="3"/>
-    </row>
-    <row r="2802" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2802" s="3"/>
-    </row>
-    <row r="2804" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2804" s="3"/>
-    </row>
-    <row r="2806" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2806" s="3"/>
-    </row>
-    <row r="2827" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2827" s="3"/>
-    </row>
-    <row r="2831" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2831" s="3"/>
-    </row>
-    <row r="2836" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2836" s="3"/>
-    </row>
-    <row r="2838" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2838" s="3"/>
-    </row>
-    <row r="2842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2842" s="3"/>
-    </row>
-    <row r="2849" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2849" s="3"/>
+    <row r="2801" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2801" s="3"/>
+    </row>
+    <row r="2803" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2803" s="3"/>
+    </row>
+    <row r="2805" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2805" s="3"/>
+    </row>
+    <row r="2826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2826" s="3"/>
+    </row>
+    <row r="2830" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2830" s="3"/>
+    </row>
+    <row r="2835" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2835" s="3"/>
+    </row>
+    <row r="2837" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2837" s="3"/>
+    </row>
+    <row r="2841" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2841" s="3"/>
+    </row>
+    <row r="2848" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2848" s="3"/>
+    </row>
+    <row r="2850" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2850" s="3"/>
     </row>
     <row r="2851" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2851" s="3"/>
     </row>
-    <row r="2852" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2852" s="3"/>
-    </row>
-    <row r="2855" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2855" s="3"/>
-    </row>
-    <row r="2858" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2858" s="3"/>
-    </row>
-    <row r="2860" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2860" s="3"/>
-    </row>
-    <row r="2889" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2889" s="3"/>
-    </row>
-    <row r="2896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2896" s="3"/>
-    </row>
-    <row r="2903" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2903" s="3"/>
+    <row r="2854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2854" s="3"/>
+    </row>
+    <row r="2857" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2857" s="3"/>
+    </row>
+    <row r="2859" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2859" s="3"/>
+    </row>
+    <row r="2888" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2888" s="3"/>
+    </row>
+    <row r="2895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2895" s="3"/>
+    </row>
+    <row r="2902" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2902" s="3"/>
+    </row>
+    <row r="2907" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2907" s="3"/>
     </row>
     <row r="2908" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2908" s="3"/>
     </row>
-    <row r="2909" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2909" s="3"/>
-    </row>
-    <row r="2914" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2914" s="3"/>
-    </row>
-    <row r="2917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2917" s="3"/>
-    </row>
-    <row r="2922" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2922" s="3"/>
+    <row r="2913" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2913" s="3"/>
+    </row>
+    <row r="2916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2916" s="3"/>
+    </row>
+    <row r="2921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2921" s="3"/>
+    </row>
+    <row r="2923" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2923" s="3"/>
     </row>
     <row r="2924" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2924" s="3"/>
     </row>
-    <row r="2925" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2925" s="3"/>
+    <row r="2934" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2934" s="3"/>
     </row>
     <row r="2935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2935" s="3"/>
     </row>
-    <row r="2936" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2936" s="3"/>
+    <row r="2945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2945" s="3"/>
     </row>
     <row r="2946" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2946" s="3"/>
     </row>
-    <row r="2947" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2947" s="3"/>
+    <row r="2961" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2961" s="3"/>
     </row>
     <row r="2962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2962" s="3"/>
     </row>
-    <row r="2963" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2963" s="3"/>
+    <row r="2970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2970" s="3"/>
     </row>
     <row r="2971" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2971" s="3"/>
     </row>
-    <row r="2972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2972" s="3"/>
-    </row>
-    <row r="2978" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2978" s="3"/>
-    </row>
-    <row r="2982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2982" s="3"/>
-    </row>
-    <row r="2987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2987" s="3"/>
+    <row r="2977" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2977" s="3"/>
+    </row>
+    <row r="2981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2981" s="3"/>
+    </row>
+    <row r="2986" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2986" s="3"/>
+    </row>
+    <row r="2995" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2995" s="3"/>
     </row>
     <row r="2996" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2996" s="3"/>
     </row>
-    <row r="2997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2997" s="3"/>
-    </row>
-    <row r="2999" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2999" s="3"/>
-    </row>
-    <row r="3017" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3017" s="3"/>
+    <row r="2998" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2998" s="3"/>
+    </row>
+    <row r="3016" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3016" s="3"/>
+    </row>
+    <row r="3019" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3019" s="3"/>
     </row>
     <row r="3020" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3020" s="3"/>
     </row>
-    <row r="3021" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3021" s="3"/>
-    </row>
-    <row r="3024" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3024" s="3"/>
-    </row>
-    <row r="3043" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3043" s="3"/>
-    </row>
-    <row r="3050" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3050" s="3"/>
-    </row>
-    <row r="3053" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3053" s="3"/>
-    </row>
-    <row r="3059" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3059" s="3"/>
-    </row>
-    <row r="3062" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3062" s="3"/>
-    </row>
-    <row r="3069" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3069" s="3"/>
-    </row>
-    <row r="3072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3072" s="3"/>
+    <row r="3023" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3023" s="3"/>
+    </row>
+    <row r="3042" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3042" s="3"/>
+    </row>
+    <row r="3049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3049" s="3"/>
+    </row>
+    <row r="3052" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3052" s="3"/>
+    </row>
+    <row r="3058" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3058" s="3"/>
+    </row>
+    <row r="3061" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3061" s="3"/>
+    </row>
+    <row r="3068" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3068" s="3"/>
+    </row>
+    <row r="3071" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3071" s="3"/>
+    </row>
+    <row r="3074" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3074" s="3"/>
     </row>
     <row r="3075" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3075" s="3"/>
     </row>
-    <row r="3076" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3076" s="3"/>
-    </row>
-    <row r="3092" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3092" s="3"/>
-    </row>
-    <row r="3120" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3120" s="3"/>
-    </row>
-    <row r="3125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3125" s="3"/>
-    </row>
-    <row r="3129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3129" s="3"/>
-    </row>
-    <row r="3140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3140" s="3"/>
-    </row>
-    <row r="3156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3156" s="3"/>
-    </row>
-    <row r="3160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3160" s="3"/>
-    </row>
-    <row r="3164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3164" s="3"/>
-    </row>
-    <row r="3167" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3167" s="3"/>
-    </row>
-    <row r="3179" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3179" s="3"/>
-    </row>
-    <row r="3183" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3183" s="3"/>
-    </row>
-    <row r="3188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3188" s="3"/>
-    </row>
-    <row r="3191" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3191" s="3"/>
-    </row>
-    <row r="3196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3196" s="3"/>
-    </row>
-    <row r="3199" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3199" s="3"/>
-    </row>
-    <row r="3203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3203" s="3"/>
+    <row r="3091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3091" s="3"/>
+    </row>
+    <row r="3119" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3119" s="3"/>
+    </row>
+    <row r="3124" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3124" s="3"/>
+    </row>
+    <row r="3128" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3128" s="3"/>
+    </row>
+    <row r="3139" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3139" s="3"/>
+    </row>
+    <row r="3155" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3155" s="3"/>
+    </row>
+    <row r="3159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3159" s="3"/>
+    </row>
+    <row r="3163" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3163" s="3"/>
+    </row>
+    <row r="3166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3166" s="3"/>
+    </row>
+    <row r="3178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3178" s="3"/>
+    </row>
+    <row r="3182" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3182" s="3"/>
+    </row>
+    <row r="3187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3187" s="3"/>
+    </row>
+    <row r="3190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3190" s="3"/>
+    </row>
+    <row r="3195" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3195" s="3"/>
+    </row>
+    <row r="3198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3198" s="3"/>
+    </row>
+    <row r="3202" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3202" s="3"/>
+    </row>
+    <row r="3216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3216" s="3"/>
     </row>
     <row r="3217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3217" s="3"/>
     </row>
-    <row r="3218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3218" s="3"/>
+    <row r="3226" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3226" s="3"/>
     </row>
     <row r="3227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3227" s="3"/>
     </row>
-    <row r="3228" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3228" s="3"/>
-    </row>
-    <row r="3238" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3238" s="3"/>
-    </row>
-    <row r="3240" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3240" s="3"/>
-    </row>
-    <row r="3249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3249" s="3"/>
-    </row>
-    <row r="3285" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3285" s="3"/>
-    </row>
-    <row r="3296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3296" s="3"/>
-    </row>
-    <row r="3303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3303" s="3"/>
-    </row>
-    <row r="3305" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3305" s="3"/>
-    </row>
-    <row r="3330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3330" s="3"/>
-    </row>
-    <row r="3344" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3344" s="3"/>
-    </row>
-    <row r="3351" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3351" s="3"/>
-    </row>
-    <row r="3358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3358" s="3"/>
-    </row>
-    <row r="3361" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3361" s="3"/>
-    </row>
-    <row r="3368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3368" s="3"/>
-    </row>
-    <row r="3380" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3380" s="3"/>
+    <row r="3237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3237" s="3"/>
+    </row>
+    <row r="3239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3239" s="3"/>
+    </row>
+    <row r="3248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3248" s="3"/>
+    </row>
+    <row r="3284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3284" s="3"/>
+    </row>
+    <row r="3295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3295" s="3"/>
+    </row>
+    <row r="3302" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3302" s="3"/>
+    </row>
+    <row r="3304" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3304" s="3"/>
+    </row>
+    <row r="3329" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3329" s="3"/>
+    </row>
+    <row r="3343" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3343" s="3"/>
+    </row>
+    <row r="3350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3350" s="3"/>
+    </row>
+    <row r="3357" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3357" s="3"/>
+    </row>
+    <row r="3360" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3360" s="3"/>
+    </row>
+    <row r="3367" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3367" s="3"/>
+    </row>
+    <row r="3379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3379" s="3"/>
+    </row>
+    <row r="3393" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3393" s="3"/>
     </row>
     <row r="3394" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3394" s="3"/>
     </row>
-    <row r="3395" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3395" s="3"/>
-    </row>
-    <row r="3402" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3402" s="3"/>
-    </row>
-    <row r="3410" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3410" s="3"/>
-    </row>
-    <row r="3412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3412" s="3"/>
-    </row>
-    <row r="3444" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3444" s="3"/>
-    </row>
-    <row r="3447" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3447" s="3"/>
-    </row>
-    <row r="3451" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3451" s="3"/>
-    </row>
-    <row r="3454" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3454" s="3"/>
-    </row>
-    <row r="3457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3457" s="3"/>
-    </row>
-    <row r="3463" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3463" s="3"/>
+    <row r="3401" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3401" s="3"/>
+    </row>
+    <row r="3409" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3409" s="3"/>
+    </row>
+    <row r="3411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3411" s="3"/>
+    </row>
+    <row r="3443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3443" s="3"/>
+    </row>
+    <row r="3446" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3446" s="3"/>
+    </row>
+    <row r="3450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3450" s="3"/>
+    </row>
+    <row r="3453" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3453" s="3"/>
+    </row>
+    <row r="3456" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3456" s="3"/>
+    </row>
+    <row r="3462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3462" s="3"/>
+    </row>
+    <row r="3469" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3469" s="3"/>
     </row>
     <row r="3470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3470" s="3"/>
     </row>
-    <row r="3471" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3471" s="3"/>
-    </row>
-    <row r="3476" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3476" s="3"/>
+    <row r="3475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3475" s="3"/>
+    </row>
+    <row r="3477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3477" s="3"/>
     </row>
     <row r="3478" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3478" s="3"/>
     </row>
-    <row r="3479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3479" s="3"/>
+    <row r="3494" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3494" s="3"/>
     </row>
     <row r="3495" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3495" s="3"/>
     </row>
-    <row r="3496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3496" s="3"/>
-    </row>
-    <row r="3500" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3500" s="3"/>
-    </row>
-    <row r="3513" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3513" s="3"/>
-    </row>
-    <row r="3531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3531" s="3"/>
-    </row>
-    <row r="3538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3538" s="3"/>
-    </row>
-    <row r="3575" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3575" s="3"/>
-    </row>
-    <row r="3588" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3588" s="3"/>
-    </row>
-    <row r="3596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3596" s="3"/>
+    <row r="3499" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3499" s="3"/>
+    </row>
+    <row r="3512" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3512" s="3"/>
+    </row>
+    <row r="3530" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3530" s="3"/>
+    </row>
+    <row r="3537" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3537" s="3"/>
+    </row>
+    <row r="3574" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3574" s="3"/>
+    </row>
+    <row r="3587" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3587" s="3"/>
+    </row>
+    <row r="3595" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3595" s="3"/>
+    </row>
+    <row r="3603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3603" s="3"/>
     </row>
     <row r="3604" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3604" s="3"/>
     </row>
-    <row r="3605" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3605" s="3"/>
-    </row>
-    <row r="3626" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3626" s="3"/>
-    </row>
-    <row r="3666" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3666" s="3"/>
-    </row>
-    <row r="3672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3672" s="3"/>
-    </row>
-    <row r="3680" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3680" s="3"/>
-    </row>
-    <row r="3702" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3702" s="3"/>
-    </row>
-    <row r="3723" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3723" s="3"/>
+    <row r="3625" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3625" s="3"/>
+    </row>
+    <row r="3665" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3665" s="3"/>
+    </row>
+    <row r="3671" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3671" s="3"/>
+    </row>
+    <row r="3679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3679" s="3"/>
+    </row>
+    <row r="3701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3701" s="3"/>
+    </row>
+    <row r="3722" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3722" s="3"/>
+    </row>
+    <row r="3728" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3728" s="3"/>
     </row>
     <row r="3729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3729" s="3"/>
     </row>
-    <row r="3730" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3730" s="3"/>
-    </row>
-    <row r="3736" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3736" s="3"/>
-    </row>
-    <row r="3744" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3744" s="3"/>
-    </row>
-    <row r="3755" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3755" s="3"/>
-    </row>
-    <row r="3792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3792" s="3"/>
-    </row>
-    <row r="3824" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3824" s="3"/>
-    </row>
-    <row r="3844" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3844" s="3"/>
-    </row>
-    <row r="3866" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3866" s="3"/>
-    </row>
-    <row r="3876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3876" s="3"/>
-    </row>
-    <row r="3882" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3882" s="3"/>
-    </row>
-    <row r="3891" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3891" s="3"/>
-    </row>
-    <row r="3893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3893" s="3"/>
-    </row>
-    <row r="3896" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3896" s="3"/>
+    <row r="3735" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3735" s="3"/>
+    </row>
+    <row r="3743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3743" s="3"/>
+    </row>
+    <row r="3754" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3754" s="3"/>
+    </row>
+    <row r="3791" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3791" s="3"/>
+    </row>
+    <row r="3823" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3823" s="3"/>
+    </row>
+    <row r="3843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3843" s="3"/>
+    </row>
+    <row r="3865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3865" s="3"/>
+    </row>
+    <row r="3875" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3875" s="3"/>
+    </row>
+    <row r="3881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3881" s="3"/>
+    </row>
+    <row r="3890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3890" s="3"/>
+    </row>
+    <row r="3892" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3892" s="3"/>
+    </row>
+    <row r="3895" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3895" s="3"/>
+    </row>
+    <row r="3918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3918" s="3"/>
     </row>
     <row r="3919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3919" s="3"/>
     </row>
-    <row r="3920" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3920" s="3"/>
-    </row>
-    <row r="3944" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3944" s="3"/>
-    </row>
-    <row r="3998" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3998" s="3"/>
-    </row>
-    <row r="4007" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4007" s="3"/>
-    </row>
-    <row r="4031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4031" s="3"/>
+    <row r="3943" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3943" s="3"/>
+    </row>
+    <row r="3997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3997" s="3"/>
+    </row>
+    <row r="4006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4006" s="3"/>
+    </row>
+    <row r="4030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4030" s="3"/>
+    </row>
+    <row r="4087" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4087" s="3"/>
     </row>
     <row r="4088" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4088" s="3"/>
     </row>
-    <row r="4089" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4089" s="3"/>
-    </row>
-    <row r="4102" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4102" s="3"/>
-    </row>
-    <row r="4163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4163" s="3"/>
-    </row>
-    <row r="4188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4188" s="3"/>
-    </row>
-    <row r="4204" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4204" s="3"/>
-    </row>
-    <row r="4215" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4215" s="3"/>
-    </row>
-    <row r="4236" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4236" s="3"/>
-    </row>
-    <row r="4267" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4267" s="3"/>
-    </row>
-    <row r="4313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4313" s="3"/>
-    </row>
-    <row r="4333" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4333" s="3"/>
-    </row>
-    <row r="4660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4660" s="3"/>
-    </row>
-    <row r="4871" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4871" s="3"/>
-    </row>
-    <row r="5005" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5005" s="3"/>
-    </row>
-    <row r="5151" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5151" s="3"/>
-    </row>
-    <row r="5300" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5300" s="3"/>
-    </row>
-    <row r="5420" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5420" s="3"/>
-    </row>
-    <row r="5522" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5522" s="3"/>
+    <row r="4101" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4101" s="3"/>
+    </row>
+    <row r="4162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4162" s="3"/>
+    </row>
+    <row r="4187" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4187" s="3"/>
+    </row>
+    <row r="4203" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4203" s="3"/>
+    </row>
+    <row r="4214" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4214" s="3"/>
+    </row>
+    <row r="4235" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4235" s="3"/>
+    </row>
+    <row r="4266" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4266" s="3"/>
+    </row>
+    <row r="4312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4312" s="3"/>
+    </row>
+    <row r="4332" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4332" s="3"/>
+    </row>
+    <row r="4659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4659" s="3"/>
+    </row>
+    <row r="4870" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4870" s="3"/>
+    </row>
+    <row r="5004" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5004" s="3"/>
+    </row>
+    <row r="5150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5150" s="3"/>
+    </row>
+    <row r="5299" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5299" s="3"/>
+    </row>
+    <row r="5419" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5419" s="3"/>
+    </row>
+    <row r="5521" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5521" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11624,8 +12016,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11910,6 +12302,24 @@
       <c r="I13">
         <v>2.9999999999999997E-4</v>
       </c>
+      <c r="K13">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="L13">
+        <v>0.15</v>
+      </c>
+      <c r="N13">
+        <v>0.16</v>
+      </c>
+      <c r="O13">
+        <v>0.27</v>
+      </c>
+      <c r="Q13">
+        <v>0.27</v>
+      </c>
+      <c r="R13">
+        <v>0.38</v>
+      </c>
       <c r="X13">
         <v>1000</v>
       </c>

--- a/AP_DC_X-talk/dt_spectrum_results.xlsx
+++ b/AP_DC_X-talk/dt_spectrum_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Hamamatsu S10362-11-100C apf" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="224" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="43">
   <si>
     <t>T</t>
   </si>
@@ -3344,7 +3344,7 @@
   <dimension ref="A1:AD12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4251,10 +4251,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AM5521"/>
+  <dimension ref="A1:AM5523"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4371,6 +4371,12 @@
       <c r="A2">
         <v>295</v>
       </c>
+      <c r="B2">
+        <v>0.5</v>
+      </c>
+      <c r="C2" s="8">
+        <v>69.512365500000001</v>
+      </c>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
@@ -4383,6 +4389,12 @@
     <row r="3" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>290</v>
+      </c>
+      <c r="B3">
+        <v>0.5</v>
+      </c>
+      <c r="C3" s="8">
+        <v>69.333461</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -4399,6 +4411,12 @@
       <c r="A4">
         <v>285</v>
       </c>
+      <c r="B4">
+        <v>0.5</v>
+      </c>
+      <c r="C4" s="8">
+        <v>69.154556499999998</v>
+      </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
       <c r="G4" s="1"/>
@@ -4472,6 +4490,12 @@
       <c r="A6">
         <v>275</v>
       </c>
+      <c r="B6">
+        <v>0.5</v>
+      </c>
+      <c r="C6" s="8">
+        <v>68.796747499999995</v>
+      </c>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
       <c r="G6" s="1"/>
@@ -4532,6 +4556,12 @@
     <row r="11" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>295</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+      <c r="C11" s="8">
+        <v>69.81</v>
       </c>
       <c r="E11" s="1"/>
       <c r="F11" s="1"/>
@@ -4545,6 +4575,12 @@
     <row r="12" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>290</v>
+      </c>
+      <c r="B12">
+        <v>0.8</v>
+      </c>
+      <c r="C12" s="8">
+        <v>69.63</v>
       </c>
       <c r="E12" s="1"/>
       <c r="F12" s="1"/>
@@ -4561,6 +4597,12 @@
       <c r="A13">
         <v>285</v>
       </c>
+      <c r="B13">
+        <v>0.8</v>
+      </c>
+      <c r="C13" s="8">
+        <v>69.45</v>
+      </c>
       <c r="E13" s="1"/>
       <c r="F13" s="1"/>
       <c r="G13" s="1"/>
@@ -4672,6 +4714,12 @@
       <c r="A15">
         <v>275</v>
       </c>
+      <c r="B15">
+        <v>0.8</v>
+      </c>
+      <c r="C15" s="8">
+        <v>69.099999999999994</v>
+      </c>
       <c r="E15" s="1"/>
       <c r="F15" s="1"/>
       <c r="G15" s="1"/>
@@ -4679,171 +4727,156 @@
       <c r="T15" s="3"/>
       <c r="U15" s="4"/>
     </row>
-    <row r="17" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>0</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B18" t="s">
         <v>2</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>1</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E18" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F18" t="s">
         <v>10</v>
       </c>
-      <c r="G17" t="s">
+      <c r="G18" t="s">
         <v>11</v>
       </c>
-      <c r="H17" t="s">
+      <c r="H18" t="s">
         <v>12</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I18" t="s">
         <v>13</v>
       </c>
-      <c r="K17" t="s">
+      <c r="K18" t="s">
         <v>25</v>
       </c>
-      <c r="L17" t="s">
+      <c r="L18" t="s">
         <v>26</v>
       </c>
-      <c r="M17" t="s">
+      <c r="M18" t="s">
         <v>27</v>
       </c>
-      <c r="N17" s="4" t="s">
+      <c r="N18" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="R17" t="s">
+      <c r="R18" t="s">
         <v>23</v>
       </c>
-      <c r="S17" t="s">
+      <c r="S18" t="s">
         <v>3</v>
       </c>
-      <c r="T17" t="s">
+      <c r="T18" t="s">
         <v>24</v>
       </c>
-      <c r="U17" s="4" t="s">
+      <c r="U18" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="W17" t="s">
+      <c r="W18" t="s">
         <v>21</v>
       </c>
-      <c r="X17" t="s">
+      <c r="X18" t="s">
         <v>4</v>
       </c>
-      <c r="Y17" t="s">
+      <c r="Y18" t="s">
         <v>15</v>
       </c>
-      <c r="Z17" t="s">
+      <c r="Z18" t="s">
         <v>20</v>
       </c>
-      <c r="AB17" s="6" t="s">
+      <c r="AB18" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="AC17" t="s">
+      <c r="AC18" t="s">
         <v>5</v>
       </c>
-      <c r="AD17" t="s">
+      <c r="AD18" t="s">
         <v>16</v>
       </c>
-      <c r="AE17" t="s">
+      <c r="AE18" t="s">
         <v>20</v>
       </c>
-      <c r="AG17" s="4" t="s">
+      <c r="AG18" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AH17" t="s">
+      <c r="AH18" t="s">
         <v>18</v>
       </c>
-      <c r="AI17" t="s">
+      <c r="AI18" t="s">
         <v>20</v>
       </c>
-      <c r="AJ17" s="2"/>
-      <c r="AK17" s="4" t="s">
+      <c r="AJ18" s="2"/>
+      <c r="AK18" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AL17" t="s">
+      <c r="AL18" t="s">
         <v>19</v>
       </c>
-      <c r="AM17" s="2" t="s">
+      <c r="AM18" s="2" t="s">
         <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>295</v>
-      </c>
-      <c r="B18">
-        <v>1</v>
-      </c>
-      <c r="C18">
-        <v>70.010000000000005</v>
-      </c>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1">
-        <v>20061</v>
-      </c>
-      <c r="G18" s="1">
-        <v>2204</v>
-      </c>
-      <c r="H18" s="1">
-        <v>267</v>
-      </c>
-      <c r="I18" s="1">
-        <v>10</v>
-      </c>
-      <c r="K18" s="4">
-        <f>F18/SUM(F18:I18)</f>
-        <v>0.8899387809422411</v>
-      </c>
-      <c r="L18" s="4">
-        <f>G18/SUM(F18:I18)</f>
-        <v>9.7773045869931685E-2</v>
-      </c>
-      <c r="M18" s="4">
-        <f>H18/SUM(F18:I18)</f>
-        <v>1.1844556827255789E-2</v>
-      </c>
-      <c r="N18" s="4">
-        <f>I18/SUM(F18:I18)</f>
-        <v>4.4361636057137785E-4</v>
-      </c>
-      <c r="R18">
-        <f>S18 * 1000*1000</f>
-        <v>333.09</v>
-      </c>
-      <c r="S18">
-        <v>3.3309000000000002E-4</v>
-      </c>
-      <c r="T18" s="3">
-        <v>2.8527299999999998E-6</v>
-      </c>
-      <c r="U18" s="4">
-        <f>T18/S18</f>
-        <v>8.5644420426911633E-3</v>
       </c>
     </row>
     <row r="19" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>290</v>
+        <v>295</v>
+      </c>
+      <c r="B19">
+        <v>0.9</v>
       </c>
       <c r="E19" s="1"/>
-      <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-      <c r="I19" s="1"/>
-      <c r="K19" s="4"/>
-      <c r="L19" s="4"/>
-      <c r="M19" s="4"/>
-      <c r="T19" s="3"/>
-      <c r="U19" s="4"/>
+      <c r="F19" s="1">
+        <v>20061</v>
+      </c>
+      <c r="G19" s="1">
+        <v>2204</v>
+      </c>
+      <c r="H19" s="1">
+        <v>267</v>
+      </c>
+      <c r="I19" s="1">
+        <v>10</v>
+      </c>
+      <c r="K19" s="4">
+        <f>F19/SUM(F19:I19)</f>
+        <v>0.8899387809422411</v>
+      </c>
+      <c r="L19" s="4">
+        <f>G19/SUM(F19:I19)</f>
+        <v>9.7773045869931685E-2</v>
+      </c>
+      <c r="M19" s="4">
+        <f>H19/SUM(F19:I19)</f>
+        <v>1.1844556827255789E-2</v>
+      </c>
+      <c r="N19" s="4">
+        <f>I19/SUM(F19:I19)</f>
+        <v>4.4361636057137785E-4</v>
+      </c>
+      <c r="R19">
+        <f>S19 * 1000*1000</f>
+        <v>333.09</v>
+      </c>
+      <c r="S19">
+        <v>3.3309000000000002E-4</v>
+      </c>
+      <c r="T19" s="3">
+        <v>2.8527299999999998E-6</v>
+      </c>
+      <c r="U19" s="4">
+        <f>T19/S19</f>
+        <v>8.5644420426911633E-3</v>
+      </c>
     </row>
     <row r="20" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>285</v>
+        <v>290</v>
+      </c>
+      <c r="B20">
+        <v>0.9</v>
       </c>
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
@@ -4858,126 +4891,145 @@
     </row>
     <row r="21" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A21">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B21">
-        <v>1</v>
-      </c>
-      <c r="C21" s="8">
-        <v>69.475651999999997</v>
+        <v>0.9</v>
+      </c>
+      <c r="C21">
+        <v>69.55</v>
       </c>
       <c r="E21" s="1"/>
-      <c r="F21" s="1">
-        <v>179878</v>
-      </c>
-      <c r="G21" s="1">
-        <v>21762</v>
-      </c>
-      <c r="H21" s="1">
-        <v>2821</v>
-      </c>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
       <c r="I21" s="1"/>
-      <c r="K21" s="4">
-        <f>F21/SUM(F21:I21)</f>
-        <v>0.87976680149270525</v>
-      </c>
-      <c r="L21" s="4">
-        <f>G21/SUM(F21:I21)</f>
-        <v>0.10643594621957243</v>
-      </c>
-      <c r="M21" s="4">
-        <f>H21/SUM(F21:I21)</f>
-        <v>1.3797252287722352E-2</v>
-      </c>
-      <c r="R21">
-        <f>S21 * 1000*1000</f>
-        <v>247.50899999999999</v>
-      </c>
-      <c r="S21">
-        <v>2.4750899999999998E-4</v>
-      </c>
-      <c r="T21" s="3">
-        <v>7.7874699999999998E-7</v>
-      </c>
-      <c r="U21" s="4">
-        <f>T21/S21</f>
-        <v>3.1463381129575086E-3</v>
-      </c>
-      <c r="W21">
-        <f>1/X21</f>
-        <v>21.894821655730201</v>
-      </c>
-      <c r="X21">
-        <v>4.5672900000000002E-2</v>
-      </c>
-      <c r="Y21">
-        <v>2.82519E-3</v>
-      </c>
-      <c r="Z21" s="4">
-        <f>Y21/X21</f>
-        <v>6.185703119355241E-2</v>
-      </c>
-      <c r="AB21">
-        <f>1/AC21</f>
-        <v>145.09786851231155</v>
-      </c>
-      <c r="AC21">
-        <v>6.8919000000000003E-3</v>
-      </c>
-      <c r="AD21">
-        <v>1.27565E-4</v>
-      </c>
-      <c r="AE21" s="4">
-        <f>AD21/AC21</f>
-        <v>1.8509409596773024E-2</v>
-      </c>
-      <c r="AG21" s="4">
-        <v>0.202547</v>
-      </c>
-      <c r="AH21">
-        <v>2.1545499999999999E-3</v>
-      </c>
-      <c r="AI21" s="4">
-        <f>AH21/AG21</f>
-        <v>1.0637284185892656E-2</v>
-      </c>
-      <c r="AK21" s="4">
-        <v>8.6434399999999995E-2</v>
-      </c>
-      <c r="AL21">
-        <v>3.3702099999999998E-3</v>
-      </c>
-      <c r="AM21" s="4">
-        <f>AL21/AK21</f>
-        <v>3.8991535777421954E-2</v>
-      </c>
+      <c r="K21" s="4"/>
+      <c r="L21" s="4"/>
+      <c r="M21" s="4"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="4"/>
     </row>
     <row r="22" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>275</v>
+        <v>280</v>
       </c>
       <c r="B22">
-        <v>1</v>
-      </c>
-      <c r="C22">
-        <v>69.3</v>
-      </c>
+        <v>0.9</v>
+      </c>
+      <c r="C22" s="8"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1"/>
-      <c r="G22" s="1"/>
-      <c r="H22" s="1"/>
+      <c r="F22" s="1">
+        <v>179878</v>
+      </c>
+      <c r="G22" s="1">
+        <v>21762</v>
+      </c>
+      <c r="H22" s="1">
+        <v>2821</v>
+      </c>
+      <c r="I22" s="1"/>
+      <c r="K22" s="4">
+        <f>F22/SUM(F22:I22)</f>
+        <v>0.87976680149270525</v>
+      </c>
+      <c r="L22" s="4">
+        <f>G22/SUM(F22:I22)</f>
+        <v>0.10643594621957243</v>
+      </c>
+      <c r="M22" s="4">
+        <f>H22/SUM(F22:I22)</f>
+        <v>1.3797252287722352E-2</v>
+      </c>
       <c r="R22">
         <f>S22 * 1000*1000</f>
-        <v>150.30500000000001</v>
+        <v>247.50899999999999</v>
       </c>
       <c r="S22">
-        <v>1.5030499999999999E-4</v>
+        <v>2.4750899999999998E-4</v>
       </c>
       <c r="T22" s="3">
-        <v>3.7083000000000001E-6</v>
+        <v>7.7874699999999998E-7</v>
       </c>
       <c r="U22" s="4">
         <f>T22/S22</f>
+        <v>3.1463381129575086E-3</v>
+      </c>
+      <c r="W22">
+        <f>1/X22</f>
+        <v>21.894821655730201</v>
+      </c>
+      <c r="X22">
+        <v>4.5672900000000002E-2</v>
+      </c>
+      <c r="Y22">
+        <v>2.82519E-3</v>
+      </c>
+      <c r="Z22" s="4">
+        <f>Y22/X22</f>
+        <v>6.185703119355241E-2</v>
+      </c>
+      <c r="AB22">
+        <f>1/AC22</f>
+        <v>145.09786851231155</v>
+      </c>
+      <c r="AC22">
+        <v>6.8919000000000003E-3</v>
+      </c>
+      <c r="AD22">
+        <v>1.27565E-4</v>
+      </c>
+      <c r="AE22" s="4">
+        <f>AD22/AC22</f>
+        <v>1.8509409596773024E-2</v>
+      </c>
+      <c r="AG22" s="4">
+        <v>0.202547</v>
+      </c>
+      <c r="AH22">
+        <v>2.1545499999999999E-3</v>
+      </c>
+      <c r="AI22" s="4">
+        <f>AH22/AG22</f>
+        <v>1.0637284185892656E-2</v>
+      </c>
+      <c r="AK22" s="4">
+        <v>8.6434399999999995E-2</v>
+      </c>
+      <c r="AL22">
+        <v>3.3702099999999998E-3</v>
+      </c>
+      <c r="AM22" s="4">
+        <f>AL22/AK22</f>
+        <v>3.8991535777421954E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>275</v>
+      </c>
+      <c r="B23">
+        <v>0.9</v>
+      </c>
+      <c r="C23">
+        <v>69.2</v>
+      </c>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="R23">
+        <f>S23 * 1000*1000</f>
+        <v>150.30500000000001</v>
+      </c>
+      <c r="S23">
+        <v>1.5030499999999999E-4</v>
+      </c>
+      <c r="T23" s="3">
+        <v>3.7083000000000001E-6</v>
+      </c>
+      <c r="U23" s="4">
+        <f>T23/S23</f>
         <v>2.4671833937660093E-2</v>
       </c>
     </row>
@@ -5078,559 +5130,1105 @@
       <c r="A26">
         <v>295</v>
       </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>70.010000000000005</v>
+      </c>
+      <c r="E26" s="1"/>
+      <c r="F26" s="1">
+        <v>20061</v>
+      </c>
+      <c r="G26" s="1">
+        <v>2204</v>
+      </c>
+      <c r="H26" s="1">
+        <v>267</v>
+      </c>
+      <c r="I26" s="1">
+        <v>10</v>
+      </c>
+      <c r="K26" s="4">
+        <f>F26/SUM(F26:I26)</f>
+        <v>0.8899387809422411</v>
+      </c>
+      <c r="L26" s="4">
+        <f>G26/SUM(F26:I26)</f>
+        <v>9.7773045869931685E-2</v>
+      </c>
+      <c r="M26" s="4">
+        <f>H26/SUM(F26:I26)</f>
+        <v>1.1844556827255789E-2</v>
+      </c>
+      <c r="N26" s="4">
+        <f>I26/SUM(F26:I26)</f>
+        <v>4.4361636057137785E-4</v>
+      </c>
+      <c r="R26">
+        <f>S26 * 1000*1000</f>
+        <v>333.09</v>
+      </c>
+      <c r="S26">
+        <v>3.3309000000000002E-4</v>
+      </c>
+      <c r="T26" s="3">
+        <v>2.8527299999999998E-6</v>
+      </c>
+      <c r="U26" s="4">
+        <f>T26/S26</f>
+        <v>8.5644420426911633E-3</v>
+      </c>
     </row>
     <row r="27" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>290</v>
-      </c>
+        <v>293</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>69.94</v>
+      </c>
+      <c r="E27" s="1"/>
+      <c r="F27" s="1"/>
+      <c r="G27" s="1"/>
+      <c r="H27" s="1"/>
+      <c r="I27" s="1"/>
+      <c r="K27" s="4"/>
+      <c r="L27" s="4"/>
+      <c r="M27" s="4"/>
+      <c r="T27" s="3"/>
+      <c r="U27" s="4"/>
     </row>
     <row r="28" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>285</v>
+        <v>290</v>
       </c>
       <c r="B28">
-        <v>1.1000000000000001</v>
+        <v>1</v>
       </c>
       <c r="C28">
-        <v>69.75</v>
-      </c>
+        <v>69.83</v>
+      </c>
+      <c r="E28" s="1"/>
+      <c r="F28" s="1"/>
+      <c r="G28" s="1"/>
+      <c r="H28" s="1"/>
+      <c r="I28" s="1"/>
+      <c r="K28" s="4"/>
+      <c r="L28" s="4"/>
+      <c r="M28" s="4"/>
+      <c r="T28" s="3"/>
+      <c r="U28" s="4"/>
     </row>
     <row r="29" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B29">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="C29" s="8">
-        <v>69.575651999999991</v>
-      </c>
-      <c r="K29" s="4" t="e">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>69.650000000000006</v>
+      </c>
+      <c r="E29" s="1"/>
+      <c r="F29" s="1">
+        <v>133062</v>
+      </c>
+      <c r="G29" s="1">
+        <v>15502</v>
+      </c>
+      <c r="H29" s="1">
+        <v>686</v>
+      </c>
+      <c r="I29" s="1"/>
+      <c r="K29" s="4">
         <f>F29/SUM(F29:I29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="L29" s="4" t="e">
+        <v>0.89153768844221104</v>
+      </c>
+      <c r="L29" s="4">
         <f>G29/SUM(F29:I29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="M29" s="4" t="e">
+        <v>0.10386599664991625</v>
+      </c>
+      <c r="M29" s="4">
         <f>H29/SUM(F29:I29)</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="R29">
-        <f>S29 * 1000*1000</f>
-        <v>0</v>
+        <v>4.5963149078726969E-3</v>
       </c>
       <c r="T29" s="3"/>
-      <c r="U29" s="4" t="e">
-        <f>T29/S29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="W29" t="e">
-        <f>1/X29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="Z29" s="4" t="e">
-        <f>Y29/X29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB29" t="e">
-        <f>1/AC29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AE29" s="4" t="e">
-        <f>AD29/AC29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AI29" s="4" t="e">
-        <f>AH29/AG29</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AM29" s="4" t="e">
-        <f>AL29/AK29</f>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="U29" s="4"/>
     </row>
     <row r="30" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A30">
+        <v>280</v>
+      </c>
+      <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30" s="8">
+        <v>69.475651999999997</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="1">
+        <v>179878</v>
+      </c>
+      <c r="G30" s="1">
+        <v>21762</v>
+      </c>
+      <c r="H30" s="1">
+        <v>2821</v>
+      </c>
+      <c r="I30" s="1"/>
+      <c r="K30" s="4">
+        <f>F30/SUM(F30:I30)</f>
+        <v>0.87976680149270525</v>
+      </c>
+      <c r="L30" s="4">
+        <f>G30/SUM(F30:I30)</f>
+        <v>0.10643594621957243</v>
+      </c>
+      <c r="M30" s="4">
+        <f>H30/SUM(F30:I30)</f>
+        <v>1.3797252287722352E-2</v>
+      </c>
+      <c r="R30">
+        <f>S30 * 1000*1000</f>
+        <v>247.50899999999999</v>
+      </c>
+      <c r="S30">
+        <v>2.4750899999999998E-4</v>
+      </c>
+      <c r="T30" s="3">
+        <v>7.7874699999999998E-7</v>
+      </c>
+      <c r="U30" s="4">
+        <f>T30/S30</f>
+        <v>3.1463381129575086E-3</v>
+      </c>
+      <c r="W30">
+        <f>1/X30</f>
+        <v>21.894821655730201</v>
+      </c>
+      <c r="X30">
+        <v>4.5672900000000002E-2</v>
+      </c>
+      <c r="Y30">
+        <v>2.82519E-3</v>
+      </c>
+      <c r="Z30" s="4">
+        <f>Y30/X30</f>
+        <v>6.185703119355241E-2</v>
+      </c>
+      <c r="AB30">
+        <f>1/AC30</f>
+        <v>145.09786851231155</v>
+      </c>
+      <c r="AC30">
+        <v>6.8919000000000003E-3</v>
+      </c>
+      <c r="AD30">
+        <v>1.27565E-4</v>
+      </c>
+      <c r="AE30" s="4">
+        <f>AD30/AC30</f>
+        <v>1.8509409596773024E-2</v>
+      </c>
+      <c r="AG30" s="4">
+        <v>0.202547</v>
+      </c>
+      <c r="AH30">
+        <v>2.1545499999999999E-3</v>
+      </c>
+      <c r="AI30" s="4">
+        <f>AH30/AG30</f>
+        <v>1.0637284185892656E-2</v>
+      </c>
+      <c r="AK30" s="4">
+        <v>8.6434399999999995E-2</v>
+      </c>
+      <c r="AL30">
+        <v>3.3702099999999998E-3</v>
+      </c>
+      <c r="AM30" s="4">
+        <f>AL30/AK30</f>
+        <v>3.8991535777421954E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A31">
         <v>275</v>
       </c>
+      <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>69.3</v>
+      </c>
+      <c r="E31" s="1"/>
+      <c r="F31" s="1"/>
+      <c r="G31" s="1"/>
+      <c r="H31" s="1"/>
+      <c r="R31">
+        <f>S31 * 1000*1000</f>
+        <v>150.30500000000001</v>
+      </c>
+      <c r="S31">
+        <v>1.5030499999999999E-4</v>
+      </c>
+      <c r="T31" s="3">
+        <v>3.7083000000000001E-6</v>
+      </c>
+      <c r="U31" s="4">
+        <f>T31/S31</f>
+        <v>2.4671833937660093E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B33" t="s">
+        <v>2</v>
+      </c>
+      <c r="C33" t="s">
+        <v>1</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="s">
+        <v>11</v>
+      </c>
+      <c r="H33" t="s">
+        <v>12</v>
+      </c>
+      <c r="I33" t="s">
+        <v>13</v>
+      </c>
+      <c r="K33" t="s">
+        <v>25</v>
+      </c>
+      <c r="L33" t="s">
+        <v>26</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R33" t="s">
+        <v>23</v>
+      </c>
+      <c r="S33" t="s">
+        <v>3</v>
+      </c>
+      <c r="T33" t="s">
+        <v>24</v>
+      </c>
+      <c r="U33" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W33" t="s">
+        <v>21</v>
+      </c>
+      <c r="X33" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y33" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB33" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC33" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD33" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH33" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI33" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ33" s="2"/>
+      <c r="AK33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL33" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM33" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="34" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>295</v>
+      </c>
+      <c r="B34">
+        <v>1.1000000000000001</v>
+      </c>
     </row>
     <row r="35" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>0</v>
-      </c>
-      <c r="B35" t="s">
-        <v>2</v>
-      </c>
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="E35" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F35" t="s">
-        <v>10</v>
-      </c>
-      <c r="G35" t="s">
-        <v>11</v>
-      </c>
-      <c r="H35" t="s">
-        <v>12</v>
-      </c>
-      <c r="I35" t="s">
-        <v>13</v>
-      </c>
-      <c r="K35" t="s">
-        <v>25</v>
-      </c>
-      <c r="L35" t="s">
-        <v>26</v>
-      </c>
-      <c r="M35" t="s">
-        <v>27</v>
-      </c>
-      <c r="N35" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R35" t="s">
-        <v>23</v>
-      </c>
-      <c r="S35" t="s">
-        <v>3</v>
-      </c>
-      <c r="T35" t="s">
-        <v>24</v>
-      </c>
-      <c r="U35" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W35" t="s">
-        <v>21</v>
-      </c>
-      <c r="X35" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y35" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z35" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB35" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC35" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD35" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE35" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG35" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH35" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI35" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ35" s="2"/>
-      <c r="AK35" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL35" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM35" s="2" t="s">
-        <v>20</v>
+      <c r="A35">
+        <v>293</v>
       </c>
     </row>
     <row r="36" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A36">
-        <v>295</v>
+        <v>290</v>
+      </c>
+      <c r="B36">
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="37" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A37">
-        <v>290</v>
+        <v>285</v>
+      </c>
+      <c r="B37">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C37">
+        <v>69.75</v>
       </c>
     </row>
     <row r="38" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>285</v>
+        <v>280</v>
+      </c>
+      <c r="B38">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C38" s="8">
+        <v>69.575651999999991</v>
+      </c>
+      <c r="K38" s="4" t="e">
+        <f>F38/SUM(F38:I38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L38" s="4" t="e">
+        <f>G38/SUM(F38:I38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M38" s="4" t="e">
+        <f>H38/SUM(F38:I38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R38">
+        <f>S38 * 1000*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T38" s="3"/>
+      <c r="U38" s="4" t="e">
+        <f>T38/S38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W38" t="e">
+        <f>1/X38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z38" s="4" t="e">
+        <f>Y38/X38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB38" t="e">
+        <f>1/AC38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE38" s="4" t="e">
+        <f>AD38/AC38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI38" s="4" t="e">
+        <f>AH38/AG38</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM38" s="4" t="e">
+        <f>AL38/AK38</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="39" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>280</v>
+        <v>275</v>
       </c>
       <c r="B39">
-        <v>1.3</v>
-      </c>
-      <c r="C39" s="8">
-        <v>69.775651999999994</v>
-      </c>
-      <c r="F39">
-        <v>31792</v>
-      </c>
-      <c r="G39">
-        <v>4849</v>
-      </c>
-      <c r="H39">
-        <v>180</v>
-      </c>
-      <c r="K39" s="4">
-        <f>F39/SUM(F39:I39)</f>
-        <v>0.86342033078949509</v>
-      </c>
-      <c r="L39" s="4">
-        <f>G39/SUM(F39:I39)</f>
-        <v>0.13169115450422314</v>
-      </c>
-      <c r="M39" s="4">
-        <f>H39/SUM(F39:I39)</f>
-        <v>4.8885147062817415E-3</v>
-      </c>
-      <c r="R39">
-        <f>S39 * 1000*1000</f>
-        <v>192.79200000000003</v>
-      </c>
-      <c r="S39">
-        <v>1.9279200000000001E-4</v>
-      </c>
-      <c r="T39" s="3">
-        <v>1.7244200000000001E-6</v>
-      </c>
-      <c r="U39" s="4">
-        <f>T39/S39</f>
-        <v>8.9444582762770244E-3</v>
-      </c>
-      <c r="W39">
-        <f>1/X39</f>
-        <v>20.219911760305077</v>
-      </c>
-      <c r="X39">
-        <v>4.9456199999999999E-2</v>
-      </c>
-      <c r="Y39">
-        <v>5.0201200000000003E-3</v>
-      </c>
-      <c r="Z39" s="4">
-        <f>Y39/X39</f>
-        <v>0.10150638342614274</v>
-      </c>
-      <c r="AB39">
-        <f>1/AC39</f>
-        <v>133.57501506058296</v>
-      </c>
-      <c r="AC39">
-        <v>7.4864299999999996E-3</v>
-      </c>
-      <c r="AD39">
-        <v>2.02776E-4</v>
-      </c>
-      <c r="AE39" s="4">
-        <f>AD39/AC39</f>
-        <v>2.708580725392477E-2</v>
-      </c>
-      <c r="AG39" s="4">
-        <v>0.30463600000000002</v>
-      </c>
-      <c r="AH39">
-        <v>4.9131599999999997E-3</v>
-      </c>
-      <c r="AI39" s="4">
-        <f>AH39/AG39</f>
-        <v>1.6127969117241559E-2</v>
-      </c>
-      <c r="AK39" s="4">
-        <v>0.136633</v>
-      </c>
-      <c r="AL39">
-        <v>1.01552E-2</v>
-      </c>
-      <c r="AM39" s="4">
-        <f>AL39/AK39</f>
-        <v>7.4324650706637491E-2</v>
-      </c>
-    </row>
-    <row r="40" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>275</v>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C39">
+        <v>69.400000000000006</v>
+      </c>
+    </row>
+    <row r="41" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>0</v>
+      </c>
+      <c r="B41" t="s">
+        <v>2</v>
+      </c>
+      <c r="C41" t="s">
+        <v>1</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F41" t="s">
+        <v>10</v>
+      </c>
+      <c r="G41" t="s">
+        <v>11</v>
+      </c>
+      <c r="H41" t="s">
+        <v>12</v>
+      </c>
+      <c r="I41" t="s">
+        <v>13</v>
+      </c>
+      <c r="K41" t="s">
+        <v>25</v>
+      </c>
+      <c r="L41" t="s">
+        <v>26</v>
+      </c>
+      <c r="M41" t="s">
+        <v>27</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R41" t="s">
+        <v>23</v>
+      </c>
+      <c r="S41" t="s">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s">
+        <v>24</v>
+      </c>
+      <c r="U41" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W41" t="s">
+        <v>21</v>
+      </c>
+      <c r="X41" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y41" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB41" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC41" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD41" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG41" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH41" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI41" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ41" s="2"/>
+      <c r="AK41" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL41" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM41" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>295</v>
+      </c>
+      <c r="B42">
+        <v>1.2</v>
       </c>
     </row>
     <row r="43" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>0</v>
-      </c>
-      <c r="B43" t="s">
-        <v>2</v>
-      </c>
-      <c r="C43" t="s">
-        <v>1</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="F43" t="s">
-        <v>10</v>
-      </c>
-      <c r="G43" t="s">
-        <v>11</v>
-      </c>
-      <c r="H43" t="s">
-        <v>12</v>
-      </c>
-      <c r="I43" t="s">
-        <v>13</v>
-      </c>
-      <c r="K43" t="s">
-        <v>25</v>
-      </c>
-      <c r="L43" t="s">
-        <v>26</v>
-      </c>
-      <c r="M43" t="s">
-        <v>27</v>
-      </c>
-      <c r="N43" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="R43" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" t="s">
-        <v>3</v>
-      </c>
-      <c r="T43" t="s">
-        <v>24</v>
-      </c>
-      <c r="U43" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="W43" t="s">
-        <v>21</v>
-      </c>
-      <c r="X43" t="s">
-        <v>4</v>
-      </c>
-      <c r="Y43" t="s">
-        <v>15</v>
-      </c>
-      <c r="Z43" t="s">
-        <v>20</v>
-      </c>
-      <c r="AB43" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AC43" t="s">
-        <v>5</v>
-      </c>
-      <c r="AD43" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE43" t="s">
-        <v>20</v>
-      </c>
-      <c r="AG43" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="AH43" t="s">
-        <v>18</v>
-      </c>
-      <c r="AI43" t="s">
-        <v>20</v>
-      </c>
-      <c r="AJ43" s="2"/>
-      <c r="AK43" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="AL43" t="s">
-        <v>19</v>
-      </c>
-      <c r="AM43" s="2" t="s">
-        <v>20</v>
+      <c r="A43">
+        <v>290</v>
+      </c>
+      <c r="B43">
+        <v>1.2</v>
       </c>
     </row>
     <row r="44" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>295</v>
+        <v>285</v>
+      </c>
+      <c r="B44">
+        <v>1.2</v>
+      </c>
+      <c r="C44">
+        <v>69.849999999999994</v>
       </c>
     </row>
     <row r="45" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>290</v>
+        <v>280</v>
+      </c>
+      <c r="B45">
+        <v>1.2</v>
+      </c>
+      <c r="C45" s="8"/>
+      <c r="K45" s="4" t="e">
+        <f>F45/SUM(F45:I45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="L45" s="4" t="e">
+        <f>G45/SUM(F45:I45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="M45" s="4" t="e">
+        <f>H45/SUM(F45:I45)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="R45">
+        <f>S45 * 1000*1000</f>
+        <v>0</v>
+      </c>
+      <c r="T45" s="3"/>
+      <c r="U45" s="4" t="e">
+        <f>T45/S45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="W45" t="e">
+        <f>1/X45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="Z45" s="4" t="e">
+        <f>Y45/X45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AB45" t="e">
+        <f>1/AC45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AE45" s="4" t="e">
+        <f>AD45/AC45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AI45" s="4" t="e">
+        <f>AH45/AG45</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AM45" s="4" t="e">
+        <f>AL45/AK45</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
     <row r="46" spans="1:39" x14ac:dyDescent="0.25">
       <c r="A46">
+        <v>275</v>
+      </c>
+      <c r="B46">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>0</v>
+      </c>
+      <c r="B48" t="s">
+        <v>2</v>
+      </c>
+      <c r="C48" t="s">
+        <v>1</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F48" t="s">
+        <v>10</v>
+      </c>
+      <c r="G48" t="s">
+        <v>11</v>
+      </c>
+      <c r="H48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I48" t="s">
+        <v>13</v>
+      </c>
+      <c r="K48" t="s">
+        <v>25</v>
+      </c>
+      <c r="L48" t="s">
+        <v>26</v>
+      </c>
+      <c r="M48" t="s">
+        <v>27</v>
+      </c>
+      <c r="N48" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R48" t="s">
+        <v>23</v>
+      </c>
+      <c r="S48" t="s">
+        <v>3</v>
+      </c>
+      <c r="T48" t="s">
+        <v>24</v>
+      </c>
+      <c r="U48" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W48" t="s">
+        <v>21</v>
+      </c>
+      <c r="X48" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB48" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC48" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD48" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG48" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH48" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI48" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ48" s="2"/>
+      <c r="AK48" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL48" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM48" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="50" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="51" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A51">
         <v>285</v>
       </c>
     </row>
-    <row r="47" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A47">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A52">
         <v>280</v>
       </c>
-      <c r="B47">
+      <c r="B52">
+        <v>1.3</v>
+      </c>
+      <c r="C52" s="8">
+        <v>69.775651999999994</v>
+      </c>
+      <c r="F52">
+        <v>31792</v>
+      </c>
+      <c r="G52">
+        <v>4849</v>
+      </c>
+      <c r="H52">
+        <v>180</v>
+      </c>
+      <c r="K52" s="4">
+        <f>F52/SUM(F52:I52)</f>
+        <v>0.86342033078949509</v>
+      </c>
+      <c r="L52" s="4">
+        <f>G52/SUM(F52:I52)</f>
+        <v>0.13169115450422314</v>
+      </c>
+      <c r="M52" s="4">
+        <f>H52/SUM(F52:I52)</f>
+        <v>4.8885147062817415E-3</v>
+      </c>
+      <c r="R52">
+        <f>S52 * 1000*1000</f>
+        <v>192.79200000000003</v>
+      </c>
+      <c r="S52">
+        <v>1.9279200000000001E-4</v>
+      </c>
+      <c r="T52" s="3">
+        <v>1.7244200000000001E-6</v>
+      </c>
+      <c r="U52" s="4">
+        <f>T52/S52</f>
+        <v>8.9444582762770244E-3</v>
+      </c>
+      <c r="W52">
+        <f>1/X52</f>
+        <v>20.219911760305077</v>
+      </c>
+      <c r="X52">
+        <v>4.9456199999999999E-2</v>
+      </c>
+      <c r="Y52">
+        <v>5.0201200000000003E-3</v>
+      </c>
+      <c r="Z52" s="4">
+        <f>Y52/X52</f>
+        <v>0.10150638342614274</v>
+      </c>
+      <c r="AB52">
+        <f>1/AC52</f>
+        <v>133.57501506058296</v>
+      </c>
+      <c r="AC52">
+        <v>7.4864299999999996E-3</v>
+      </c>
+      <c r="AD52">
+        <v>2.02776E-4</v>
+      </c>
+      <c r="AE52" s="4">
+        <f>AD52/AC52</f>
+        <v>2.708580725392477E-2</v>
+      </c>
+      <c r="AG52" s="4">
+        <v>0.30463600000000002</v>
+      </c>
+      <c r="AH52">
+        <v>4.9131599999999997E-3</v>
+      </c>
+      <c r="AI52" s="4">
+        <f>AH52/AG52</f>
+        <v>1.6127969117241559E-2</v>
+      </c>
+      <c r="AK52" s="4">
+        <v>0.136633</v>
+      </c>
+      <c r="AL52">
+        <v>1.01552E-2</v>
+      </c>
+      <c r="AM52" s="4">
+        <f>AL52/AK52</f>
+        <v>7.4324650706637491E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="55" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>0</v>
+      </c>
+      <c r="B55" t="s">
+        <v>2</v>
+      </c>
+      <c r="C55" t="s">
+        <v>1</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="s">
+        <v>11</v>
+      </c>
+      <c r="H55" t="s">
+        <v>12</v>
+      </c>
+      <c r="I55" t="s">
+        <v>13</v>
+      </c>
+      <c r="K55" t="s">
+        <v>25</v>
+      </c>
+      <c r="L55" t="s">
+        <v>26</v>
+      </c>
+      <c r="M55" t="s">
+        <v>27</v>
+      </c>
+      <c r="N55" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="R55" t="s">
+        <v>23</v>
+      </c>
+      <c r="S55" t="s">
+        <v>3</v>
+      </c>
+      <c r="T55" t="s">
+        <v>24</v>
+      </c>
+      <c r="U55" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="W55" t="s">
+        <v>21</v>
+      </c>
+      <c r="X55" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z55" t="s">
+        <v>20</v>
+      </c>
+      <c r="AB55" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC55" t="s">
+        <v>5</v>
+      </c>
+      <c r="AD55" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE55" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG55" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="AH55" t="s">
+        <v>18</v>
+      </c>
+      <c r="AI55" t="s">
+        <v>20</v>
+      </c>
+      <c r="AJ55" s="2"/>
+      <c r="AK55" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL55" t="s">
+        <v>19</v>
+      </c>
+      <c r="AM55" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="56" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="57" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="58" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="59" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>280</v>
+      </c>
+      <c r="B59">
         <v>1.5</v>
       </c>
-      <c r="C47" s="8">
+      <c r="C59" s="8">
         <v>69.975651999999997</v>
       </c>
-      <c r="F47">
+      <c r="F59">
         <v>104800</v>
       </c>
-      <c r="G47">
+      <c r="G59">
         <v>17143</v>
       </c>
-      <c r="H47">
+      <c r="H59">
         <v>535</v>
       </c>
-      <c r="K47" s="4">
-        <f>F47/SUM(F47:I47)</f>
+      <c r="K59" s="4">
+        <f>F59/SUM(F59:I59)</f>
         <v>0.85566387432845081</v>
       </c>
-      <c r="L47" s="4">
-        <f>G47/SUM(F47:I47)</f>
+      <c r="L59" s="4">
+        <f>G59/SUM(F59:I59)</f>
         <v>0.13996799425202894</v>
       </c>
-      <c r="M47" s="4">
-        <f>H47/SUM(F47:I47)</f>
+      <c r="M59" s="4">
+        <f>H59/SUM(F59:I59)</f>
         <v>4.3681314195202405E-3</v>
       </c>
-      <c r="R47" t="s">
+      <c r="R59" t="s">
         <v>42</v>
       </c>
-      <c r="T47" s="3"/>
-      <c r="U47" s="4"/>
-      <c r="Z47" s="4"/>
-      <c r="AE47" s="4"/>
-      <c r="AI47" s="4"/>
-      <c r="AM47" s="4"/>
-    </row>
-    <row r="48" spans="1:39" x14ac:dyDescent="0.25">
-      <c r="A48">
+      <c r="T59" s="3"/>
+      <c r="U59" s="4"/>
+      <c r="Z59" s="4"/>
+      <c r="AE59" s="4"/>
+      <c r="AI59" s="4"/>
+      <c r="AM59" s="4"/>
+    </row>
+    <row r="60" spans="1:39" x14ac:dyDescent="0.25">
+      <c r="A60">
         <v>275</v>
       </c>
     </row>
-    <row r="97" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A97" s="3"/>
-    </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A105" s="3"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A119" s="3"/>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A99" s="3"/>
+    </row>
+    <row r="107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A107" s="3"/>
     </row>
     <row r="121" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A121" s="3"/>
     </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A125" s="3"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A129" s="3"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A130" s="3"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A140" s="3"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A147" s="3"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A154" s="3"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A157" s="3"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A160" s="3"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A166" s="3"/>
+    <row r="123" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3"/>
+    </row>
+    <row r="127" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3"/>
+    </row>
+    <row r="131" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A131" s="3"/>
+    </row>
+    <row r="132" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A132" s="3"/>
+    </row>
+    <row r="142" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+    </row>
+    <row r="149" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A149" s="3"/>
+    </row>
+    <row r="156" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A156" s="3"/>
+    </row>
+    <row r="159" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A159" s="3"/>
+    </row>
+    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A162" s="3"/>
     </row>
     <row r="168" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A168" s="3"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A169" s="3"/>
-    </row>
     <row r="170" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A170" s="3"/>
     </row>
     <row r="171" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A171" s="3"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A176" s="3"/>
-    </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A177" s="3"/>
+    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A172" s="3"/>
+    </row>
+    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A173" s="3"/>
+    </row>
+    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A178" s="3"/>
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A179" s="3"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A180" s="3"/>
+    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A181" s="3"/>
     </row>
     <row r="182" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A182" s="3"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A186" s="3"/>
+    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A184" s="3"/>
     </row>
     <row r="188" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A188" s="3"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A189" s="3"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A193" s="3"/>
+    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A190" s="3"/>
+    </row>
+    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A191" s="3"/>
     </row>
     <row r="195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A195" s="3"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A196" s="3"/>
-    </row>
     <row r="197" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A197" s="3"/>
     </row>
     <row r="198" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A198" s="3"/>
     </row>
+    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A199" s="3"/>
+    </row>
     <row r="200" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A200" s="3"/>
     </row>
     <row r="202" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A202" s="3"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A203" s="3"/>
+    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A204" s="3"/>
     </row>
     <row r="205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A205" s="3"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A211" s="3"/>
+    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A207" s="3"/>
     </row>
     <row r="213" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A213" s="3"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A214" s="3"/>
-    </row>
     <row r="215" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A215" s="3"/>
     </row>
+    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A216" s="3"/>
+    </row>
     <row r="217" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A217" s="3"/>
     </row>
@@ -5640,9 +6238,6 @@
     <row r="221" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A221" s="3"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A222" s="3"/>
-    </row>
     <row r="223" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A223" s="3"/>
     </row>
@@ -5658,14 +6253,17 @@
     <row r="227" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A227" s="3"/>
     </row>
+    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A228" s="3"/>
+    </row>
     <row r="229" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A229" s="3"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A230" s="3"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A234" s="3"/>
+    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A231" s="3"/>
+    </row>
+    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A232" s="3"/>
     </row>
     <row r="236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A236" s="3"/>
@@ -5673,24 +6271,21 @@
     <row r="238" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A238" s="3"/>
     </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A239" s="3"/>
+    <row r="240" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A240" s="3"/>
     </row>
     <row r="241" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A241" s="3"/>
     </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A242" s="3"/>
-    </row>
     <row r="243" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A243" s="3"/>
     </row>
+    <row r="244" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A244" s="3"/>
+    </row>
     <row r="245" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A245" s="3"/>
     </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A246" s="3"/>
-    </row>
     <row r="247" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A247" s="3"/>
     </row>
@@ -5706,27 +6301,27 @@
     <row r="251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A251" s="3"/>
     </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A254" s="3"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A255" s="3"/>
+    <row r="252" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A252" s="3"/>
+    </row>
+    <row r="253" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A253" s="3"/>
+    </row>
+    <row r="256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A256" s="3"/>
     </row>
     <row r="257" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A257" s="3"/>
     </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A258" s="3"/>
-    </row>
     <row r="259" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A259" s="3"/>
     </row>
+    <row r="260" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A260" s="3"/>
+    </row>
     <row r="261" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A261" s="3"/>
     </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A262" s="3"/>
-    </row>
     <row r="263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A263" s="3"/>
     </row>
@@ -5739,32 +6334,32 @@
     <row r="266" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A266" s="3"/>
     </row>
+    <row r="267" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A267" s="3"/>
+    </row>
     <row r="268" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A268" s="3"/>
     </row>
     <row r="270" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A270" s="3"/>
     </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A271" s="3"/>
-    </row>
     <row r="272" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A272" s="3"/>
     </row>
+    <row r="273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A273" s="3"/>
+    </row>
     <row r="274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A274" s="3"/>
     </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A275" s="3"/>
-    </row>
     <row r="276" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A276" s="3"/>
     </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A280" s="3"/>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A281" s="3"/>
+    <row r="277" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A277" s="3"/>
+    </row>
+    <row r="278" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A278" s="3"/>
     </row>
     <row r="282" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A282" s="3"/>
@@ -5772,18 +6367,18 @@
     <row r="283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A283" s="3"/>
     </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A286" s="3"/>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A287" s="3"/>
+    <row r="284" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A284" s="3"/>
+    </row>
+    <row r="285" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A285" s="3"/>
+    </row>
+    <row r="288" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A288" s="3"/>
     </row>
     <row r="289" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A289" s="3"/>
     </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A290" s="3"/>
-    </row>
     <row r="291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A291" s="3"/>
     </row>
@@ -5796,21 +6391,21 @@
     <row r="294" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A294" s="3"/>
     </row>
+    <row r="295" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A295" s="3"/>
+    </row>
     <row r="296" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A296" s="3"/>
     </row>
     <row r="298" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A298" s="3"/>
     </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A299" s="3"/>
+    <row r="300" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A300" s="3"/>
     </row>
     <row r="301" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A301" s="3"/>
     </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A302" s="3"/>
-    </row>
     <row r="303" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A303" s="3"/>
     </row>
@@ -5829,12 +6424,12 @@
     <row r="308" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A308" s="3"/>
     </row>
+    <row r="309" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A309" s="3"/>
+    </row>
     <row r="310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A310" s="3"/>
     </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A311" s="3"/>
-    </row>
     <row r="312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A312" s="3"/>
     </row>
@@ -5850,12 +6445,12 @@
     <row r="316" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A316" s="3"/>
     </row>
+    <row r="317" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A317" s="3"/>
+    </row>
     <row r="318" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A318" s="3"/>
     </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A319" s="3"/>
-    </row>
     <row r="320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A320" s="3"/>
     </row>
@@ -5868,17 +6463,17 @@
     <row r="323" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A323" s="3"/>
     </row>
+    <row r="324" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A324" s="3"/>
+    </row>
     <row r="325" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A325" s="3"/>
     </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A326" s="3"/>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A329" s="3"/>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A330" s="3"/>
+    <row r="327" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A327" s="3"/>
+    </row>
+    <row r="328" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A328" s="3"/>
     </row>
     <row r="331" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A331" s="3"/>
@@ -5895,24 +6490,24 @@
     <row r="335" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A335" s="3"/>
     </row>
+    <row r="336" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A336" s="3"/>
+    </row>
     <row r="337" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A337" s="3"/>
     </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A338" s="3"/>
-    </row>
     <row r="339" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A339" s="3"/>
     </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A342" s="3"/>
+    <row r="340" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A340" s="3"/>
+    </row>
+    <row r="341" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A341" s="3"/>
     </row>
     <row r="344" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A344" s="3"/>
     </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A345" s="3"/>
-    </row>
     <row r="346" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A346" s="3"/>
     </row>
@@ -5931,18 +6526,18 @@
     <row r="351" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A351" s="3"/>
     </row>
+    <row r="352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A352" s="3"/>
+    </row>
     <row r="353" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A353" s="3"/>
     </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A354" s="3"/>
+    <row r="355" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A355" s="3"/>
     </row>
     <row r="356" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A356" s="3"/>
     </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A357" s="3"/>
-    </row>
     <row r="358" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A358" s="3"/>
     </row>
@@ -5967,17 +6562,17 @@
     <row r="365" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A365" s="3"/>
     </row>
+    <row r="366" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A366" s="3"/>
+    </row>
     <row r="367" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A367" s="3"/>
     </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A368" s="3"/>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A371" s="3"/>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A372" s="3"/>
+    <row r="369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A369" s="3"/>
+    </row>
+    <row r="370" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A370" s="3"/>
     </row>
     <row r="373" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A373" s="3"/>
@@ -5985,12 +6580,12 @@
     <row r="374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A374" s="3"/>
     </row>
+    <row r="375" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A375" s="3"/>
+    </row>
     <row r="376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A376" s="3"/>
     </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A377" s="3"/>
-    </row>
     <row r="378" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A378" s="3"/>
     </row>
@@ -6000,12 +6595,12 @@
     <row r="380" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A380" s="3"/>
     </row>
+    <row r="381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A381" s="3"/>
+    </row>
     <row r="382" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A382" s="3"/>
     </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A383" s="3"/>
-    </row>
     <row r="384" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A384" s="3"/>
     </row>
@@ -6066,15 +6661,15 @@
     <row r="403" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A403" s="3"/>
     </row>
+    <row r="404" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A404" s="3"/>
+    </row>
     <row r="405" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A405" s="3"/>
     </row>
     <row r="407" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A407" s="3"/>
     </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A408" s="3"/>
-    </row>
     <row r="409" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A409" s="3"/>
     </row>
@@ -6087,12 +6682,12 @@
     <row r="412" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A412" s="3"/>
     </row>
+    <row r="413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A413" s="3"/>
+    </row>
     <row r="414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A414" s="3"/>
     </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A415" s="3"/>
-    </row>
     <row r="416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A416" s="3"/>
     </row>
@@ -6756,12 +7351,12 @@
     <row r="636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A636" s="3"/>
     </row>
+    <row r="637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A637" s="3"/>
+    </row>
     <row r="638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A638" s="3"/>
     </row>
-    <row r="639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A639" s="3"/>
-    </row>
     <row r="640" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A640" s="3"/>
     </row>
@@ -8118,12 +8713,12 @@
     <row r="1091" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1091" s="3"/>
     </row>
+    <row r="1092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1092" s="3"/>
+    </row>
     <row r="1093" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1093" s="3"/>
     </row>
-    <row r="1094" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1094" s="3"/>
-    </row>
     <row r="1095" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1095" s="3"/>
     </row>
@@ -8259,12 +8854,12 @@
     <row r="1139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1139" s="3"/>
     </row>
+    <row r="1140" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1140" s="3"/>
+    </row>
     <row r="1141" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1141" s="3"/>
     </row>
-    <row r="1142" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1142" s="3"/>
-    </row>
     <row r="1143" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1143" s="3"/>
     </row>
@@ -8481,12 +9076,12 @@
     <row r="1214" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1214" s="3"/>
     </row>
+    <row r="1215" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1215" s="3"/>
+    </row>
     <row r="1216" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1216" s="3"/>
     </row>
-    <row r="1217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1217" s="3"/>
-    </row>
     <row r="1218" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1218" s="3"/>
     </row>
@@ -8766,12 +9361,12 @@
     <row r="1310" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1310" s="3"/>
     </row>
+    <row r="1311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1311" s="3"/>
+    </row>
     <row r="1312" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1312" s="3"/>
     </row>
-    <row r="1313" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1313" s="3"/>
-    </row>
     <row r="1314" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1314" s="3"/>
     </row>
@@ -8799,12 +9394,12 @@
     <row r="1322" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1322" s="3"/>
     </row>
+    <row r="1323" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1323" s="3"/>
+    </row>
     <row r="1324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1324" s="3"/>
     </row>
-    <row r="1325" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1325" s="3"/>
-    </row>
     <row r="1326" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1326" s="3"/>
     </row>
@@ -8910,12 +9505,12 @@
     <row r="1360" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1360" s="3"/>
     </row>
+    <row r="1361" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1361" s="3"/>
+    </row>
     <row r="1362" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1362" s="3"/>
     </row>
-    <row r="1363" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1363" s="3"/>
-    </row>
     <row r="1364" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1364" s="3"/>
     </row>
@@ -8943,12 +9538,12 @@
     <row r="1372" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1372" s="3"/>
     </row>
+    <row r="1373" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1373" s="3"/>
+    </row>
     <row r="1374" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1374" s="3"/>
     </row>
-    <row r="1375" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1375" s="3"/>
-    </row>
     <row r="1376" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1376" s="3"/>
     </row>
@@ -9102,12 +9697,12 @@
     <row r="1426" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1426" s="3"/>
     </row>
+    <row r="1427" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1427" s="3"/>
+    </row>
     <row r="1428" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1428" s="3"/>
     </row>
-    <row r="1429" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1429" s="3"/>
-    </row>
     <row r="1430" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1430" s="3"/>
     </row>
@@ -9168,21 +9763,21 @@
     <row r="1449" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1449" s="3"/>
     </row>
+    <row r="1450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1450" s="3"/>
+    </row>
     <row r="1451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1451" s="3"/>
     </row>
-    <row r="1452" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1452" s="3"/>
-    </row>
     <row r="1453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1453" s="3"/>
     </row>
+    <row r="1454" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1454" s="3"/>
+    </row>
     <row r="1455" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1455" s="3"/>
     </row>
-    <row r="1456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1456" s="3"/>
-    </row>
     <row r="1457" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1457" s="3"/>
     </row>
@@ -9201,12 +9796,12 @@
     <row r="1462" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1462" s="3"/>
     </row>
+    <row r="1463" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1463" s="3"/>
+    </row>
     <row r="1464" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1464" s="3"/>
     </row>
-    <row r="1465" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1465" s="3"/>
-    </row>
     <row r="1466" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1466" s="3"/>
     </row>
@@ -9237,11 +9832,11 @@
     <row r="1475" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1475" s="3"/>
     </row>
-    <row r="1478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1478" s="3"/>
-    </row>
-    <row r="1479" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1479" s="3"/>
+    <row r="1476" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1476" s="3"/>
+    </row>
+    <row r="1477" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1477" s="3"/>
     </row>
     <row r="1480" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1480" s="3"/>
@@ -9411,21 +10006,21 @@
     <row r="1535" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1535" s="3"/>
     </row>
+    <row r="1536" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1536" s="3"/>
+    </row>
     <row r="1537" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1537" s="3"/>
     </row>
-    <row r="1538" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1538" s="3"/>
-    </row>
     <row r="1539" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1539" s="3"/>
     </row>
+    <row r="1540" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1540" s="3"/>
+    </row>
     <row r="1541" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1541" s="3"/>
     </row>
-    <row r="1542" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1542" s="3"/>
-    </row>
     <row r="1543" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1543" s="3"/>
     </row>
@@ -9444,12 +10039,12 @@
     <row r="1548" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1548" s="3"/>
     </row>
+    <row r="1549" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1549" s="3"/>
+    </row>
     <row r="1550" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1550" s="3"/>
     </row>
-    <row r="1551" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1551" s="3"/>
-    </row>
     <row r="1552" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1552" s="3"/>
     </row>
@@ -9474,12 +10069,12 @@
     <row r="1559" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1559" s="3"/>
     </row>
+    <row r="1560" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1560" s="3"/>
+    </row>
     <row r="1561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1561" s="3"/>
     </row>
-    <row r="1562" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1562" s="3"/>
-    </row>
     <row r="1563" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1563" s="3"/>
     </row>
@@ -9603,12 +10198,12 @@
     <row r="1603" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1603" s="3"/>
     </row>
+    <row r="1604" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1604" s="3"/>
+    </row>
     <row r="1605" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1605" s="3"/>
     </row>
-    <row r="1606" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1606" s="3"/>
-    </row>
     <row r="1607" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1607" s="3"/>
     </row>
@@ -9630,12 +10225,12 @@
     <row r="1613" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1613" s="3"/>
     </row>
+    <row r="1614" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1614" s="3"/>
+    </row>
     <row r="1615" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1615" s="3"/>
     </row>
-    <row r="1616" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1616" s="3"/>
-    </row>
     <row r="1617" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1617" s="3"/>
     </row>
@@ -9678,12 +10273,12 @@
     <row r="1630" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1630" s="3"/>
     </row>
+    <row r="1631" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1631" s="3"/>
+    </row>
     <row r="1632" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1632" s="3"/>
     </row>
-    <row r="1633" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1633" s="3"/>
-    </row>
     <row r="1634" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1634" s="3"/>
     </row>
@@ -9693,24 +10288,24 @@
     <row r="1636" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1636" s="3"/>
     </row>
+    <row r="1637" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1637" s="3"/>
+    </row>
     <row r="1638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1638" s="3"/>
     </row>
-    <row r="1639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1639" s="3"/>
+    <row r="1640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1640" s="3"/>
     </row>
     <row r="1641" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1641" s="3"/>
     </row>
-    <row r="1642" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1642" s="3"/>
+    <row r="1643" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1643" s="3"/>
     </row>
     <row r="1644" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1644" s="3"/>
     </row>
-    <row r="1645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1645" s="3"/>
-    </row>
     <row r="1646" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1646" s="3"/>
     </row>
@@ -9720,12 +10315,12 @@
     <row r="1648" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1648" s="3"/>
     </row>
+    <row r="1649" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1649" s="3"/>
+    </row>
     <row r="1650" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1650" s="3"/>
     </row>
-    <row r="1651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1651" s="3"/>
-    </row>
     <row r="1652" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1652" s="3"/>
     </row>
@@ -9744,12 +10339,12 @@
     <row r="1657" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1657" s="3"/>
     </row>
+    <row r="1658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1658" s="3"/>
+    </row>
     <row r="1659" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1659" s="3"/>
     </row>
-    <row r="1660" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1660" s="3"/>
-    </row>
     <row r="1661" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1661" s="3"/>
     </row>
@@ -9768,18 +10363,18 @@
     <row r="1666" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1666" s="3"/>
     </row>
+    <row r="1667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1667" s="3"/>
+    </row>
     <row r="1668" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1668" s="3"/>
     </row>
-    <row r="1669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1669" s="3"/>
+    <row r="1670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1670" s="3"/>
     </row>
     <row r="1671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1671" s="3"/>
     </row>
-    <row r="1672" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1672" s="3"/>
-    </row>
     <row r="1673" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1673" s="3"/>
     </row>
@@ -9789,17 +10384,17 @@
     <row r="1675" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1675" s="3"/>
     </row>
+    <row r="1676" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1676" s="3"/>
+    </row>
     <row r="1677" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1677" s="3"/>
     </row>
-    <row r="1678" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1678" s="3"/>
-    </row>
-    <row r="1681" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1681" s="3"/>
-    </row>
-    <row r="1682" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1682" s="3"/>
+    <row r="1679" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1679" s="3"/>
+    </row>
+    <row r="1680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1680" s="3"/>
     </row>
     <row r="1683" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1683" s="3"/>
@@ -9807,12 +10402,12 @@
     <row r="1684" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1684" s="3"/>
     </row>
+    <row r="1685" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1685" s="3"/>
+    </row>
     <row r="1686" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1686" s="3"/>
     </row>
-    <row r="1687" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1687" s="3"/>
-    </row>
     <row r="1688" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1688" s="3"/>
     </row>
@@ -9846,12 +10441,12 @@
     <row r="1698" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1698" s="3"/>
     </row>
+    <row r="1699" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1699" s="3"/>
+    </row>
     <row r="1700" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1700" s="3"/>
     </row>
-    <row r="1701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1701" s="3"/>
-    </row>
     <row r="1702" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1702" s="3"/>
     </row>
@@ -9873,30 +10468,30 @@
     <row r="1708" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1708" s="3"/>
     </row>
+    <row r="1709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1709" s="3"/>
+    </row>
     <row r="1710" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1710" s="3"/>
     </row>
-    <row r="1711" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1711" s="3"/>
+    <row r="1712" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1712" s="3"/>
     </row>
     <row r="1713" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1713" s="3"/>
     </row>
-    <row r="1714" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1714" s="3"/>
-    </row>
     <row r="1715" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1715" s="3"/>
     </row>
     <row r="1716" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1716" s="3"/>
     </row>
+    <row r="1717" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1717" s="3"/>
+    </row>
     <row r="1718" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1718" s="3"/>
     </row>
-    <row r="1719" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1719" s="3"/>
-    </row>
     <row r="1720" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1720" s="3"/>
     </row>
@@ -9915,24 +10510,24 @@
     <row r="1725" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1725" s="3"/>
     </row>
+    <row r="1726" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1726" s="3"/>
+    </row>
     <row r="1727" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1727" s="3"/>
     </row>
-    <row r="1728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1728" s="3"/>
-    </row>
     <row r="1729" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1729" s="3"/>
     </row>
     <row r="1730" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1730" s="3"/>
     </row>
+    <row r="1731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1731" s="3"/>
+    </row>
     <row r="1732" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1732" s="3"/>
     </row>
-    <row r="1733" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1733" s="3"/>
-    </row>
     <row r="1734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1734" s="3"/>
     </row>
@@ -9960,12 +10555,12 @@
     <row r="1742" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1742" s="3"/>
     </row>
+    <row r="1743" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1743" s="3"/>
+    </row>
     <row r="1744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1744" s="3"/>
     </row>
-    <row r="1745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1745" s="3"/>
-    </row>
     <row r="1746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1746" s="3"/>
     </row>
@@ -9999,12 +10594,12 @@
     <row r="1756" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1756" s="3"/>
     </row>
+    <row r="1757" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1757" s="3"/>
+    </row>
     <row r="1758" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1758" s="3"/>
     </row>
-    <row r="1759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1759" s="3"/>
-    </row>
     <row r="1760" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1760" s="3"/>
     </row>
@@ -10041,36 +10636,36 @@
     <row r="1771" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1771" s="3"/>
     </row>
+    <row r="1772" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1772" s="3"/>
+    </row>
     <row r="1773" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1773" s="3"/>
     </row>
-    <row r="1774" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1774" s="3"/>
-    </row>
     <row r="1775" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1775" s="3"/>
     </row>
     <row r="1776" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1776" s="3"/>
     </row>
+    <row r="1777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1777" s="3"/>
+    </row>
     <row r="1778" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1778" s="3"/>
     </row>
-    <row r="1779" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1779" s="3"/>
-    </row>
     <row r="1780" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1780" s="3"/>
     </row>
     <row r="1781" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1781" s="3"/>
     </row>
+    <row r="1782" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1782" s="3"/>
+    </row>
     <row r="1783" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1783" s="3"/>
     </row>
-    <row r="1784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1784" s="3"/>
-    </row>
     <row r="1785" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1785" s="3"/>
     </row>
@@ -10110,12 +10705,12 @@
     <row r="1797" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1797" s="3"/>
     </row>
+    <row r="1798" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1798" s="3"/>
+    </row>
     <row r="1799" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1799" s="3"/>
     </row>
-    <row r="1800" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1800" s="3"/>
-    </row>
     <row r="1801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1801" s="3"/>
     </row>
@@ -10131,21 +10726,21 @@
     <row r="1805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1805" s="3"/>
     </row>
+    <row r="1806" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1806" s="3"/>
+    </row>
     <row r="1807" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1807" s="3"/>
     </row>
-    <row r="1808" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1808" s="3"/>
-    </row>
     <row r="1809" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1809" s="3"/>
     </row>
+    <row r="1810" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1810" s="3"/>
+    </row>
     <row r="1811" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1811" s="3"/>
     </row>
-    <row r="1812" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1812" s="3"/>
-    </row>
     <row r="1813" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1813" s="3"/>
     </row>
@@ -10158,11 +10753,11 @@
     <row r="1816" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1816" s="3"/>
     </row>
-    <row r="1819" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1819" s="3"/>
-    </row>
-    <row r="1820" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1820" s="3"/>
+    <row r="1817" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1817" s="3"/>
+    </row>
+    <row r="1818" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1818" s="3"/>
     </row>
     <row r="1821" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1821" s="3"/>
@@ -10176,21 +10771,21 @@
     <row r="1824" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1824" s="3"/>
     </row>
-    <row r="1829" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1829" s="3"/>
-    </row>
-    <row r="1830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1830" s="3"/>
+    <row r="1825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1825" s="3"/>
+    </row>
+    <row r="1826" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1826" s="3"/>
     </row>
     <row r="1831" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1831" s="3"/>
     </row>
+    <row r="1832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1832" s="3"/>
+    </row>
     <row r="1833" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1833" s="3"/>
     </row>
-    <row r="1834" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1834" s="3"/>
-    </row>
     <row r="1835" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1835" s="3"/>
     </row>
@@ -10203,35 +10798,35 @@
     <row r="1838" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1838" s="3"/>
     </row>
-    <row r="1841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1841" s="3"/>
-    </row>
-    <row r="1842" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1842" s="3"/>
-    </row>
-    <row r="1845" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1845" s="3"/>
+    <row r="1839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1839" s="3"/>
+    </row>
+    <row r="1840" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1840" s="3"/>
+    </row>
+    <row r="1843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1843" s="3"/>
+    </row>
+    <row r="1844" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1844" s="3"/>
     </row>
     <row r="1847" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1847" s="3"/>
     </row>
-    <row r="1848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1848" s="3"/>
+    <row r="1849" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1849" s="3"/>
     </row>
     <row r="1850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1850" s="3"/>
     </row>
-    <row r="1851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1851" s="3"/>
-    </row>
     <row r="1852" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1852" s="3"/>
     </row>
-    <row r="1856" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1856" s="3"/>
-    </row>
-    <row r="1857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1857" s="3"/>
+    <row r="1853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1853" s="3"/>
+    </row>
+    <row r="1854" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1854" s="3"/>
     </row>
     <row r="1858" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1858" s="3"/>
@@ -10239,20 +10834,23 @@
     <row r="1859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1859" s="3"/>
     </row>
+    <row r="1860" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1860" s="3"/>
+    </row>
     <row r="1861" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1861" s="3"/>
     </row>
     <row r="1863" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1863" s="3"/>
     </row>
-    <row r="1864" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1864" s="3"/>
+    <row r="1865" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1865" s="3"/>
     </row>
     <row r="1866" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1866" s="3"/>
     </row>
-    <row r="1867" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1867" s="3"/>
+    <row r="1868" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1868" s="3"/>
     </row>
     <row r="1869" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1869" s="3"/>
@@ -10260,18 +10858,15 @@
     <row r="1871" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1871" s="3"/>
     </row>
-    <row r="1872" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1872" s="3"/>
-    </row>
     <row r="1873" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1873" s="3"/>
     </row>
+    <row r="1874" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1874" s="3"/>
+    </row>
     <row r="1875" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1875" s="3"/>
     </row>
-    <row r="1876" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1876" s="3"/>
-    </row>
     <row r="1877" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1877" s="3"/>
     </row>
@@ -10284,12 +10879,12 @@
     <row r="1880" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1880" s="3"/>
     </row>
+    <row r="1881" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1881" s="3"/>
+    </row>
     <row r="1882" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1882" s="3"/>
     </row>
-    <row r="1883" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1883" s="3"/>
-    </row>
     <row r="1884" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1884" s="3"/>
     </row>
@@ -10311,12 +10906,12 @@
     <row r="1890" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1890" s="3"/>
     </row>
+    <row r="1891" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1891" s="3"/>
+    </row>
     <row r="1892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1892" s="3"/>
     </row>
-    <row r="1893" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1893" s="3"/>
-    </row>
     <row r="1894" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1894" s="3"/>
     </row>
@@ -10326,32 +10921,32 @@
     <row r="1896" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1896" s="3"/>
     </row>
+    <row r="1897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1897" s="3"/>
+    </row>
     <row r="1898" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1898" s="3"/>
     </row>
-    <row r="1899" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1899" s="3"/>
+    <row r="1900" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1900" s="3"/>
     </row>
     <row r="1901" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1901" s="3"/>
     </row>
-    <row r="1902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1902" s="3"/>
-    </row>
     <row r="1903" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1903" s="3"/>
     </row>
     <row r="1904" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1904" s="3"/>
     </row>
+    <row r="1905" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1905" s="3"/>
+    </row>
     <row r="1906" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1906" s="3"/>
     </row>
-    <row r="1911" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1911" s="3"/>
-    </row>
-    <row r="1912" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1912" s="3"/>
+    <row r="1908" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1908" s="3"/>
     </row>
     <row r="1913" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1913" s="3"/>
@@ -10359,11 +10954,11 @@
     <row r="1914" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1914" s="3"/>
     </row>
-    <row r="1917" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1917" s="3"/>
-    </row>
-    <row r="1918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1918" s="3"/>
+    <row r="1915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1915" s="3"/>
+    </row>
+    <row r="1916" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1916" s="3"/>
     </row>
     <row r="1919" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1919" s="3"/>
@@ -10374,84 +10969,84 @@
     <row r="1921" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1921" s="3"/>
     </row>
+    <row r="1922" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1922" s="3"/>
+    </row>
     <row r="1923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1923" s="3"/>
     </row>
-    <row r="1926" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1926" s="3"/>
-    </row>
-    <row r="1927" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1927" s="3"/>
-    </row>
-    <row r="1930" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1930" s="3"/>
-    </row>
-    <row r="1931" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1931" s="3"/>
+    <row r="1925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1925" s="3"/>
+    </row>
+    <row r="1928" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1928" s="3"/>
+    </row>
+    <row r="1929" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1929" s="3"/>
+    </row>
+    <row r="1932" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1932" s="3"/>
     </row>
     <row r="1933" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1933" s="3"/>
     </row>
-    <row r="1934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1934" s="3"/>
-    </row>
     <row r="1935" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1935" s="3"/>
     </row>
     <row r="1936" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1936" s="3"/>
     </row>
-    <row r="1939" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1939" s="3"/>
-    </row>
-    <row r="1940" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1940" s="3"/>
+    <row r="1937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1937" s="3"/>
+    </row>
+    <row r="1938" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1938" s="3"/>
+    </row>
+    <row r="1941" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1941" s="3"/>
     </row>
     <row r="1942" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1942" s="3"/>
     </row>
-    <row r="1943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1943" s="3"/>
+    <row r="1944" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1944" s="3"/>
     </row>
     <row r="1945" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1945" s="3"/>
     </row>
-    <row r="1946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1946" s="3"/>
-    </row>
     <row r="1947" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1947" s="3"/>
     </row>
+    <row r="1948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1948" s="3"/>
+    </row>
     <row r="1949" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1949" s="3"/>
     </row>
     <row r="1951" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1951" s="3"/>
     </row>
-    <row r="1952" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1952" s="3"/>
-    </row>
     <row r="1953" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1953" s="3"/>
     </row>
+    <row r="1954" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1954" s="3"/>
+    </row>
     <row r="1955" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1955" s="3"/>
     </row>
-    <row r="1956" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1956" s="3"/>
-    </row>
     <row r="1957" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1957" s="3"/>
     </row>
     <row r="1958" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1958" s="3"/>
     </row>
+    <row r="1959" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1959" s="3"/>
+    </row>
     <row r="1960" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1960" s="3"/>
     </row>
-    <row r="1961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1961" s="3"/>
-    </row>
     <row r="1962" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1962" s="3"/>
     </row>
@@ -10473,42 +11068,42 @@
     <row r="1968" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1968" s="3"/>
     </row>
-    <row r="1971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1971" s="3"/>
-    </row>
-    <row r="1972" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1972" s="3"/>
+    <row r="1969" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1969" s="3"/>
+    </row>
+    <row r="1970" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1970" s="3"/>
     </row>
     <row r="1973" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1973" s="3"/>
     </row>
+    <row r="1974" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1974" s="3"/>
+    </row>
     <row r="1975" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1975" s="3"/>
     </row>
-    <row r="1976" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1976" s="3"/>
-    </row>
     <row r="1977" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1977" s="3"/>
     </row>
+    <row r="1978" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1978" s="3"/>
+    </row>
     <row r="1979" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1979" s="3"/>
     </row>
-    <row r="1982" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1982" s="3"/>
-    </row>
-    <row r="1983" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1983" s="3"/>
+    <row r="1981" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1981" s="3"/>
     </row>
     <row r="1984" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1984" s="3"/>
     </row>
+    <row r="1985" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1985" s="3"/>
+    </row>
     <row r="1986" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1986" s="3"/>
     </row>
-    <row r="1987" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1987" s="3"/>
-    </row>
     <row r="1988" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1988" s="3"/>
     </row>
@@ -10533,24 +11128,24 @@
     <row r="1995" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1995" s="3"/>
     </row>
+    <row r="1996" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1996" s="3"/>
+    </row>
     <row r="1997" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1997" s="3"/>
     </row>
     <row r="1999" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1999" s="3"/>
     </row>
-    <row r="2000" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2000" s="3"/>
-    </row>
     <row r="2001" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2001" s="3"/>
     </row>
+    <row r="2002" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2002" s="3"/>
+    </row>
     <row r="2003" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2003" s="3"/>
     </row>
-    <row r="2004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2004" s="3"/>
-    </row>
     <row r="2005" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2005" s="3"/>
     </row>
@@ -10560,15 +11155,15 @@
     <row r="2007" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2007" s="3"/>
     </row>
-    <row r="2012" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2012" s="3"/>
+    <row r="2008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2008" s="3"/>
+    </row>
+    <row r="2009" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2009" s="3"/>
     </row>
     <row r="2014" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2014" s="3"/>
     </row>
-    <row r="2015" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2015" s="3"/>
-    </row>
     <row r="2016" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2016" s="3"/>
     </row>
@@ -10596,30 +11191,30 @@
     <row r="2024" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2024" s="3"/>
     </row>
+    <row r="2025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2025" s="3"/>
+    </row>
     <row r="2026" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2026" s="3"/>
     </row>
-    <row r="2027" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2027" s="3"/>
-    </row>
     <row r="2028" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2028" s="3"/>
     </row>
-    <row r="2031" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2031" s="3"/>
-    </row>
-    <row r="2032" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2032" s="3"/>
+    <row r="2029" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2029" s="3"/>
+    </row>
+    <row r="2030" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2030" s="3"/>
     </row>
     <row r="2033" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2033" s="3"/>
     </row>
+    <row r="2034" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2034" s="3"/>
+    </row>
     <row r="2035" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2035" s="3"/>
     </row>
-    <row r="2036" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2036" s="3"/>
-    </row>
     <row r="2037" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2037" s="3"/>
     </row>
@@ -10632,38 +11227,38 @@
     <row r="2040" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2040" s="3"/>
     </row>
-    <row r="2044" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2044" s="3"/>
+    <row r="2041" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2041" s="3"/>
+    </row>
+    <row r="2042" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2042" s="3"/>
     </row>
     <row r="2046" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2046" s="3"/>
     </row>
-    <row r="2047" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2047" s="3"/>
-    </row>
     <row r="2048" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2048" s="3"/>
     </row>
+    <row r="2049" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2049" s="3"/>
+    </row>
     <row r="2050" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2050" s="3"/>
     </row>
-    <row r="2051" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2051" s="3"/>
+    <row r="2052" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2052" s="3"/>
     </row>
     <row r="2053" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2053" s="3"/>
     </row>
-    <row r="2054" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2054" s="3"/>
-    </row>
-    <row r="2057" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2057" s="3"/>
-    </row>
-    <row r="2060" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2060" s="3"/>
-    </row>
-    <row r="2061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2061" s="3"/>
+    <row r="2055" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2055" s="3"/>
+    </row>
+    <row r="2056" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2056" s="3"/>
+    </row>
+    <row r="2059" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2059" s="3"/>
     </row>
     <row r="2062" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2062" s="3"/>
@@ -10671,17 +11266,17 @@
     <row r="2063" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2063" s="3"/>
     </row>
+    <row r="2064" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2064" s="3"/>
+    </row>
     <row r="2065" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2065" s="3"/>
     </row>
-    <row r="2066" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2066" s="3"/>
-    </row>
-    <row r="2071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2071" s="3"/>
-    </row>
-    <row r="2072" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2072" s="3"/>
+    <row r="2067" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2067" s="3"/>
+    </row>
+    <row r="2068" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2068" s="3"/>
     </row>
     <row r="2073" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2073" s="3"/>
@@ -10707,15 +11302,15 @@
     <row r="2080" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2080" s="3"/>
     </row>
+    <row r="2081" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2081" s="3"/>
+    </row>
     <row r="2082" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2082" s="3"/>
     </row>
     <row r="2084" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2084" s="3"/>
     </row>
-    <row r="2085" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2085" s="3"/>
-    </row>
     <row r="2086" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2086" s="3"/>
     </row>
@@ -10731,11 +11326,11 @@
     <row r="2090" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2090" s="3"/>
     </row>
-    <row r="2096" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2096" s="3"/>
-    </row>
-    <row r="2097" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2097" s="3"/>
+    <row r="2091" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2091" s="3"/>
+    </row>
+    <row r="2092" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2092" s="3"/>
     </row>
     <row r="2098" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2098" s="3"/>
@@ -10743,17 +11338,17 @@
     <row r="2099" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2099" s="3"/>
     </row>
+    <row r="2100" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2100" s="3"/>
+    </row>
     <row r="2101" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2101" s="3"/>
     </row>
-    <row r="2105" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2105" s="3"/>
-    </row>
-    <row r="2109" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2109" s="3"/>
-    </row>
-    <row r="2110" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2110" s="3"/>
+    <row r="2103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2103" s="3"/>
+    </row>
+    <row r="2107" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2107" s="3"/>
     </row>
     <row r="2111" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2111" s="3"/>
@@ -10764,11 +11359,11 @@
     <row r="2113" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2113" s="3"/>
     </row>
-    <row r="2116" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2116" s="3"/>
-    </row>
-    <row r="2117" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2117" s="3"/>
+    <row r="2114" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2114" s="3"/>
+    </row>
+    <row r="2115" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2115" s="3"/>
     </row>
     <row r="2118" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2118" s="3"/>
@@ -10779,17 +11374,20 @@
     <row r="2120" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2120" s="3"/>
     </row>
-    <row r="2123" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2123" s="3"/>
-    </row>
-    <row r="2127" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2127" s="3"/>
-    </row>
-    <row r="2132" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2132" s="3"/>
-    </row>
-    <row r="2133" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2133" s="3"/>
+    <row r="2121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2121" s="3"/>
+    </row>
+    <row r="2122" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2122" s="3"/>
+    </row>
+    <row r="2125" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2125" s="3"/>
+    </row>
+    <row r="2129" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2129" s="3"/>
+    </row>
+    <row r="2134" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2134" s="3"/>
     </row>
     <row r="2135" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2135" s="3"/>
@@ -10797,9 +11395,6 @@
     <row r="2137" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2137" s="3"/>
     </row>
-    <row r="2138" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2138" s="3"/>
-    </row>
     <row r="2139" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2139" s="3"/>
     </row>
@@ -10833,50 +11428,50 @@
     <row r="2149" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2149" s="3"/>
     </row>
+    <row r="2150" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2150" s="3"/>
+    </row>
     <row r="2151" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2151" s="3"/>
     </row>
-    <row r="2152" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2152" s="3"/>
-    </row>
-    <row r="2156" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2156" s="3"/>
-    </row>
-    <row r="2159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2159" s="3"/>
-    </row>
-    <row r="2164" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2164" s="3"/>
-    </row>
-    <row r="2165" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2165" s="3"/>
-    </row>
-    <row r="2172" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2172" s="3"/>
-    </row>
-    <row r="2177" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2177" s="3"/>
-    </row>
-    <row r="2181" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2181" s="3"/>
-    </row>
-    <row r="2184" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2184" s="3"/>
-    </row>
-    <row r="2187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2187" s="3"/>
-    </row>
-    <row r="2188" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2188" s="3"/>
+    <row r="2153" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2153" s="3"/>
+    </row>
+    <row r="2154" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2154" s="3"/>
+    </row>
+    <row r="2158" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2158" s="3"/>
+    </row>
+    <row r="2161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2161" s="3"/>
+    </row>
+    <row r="2166" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2166" s="3"/>
+    </row>
+    <row r="2167" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2167" s="3"/>
+    </row>
+    <row r="2174" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2174" s="3"/>
+    </row>
+    <row r="2179" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2179" s="3"/>
+    </row>
+    <row r="2183" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2183" s="3"/>
+    </row>
+    <row r="2186" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2186" s="3"/>
     </row>
     <row r="2189" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2189" s="3"/>
     </row>
-    <row r="2193" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2193" s="3"/>
-    </row>
-    <row r="2194" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2194" s="3"/>
+    <row r="2190" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2190" s="3"/>
+    </row>
+    <row r="2191" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2191" s="3"/>
     </row>
     <row r="2195" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2195" s="3"/>
@@ -10884,8 +11479,11 @@
     <row r="2196" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2196" s="3"/>
     </row>
-    <row r="2203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2203" s="3"/>
+    <row r="2197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2197" s="3"/>
+    </row>
+    <row r="2198" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2198" s="3"/>
     </row>
     <row r="2205" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2205" s="3"/>
@@ -10893,9 +11491,6 @@
     <row r="2207" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2207" s="3"/>
     </row>
-    <row r="2208" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2208" s="3"/>
-    </row>
     <row r="2209" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2209" s="3"/>
     </row>
@@ -10905,44 +11500,44 @@
     <row r="2211" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2211" s="3"/>
     </row>
-    <row r="2214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2214" s="3"/>
-    </row>
-    <row r="2218" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2218" s="3"/>
-    </row>
-    <row r="2219" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2219" s="3"/>
+    <row r="2212" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2212" s="3"/>
+    </row>
+    <row r="2213" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2213" s="3"/>
+    </row>
+    <row r="2216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2216" s="3"/>
     </row>
     <row r="2220" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2220" s="3"/>
     </row>
+    <row r="2221" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2221" s="3"/>
+    </row>
     <row r="2222" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2222" s="3"/>
     </row>
-    <row r="2223" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2223" s="3"/>
-    </row>
-    <row r="2227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2227" s="3"/>
-    </row>
-    <row r="2230" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2230" s="3"/>
-    </row>
-    <row r="2234" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2234" s="3"/>
+    <row r="2224" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2224" s="3"/>
+    </row>
+    <row r="2225" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2225" s="3"/>
+    </row>
+    <row r="2229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2229" s="3"/>
+    </row>
+    <row r="2232" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2232" s="3"/>
     </row>
     <row r="2236" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2236" s="3"/>
     </row>
-    <row r="2237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2237" s="3"/>
-    </row>
-    <row r="2242" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2242" s="3"/>
-    </row>
-    <row r="2243" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2243" s="3"/>
+    <row r="2238" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2238" s="3"/>
+    </row>
+    <row r="2239" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2239" s="3"/>
     </row>
     <row r="2244" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2244" s="3"/>
@@ -10953,26 +11548,26 @@
     <row r="2246" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2246" s="3"/>
     </row>
-    <row r="2249" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2249" s="3"/>
+    <row r="2247" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2247" s="3"/>
+    </row>
+    <row r="2248" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2248" s="3"/>
     </row>
     <row r="2251" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2251" s="3"/>
     </row>
-    <row r="2252" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2252" s="3"/>
-    </row>
     <row r="2253" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2253" s="3"/>
     </row>
     <row r="2254" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2254" s="3"/>
     </row>
-    <row r="2260" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2260" s="3"/>
-    </row>
-    <row r="2261" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2261" s="3"/>
+    <row r="2255" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2255" s="3"/>
+    </row>
+    <row r="2256" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2256" s="3"/>
     </row>
     <row r="2262" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2262" s="3"/>
@@ -10980,23 +11575,26 @@
     <row r="2263" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2263" s="3"/>
     </row>
+    <row r="2264" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2264" s="3"/>
+    </row>
     <row r="2265" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2265" s="3"/>
     </row>
     <row r="2267" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2267" s="3"/>
     </row>
-    <row r="2271" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2271" s="3"/>
-    </row>
-    <row r="2272" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2272" s="3"/>
+    <row r="2269" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2269" s="3"/>
+    </row>
+    <row r="2273" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2273" s="3"/>
     </row>
     <row r="2274" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2274" s="3"/>
     </row>
-    <row r="2279" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2279" s="3"/>
+    <row r="2276" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2276" s="3"/>
     </row>
     <row r="2281" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2281" s="3"/>
@@ -11004,56 +11602,56 @@
     <row r="2283" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2283" s="3"/>
     </row>
-    <row r="2284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2284" s="3"/>
-    </row>
     <row r="2285" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2285" s="3"/>
     </row>
-    <row r="2289" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2289" s="3"/>
-    </row>
-    <row r="2290" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2290" s="3"/>
+    <row r="2286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2286" s="3"/>
+    </row>
+    <row r="2287" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2287" s="3"/>
     </row>
     <row r="2291" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2291" s="3"/>
     </row>
-    <row r="2295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2295" s="3"/>
-    </row>
-    <row r="2296" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2296" s="3"/>
-    </row>
-    <row r="2299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2299" s="3"/>
-    </row>
-    <row r="2302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2302" s="3"/>
-    </row>
-    <row r="2303" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2303" s="3"/>
+    <row r="2292" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2292" s="3"/>
+    </row>
+    <row r="2293" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2293" s="3"/>
+    </row>
+    <row r="2297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2297" s="3"/>
+    </row>
+    <row r="2298" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2298" s="3"/>
+    </row>
+    <row r="2301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2301" s="3"/>
     </row>
     <row r="2304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2304" s="3"/>
     </row>
-    <row r="2307" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2307" s="3"/>
+    <row r="2305" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2305" s="3"/>
+    </row>
+    <row r="2306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2306" s="3"/>
     </row>
     <row r="2309" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2309" s="3"/>
     </row>
-    <row r="2310" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2310" s="3"/>
-    </row>
-    <row r="2314" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2314" s="3"/>
-    </row>
-    <row r="2317" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2317" s="3"/>
-    </row>
-    <row r="2318" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2318" s="3"/>
+    <row r="2311" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2311" s="3"/>
+    </row>
+    <row r="2312" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2312" s="3"/>
+    </row>
+    <row r="2316" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2316" s="3"/>
+    </row>
+    <row r="2319" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2319" s="3"/>
     </row>
     <row r="2320" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2320" s="3"/>
@@ -11064,8 +11662,8 @@
     <row r="2324" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2324" s="3"/>
     </row>
-    <row r="2332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2332" s="3"/>
+    <row r="2326" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2326" s="3"/>
     </row>
     <row r="2334" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2334" s="3"/>
@@ -11073,24 +11671,21 @@
     <row r="2336" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2336" s="3"/>
     </row>
-    <row r="2337" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2337" s="3"/>
-    </row>
     <row r="2338" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2338" s="3"/>
     </row>
+    <row r="2339" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2339" s="3"/>
+    </row>
     <row r="2340" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2340" s="3"/>
     </row>
-    <row r="2343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2343" s="3"/>
+    <row r="2342" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2342" s="3"/>
     </row>
     <row r="2345" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2345" s="3"/>
     </row>
-    <row r="2346" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2346" s="3"/>
-    </row>
     <row r="2347" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2347" s="3"/>
     </row>
@@ -11100,11 +11695,11 @@
     <row r="2349" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2349" s="3"/>
     </row>
-    <row r="2357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2357" s="3"/>
-    </row>
-    <row r="2358" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2358" s="3"/>
+    <row r="2350" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2350" s="3"/>
+    </row>
+    <row r="2351" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2351" s="3"/>
     </row>
     <row r="2359" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2359" s="3"/>
@@ -11115,14 +11710,14 @@
     <row r="2361" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2361" s="3"/>
     </row>
+    <row r="2362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2362" s="3"/>
+    </row>
     <row r="2363" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2363" s="3"/>
     </row>
-    <row r="2366" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2366" s="3"/>
-    </row>
-    <row r="2367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2367" s="3"/>
+    <row r="2365" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2365" s="3"/>
     </row>
     <row r="2368" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2368" s="3"/>
@@ -11133,71 +11728,74 @@
     <row r="2370" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2370" s="3"/>
     </row>
-    <row r="2373" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2373" s="3"/>
+    <row r="2371" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2371" s="3"/>
+    </row>
+    <row r="2372" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2372" s="3"/>
     </row>
     <row r="2375" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2375" s="3"/>
     </row>
-    <row r="2376" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2376" s="3"/>
-    </row>
     <row r="2377" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2377" s="3"/>
     </row>
-    <row r="2381" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2381" s="3"/>
-    </row>
-    <row r="2390" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2390" s="3"/>
-    </row>
-    <row r="2394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2394" s="3"/>
-    </row>
-    <row r="2397" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2397" s="3"/>
-    </row>
-    <row r="2398" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2398" s="3"/>
+    <row r="2378" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2378" s="3"/>
+    </row>
+    <row r="2379" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2379" s="3"/>
+    </row>
+    <row r="2383" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2383" s="3"/>
+    </row>
+    <row r="2392" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2392" s="3"/>
+    </row>
+    <row r="2396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2396" s="3"/>
+    </row>
+    <row r="2399" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2399" s="3"/>
     </row>
     <row r="2400" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2400" s="3"/>
     </row>
-    <row r="2409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2409" s="3"/>
-    </row>
-    <row r="2412" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2412" s="3"/>
-    </row>
-    <row r="2413" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2413" s="3"/>
+    <row r="2402" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2402" s="3"/>
+    </row>
+    <row r="2411" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2411" s="3"/>
     </row>
     <row r="2414" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2414" s="3"/>
     </row>
+    <row r="2415" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2415" s="3"/>
+    </row>
     <row r="2416" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2416" s="3"/>
     </row>
-    <row r="2422" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2422" s="3"/>
-    </row>
-    <row r="2423" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2423" s="3"/>
-    </row>
-    <row r="2428" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2428" s="3"/>
-    </row>
-    <row r="2431" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2431" s="3"/>
-    </row>
-    <row r="2432" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2432" s="3"/>
+    <row r="2418" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2418" s="3"/>
+    </row>
+    <row r="2424" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2424" s="3"/>
+    </row>
+    <row r="2425" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2425" s="3"/>
+    </row>
+    <row r="2430" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2430" s="3"/>
+    </row>
+    <row r="2433" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2433" s="3"/>
     </row>
     <row r="2434" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2434" s="3"/>
     </row>
-    <row r="2437" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2437" s="3"/>
+    <row r="2436" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2436" s="3"/>
     </row>
     <row r="2439" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2439" s="3"/>
@@ -11205,11 +11803,11 @@
     <row r="2441" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2441" s="3"/>
     </row>
-    <row r="2448" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2448" s="3"/>
-    </row>
-    <row r="2449" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2449" s="3"/>
+    <row r="2443" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2443" s="3"/>
+    </row>
+    <row r="2450" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2450" s="3"/>
     </row>
     <row r="2451" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2451" s="3"/>
@@ -11217,56 +11815,53 @@
     <row r="2453" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2453" s="3"/>
     </row>
-    <row r="2457" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2457" s="3"/>
-    </row>
-    <row r="2458" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2458" s="3"/>
+    <row r="2455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2455" s="3"/>
+    </row>
+    <row r="2459" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2459" s="3"/>
     </row>
     <row r="2460" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2460" s="3"/>
     </row>
-    <row r="2461" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2461" s="3"/>
+    <row r="2462" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2462" s="3"/>
     </row>
     <row r="2463" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2463" s="3"/>
     </row>
-    <row r="2464" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2464" s="3"/>
-    </row>
-    <row r="2468" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2468" s="3"/>
+    <row r="2465" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2465" s="3"/>
+    </row>
+    <row r="2466" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2466" s="3"/>
     </row>
     <row r="2470" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2470" s="3"/>
     </row>
-    <row r="2473" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2473" s="3"/>
-    </row>
-    <row r="2480" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2480" s="3"/>
-    </row>
-    <row r="2481" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2481" s="3"/>
+    <row r="2472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2472" s="3"/>
+    </row>
+    <row r="2475" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2475" s="3"/>
     </row>
     <row r="2482" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2482" s="3"/>
     </row>
+    <row r="2483" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2483" s="3"/>
+    </row>
     <row r="2484" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2484" s="3"/>
     </row>
-    <row r="2485" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2485" s="3"/>
-    </row>
-    <row r="2490" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2490" s="3"/>
-    </row>
-    <row r="2496" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2496" s="3"/>
-    </row>
-    <row r="2497" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2497" s="3"/>
+    <row r="2486" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2486" s="3"/>
+    </row>
+    <row r="2487" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2487" s="3"/>
+    </row>
+    <row r="2492" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2492" s="3"/>
     </row>
     <row r="2498" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2498" s="3"/>
@@ -11277,14 +11872,14 @@
     <row r="2500" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2500" s="3"/>
     </row>
-    <row r="2503" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2503" s="3"/>
-    </row>
-    <row r="2506" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2506" s="3"/>
-    </row>
-    <row r="2507" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2507" s="3"/>
+    <row r="2501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2501" s="3"/>
+    </row>
+    <row r="2502" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2502" s="3"/>
+    </row>
+    <row r="2505" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2505" s="3"/>
     </row>
     <row r="2508" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2508" s="3"/>
@@ -11292,8 +11887,11 @@
     <row r="2509" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2509" s="3"/>
     </row>
-    <row r="2515" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2515" s="3"/>
+    <row r="2510" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2510" s="3"/>
+    </row>
+    <row r="2511" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2511" s="3"/>
     </row>
     <row r="2517" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2517" s="3"/>
@@ -11310,134 +11908,134 @@
     <row r="2525" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2525" s="3"/>
     </row>
-    <row r="2526" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2526" s="3"/>
-    </row>
-    <row r="2530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2530" s="3"/>
-    </row>
-    <row r="2531" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2531" s="3"/>
+    <row r="2527" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2527" s="3"/>
+    </row>
+    <row r="2528" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2528" s="3"/>
+    </row>
+    <row r="2532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2532" s="3"/>
     </row>
     <row r="2533" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2533" s="3"/>
     </row>
-    <row r="2539" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2539" s="3"/>
-    </row>
-    <row r="2540" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2540" s="3"/>
-    </row>
-    <row r="2550" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2550" s="3"/>
-    </row>
-    <row r="2553" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2553" s="3"/>
-    </row>
-    <row r="2554" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2554" s="3"/>
+    <row r="2535" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2535" s="3"/>
+    </row>
+    <row r="2541" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2541" s="3"/>
+    </row>
+    <row r="2542" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2542" s="3"/>
+    </row>
+    <row r="2552" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2552" s="3"/>
+    </row>
+    <row r="2555" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2555" s="3"/>
     </row>
     <row r="2556" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2556" s="3"/>
     </row>
-    <row r="2559" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2559" s="3"/>
-    </row>
-    <row r="2560" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2560" s="3"/>
+    <row r="2558" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2558" s="3"/>
     </row>
     <row r="2561" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2561" s="3"/>
     </row>
-    <row r="2565" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2565" s="3"/>
-    </row>
-    <row r="2574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2574" s="3"/>
-    </row>
-    <row r="2577" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2577" s="3"/>
-    </row>
-    <row r="2580" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2580" s="3"/>
-    </row>
-    <row r="2586" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2586" s="3"/>
-    </row>
-    <row r="2592" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2592" s="3"/>
-    </row>
-    <row r="2593" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2593" s="3"/>
+    <row r="2562" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2562" s="3"/>
+    </row>
+    <row r="2563" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2563" s="3"/>
+    </row>
+    <row r="2567" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2567" s="3"/>
+    </row>
+    <row r="2576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2576" s="3"/>
+    </row>
+    <row r="2579" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2579" s="3"/>
+    </row>
+    <row r="2582" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2582" s="3"/>
+    </row>
+    <row r="2588" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2588" s="3"/>
+    </row>
+    <row r="2594" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2594" s="3"/>
     </row>
     <row r="2595" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2595" s="3"/>
     </row>
-    <row r="2596" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2596" s="3"/>
-    </row>
-    <row r="2599" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2599" s="3"/>
+    <row r="2597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2597" s="3"/>
+    </row>
+    <row r="2598" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2598" s="3"/>
     </row>
     <row r="2601" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2601" s="3"/>
     </row>
-    <row r="2610" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2610" s="3"/>
-    </row>
-    <row r="2614" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2614" s="3"/>
-    </row>
-    <row r="2618" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2618" s="3"/>
-    </row>
-    <row r="2621" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2621" s="3"/>
-    </row>
-    <row r="2628" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2628" s="3"/>
-    </row>
-    <row r="2636" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2636" s="3"/>
+    <row r="2603" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2603" s="3"/>
+    </row>
+    <row r="2612" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2612" s="3"/>
+    </row>
+    <row r="2616" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2616" s="3"/>
+    </row>
+    <row r="2620" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2620" s="3"/>
+    </row>
+    <row r="2623" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2623" s="3"/>
+    </row>
+    <row r="2630" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2630" s="3"/>
     </row>
     <row r="2638" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2638" s="3"/>
     </row>
-    <row r="2639" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2639" s="3"/>
-    </row>
-    <row r="2644" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2644" s="3"/>
-    </row>
-    <row r="2645" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2645" s="3"/>
-    </row>
-    <row r="2651" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2651" s="3"/>
-    </row>
-    <row r="2652" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2652" s="3"/>
-    </row>
-    <row r="2656" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2656" s="3"/>
-    </row>
-    <row r="2657" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2657" s="3"/>
-    </row>
-    <row r="2661" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2661" s="3"/>
-    </row>
-    <row r="2668" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2668" s="3"/>
-    </row>
-    <row r="2669" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2669" s="3"/>
+    <row r="2640" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2640" s="3"/>
+    </row>
+    <row r="2641" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2641" s="3"/>
+    </row>
+    <row r="2646" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2646" s="3"/>
+    </row>
+    <row r="2647" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2647" s="3"/>
+    </row>
+    <row r="2653" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2653" s="3"/>
+    </row>
+    <row r="2654" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2654" s="3"/>
+    </row>
+    <row r="2658" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2658" s="3"/>
+    </row>
+    <row r="2659" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2659" s="3"/>
+    </row>
+    <row r="2663" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2663" s="3"/>
+    </row>
+    <row r="2670" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2670" s="3"/>
     </row>
     <row r="2671" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2671" s="3"/>
     </row>
-    <row r="2674" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2674" s="3"/>
+    <row r="2673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2673" s="3"/>
     </row>
     <row r="2676" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2676" s="3"/>
@@ -11445,98 +12043,98 @@
     <row r="2678" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2678" s="3"/>
     </row>
-    <row r="2685" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2685" s="3"/>
-    </row>
-    <row r="2686" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2686" s="3"/>
-    </row>
-    <row r="2693" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2693" s="3"/>
-    </row>
-    <row r="2694" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2694" s="3"/>
-    </row>
-    <row r="2699" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2699" s="3"/>
-    </row>
-    <row r="2700" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2700" s="3"/>
-    </row>
-    <row r="2707" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2707" s="3"/>
-    </row>
-    <row r="2710" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2710" s="3"/>
+    <row r="2680" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2680" s="3"/>
+    </row>
+    <row r="2687" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2687" s="3"/>
+    </row>
+    <row r="2688" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2688" s="3"/>
+    </row>
+    <row r="2695" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2695" s="3"/>
+    </row>
+    <row r="2696" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2696" s="3"/>
+    </row>
+    <row r="2701" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2701" s="3"/>
+    </row>
+    <row r="2702" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2702" s="3"/>
+    </row>
+    <row r="2709" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2709" s="3"/>
     </row>
     <row r="2712" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2712" s="3"/>
     </row>
-    <row r="2716" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2716" s="3"/>
-    </row>
-    <row r="2731" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2731" s="3"/>
-    </row>
-    <row r="2732" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2732" s="3"/>
+    <row r="2714" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2714" s="3"/>
+    </row>
+    <row r="2718" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2718" s="3"/>
+    </row>
+    <row r="2733" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2733" s="3"/>
     </row>
     <row r="2734" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2734" s="3"/>
     </row>
-    <row r="2738" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2738" s="3"/>
-    </row>
-    <row r="2742" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2742" s="3"/>
+    <row r="2736" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2736" s="3"/>
+    </row>
+    <row r="2740" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2740" s="3"/>
     </row>
     <row r="2744" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2744" s="3"/>
     </row>
-    <row r="2745" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2745" s="3"/>
-    </row>
     <row r="2746" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2746" s="3"/>
     </row>
+    <row r="2747" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2747" s="3"/>
+    </row>
     <row r="2748" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2748" s="3"/>
     </row>
-    <row r="2749" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2749" s="3"/>
-    </row>
-    <row r="2756" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2756" s="3"/>
-    </row>
-    <row r="2759" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2759" s="3"/>
-    </row>
-    <row r="2760" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2760" s="3"/>
-    </row>
-    <row r="2767" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2767" s="3"/>
-    </row>
-    <row r="2775" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2775" s="3"/>
-    </row>
-    <row r="2776" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2776" s="3"/>
-    </row>
-    <row r="2784" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2784" s="3"/>
-    </row>
-    <row r="2785" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2785" s="3"/>
-    </row>
-    <row r="2792" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2792" s="3"/>
-    </row>
-    <row r="2798" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2798" s="3"/>
-    </row>
-    <row r="2799" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2799" s="3"/>
+    <row r="2750" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2750" s="3"/>
+    </row>
+    <row r="2751" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2751" s="3"/>
+    </row>
+    <row r="2758" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2758" s="3"/>
+    </row>
+    <row r="2761" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2761" s="3"/>
+    </row>
+    <row r="2762" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2762" s="3"/>
+    </row>
+    <row r="2769" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2769" s="3"/>
+    </row>
+    <row r="2777" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2777" s="3"/>
+    </row>
+    <row r="2778" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2778" s="3"/>
+    </row>
+    <row r="2786" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2786" s="3"/>
+    </row>
+    <row r="2787" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2787" s="3"/>
+    </row>
+    <row r="2794" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2794" s="3"/>
+    </row>
+    <row r="2800" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2800" s="3"/>
     </row>
     <row r="2801" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2801" s="3"/>
@@ -11547,464 +12145,467 @@
     <row r="2805" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2805" s="3"/>
     </row>
-    <row r="2826" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2826" s="3"/>
-    </row>
-    <row r="2830" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2830" s="3"/>
-    </row>
-    <row r="2835" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2835" s="3"/>
+    <row r="2807" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2807" s="3"/>
+    </row>
+    <row r="2828" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2828" s="3"/>
+    </row>
+    <row r="2832" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2832" s="3"/>
     </row>
     <row r="2837" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2837" s="3"/>
     </row>
-    <row r="2841" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2841" s="3"/>
-    </row>
-    <row r="2848" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2848" s="3"/>
+    <row r="2839" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2839" s="3"/>
+    </row>
+    <row r="2843" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2843" s="3"/>
     </row>
     <row r="2850" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2850" s="3"/>
     </row>
-    <row r="2851" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2851" s="3"/>
-    </row>
-    <row r="2854" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2854" s="3"/>
-    </row>
-    <row r="2857" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2857" s="3"/>
+    <row r="2852" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2852" s="3"/>
+    </row>
+    <row r="2853" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2853" s="3"/>
+    </row>
+    <row r="2856" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2856" s="3"/>
     </row>
     <row r="2859" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2859" s="3"/>
     </row>
-    <row r="2888" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2888" s="3"/>
-    </row>
-    <row r="2895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2895" s="3"/>
-    </row>
-    <row r="2902" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2902" s="3"/>
-    </row>
-    <row r="2907" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2907" s="3"/>
-    </row>
-    <row r="2908" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2908" s="3"/>
-    </row>
-    <row r="2913" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2913" s="3"/>
-    </row>
-    <row r="2916" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2916" s="3"/>
-    </row>
-    <row r="2921" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2921" s="3"/>
+    <row r="2861" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2861" s="3"/>
+    </row>
+    <row r="2890" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2890" s="3"/>
+    </row>
+    <row r="2897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2897" s="3"/>
+    </row>
+    <row r="2904" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2904" s="3"/>
+    </row>
+    <row r="2909" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2909" s="3"/>
+    </row>
+    <row r="2910" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2910" s="3"/>
+    </row>
+    <row r="2915" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2915" s="3"/>
+    </row>
+    <row r="2918" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2918" s="3"/>
     </row>
     <row r="2923" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2923" s="3"/>
     </row>
-    <row r="2924" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2924" s="3"/>
-    </row>
-    <row r="2934" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2934" s="3"/>
-    </row>
-    <row r="2935" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2935" s="3"/>
-    </row>
-    <row r="2945" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2945" s="3"/>
-    </row>
-    <row r="2946" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2946" s="3"/>
-    </row>
-    <row r="2961" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2961" s="3"/>
-    </row>
-    <row r="2962" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2962" s="3"/>
-    </row>
-    <row r="2970" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2970" s="3"/>
-    </row>
-    <row r="2971" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2971" s="3"/>
-    </row>
-    <row r="2977" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2977" s="3"/>
-    </row>
-    <row r="2981" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2981" s="3"/>
-    </row>
-    <row r="2986" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2986" s="3"/>
-    </row>
-    <row r="2995" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2995" s="3"/>
-    </row>
-    <row r="2996" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2996" s="3"/>
+    <row r="2925" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2925" s="3"/>
+    </row>
+    <row r="2926" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2926" s="3"/>
+    </row>
+    <row r="2936" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2936" s="3"/>
+    </row>
+    <row r="2937" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2937" s="3"/>
+    </row>
+    <row r="2947" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2947" s="3"/>
+    </row>
+    <row r="2948" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2948" s="3"/>
+    </row>
+    <row r="2963" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2963" s="3"/>
+    </row>
+    <row r="2964" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2964" s="3"/>
+    </row>
+    <row r="2972" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2972" s="3"/>
+    </row>
+    <row r="2973" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2973" s="3"/>
+    </row>
+    <row r="2979" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2979" s="3"/>
+    </row>
+    <row r="2983" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2983" s="3"/>
+    </row>
+    <row r="2988" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2988" s="3"/>
+    </row>
+    <row r="2997" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2997" s="3"/>
     </row>
     <row r="2998" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2998" s="3"/>
     </row>
-    <row r="3016" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3016" s="3"/>
-    </row>
-    <row r="3019" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3019" s="3"/>
-    </row>
-    <row r="3020" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3020" s="3"/>
-    </row>
-    <row r="3023" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3023" s="3"/>
-    </row>
-    <row r="3042" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3042" s="3"/>
-    </row>
-    <row r="3049" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3049" s="3"/>
-    </row>
-    <row r="3052" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3052" s="3"/>
-    </row>
-    <row r="3058" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3058" s="3"/>
-    </row>
-    <row r="3061" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3061" s="3"/>
-    </row>
-    <row r="3068" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3068" s="3"/>
-    </row>
-    <row r="3071" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3071" s="3"/>
-    </row>
-    <row r="3074" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3074" s="3"/>
-    </row>
-    <row r="3075" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3075" s="3"/>
-    </row>
-    <row r="3091" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3091" s="3"/>
-    </row>
-    <row r="3119" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3119" s="3"/>
-    </row>
-    <row r="3124" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3124" s="3"/>
-    </row>
-    <row r="3128" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3128" s="3"/>
-    </row>
-    <row r="3139" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3139" s="3"/>
-    </row>
-    <row r="3155" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3155" s="3"/>
-    </row>
-    <row r="3159" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3159" s="3"/>
-    </row>
-    <row r="3163" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3163" s="3"/>
-    </row>
-    <row r="3166" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3166" s="3"/>
-    </row>
-    <row r="3178" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3178" s="3"/>
-    </row>
-    <row r="3182" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3182" s="3"/>
-    </row>
-    <row r="3187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3187" s="3"/>
-    </row>
-    <row r="3190" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3190" s="3"/>
-    </row>
-    <row r="3195" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3195" s="3"/>
-    </row>
-    <row r="3198" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3198" s="3"/>
-    </row>
-    <row r="3202" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3202" s="3"/>
-    </row>
-    <row r="3216" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3216" s="3"/>
-    </row>
-    <row r="3217" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3217" s="3"/>
-    </row>
-    <row r="3226" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3226" s="3"/>
-    </row>
-    <row r="3227" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3227" s="3"/>
-    </row>
-    <row r="3237" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3237" s="3"/>
+    <row r="3000" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3000" s="3"/>
+    </row>
+    <row r="3018" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3018" s="3"/>
+    </row>
+    <row r="3021" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3021" s="3"/>
+    </row>
+    <row r="3022" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3022" s="3"/>
+    </row>
+    <row r="3025" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3025" s="3"/>
+    </row>
+    <row r="3044" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3044" s="3"/>
+    </row>
+    <row r="3051" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3051" s="3"/>
+    </row>
+    <row r="3054" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3054" s="3"/>
+    </row>
+    <row r="3060" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3060" s="3"/>
+    </row>
+    <row r="3063" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3063" s="3"/>
+    </row>
+    <row r="3070" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3070" s="3"/>
+    </row>
+    <row r="3073" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3073" s="3"/>
+    </row>
+    <row r="3076" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3076" s="3"/>
+    </row>
+    <row r="3077" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3077" s="3"/>
+    </row>
+    <row r="3093" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3093" s="3"/>
+    </row>
+    <row r="3121" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3121" s="3"/>
+    </row>
+    <row r="3126" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3126" s="3"/>
+    </row>
+    <row r="3130" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3130" s="3"/>
+    </row>
+    <row r="3141" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3141" s="3"/>
+    </row>
+    <row r="3157" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3157" s="3"/>
+    </row>
+    <row r="3161" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3161" s="3"/>
+    </row>
+    <row r="3165" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3165" s="3"/>
+    </row>
+    <row r="3168" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3168" s="3"/>
+    </row>
+    <row r="3180" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3180" s="3"/>
+    </row>
+    <row r="3184" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3184" s="3"/>
+    </row>
+    <row r="3189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3189" s="3"/>
+    </row>
+    <row r="3192" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3192" s="3"/>
+    </row>
+    <row r="3197" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3197" s="3"/>
+    </row>
+    <row r="3200" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3200" s="3"/>
+    </row>
+    <row r="3204" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3204" s="3"/>
+    </row>
+    <row r="3218" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3218" s="3"/>
+    </row>
+    <row r="3219" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3219" s="3"/>
+    </row>
+    <row r="3228" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3228" s="3"/>
+    </row>
+    <row r="3229" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3229" s="3"/>
     </row>
     <row r="3239" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3239" s="3"/>
     </row>
-    <row r="3248" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3248" s="3"/>
-    </row>
-    <row r="3284" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3284" s="3"/>
-    </row>
-    <row r="3295" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3295" s="3"/>
-    </row>
-    <row r="3302" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3302" s="3"/>
+    <row r="3241" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3241" s="3"/>
+    </row>
+    <row r="3250" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3250" s="3"/>
+    </row>
+    <row r="3286" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3286" s="3"/>
+    </row>
+    <row r="3297" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3297" s="3"/>
     </row>
     <row r="3304" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3304" s="3"/>
     </row>
-    <row r="3329" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3329" s="3"/>
-    </row>
-    <row r="3343" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3343" s="3"/>
-    </row>
-    <row r="3350" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3350" s="3"/>
-    </row>
-    <row r="3357" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3357" s="3"/>
-    </row>
-    <row r="3360" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3360" s="3"/>
-    </row>
-    <row r="3367" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3367" s="3"/>
-    </row>
-    <row r="3379" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3379" s="3"/>
-    </row>
-    <row r="3393" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3393" s="3"/>
-    </row>
-    <row r="3394" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3394" s="3"/>
-    </row>
-    <row r="3401" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3401" s="3"/>
-    </row>
-    <row r="3409" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3409" s="3"/>
+    <row r="3306" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3306" s="3"/>
+    </row>
+    <row r="3331" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3331" s="3"/>
+    </row>
+    <row r="3345" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3345" s="3"/>
+    </row>
+    <row r="3352" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3352" s="3"/>
+    </row>
+    <row r="3359" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3359" s="3"/>
+    </row>
+    <row r="3362" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3362" s="3"/>
+    </row>
+    <row r="3369" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3369" s="3"/>
+    </row>
+    <row r="3381" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3381" s="3"/>
+    </row>
+    <row r="3395" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3395" s="3"/>
+    </row>
+    <row r="3396" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3396" s="3"/>
+    </row>
+    <row r="3403" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3403" s="3"/>
     </row>
     <row r="3411" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3411" s="3"/>
     </row>
-    <row r="3443" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3443" s="3"/>
-    </row>
-    <row r="3446" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3446" s="3"/>
-    </row>
-    <row r="3450" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3450" s="3"/>
-    </row>
-    <row r="3453" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3453" s="3"/>
-    </row>
-    <row r="3456" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3456" s="3"/>
-    </row>
-    <row r="3462" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3462" s="3"/>
-    </row>
-    <row r="3469" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3469" s="3"/>
-    </row>
-    <row r="3470" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3470" s="3"/>
-    </row>
-    <row r="3475" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3475" s="3"/>
+    <row r="3413" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3413" s="3"/>
+    </row>
+    <row r="3445" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3445" s="3"/>
+    </row>
+    <row r="3448" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3448" s="3"/>
+    </row>
+    <row r="3452" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3452" s="3"/>
+    </row>
+    <row r="3455" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3455" s="3"/>
+    </row>
+    <row r="3458" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3458" s="3"/>
+    </row>
+    <row r="3464" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3464" s="3"/>
+    </row>
+    <row r="3471" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3471" s="3"/>
+    </row>
+    <row r="3472" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3472" s="3"/>
     </row>
     <row r="3477" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3477" s="3"/>
     </row>
-    <row r="3478" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3478" s="3"/>
-    </row>
-    <row r="3494" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3494" s="3"/>
-    </row>
-    <row r="3495" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3495" s="3"/>
-    </row>
-    <row r="3499" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3499" s="3"/>
-    </row>
-    <row r="3512" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3512" s="3"/>
-    </row>
-    <row r="3530" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3530" s="3"/>
-    </row>
-    <row r="3537" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3537" s="3"/>
-    </row>
-    <row r="3574" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3574" s="3"/>
-    </row>
-    <row r="3587" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3587" s="3"/>
-    </row>
-    <row r="3595" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3595" s="3"/>
-    </row>
-    <row r="3603" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3603" s="3"/>
-    </row>
-    <row r="3604" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3604" s="3"/>
-    </row>
-    <row r="3625" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3625" s="3"/>
-    </row>
-    <row r="3665" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3665" s="3"/>
-    </row>
-    <row r="3671" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3671" s="3"/>
-    </row>
-    <row r="3679" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3679" s="3"/>
-    </row>
-    <row r="3701" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3701" s="3"/>
-    </row>
-    <row r="3722" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3722" s="3"/>
-    </row>
-    <row r="3728" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3728" s="3"/>
-    </row>
-    <row r="3729" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3729" s="3"/>
-    </row>
-    <row r="3735" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3735" s="3"/>
-    </row>
-    <row r="3743" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3743" s="3"/>
-    </row>
-    <row r="3754" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3754" s="3"/>
-    </row>
-    <row r="3791" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3791" s="3"/>
-    </row>
-    <row r="3823" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3823" s="3"/>
-    </row>
-    <row r="3843" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3843" s="3"/>
-    </row>
-    <row r="3865" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3865" s="3"/>
-    </row>
-    <row r="3875" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3875" s="3"/>
-    </row>
-    <row r="3881" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3881" s="3"/>
-    </row>
-    <row r="3890" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3890" s="3"/>
+    <row r="3479" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3479" s="3"/>
+    </row>
+    <row r="3480" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3480" s="3"/>
+    </row>
+    <row r="3496" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3496" s="3"/>
+    </row>
+    <row r="3497" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3497" s="3"/>
+    </row>
+    <row r="3501" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3501" s="3"/>
+    </row>
+    <row r="3514" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3514" s="3"/>
+    </row>
+    <row r="3532" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3532" s="3"/>
+    </row>
+    <row r="3539" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3539" s="3"/>
+    </row>
+    <row r="3576" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3576" s="3"/>
+    </row>
+    <row r="3589" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3589" s="3"/>
+    </row>
+    <row r="3597" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3597" s="3"/>
+    </row>
+    <row r="3605" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3605" s="3"/>
+    </row>
+    <row r="3606" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3606" s="3"/>
+    </row>
+    <row r="3627" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3627" s="3"/>
+    </row>
+    <row r="3667" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3667" s="3"/>
+    </row>
+    <row r="3673" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3673" s="3"/>
+    </row>
+    <row r="3681" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3681" s="3"/>
+    </row>
+    <row r="3703" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3703" s="3"/>
+    </row>
+    <row r="3724" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3724" s="3"/>
+    </row>
+    <row r="3730" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3730" s="3"/>
+    </row>
+    <row r="3731" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3731" s="3"/>
+    </row>
+    <row r="3737" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3737" s="3"/>
+    </row>
+    <row r="3745" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3745" s="3"/>
+    </row>
+    <row r="3756" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3756" s="3"/>
+    </row>
+    <row r="3793" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3793" s="3"/>
+    </row>
+    <row r="3825" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3825" s="3"/>
+    </row>
+    <row r="3845" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3845" s="3"/>
+    </row>
+    <row r="3867" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3867" s="3"/>
+    </row>
+    <row r="3877" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3877" s="3"/>
+    </row>
+    <row r="3883" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3883" s="3"/>
     </row>
     <row r="3892" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3892" s="3"/>
     </row>
-    <row r="3895" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3895" s="3"/>
-    </row>
-    <row r="3918" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3918" s="3"/>
-    </row>
-    <row r="3919" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3919" s="3"/>
-    </row>
-    <row r="3943" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3943" s="3"/>
-    </row>
-    <row r="3997" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3997" s="3"/>
-    </row>
-    <row r="4006" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4006" s="3"/>
-    </row>
-    <row r="4030" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4030" s="3"/>
-    </row>
-    <row r="4087" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4087" s="3"/>
-    </row>
-    <row r="4088" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4088" s="3"/>
-    </row>
-    <row r="4101" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4101" s="3"/>
-    </row>
-    <row r="4162" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4162" s="3"/>
-    </row>
-    <row r="4187" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4187" s="3"/>
-    </row>
-    <row r="4203" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4203" s="3"/>
-    </row>
-    <row r="4214" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4214" s="3"/>
-    </row>
-    <row r="4235" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4235" s="3"/>
-    </row>
-    <row r="4266" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4266" s="3"/>
-    </row>
-    <row r="4312" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4312" s="3"/>
-    </row>
-    <row r="4332" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4332" s="3"/>
-    </row>
-    <row r="4659" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4659" s="3"/>
-    </row>
-    <row r="4870" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4870" s="3"/>
-    </row>
-    <row r="5004" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5004" s="3"/>
-    </row>
-    <row r="5150" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5150" s="3"/>
-    </row>
-    <row r="5299" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5299" s="3"/>
-    </row>
-    <row r="5419" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5419" s="3"/>
-    </row>
-    <row r="5521" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5521" s="3"/>
+    <row r="3894" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3894" s="3"/>
+    </row>
+    <row r="3897" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3897" s="3"/>
+    </row>
+    <row r="3920" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3920" s="3"/>
+    </row>
+    <row r="3921" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3921" s="3"/>
+    </row>
+    <row r="3945" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3945" s="3"/>
+    </row>
+    <row r="3999" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3999" s="3"/>
+    </row>
+    <row r="4008" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4008" s="3"/>
+    </row>
+    <row r="4032" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4032" s="3"/>
+    </row>
+    <row r="4089" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4089" s="3"/>
+    </row>
+    <row r="4090" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4090" s="3"/>
+    </row>
+    <row r="4103" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4103" s="3"/>
+    </row>
+    <row r="4164" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4164" s="3"/>
+    </row>
+    <row r="4189" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4189" s="3"/>
+    </row>
+    <row r="4205" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4205" s="3"/>
+    </row>
+    <row r="4216" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4216" s="3"/>
+    </row>
+    <row r="4237" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4237" s="3"/>
+    </row>
+    <row r="4268" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4268" s="3"/>
+    </row>
+    <row r="4314" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4314" s="3"/>
+    </row>
+    <row r="4334" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4334" s="3"/>
+    </row>
+    <row r="4661" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4661" s="3"/>
+    </row>
+    <row r="4872" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4872" s="3"/>
+    </row>
+    <row r="5006" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5006" s="3"/>
+    </row>
+    <row r="5152" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5152" s="3"/>
+    </row>
+    <row r="5301" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5301" s="3"/>
+    </row>
+    <row r="5421" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5421" s="3"/>
+    </row>
+    <row r="5523" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5523" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -12016,8 +12617,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A22" sqref="A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/AP_DC_X-talk/dt_spectrum_results.xlsx
+++ b/AP_DC_X-talk/dt_spectrum_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Hamamatsu S10362-11-100C apf" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="346" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="61">
   <si>
     <t>T</t>
   </si>
@@ -149,9 +149,6 @@
     <t>N files</t>
   </si>
   <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>p</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>E</t>
   </si>
   <si>
-    <t>last</t>
-  </si>
-  <si>
     <t>k</t>
   </si>
   <si>
@@ -186,6 +180,9 @@
   </si>
   <si>
     <t>T_old</t>
+  </si>
+  <si>
+    <t>--</t>
   </si>
   <si>
     <t>E_g [eV]</t>
@@ -199,14 +196,25 @@
   <si>
     <t>X-talk err</t>
   </si>
+  <si>
+    <t>err abs [kHz]</t>
+  </si>
+  <si>
+    <t>p2 theory</t>
+  </si>
+  <si>
+    <t>p2 exp / theory</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="170" formatCode="0.0000"/>
+    <numFmt numFmtId="172" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -258,7 +266,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -276,6 +284,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -2179,7 +2189,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$T$40:$T$50</c:f>
+              <c:f>results!$X$40:$X$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -2271,7 +2281,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$T$33:$T$36</c:f>
+              <c:f>results!$X$33:$X$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2351,7 +2361,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$T$25:$T$28</c:f>
+              <c:f>results!$X$25:$X$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2431,7 +2441,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$T$69:$T$72</c:f>
+              <c:f>results!$X$69:$X$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -2514,7 +2524,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$T$15:$T$19</c:f>
+              <c:f>results!$X$15:$X$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2597,7 +2607,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$T$5:$T$9</c:f>
+              <c:f>results!$X$5:$X$9</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -2981,7 +2991,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AD$40:$AD$50</c:f>
+              <c:f>results!$AI$40:$AI$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3073,7 +3083,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AD$33:$AD$36</c:f>
+              <c:f>results!$AI$33:$AI$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3153,7 +3163,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AD$25:$AD$28</c:f>
+              <c:f>results!$AI$25:$AI$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3233,7 +3243,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AD$69:$AD$72</c:f>
+              <c:f>results!$AI$69:$AI$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3316,7 +3326,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AD$15:$AD$19</c:f>
+              <c:f>results!$AI$15:$AI$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -3705,7 +3715,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$Y$40:$Y$50</c:f>
+              <c:f>results!$AC$40:$AC$50</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="11"/>
@@ -3797,7 +3807,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$Y$33:$Y$36</c:f>
+              <c:f>results!$AC$33:$AC$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3877,7 +3887,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$Y$25:$Y$28</c:f>
+              <c:f>results!$AC$25:$AC$28</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -3957,7 +3967,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$Y$69:$Y$72</c:f>
+              <c:f>results!$AC$69:$AC$72</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4040,7 +4050,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$Y$15:$Y$19</c:f>
+              <c:f>results!$AC$15:$AC$19</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="5"/>
@@ -4429,7 +4439,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AI$40:$AI$50</c:f>
+              <c:f>results!$AO$40:$AO$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -4521,7 +4531,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AM$33:$AM$36</c:f>
+              <c:f>results!$AS$33:$AS$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4601,7 +4611,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AI$25:$AI$28</c:f>
+              <c:f>results!$AO$25:$AO$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4681,7 +4691,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AI$69:$AI$72</c:f>
+              <c:f>results!$AO$69:$AO$72</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -4764,7 +4774,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AI$15:$AI$19</c:f>
+              <c:f>results!$AO$15:$AO$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5187,7 +5197,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AM$40:$AM$50</c:f>
+              <c:f>results!$AS$40:$AS$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -5279,7 +5289,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AM$33:$AM$36</c:f>
+              <c:f>results!$AS$33:$AS$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5359,7 +5369,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AM$25:$AM$28</c:f>
+              <c:f>results!$AS$25:$AS$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5439,7 +5449,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AM$69:$AM$72</c:f>
+              <c:f>results!$AS$69:$AS$72</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -5522,7 +5532,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$AM$15:$AM$19</c:f>
+              <c:f>results!$AS$15:$AS$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -5938,7 +5948,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$F$40:$F$50</c:f>
+              <c:f>results!$G$40:$G$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="11"/>
@@ -6030,7 +6040,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$F$33:$F$36</c:f>
+              <c:f>results!$G$33:$G$36</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6110,12 +6120,12 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$F$69:$F$72</c:f>
+              <c:f>results!$G$69:$G$72</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="1">
-                  <c:v>0.15416960715125852</c:v>
+                  <c:v>0.14382890300321494</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0.15462782623422813</c:v>
@@ -6187,7 +6197,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$F$25:$F$28</c:f>
+              <c:f>results!$G$25:$G$28</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="4"/>
@@ -6270,7 +6280,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$F$15:$F$19</c:f>
+              <c:f>results!$G$15:$G$19</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -6350,7 +6360,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>results!$F$5:$F$9</c:f>
+              <c:f>results!$G$5:$G$9</c:f>
               <c:numCache>
                 <c:formatCode>0.00%</c:formatCode>
                 <c:ptCount val="5"/>
@@ -12804,7 +12814,7 @@
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
@@ -12828,13 +12838,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
@@ -12858,13 +12868,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
+      <xdr:col>12</xdr:col>
       <xdr:colOff>104775</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
+      <xdr:col>21</xdr:col>
       <xdr:colOff>323850</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
@@ -12888,13 +12898,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>24</xdr:col>
+      <xdr:col>28</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>29</xdr:col>
+      <xdr:col>34</xdr:col>
       <xdr:colOff>733425</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
@@ -12918,13 +12928,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
+      <xdr:col>36</xdr:col>
       <xdr:colOff>38100</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>157162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>36</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>295275</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>42862</xdr:rowOff>
@@ -12948,13 +12958,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>36</xdr:col>
+      <xdr:col>42</xdr:col>
       <xdr:colOff>361950</xdr:colOff>
       <xdr:row>80</xdr:row>
       <xdr:rowOff>147637</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>44</xdr:col>
+      <xdr:col>50</xdr:col>
       <xdr:colOff>57150</xdr:colOff>
       <xdr:row>95</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
@@ -14241,47 +14251,51 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AO5542"/>
+  <dimension ref="A1:AU5542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="K76" sqref="K76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="7" width="9.140625" style="4"/>
-    <col min="13" max="13" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="9.140625" style="4"/>
-    <col min="20" max="20" width="14.140625" customWidth="1"/>
-    <col min="22" max="22" width="13.7109375" customWidth="1"/>
-    <col min="25" max="25" width="11.7109375" customWidth="1"/>
-    <col min="26" max="26" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="10.85546875" customWidth="1"/>
-    <col min="30" max="30" width="11.140625" customWidth="1"/>
-    <col min="31" max="31" width="12.28515625" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="35" max="35" width="9.140625" style="4"/>
-    <col min="39" max="39" width="9.140625" style="4"/>
+    <col min="6" max="6" width="9.140625" style="13"/>
+    <col min="7" max="8" width="9.140625" style="4"/>
+    <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="20.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="9.140625" style="4"/>
+    <col min="24" max="24" width="14.140625" customWidth="1"/>
+    <col min="26" max="26" width="13.7109375" customWidth="1"/>
+    <col min="29" max="30" width="11.7109375" customWidth="1"/>
+    <col min="31" max="31" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="32" max="32" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="33" max="33" width="10.85546875" customWidth="1"/>
+    <col min="35" max="36" width="11.140625" customWidth="1"/>
+    <col min="37" max="37" width="12.28515625" bestFit="1" customWidth="1"/>
+    <col min="38" max="38" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="9.140625" style="4"/>
+    <col min="45" max="45" width="9.140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B1">
         <v>0.57404999999999995</v>
       </c>
     </row>
-    <row r="2" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B2">
         <v>124.77652999999999</v>
       </c>
     </row>
-    <row r="4" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -14291,93 +14305,103 @@
       <c r="D4" t="s">
         <v>1</v>
       </c>
-      <c r="F4" s="11" t="s">
+      <c r="F4" s="13" t="s">
+        <v>42</v>
+      </c>
+      <c r="G4" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G4" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="H4" t="s">
+      <c r="H4" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>12</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>13</v>
       </c>
-      <c r="M4" t="s">
+      <c r="O4" t="s">
         <v>25</v>
       </c>
-      <c r="N4" t="s">
+      <c r="P4" t="s">
         <v>26</v>
       </c>
-      <c r="O4" t="s">
+      <c r="Q4" t="s">
+        <v>59</v>
+      </c>
+      <c r="R4" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="S4" t="s">
         <v>27</v>
       </c>
-      <c r="P4" s="4" t="s">
+      <c r="T4" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T4" t="s">
+      <c r="X4" t="s">
         <v>23</v>
       </c>
-      <c r="U4" t="s">
+      <c r="Y4" t="s">
         <v>3</v>
       </c>
-      <c r="V4" t="s">
+      <c r="Z4" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="4" t="s">
+      <c r="AA4" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y4" t="s">
+      <c r="AC4" t="s">
         <v>21</v>
       </c>
-      <c r="Z4" t="s">
+      <c r="AE4" t="s">
         <v>4</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AF4" t="s">
         <v>15</v>
-      </c>
-      <c r="AB4" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD4" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>16</v>
       </c>
       <c r="AG4" t="s">
         <v>20</v>
       </c>
-      <c r="AI4" s="4" t="s">
+      <c r="AI4" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ4" s="6"/>
+      <c r="AK4" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM4" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ4" t="s">
+      <c r="AP4" t="s">
         <v>18</v>
       </c>
-      <c r="AK4" t="s">
+      <c r="AQ4" t="s">
         <v>20</v>
       </c>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="4" t="s">
+      <c r="AR4" s="2"/>
+      <c r="AS4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN4" t="s">
+      <c r="AT4" t="s">
         <v>19</v>
       </c>
-      <c r="AO4" s="2" t="s">
+      <c r="AU4" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="5" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>295</v>
       </c>
@@ -14389,7 +14413,7 @@
       </c>
       <c r="E5" s="8"/>
     </row>
-    <row r="6" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>290</v>
       </c>
@@ -14404,44 +14428,56 @@
         <v>69.13</v>
       </c>
       <c r="E6" s="8"/>
-      <c r="F6" s="11">
-        <f>SUM(I6:J6)/SUM(H6:J6)</f>
+      <c r="F6" s="13">
+        <f>1 - (1 - G6)^(1/4)</f>
+        <v>2.5241598885397121E-3</v>
+      </c>
+      <c r="G6" s="11">
+        <f>SUM(J6:L6)/SUM(I6:L6)</f>
         <v>1.0058475544265817E-2</v>
       </c>
-      <c r="G6" s="11">
-        <f t="shared" ref="G6:G8" si="0">SQRT(1 / H6 + 1 / (I6 + J6))*F6</f>
+      <c r="H6" s="11">
+        <f t="shared" ref="H6:H8" si="0">SQRT(1 / I6 + 1 / (J6 + L6))*G6</f>
         <v>4.1619934045187336E-4</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>58067</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>590</v>
       </c>
-      <c r="M6" s="4">
-        <f>H6/SUM(H6:K6)</f>
+      <c r="O6" s="4">
+        <f>I6/SUM(I6:M6)</f>
         <v>0.98994152445573413</v>
       </c>
-      <c r="N6" s="4">
-        <f>I6/SUM(H6:K6)</f>
+      <c r="P6" s="4">
+        <f>J6/SUM(I6:M6)</f>
         <v>1.0058475544265817E-2</v>
       </c>
-      <c r="T6">
-        <f>U6 * 1000*1000</f>
+      <c r="Q6" s="4">
+        <f>4*F6*(1 - F6)^6</f>
+        <v>9.944688060694741E-3</v>
+      </c>
+      <c r="R6" s="14">
+        <f>P6/Q6</f>
+        <v>1.0114420364798378</v>
+      </c>
+      <c r="X6">
+        <f>Y6 * 1000*1000</f>
         <v>63.278299999999994</v>
       </c>
-      <c r="U6" s="3">
+      <c r="Y6" s="3">
         <v>6.3278299999999993E-5</v>
       </c>
-      <c r="V6" s="3">
+      <c r="Z6" s="3">
         <v>3.7483999999999999E-7</v>
       </c>
-      <c r="W6" s="4">
-        <f>V6/U6</f>
+      <c r="AA6" s="4">
+        <f>Z6/Y6</f>
         <v>5.9236736764420031E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>285</v>
       </c>
@@ -14456,49 +14492,61 @@
         <v>68.95</v>
       </c>
       <c r="E7" s="8"/>
-      <c r="F7" s="11">
-        <f>SUM(I7:J7)/SUM(H7:J7)</f>
+      <c r="F7" s="13">
+        <f t="shared" ref="F7:F9" si="1">1 - (1 - G7)^(1/4)</f>
+        <v>3.6947404254644711E-3</v>
+      </c>
+      <c r="G7" s="11">
+        <f>SUM(J7:L7)/SUM(I7:L7)</f>
         <v>1.4697256623820617E-2</v>
       </c>
-      <c r="G7" s="11">
+      <c r="H7" s="11">
         <f t="shared" si="0"/>
         <v>4.9997885154139153E-4</v>
       </c>
-      <c r="H7">
+      <c r="I7">
         <v>58794</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>877</v>
       </c>
-      <c r="M7" s="4">
-        <f>H7/SUM(H7:K7)</f>
+      <c r="O7" s="4">
+        <f>I7/SUM(I7:M7)</f>
         <v>0.9853027433761794</v>
       </c>
-      <c r="N7" s="4">
-        <f>I7/SUM(H7:K7)</f>
+      <c r="P7" s="4">
+        <f>J7/SUM(I7:M7)</f>
         <v>1.4697256623820617E-2</v>
       </c>
-      <c r="T7">
-        <f>U7 * 1000*1000</f>
+      <c r="Q7" s="4">
+        <f t="shared" ref="Q7:Q9" si="2">4*F7*(1 - F7)^6</f>
+        <v>1.4454346509184852E-2</v>
+      </c>
+      <c r="R7" s="14">
+        <f t="shared" ref="R7:R9" si="3">P7/Q7</f>
+        <v>1.0168053335708682</v>
+      </c>
+      <c r="X7">
+        <f>Y7 * 1000*1000</f>
         <v>63.724600000000009</v>
       </c>
-      <c r="U7" s="3">
+      <c r="Y7" s="3">
         <v>6.3724600000000003E-5</v>
       </c>
-      <c r="V7" s="3">
+      <c r="Z7" s="3">
         <v>3.8299299999999999E-7</v>
       </c>
-      <c r="W7" s="4">
-        <f>V7/U7</f>
+      <c r="AA7" s="4">
+        <f>Z7/Y7</f>
         <v>6.0101279568643817E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>280</v>
       </c>
       <c r="B8">
-        <f t="shared" ref="B8:B9" si="1">$B$1*A8+$B$2</f>
+        <f t="shared" ref="B8:B9" si="4">$B$1*A8+$B$2</f>
         <v>285.51052999999996</v>
       </c>
       <c r="C8">
@@ -14508,49 +14556,61 @@
         <v>68.775651999999994</v>
       </c>
       <c r="E8" s="8"/>
-      <c r="F8" s="11">
-        <f t="shared" ref="F6:F9" si="2">SUM(I8:J8)/SUM(H8:J8)</f>
+      <c r="F8" s="13">
+        <f t="shared" si="1"/>
+        <v>5.3774190960713675E-3</v>
+      </c>
+      <c r="G8" s="11">
+        <f>SUM(J8:L8)/SUM(I8:L8)</f>
         <v>2.1336797718790254E-2</v>
       </c>
-      <c r="G8" s="11">
+      <c r="H8" s="11">
         <f t="shared" si="0"/>
         <v>4.8993190705050392E-4</v>
       </c>
-      <c r="H8">
+      <c r="I8">
         <v>88891</v>
       </c>
-      <c r="I8">
+      <c r="J8">
         <v>1938</v>
       </c>
-      <c r="M8" s="4">
-        <f>H8/SUM(H8:K8)</f>
+      <c r="O8" s="4">
+        <f>I8/SUM(I8:M8)</f>
         <v>0.97866320228120973</v>
       </c>
-      <c r="N8" s="4">
-        <f>I8/SUM(H8:K8)</f>
+      <c r="P8" s="4">
+        <f>J8/SUM(I8:M8)</f>
         <v>2.1336797718790254E-2</v>
       </c>
-      <c r="T8">
-        <f>U8 * 1000*1000</f>
+      <c r="Q8" s="4">
+        <f t="shared" si="2"/>
+        <v>2.0824940304790537E-2</v>
+      </c>
+      <c r="R8" s="14">
+        <f t="shared" si="3"/>
+        <v>1.0245790579232523</v>
+      </c>
+      <c r="X8">
+        <f>Y8 * 1000*1000</f>
         <v>103.07600000000001</v>
       </c>
-      <c r="U8">
+      <c r="Y8">
         <v>1.03076E-4</v>
       </c>
-      <c r="V8" s="3">
+      <c r="Z8" s="3">
         <v>3.97049E-7</v>
       </c>
-      <c r="W8" s="4">
-        <f>V8/U8</f>
+      <c r="AA8" s="4">
+        <f>Z8/Y8</f>
         <v>3.8520024059916953E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>275</v>
       </c>
       <c r="B9">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>282.64027999999996</v>
       </c>
       <c r="C9">
@@ -14560,44 +14620,56 @@
         <v>68.599999999999994</v>
       </c>
       <c r="E9" s="8"/>
-      <c r="F9" s="11">
+      <c r="F9" s="13">
+        <f t="shared" si="1"/>
+        <v>3.8046173929061622E-3</v>
+      </c>
+      <c r="G9" s="11">
+        <f>SUM(J9:L9)/SUM(I9:L9)</f>
+        <v>1.5131838970131557E-2</v>
+      </c>
+      <c r="H9" s="11">
+        <f>SQRT(1 / I9 + 1 / (J9 + L9))*G9</f>
+        <v>6.5859778727900731E-4</v>
+      </c>
+      <c r="I9">
+        <v>34886</v>
+      </c>
+      <c r="J9">
+        <v>536</v>
+      </c>
+      <c r="O9" s="4">
+        <f>I9/SUM(I9:M9)</f>
+        <v>0.98486816102986841</v>
+      </c>
+      <c r="P9" s="4">
+        <f>J9/SUM(I9:M9)</f>
+        <v>1.5131838970131557E-2</v>
+      </c>
+      <c r="Q9" s="4">
         <f t="shared" si="2"/>
-        <v>1.5131838970131557E-2</v>
-      </c>
-      <c r="G9" s="11">
-        <f>SQRT(1 / H9 + 1 / (I9 + J9))*F9</f>
-        <v>6.5859778727900731E-4</v>
-      </c>
-      <c r="H9">
-        <v>34886</v>
-      </c>
-      <c r="I9">
-        <v>536</v>
-      </c>
-      <c r="M9" s="4">
-        <f>H9/SUM(H9:K9)</f>
-        <v>0.98486816102986841</v>
-      </c>
-      <c r="N9" s="4">
-        <f>I9/SUM(H9:K9)</f>
-        <v>1.5131838970131557E-2</v>
-      </c>
-      <c r="T9">
-        <f>U9 * 1000*1000</f>
+        <v>1.4874354469032609E-2</v>
+      </c>
+      <c r="R9" s="14">
+        <f t="shared" si="3"/>
+        <v>1.0173106336570783</v>
+      </c>
+      <c r="X9">
+        <f>Y9 * 1000*1000</f>
         <v>37.437200000000004</v>
       </c>
-      <c r="U9" s="3">
+      <c r="Y9" s="3">
         <v>3.7437200000000001E-5</v>
       </c>
-      <c r="V9" s="3">
+      <c r="Z9" s="3">
         <v>4.53499E-7</v>
       </c>
-      <c r="W9" s="4">
-        <f>V9/U9</f>
+      <c r="AA9" s="4">
+        <f>Z9/Y9</f>
         <v>1.2113592896904682E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>0</v>
       </c>
@@ -14607,96 +14679,105 @@
       <c r="D14" t="s">
         <v>1</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="G14" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="11"/>
-      <c r="H14" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" t="s">
         <v>10</v>
       </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>11</v>
       </c>
-      <c r="J14" t="s">
+      <c r="L14" t="s">
         <v>12</v>
       </c>
-      <c r="K14" t="s">
+      <c r="M14" t="s">
         <v>13</v>
       </c>
-      <c r="M14" t="s">
+      <c r="O14" t="s">
         <v>25</v>
       </c>
-      <c r="N14" t="s">
+      <c r="P14" t="s">
         <v>26</v>
       </c>
-      <c r="O14" t="s">
+      <c r="Q14" t="s">
+        <v>59</v>
+      </c>
+      <c r="S14" t="s">
         <v>27</v>
       </c>
-      <c r="P14" s="4" t="s">
+      <c r="T14" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T14" t="s">
+      <c r="X14" t="s">
         <v>23</v>
       </c>
-      <c r="U14" t="s">
+      <c r="Y14" t="s">
         <v>3</v>
       </c>
-      <c r="V14" t="s">
+      <c r="Z14" t="s">
         <v>24</v>
       </c>
-      <c r="W14" s="4" t="s">
+      <c r="AA14" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y14" t="s">
+      <c r="AC14" t="s">
         <v>21</v>
       </c>
-      <c r="Z14" t="s">
+      <c r="AD14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AE14" t="s">
         <v>4</v>
       </c>
-      <c r="AA14" t="s">
+      <c r="AF14" t="s">
         <v>15</v>
-      </c>
-      <c r="AB14" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD14" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE14" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF14" t="s">
-        <v>16</v>
       </c>
       <c r="AG14" t="s">
         <v>20</v>
       </c>
-      <c r="AI14" s="4" t="s">
+      <c r="AI14" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ14" t="s">
+        <v>58</v>
+      </c>
+      <c r="AK14" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM14" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO14" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ14" t="s">
+      <c r="AP14" t="s">
         <v>18</v>
       </c>
-      <c r="AK14" t="s">
+      <c r="AQ14" t="s">
         <v>20</v>
       </c>
-      <c r="AL14" s="2"/>
-      <c r="AM14" s="4" t="s">
+      <c r="AR14" s="2"/>
+      <c r="AS14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN14" t="s">
+      <c r="AT14" t="s">
         <v>19</v>
       </c>
-      <c r="AO14" s="2" t="s">
+      <c r="AU14" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="15" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>295</v>
       </c>
       <c r="B15">
-        <f t="shared" ref="B15:B19" si="3">$B$1*A15+$B$2</f>
+        <f t="shared" ref="B15:B19" si="5">$B$1*A15+$B$2</f>
         <v>294.12127999999996</v>
       </c>
       <c r="C15">
@@ -14705,22 +14786,25 @@
       <c r="D15" s="8">
         <v>69.512365500000001</v>
       </c>
-      <c r="F15" s="11"/>
+      <c r="E15" s="8"/>
       <c r="G15" s="11"/>
-      <c r="H15" s="1"/>
+      <c r="H15" s="11"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="M15" s="4"/>
-      <c r="N15" s="4"/>
+      <c r="L15" s="1"/>
+      <c r="M15" s="1"/>
       <c r="O15" s="4"/>
-    </row>
-    <row r="16" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="P15" s="4"/>
+      <c r="Q15" s="4"/>
+      <c r="S15" s="4"/>
+    </row>
+    <row r="16" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>290</v>
       </c>
       <c r="B16">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>291.25102999999996</v>
       </c>
       <c r="C16">
@@ -14729,84 +14813,95 @@
       <c r="D16" s="8">
         <v>69.333461</v>
       </c>
-      <c r="F16" s="11"/>
+      <c r="E16" s="8"/>
       <c r="G16" s="11"/>
-      <c r="H16" s="1"/>
+      <c r="H16" s="11"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
-      <c r="M16" s="4"/>
-      <c r="N16" s="4"/>
+      <c r="L16" s="1"/>
+      <c r="M16" s="1"/>
       <c r="O16" s="4"/>
-      <c r="T16">
-        <f>U16 * 1000*1000</f>
+      <c r="P16" s="4"/>
+      <c r="Q16" s="4"/>
+      <c r="S16" s="4"/>
+      <c r="X16">
+        <f>Y16 * 1000*1000</f>
         <v>127.38300000000002</v>
       </c>
-      <c r="U16">
+      <c r="Y16">
         <v>1.2738300000000001E-4</v>
       </c>
-      <c r="V16" s="3">
+      <c r="Z16" s="3">
         <v>4.9892400000000003E-7</v>
       </c>
-      <c r="W16" s="4">
-        <f>V16/U16</f>
+      <c r="AA16" s="4">
+        <f>Z16/Y16</f>
         <v>3.9167235816396223E-3</v>
       </c>
-      <c r="Y16">
-        <f>1/Z16</f>
+      <c r="AC16">
+        <f>1/AE16</f>
         <v>37.044445926222281</v>
       </c>
-      <c r="Z16">
+      <c r="AD16">
+        <f>AC16*AG16</f>
+        <v>7.748064622373553</v>
+      </c>
+      <c r="AE16">
         <v>2.6994600000000001E-2</v>
       </c>
-      <c r="AA16">
+      <c r="AF16">
         <v>5.6460800000000004E-3</v>
-      </c>
-      <c r="AB16" s="4">
-        <f>AA16/Z16</f>
-        <v>0.20915590525512512</v>
-      </c>
-      <c r="AD16">
-        <f>1/AE16</f>
-        <v>160.09323830198707</v>
-      </c>
-      <c r="AE16">
-        <v>6.2463600000000003E-3</v>
-      </c>
-      <c r="AF16">
-        <v>7.8980499999999998E-4</v>
       </c>
       <c r="AG16" s="4">
         <f>AF16/AE16</f>
+        <v>0.20915590525512512</v>
+      </c>
+      <c r="AI16">
+        <f>1/AK16</f>
+        <v>160.09323830198707</v>
+      </c>
+      <c r="AJ16">
+        <f>AI16*AM16</f>
+        <v>20.242579690748034</v>
+      </c>
+      <c r="AK16">
+        <v>6.2463600000000003E-3</v>
+      </c>
+      <c r="AL16">
+        <v>7.8980499999999998E-4</v>
+      </c>
+      <c r="AM16" s="4">
+        <f>AL16/AK16</f>
         <v>0.1264424400771009</v>
       </c>
-      <c r="AI16" s="4">
+      <c r="AO16" s="4">
         <v>3.5004E-2</v>
       </c>
-      <c r="AJ16">
+      <c r="AP16">
         <v>4.2992600000000001E-3</v>
       </c>
-      <c r="AK16" s="4">
-        <f t="shared" ref="AK16:AK18" si="4">AJ16/AI16</f>
+      <c r="AQ16" s="4">
+        <f t="shared" ref="AQ16:AQ18" si="6">AP16/AO16</f>
         <v>0.12282196320420523</v>
       </c>
-      <c r="AM16" s="4">
+      <c r="AS16" s="4">
         <v>3.36558E-2</v>
       </c>
-      <c r="AN16">
+      <c r="AT16">
         <v>4.0272600000000004E-3</v>
       </c>
-      <c r="AO16" s="4">
-        <f>AN16/AM16</f>
+      <c r="AU16" s="4">
+        <f>AT16/AS16</f>
         <v>0.11966020715597313</v>
       </c>
     </row>
-    <row r="17" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>285</v>
       </c>
       <c r="B17">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>288.38077999999996</v>
       </c>
       <c r="C17">
@@ -14815,105 +14910,127 @@
       <c r="D17" s="8">
         <v>69.154556499999998</v>
       </c>
-      <c r="F17" s="11">
-        <f t="shared" ref="F17:F19" si="5">SUM(I17:J17)/SUM(H17:J17)</f>
+      <c r="E17" s="8"/>
+      <c r="F17" s="13">
+        <f>1 - (1 - G17)^(1/4)</f>
+        <v>5.9802260837394927E-3</v>
+      </c>
+      <c r="G17" s="11">
+        <f t="shared" ref="G17:G19" si="7">SUM(J17:L17)/SUM(I17:L17)</f>
         <v>2.3707179917672166E-2</v>
       </c>
-      <c r="G17" s="11">
-        <f>SQRT(1 / H17 + 1 / (I17 + J17))*F17</f>
+      <c r="H17" s="11">
+        <f>SQRT(1 / I17 + 1 / (J17 + L17))*G17</f>
         <v>4.9557688810775234E-4</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <v>96529</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <v>2281</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1"/>
+      <c r="L17" s="1">
         <v>63</v>
       </c>
-      <c r="K17" s="1"/>
-      <c r="M17" s="4">
-        <f>H17/SUM(H17:K17)</f>
+      <c r="M17" s="1"/>
+      <c r="O17" s="4">
+        <f>I17/SUM(I17:M17)</f>
         <v>0.97629282008232787</v>
       </c>
-      <c r="N17" s="4">
-        <f>I17/SUM(H17:K17)</f>
+      <c r="P17" s="4">
+        <f>J17/SUM(I17:M17)</f>
         <v>2.3069998887461692E-2</v>
       </c>
-      <c r="O17" s="4">
-        <f>J17/SUM(H17:K17)</f>
+      <c r="Q17" s="4">
+        <f t="shared" ref="Q17:Q19" si="8">4*F17*(1 - F17)^6</f>
+        <v>2.3075320263358796E-2</v>
+      </c>
+      <c r="R17" s="14">
+        <f t="shared" ref="R17:R19" si="9">P17/Q17</f>
+        <v>0.99976939102745399</v>
+      </c>
+      <c r="S17" s="4">
+        <f>L17/SUM(I17:M17)</f>
         <v>6.3718103021047205E-4</v>
       </c>
-      <c r="T17">
-        <f>U17 * 1000*1000</f>
+      <c r="X17">
+        <f>Y17 * 1000*1000</f>
         <v>109.37799999999999</v>
       </c>
-      <c r="U17">
+      <c r="Y17">
         <v>1.09378E-4</v>
       </c>
-      <c r="V17" s="3">
+      <c r="Z17" s="3">
         <v>5.0726099999999998E-7</v>
       </c>
-      <c r="W17" s="4">
-        <f>V17/U17</f>
+      <c r="AA17" s="4">
+        <f>Z17/Y17</f>
         <v>4.6376876519958312E-3</v>
       </c>
-      <c r="Y17">
-        <f>1/Z17</f>
+      <c r="AC17">
+        <f>1/AE17</f>
         <v>34.68380509088891</v>
       </c>
-      <c r="Z17">
+      <c r="AD17">
+        <f t="shared" ref="AD17:AD19" si="10">AC17*AG17</f>
+        <v>8.7701298322593484</v>
+      </c>
+      <c r="AE17">
         <v>2.8831900000000001E-2</v>
       </c>
-      <c r="AA17">
+      <c r="AF17">
         <v>7.2904199999999997E-3</v>
-      </c>
-      <c r="AB17" s="4">
-        <f>AA17/Z17</f>
-        <v>0.2528595063107183</v>
-      </c>
-      <c r="AD17">
-        <f>1/AE17</f>
-        <v>150.42117930204572</v>
-      </c>
-      <c r="AE17">
-        <v>6.6480000000000003E-3</v>
-      </c>
-      <c r="AF17">
-        <v>6.6698699999999996E-4</v>
       </c>
       <c r="AG17" s="4">
         <f>AF17/AE17</f>
+        <v>0.2528595063107183</v>
+      </c>
+      <c r="AI17">
+        <f>1/AK17</f>
+        <v>150.42117930204572</v>
+      </c>
+      <c r="AJ17">
+        <f t="shared" ref="AJ17:AJ19" si="11">AI17*AM17</f>
+        <v>15.091602153900956</v>
+      </c>
+      <c r="AK17">
+        <v>6.6480000000000003E-3</v>
+      </c>
+      <c r="AL17">
+        <v>6.6698699999999996E-4</v>
+      </c>
+      <c r="AM17" s="4">
+        <f>AL17/AK17</f>
         <v>0.10032897111913357</v>
       </c>
-      <c r="AI17" s="4">
+      <c r="AO17" s="4">
         <v>4.4047000000000003E-2</v>
       </c>
-      <c r="AJ17">
+      <c r="AP17">
         <v>4.43306E-3</v>
       </c>
-      <c r="AK17" s="4">
-        <f t="shared" si="4"/>
+      <c r="AQ17" s="4">
+        <f t="shared" si="6"/>
         <v>0.10064385769745952</v>
       </c>
-      <c r="AM17" s="4">
+      <c r="AS17" s="4">
         <v>3.11998E-2</v>
       </c>
-      <c r="AN17">
+      <c r="AT17">
         <v>4.7653499999999998E-3</v>
       </c>
-      <c r="AO17" s="4">
-        <f>AN17/AM17</f>
+      <c r="AU17" s="4">
+        <f>AT17/AS17</f>
         <v>0.15273655600356412</v>
       </c>
     </row>
-    <row r="18" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>280</v>
       </c>
       <c r="B18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>285.51052999999996</v>
       </c>
       <c r="C18">
@@ -14922,105 +15039,126 @@
       <c r="D18" s="8">
         <v>68.975651999999997</v>
       </c>
-      <c r="F18" s="11">
-        <f t="shared" si="5"/>
+      <c r="E18" s="8"/>
+      <c r="F18" s="13">
+        <f t="shared" ref="F18:F19" si="12">1 - (1 - G18)^(1/4)</f>
+        <v>6.5986368829631381E-3</v>
+      </c>
+      <c r="G18" s="11">
+        <f t="shared" si="7"/>
         <v>2.6134442855285399E-2</v>
       </c>
-      <c r="G18" s="11">
-        <f t="shared" ref="G18:G19" si="6">SQRT(1 / H18 + 1 / (I18 + J18))*F18</f>
+      <c r="H18" s="11">
+        <f>SQRT(1 / I18 + 1 / (J18 + L18))*G18</f>
         <v>3.3549408470246529E-4</v>
       </c>
-      <c r="H18">
+      <c r="I18">
         <v>232190</v>
       </c>
-      <c r="I18">
+      <c r="J18">
         <v>6034</v>
       </c>
-      <c r="J18">
+      <c r="L18">
         <v>197</v>
       </c>
-      <c r="K18" s="1"/>
-      <c r="M18" s="4">
-        <f>H18/SUM(H18:K18)</f>
+      <c r="M18" s="1"/>
+      <c r="O18" s="4">
+        <f>I18/SUM(I18:M18)</f>
         <v>0.97386555714471457</v>
       </c>
-      <c r="N18" s="4">
-        <f>I18/SUM(H18:K18)</f>
+      <c r="P18" s="4">
+        <f>J18/SUM(I18:M18)</f>
         <v>2.5308173357212662E-2</v>
       </c>
-      <c r="O18" s="4">
-        <f>J18/SUM(H18:K18)</f>
+      <c r="Q18" s="4">
+        <f>4*F18*(1 - F18)^6</f>
+        <v>2.5366627473137948E-2</v>
+      </c>
+      <c r="R18" s="14">
+        <f t="shared" si="9"/>
+        <v>0.99769562918889454</v>
+      </c>
+      <c r="S18" s="4">
+        <f>L18/SUM(I18:M18)</f>
         <v>8.2626949807273684E-4</v>
       </c>
-      <c r="T18">
-        <f>U18 * 1000*1000</f>
+      <c r="X18">
+        <f>Y18 * 1000*1000</f>
         <v>280.029</v>
       </c>
-      <c r="U18">
+      <c r="Y18">
         <v>2.80029E-4</v>
       </c>
-      <c r="V18" s="3">
+      <c r="Z18" s="3">
         <v>6.57122E-7</v>
       </c>
-      <c r="W18" s="4">
-        <f>V18/U18</f>
+      <c r="AA18" s="4">
+        <f>Z18/Y18</f>
         <v>2.3466212427998528E-3</v>
       </c>
-      <c r="Y18">
-        <f>1/Z18</f>
+      <c r="AC18">
+        <f>1/AE18</f>
         <v>35.428202975260483</v>
       </c>
-      <c r="Z18">
+      <c r="AD18">
+        <f t="shared" si="10"/>
+        <v>3.2237717958102086</v>
+      </c>
+      <c r="AE18">
         <v>2.82261E-2</v>
       </c>
-      <c r="AA18">
+      <c r="AF18">
         <v>2.5684200000000001E-3</v>
-      </c>
-      <c r="AB18" s="4">
-        <f>AA18/Z18</f>
-        <v>9.0994505085718533E-2</v>
-      </c>
-      <c r="AD18">
-        <f>1/AE18</f>
-        <v>250</v>
-      </c>
-      <c r="AE18">
-        <v>4.0000000000000001E-3</v>
-      </c>
-      <c r="AF18">
-        <v>1.9862499999999999E-4</v>
       </c>
       <c r="AG18" s="4">
         <f>AF18/AE18</f>
+        <v>9.0994505085718533E-2</v>
+      </c>
+      <c r="AI18">
+        <f>1/AK18</f>
+        <v>250</v>
+      </c>
+      <c r="AJ18">
+        <f t="shared" si="11"/>
+        <v>12.4140625</v>
+      </c>
+      <c r="AK18">
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="AL18">
+        <v>1.9862499999999999E-4</v>
+      </c>
+      <c r="AM18" s="4">
+        <f>AL18/AK18</f>
         <v>4.9656249999999999E-2</v>
       </c>
-      <c r="AI18" s="4">
+      <c r="AO18" s="4">
         <v>3.7555199999999997E-2</v>
       </c>
-      <c r="AJ18">
+      <c r="AP18">
         <v>1.8788500000000001E-3</v>
       </c>
-      <c r="AK18" s="4">
-        <f t="shared" si="4"/>
+      <c r="AQ18" s="4">
+        <f t="shared" si="6"/>
         <v>5.0029023943421957E-2</v>
       </c>
-      <c r="AM18" s="4">
+      <c r="AS18" s="4">
         <v>4.30064E-2</v>
       </c>
-      <c r="AN18">
+      <c r="AT18">
         <v>3.1544300000000002E-3</v>
       </c>
-      <c r="AO18" s="4">
-        <f>AN18/AM18</f>
+      <c r="AU18" s="4">
+        <f>AT18/AS18</f>
         <v>7.3347920309535325E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>275</v>
       </c>
       <c r="B19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>282.64027999999996</v>
       </c>
       <c r="C19">
@@ -15029,99 +15167,121 @@
       <c r="D19" s="8">
         <v>68.796747499999995</v>
       </c>
-      <c r="F19" s="11">
-        <f t="shared" si="5"/>
+      <c r="E19" s="8"/>
+      <c r="F19" s="13">
+        <f t="shared" si="12"/>
+        <v>6.1242214151056018E-3</v>
+      </c>
+      <c r="G19" s="11">
+        <f t="shared" si="7"/>
         <v>2.4272766508416057E-2</v>
       </c>
-      <c r="G19" s="11">
-        <f>SQRT(1 / H19 + 1 / (I19 + J19))*F19</f>
+      <c r="H19" s="11">
+        <f>SQRT(1 / I19 + 1 / (J19 + L19))*G19</f>
         <v>6.5533355324053674E-4</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <v>56519</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <v>1353</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1"/>
+      <c r="L19" s="1">
         <v>53</v>
       </c>
-      <c r="M19" s="4">
-        <f>H19/SUM(H19:K19)</f>
+      <c r="O19" s="4">
+        <f>I19/SUM(I19:M19)</f>
         <v>0.97572723349158397</v>
       </c>
-      <c r="N19" s="4">
-        <f>I19/SUM(H19:K19)</f>
+      <c r="P19" s="4">
+        <f>J19/SUM(I19:M19)</f>
         <v>2.335779024600777E-2</v>
       </c>
-      <c r="O19" s="4">
-        <f>J19/SUM(H19:K19)</f>
+      <c r="Q19" s="4">
+        <f t="shared" si="8"/>
+        <v>2.3610409264154104E-2</v>
+      </c>
+      <c r="R19" s="14">
+        <f t="shared" si="9"/>
+        <v>0.98930052353942599</v>
+      </c>
+      <c r="S19" s="4">
+        <f>L19/SUM(I19:M19)</f>
         <v>9.1497626240828658E-4</v>
       </c>
-      <c r="T19">
-        <f>U19 * 1000*1000</f>
+      <c r="X19">
+        <f>Y19 * 1000*1000</f>
         <v>64.810900000000004</v>
       </c>
-      <c r="U19" s="3">
+      <c r="Y19" s="3">
         <v>6.4810900000000007E-5</v>
       </c>
-      <c r="V19" s="3">
+      <c r="Z19" s="3">
         <v>6.1570299999999996E-7</v>
       </c>
-      <c r="W19" s="4">
-        <f>V19/U19</f>
+      <c r="AA19" s="4">
+        <f>Z19/Y19</f>
         <v>9.4999915137731449E-3</v>
       </c>
-      <c r="Y19">
-        <f>1/Z19</f>
+      <c r="AC19">
+        <f>1/AE19</f>
         <v>39.371163772229941</v>
       </c>
-      <c r="Z19">
+      <c r="AD19">
+        <f t="shared" si="10"/>
+        <v>8.8239875018163101</v>
+      </c>
+      <c r="AE19">
         <v>2.53993E-2</v>
       </c>
-      <c r="AA19">
+      <c r="AF19">
         <v>5.6925700000000001E-3</v>
-      </c>
-      <c r="AB19" s="4">
-        <f>AA19/Z19</f>
-        <v>0.22412310575488301</v>
-      </c>
-      <c r="AD19">
-        <f>1/AE19</f>
-        <v>166.6352836882387</v>
-      </c>
-      <c r="AE19">
-        <v>6.0011300000000004E-3</v>
-      </c>
-      <c r="AF19">
-        <v>6.7046599999999999E-4</v>
       </c>
       <c r="AG19" s="4">
         <f>AF19/AE19</f>
+        <v>0.22412310575488301</v>
+      </c>
+      <c r="AI19">
+        <f>1/AK19</f>
+        <v>166.6352836882387</v>
+      </c>
+      <c r="AJ19">
+        <f t="shared" si="11"/>
+        <v>18.617042475886816</v>
+      </c>
+      <c r="AK19">
+        <v>6.0011300000000004E-3</v>
+      </c>
+      <c r="AL19">
+        <v>6.7046599999999999E-4</v>
+      </c>
+      <c r="AM19" s="4">
+        <f>AL19/AK19</f>
         <v>0.11172329211331865</v>
       </c>
-      <c r="AI19" s="4">
+      <c r="AO19" s="4">
         <v>4.6854699999999999E-2</v>
       </c>
-      <c r="AJ19">
+      <c r="AP19">
         <v>5.4220700000000002E-3</v>
       </c>
-      <c r="AK19" s="4">
-        <f>AJ19/AI19</f>
+      <c r="AQ19" s="4">
+        <f>AP19/AO19</f>
         <v>0.11572094154908687</v>
       </c>
-      <c r="AM19" s="4">
+      <c r="AS19" s="4">
         <v>3.8936199999999997E-2</v>
       </c>
-      <c r="AN19">
+      <c r="AT19">
         <v>5.1259499999999998E-3</v>
       </c>
-      <c r="AO19" s="4">
-        <f>AN19/AM19</f>
+      <c r="AU19" s="4">
+        <f>AT19/AS19</f>
         <v>0.13164998125138047</v>
       </c>
     </row>
-    <row r="23" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
@@ -15131,95 +15291,99 @@
       <c r="D23" t="s">
         <v>1</v>
       </c>
-      <c r="F23" s="11" t="s">
+      <c r="G23" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G23" s="11"/>
-      <c r="H23" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" t="s">
         <v>10</v>
       </c>
-      <c r="I23" t="s">
+      <c r="J23" t="s">
         <v>11</v>
       </c>
-      <c r="J23" t="s">
+      <c r="L23" t="s">
         <v>12</v>
       </c>
-      <c r="K23" t="s">
+      <c r="M23" t="s">
         <v>13</v>
       </c>
-      <c r="M23" t="s">
+      <c r="O23" t="s">
         <v>25</v>
       </c>
-      <c r="N23" t="s">
+      <c r="P23" t="s">
         <v>26</v>
       </c>
-      <c r="O23" t="s">
+      <c r="Q23" t="s">
+        <v>59</v>
+      </c>
+      <c r="S23" t="s">
         <v>27</v>
       </c>
-      <c r="P23" s="4" t="s">
+      <c r="T23" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T23" t="s">
+      <c r="X23" t="s">
         <v>23</v>
       </c>
-      <c r="U23" t="s">
+      <c r="Y23" t="s">
         <v>3</v>
       </c>
-      <c r="V23" t="s">
+      <c r="Z23" t="s">
         <v>24</v>
       </c>
-      <c r="W23" s="4" t="s">
+      <c r="AA23" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y23" t="s">
+      <c r="AC23" t="s">
         <v>21</v>
       </c>
-      <c r="Z23" t="s">
+      <c r="AE23" t="s">
         <v>4</v>
       </c>
-      <c r="AA23" t="s">
+      <c r="AF23" t="s">
         <v>15</v>
-      </c>
-      <c r="AB23" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD23" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE23" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF23" t="s">
-        <v>16</v>
       </c>
       <c r="AG23" t="s">
         <v>20</v>
       </c>
-      <c r="AI23" s="4" t="s">
+      <c r="AI23" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ23" s="6"/>
+      <c r="AK23" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL23" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM23" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO23" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ23" t="s">
+      <c r="AP23" t="s">
         <v>18</v>
       </c>
-      <c r="AK23" t="s">
+      <c r="AQ23" t="s">
         <v>20</v>
       </c>
-      <c r="AM23" s="4" t="s">
+      <c r="AS23" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN23" t="s">
+      <c r="AT23" t="s">
         <v>19</v>
       </c>
-      <c r="AO23" s="2" t="s">
+      <c r="AU23" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>295</v>
       </c>
       <c r="B24">
-        <f t="shared" ref="B24:B28" si="7">$B$1*A24+$B$2</f>
+        <f t="shared" ref="B24:B28" si="13">$B$1*A24+$B$2</f>
         <v>294.12127999999996</v>
       </c>
       <c r="C24">
@@ -15228,22 +15392,25 @@
       <c r="D24" s="8">
         <v>69.81</v>
       </c>
-      <c r="F24" s="11"/>
+      <c r="E24" s="8"/>
       <c r="G24" s="11"/>
-      <c r="H24" s="1"/>
+      <c r="H24" s="11"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
       <c r="K24" s="1"/>
-      <c r="M24" s="4"/>
-      <c r="N24" s="4"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
       <c r="O24" s="4"/>
-    </row>
-    <row r="25" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="P24" s="4"/>
+      <c r="Q24" s="4"/>
+      <c r="S24" s="4"/>
+    </row>
+    <row r="25" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>290</v>
       </c>
       <c r="B25">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>291.25102999999996</v>
       </c>
       <c r="C25">
@@ -15252,105 +15419,127 @@
       <c r="D25" s="8">
         <v>69.63</v>
       </c>
-      <c r="F25" s="11">
-        <f t="shared" ref="F25:F26" si="8">SUM(I25:J25)/SUM(H25:J25)</f>
+      <c r="E25" s="8"/>
+      <c r="F25" s="13">
+        <f>1 - (1 - G25)^(1/4)</f>
+        <v>2.2228574846754334E-2</v>
+      </c>
+      <c r="G25" s="11">
+        <f t="shared" ref="G25:G26" si="14">SUM(J25:L25)/SUM(I25:L25)</f>
         <v>8.5993331408018056E-2</v>
       </c>
-      <c r="G25" s="11">
-        <f t="shared" ref="G25:G28" si="9">SQRT(1 / H25 + 1 / (I25 + J25))*F25</f>
+      <c r="H25" s="11">
+        <f t="shared" ref="H25:H28" si="15">SQRT(1 / I25 + 1 / (J25 + L25))*G25</f>
         <v>7.0286661782676524E-4</v>
       </c>
-      <c r="H25" s="1">
+      <c r="I25" s="1">
         <v>174068</v>
       </c>
-      <c r="I25" s="1">
+      <c r="J25" s="1">
         <v>14877</v>
       </c>
-      <c r="J25" s="1">
+      <c r="K25" s="1"/>
+      <c r="L25" s="1">
         <v>1500</v>
       </c>
-      <c r="K25" s="1"/>
-      <c r="M25" s="4">
-        <f>H25/SUM(H25:K25)</f>
+      <c r="M25" s="1"/>
+      <c r="O25" s="4">
+        <f>I25/SUM(I25:M25)</f>
         <v>0.91400666859198199</v>
       </c>
-      <c r="N25" s="4">
-        <f>I25/SUM(H25:K25)</f>
+      <c r="P25" s="4">
+        <f>J25/SUM(I25:M25)</f>
         <v>7.8117041665572734E-2</v>
       </c>
-      <c r="O25" s="4">
-        <f>J25/SUM(H25:K25)</f>
+      <c r="Q25" s="4">
+        <f t="shared" ref="Q25:Q28" si="16">4*F25*(1 - F25)^6</f>
+        <v>7.7695462682195821E-2</v>
+      </c>
+      <c r="R25" s="14">
+        <f t="shared" ref="R25:R28" si="17">P25/Q25</f>
+        <v>1.0054260437974523</v>
+      </c>
+      <c r="S25" s="4">
+        <f>L25/SUM(I25:M25)</f>
         <v>7.8762897424453256E-3</v>
       </c>
-      <c r="T25">
-        <f t="shared" ref="T25:T27" si="10">U25 * 1000*1000</f>
+      <c r="X25">
+        <f t="shared" ref="X25:X27" si="18">Y25 * 1000*1000</f>
         <v>228.56299999999999</v>
       </c>
-      <c r="U25">
+      <c r="Y25">
         <v>2.2856299999999999E-4</v>
       </c>
-      <c r="V25" s="3">
+      <c r="Z25" s="3">
         <v>6.4329100000000001E-7</v>
       </c>
-      <c r="W25" s="4">
-        <f>V25/U25</f>
+      <c r="AA25" s="4">
+        <f>Z25/Y25</f>
         <v>2.8145019097579227E-3</v>
       </c>
-      <c r="Y25">
-        <f>1/Z25</f>
+      <c r="AC25">
+        <f>1/AE25</f>
         <v>36.187174541598964</v>
       </c>
-      <c r="Z25">
+      <c r="AD25">
+        <f>AC25*AG25</f>
+        <v>1.3886191971389317</v>
+      </c>
+      <c r="AE25">
         <v>2.7634100000000002E-2</v>
       </c>
-      <c r="AA25">
+      <c r="AF25">
         <v>1.0604099999999999E-3</v>
-      </c>
-      <c r="AB25" s="4">
-        <f>AA25/Z25</f>
-        <v>3.8373241755656956E-2</v>
-      </c>
-      <c r="AD25">
-        <f>1/AE25</f>
-        <v>203.40251730955424</v>
-      </c>
-      <c r="AE25">
-        <v>4.9163599999999998E-3</v>
-      </c>
-      <c r="AF25">
-        <v>2.17214E-4</v>
       </c>
       <c r="AG25" s="4">
         <f>AF25/AE25</f>
+        <v>3.8373241755656956E-2</v>
+      </c>
+      <c r="AI25">
+        <f>1/AK25</f>
+        <v>203.40251730955424</v>
+      </c>
+      <c r="AJ25">
+        <f t="shared" ref="AJ25:AJ28" si="19">AI25*AM25</f>
+        <v>8.9867044713726241</v>
+      </c>
+      <c r="AK25">
+        <v>4.9163599999999998E-3</v>
+      </c>
+      <c r="AL25">
+        <v>2.17214E-4</v>
+      </c>
+      <c r="AM25" s="4">
+        <f>AL25/AK25</f>
         <v>4.4181874394877509E-2</v>
       </c>
-      <c r="AI25" s="4">
+      <c r="AO25" s="4">
         <v>8.1295800000000001E-2</v>
       </c>
-      <c r="AJ25">
+      <c r="AP25">
         <v>2.2824400000000002E-3</v>
       </c>
-      <c r="AK25" s="4">
-        <f>AJ25/AI25</f>
+      <c r="AQ25" s="4">
+        <f>AP25/AO25</f>
         <v>2.807574315032265E-2</v>
       </c>
-      <c r="AM25" s="4">
+      <c r="AS25" s="4">
         <v>8.1297099999999997E-2</v>
       </c>
-      <c r="AN25">
+      <c r="AT25">
         <v>2.2607899999999999E-3</v>
       </c>
-      <c r="AO25" s="4">
-        <f>AN25/AM25</f>
+      <c r="AU25" s="4">
+        <f>AT25/AS25</f>
         <v>2.7808987036437954E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>285</v>
       </c>
       <c r="B26">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>288.38077999999996</v>
       </c>
       <c r="C26">
@@ -15359,106 +15548,125 @@
       <c r="D26" s="8">
         <v>69.45</v>
       </c>
-      <c r="E26" t="s">
-        <v>50</v>
-      </c>
-      <c r="F26" s="11">
-        <f t="shared" si="8"/>
+      <c r="E26" s="8"/>
+      <c r="F26" s="13">
+        <f t="shared" ref="F26:F28" si="20">1 - (1 - G26)^(1/4)</f>
+        <v>2.2697359175592569E-2</v>
+      </c>
+      <c r="G26" s="11">
+        <f t="shared" si="14"/>
         <v>8.7744922625263816E-2</v>
       </c>
-      <c r="G26" s="11">
-        <f t="shared" si="9"/>
+      <c r="H26" s="11">
+        <f t="shared" si="15"/>
         <v>8.3811181528059369E-4</v>
       </c>
-      <c r="H26" s="1">
+      <c r="I26" s="1">
         <v>124916</v>
       </c>
-      <c r="I26" s="1">
+      <c r="J26" s="1">
         <v>10893</v>
       </c>
-      <c r="J26" s="1">
+      <c r="K26" s="1"/>
+      <c r="L26" s="1">
         <v>1122</v>
       </c>
-      <c r="K26" s="1"/>
-      <c r="M26" s="4">
-        <f>H26/SUM(H26:K26)</f>
+      <c r="M26" s="1"/>
+      <c r="O26" s="4">
+        <f>I26/SUM(I26:M26)</f>
         <v>0.91225507737473621</v>
       </c>
-      <c r="N26" s="4">
-        <f>I26/SUM(H26:K26)</f>
+      <c r="P26" s="4">
+        <f>J26/SUM(I26:M26)</f>
         <v>7.9551014744652412E-2</v>
       </c>
-      <c r="O26" s="4">
-        <f>J26/SUM(H26:K26)</f>
+      <c r="Q26" s="4">
+        <f t="shared" si="16"/>
+        <v>7.9106060187884408E-2</v>
+      </c>
+      <c r="R26" s="14">
+        <f t="shared" si="17"/>
+        <v>1.0056247846967881</v>
+      </c>
+      <c r="S26" s="4">
+        <f>L26/SUM(I26:M26)</f>
         <v>8.1939078806114035E-3</v>
       </c>
-      <c r="T26">
-        <f t="shared" si="10"/>
+      <c r="X26">
+        <f t="shared" si="18"/>
         <v>161.71700000000001</v>
       </c>
-      <c r="U26">
+      <c r="Y26">
         <v>1.61717E-4</v>
       </c>
-      <c r="V26" s="3"/>
-      <c r="W26" s="4">
-        <f>V26/U26</f>
+      <c r="Z26" s="3"/>
+      <c r="AA26" s="4">
+        <f>Z26/Y26</f>
         <v>0</v>
       </c>
-      <c r="Y26">
-        <f>1/Z26</f>
+      <c r="AC26">
+        <f>1/AE26</f>
         <v>35.860802708207821</v>
       </c>
-      <c r="Z26">
+      <c r="AD26">
+        <f t="shared" ref="AD26:AD28" si="21">AC26*AG26</f>
+        <v>2.071882901971652</v>
+      </c>
+      <c r="AE26">
         <v>2.78856E-2</v>
       </c>
-      <c r="AA26">
+      <c r="AF26">
         <v>1.61111E-3</v>
-      </c>
-      <c r="AB26" s="4">
-        <f>AA26/Z26</f>
-        <v>5.7775697851220699E-2</v>
-      </c>
-      <c r="AD26">
-        <f>1/AE26</f>
-        <v>194.4295921839304</v>
-      </c>
-      <c r="AE26">
-        <v>5.1432500000000003E-3</v>
-      </c>
-      <c r="AF26">
-        <v>3.4701799999999999E-4</v>
       </c>
       <c r="AG26" s="4">
         <f>AF26/AE26</f>
+        <v>5.7775697851220699E-2</v>
+      </c>
+      <c r="AI26">
+        <f>1/AK26</f>
+        <v>194.4295921839304</v>
+      </c>
+      <c r="AJ26">
+        <f t="shared" si="19"/>
+        <v>13.118275063526594</v>
+      </c>
+      <c r="AK26">
+        <v>5.1432500000000003E-3</v>
+      </c>
+      <c r="AL26">
+        <v>3.4701799999999999E-4</v>
+      </c>
+      <c r="AM26" s="4">
+        <f>AL26/AK26</f>
         <v>6.7470568220483154E-2</v>
       </c>
-      <c r="AI26" s="4">
+      <c r="AO26" s="4">
         <v>8.3371700000000007E-2</v>
       </c>
-      <c r="AJ26">
+      <c r="AP26">
         <v>3.31986E-3</v>
       </c>
-      <c r="AK26" s="4">
-        <f>AJ26/AI26</f>
+      <c r="AQ26" s="4">
+        <f>AP26/AO26</f>
         <v>3.981998687804135E-2</v>
       </c>
-      <c r="AM26" s="4">
+      <c r="AS26" s="4">
         <v>8.2688999999999999E-2</v>
       </c>
-      <c r="AN26">
+      <c r="AT26">
         <v>3.6283999999999999E-3</v>
       </c>
-      <c r="AO26" s="4">
-        <f>AN26/AM26</f>
+      <c r="AU26" s="4">
+        <f>AT26/AS26</f>
         <v>4.3880080784626734E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>280</v>
       </c>
       <c r="B27">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>285.51052999999996</v>
       </c>
       <c r="C27">
@@ -15467,105 +15675,126 @@
       <c r="D27" s="8">
         <v>69.275651999999994</v>
       </c>
-      <c r="F27" s="11">
-        <f>SUM(I27:J27)/SUM(H27:J27)</f>
+      <c r="E27" s="8"/>
+      <c r="F27" s="13">
+        <f t="shared" si="20"/>
+        <v>2.216129045375137E-2</v>
+      </c>
+      <c r="G27" s="11">
+        <f>SUM(J27:L27)/SUM(I27:L27)</f>
         <v>8.5741719505549166E-2</v>
       </c>
-      <c r="G27" s="11">
-        <f t="shared" si="9"/>
+      <c r="H27" s="11">
+        <f t="shared" si="15"/>
         <v>9.0069362920284276E-4</v>
       </c>
-      <c r="H27">
+      <c r="I27">
         <v>105691</v>
       </c>
-      <c r="I27">
+      <c r="J27">
         <v>8985</v>
       </c>
-      <c r="J27">
+      <c r="L27">
         <v>927</v>
       </c>
-      <c r="K27" s="1"/>
-      <c r="M27" s="4">
-        <f>H27/SUM(H27:K27)</f>
+      <c r="M27" s="1"/>
+      <c r="O27" s="4">
+        <f>I27/SUM(I27:M27)</f>
         <v>0.91425828049445079</v>
       </c>
-      <c r="N27" s="4">
-        <f>I27/SUM(H27:K27)</f>
+      <c r="P27" s="4">
+        <f>J27/SUM(I27:M27)</f>
         <v>7.7722896464624616E-2</v>
       </c>
-      <c r="O27" s="4">
-        <f>J27/SUM(H27:K27)</f>
+      <c r="Q27" s="4">
+        <f t="shared" si="16"/>
+        <v>7.7492271398979823E-2</v>
+      </c>
+      <c r="R27" s="14">
+        <f t="shared" si="17"/>
+        <v>1.0029761040873018</v>
+      </c>
+      <c r="S27" s="4">
+        <f>L27/SUM(I27:M27)</f>
         <v>8.0188230409245428E-3</v>
       </c>
-      <c r="T27">
-        <f t="shared" si="10"/>
+      <c r="X27">
+        <f t="shared" si="18"/>
         <v>137.36299999999997</v>
       </c>
-      <c r="U27">
+      <c r="Y27">
         <v>1.3736299999999999E-4</v>
       </c>
-      <c r="V27" s="3">
+      <c r="Z27" s="3">
         <v>5.5658200000000003E-7</v>
       </c>
-      <c r="W27" s="4">
-        <f>V27/U27</f>
+      <c r="AA27" s="4">
+        <f>Z27/Y27</f>
         <v>4.0519062629674665E-3</v>
       </c>
-      <c r="Y27">
-        <f>1/Z27</f>
+      <c r="AC27">
+        <f>1/AE27</f>
         <v>36.547971039387747</v>
       </c>
-      <c r="Z27">
+      <c r="AD27">
+        <f t="shared" si="21"/>
+        <v>1.5382812369434093</v>
+      </c>
+      <c r="AE27">
         <v>2.7361300000000002E-2</v>
       </c>
-      <c r="AA27">
+      <c r="AF27">
         <v>1.1516199999999999E-3</v>
-      </c>
-      <c r="AB27" s="4">
-        <f>AA27/Z27</f>
-        <v>4.2089374408379711E-2</v>
-      </c>
-      <c r="AD27">
-        <f>1/AE27</f>
-        <v>190.91292652334198</v>
-      </c>
-      <c r="AE27">
-        <v>5.2379899999999997E-3</v>
-      </c>
-      <c r="AF27">
-        <v>2.0765200000000001E-4</v>
       </c>
       <c r="AG27" s="4">
         <f>AF27/AE27</f>
+        <v>4.2089374408379711E-2</v>
+      </c>
+      <c r="AI27">
+        <f>1/AK27</f>
+        <v>190.91292652334198</v>
+      </c>
+      <c r="AJ27">
+        <f t="shared" si="19"/>
+        <v>7.5684472514122803</v>
+      </c>
+      <c r="AK27">
+        <v>5.2379899999999997E-3</v>
+      </c>
+      <c r="AL27">
+        <v>2.0765200000000001E-4</v>
+      </c>
+      <c r="AM27" s="4">
+        <f>AL27/AK27</f>
         <v>3.9643451018425008E-2</v>
       </c>
-      <c r="AI27" s="4">
+      <c r="AO27" s="4">
         <v>8.4318000000000004E-2</v>
       </c>
-      <c r="AJ27">
+      <c r="AP27">
         <v>2.5994400000000002E-3</v>
       </c>
-      <c r="AK27" s="4">
-        <f>AJ27/AI27</f>
+      <c r="AQ27" s="4">
+        <f>AP27/AO27</f>
         <v>3.0829004483028534E-2</v>
       </c>
-      <c r="AM27" s="4">
+      <c r="AS27" s="4">
         <v>8.6150500000000005E-2</v>
       </c>
-      <c r="AN27">
+      <c r="AT27">
         <v>2.5298299999999998E-3</v>
       </c>
-      <c r="AO27" s="4">
-        <f>AN27/AM27</f>
+      <c r="AU27" s="4">
+        <f>AT27/AS27</f>
         <v>2.9365238739183171E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>275</v>
       </c>
       <c r="B28">
-        <f t="shared" si="7"/>
+        <f t="shared" si="13"/>
         <v>282.64027999999996</v>
       </c>
       <c r="C28">
@@ -15574,100 +15803,121 @@
       <c r="D28" s="8">
         <v>69.099999999999994</v>
       </c>
-      <c r="F28" s="11">
-        <f>SUM(I28:J28)/SUM(H28:J28)</f>
+      <c r="E28" s="8"/>
+      <c r="F28" s="13">
+        <f t="shared" si="20"/>
+        <v>2.3296659929129215E-2</v>
+      </c>
+      <c r="G28" s="11">
+        <f>SUM(J28:L28)/SUM(I28:L28)</f>
         <v>8.9980514564432248E-2</v>
       </c>
-      <c r="G28" s="11">
-        <f t="shared" si="9"/>
+      <c r="H28" s="11">
+        <f t="shared" si="15"/>
         <v>1.1077815387508048E-3</v>
       </c>
-      <c r="H28">
+      <c r="I28">
         <v>73323</v>
       </c>
-      <c r="I28">
+      <c r="J28">
         <v>6536</v>
       </c>
-      <c r="J28">
+      <c r="L28">
         <v>714</v>
       </c>
-      <c r="K28" s="1"/>
-      <c r="M28" s="4">
-        <f>H28/SUM(H28:K28)</f>
+      <c r="M28" s="1"/>
+      <c r="O28" s="4">
+        <f>I28/SUM(I28:M28)</f>
         <v>0.91001948543556777</v>
       </c>
-      <c r="N28" s="4">
-        <f>I28/SUM(H28:K28)</f>
+      <c r="P28" s="4">
+        <f>J28/SUM(I28:M28)</f>
         <v>8.1118985268017821E-2</v>
       </c>
-      <c r="O28" s="4">
-        <f>J28/SUM(H28:K28)</f>
+      <c r="Q28" s="4">
+        <f t="shared" si="16"/>
+        <v>8.0896491925984318E-2</v>
+      </c>
+      <c r="R28" s="14">
+        <f t="shared" si="17"/>
+        <v>1.002750345988267</v>
+      </c>
+      <c r="S28" s="4">
+        <f>L28/SUM(I28:M28)</f>
         <v>8.8615292964144311E-3</v>
       </c>
-      <c r="T28">
-        <f>U28 * 1000*1000</f>
+      <c r="X28">
+        <f>Y28 * 1000*1000</f>
         <v>100.25700000000001</v>
       </c>
-      <c r="U28">
+      <c r="Y28">
         <v>1.00257E-4</v>
       </c>
-      <c r="V28" s="3">
+      <c r="Z28" s="3">
         <v>5.9582800000000001E-7</v>
       </c>
-      <c r="W28" s="4">
-        <f>V28/U28</f>
+      <c r="AA28" s="4">
+        <f>Z28/Y28</f>
         <v>5.9430064733634559E-3</v>
       </c>
-      <c r="Y28">
-        <f>1/Z28</f>
+      <c r="AC28">
+        <f>1/AE28</f>
         <v>38.453256221736858</v>
       </c>
-      <c r="Z28">
+      <c r="AD28">
+        <f t="shared" si="21"/>
+        <v>2.1341101777966429</v>
+      </c>
+      <c r="AE28">
         <v>2.60056E-2</v>
       </c>
-      <c r="AA28">
+      <c r="AF28">
         <v>1.4432799999999999E-3</v>
-      </c>
-      <c r="AB28" s="4">
-        <f>AA28/Z28</f>
-        <v>5.549881563970837E-2</v>
-      </c>
-      <c r="AD28">
-        <f>1/AE28</f>
-        <v>184.01464756594623</v>
-      </c>
-      <c r="AE28">
-        <v>5.4343500000000001E-3</v>
-      </c>
-      <c r="AF28">
-        <v>2.8665500000000003E-4</v>
       </c>
       <c r="AG28" s="4">
         <f>AF28/AE28</f>
+        <v>5.549881563970837E-2</v>
+      </c>
+      <c r="AI28">
+        <f>1/AK28</f>
+        <v>184.01464756594623</v>
+      </c>
+      <c r="AJ28">
+        <f t="shared" si="19"/>
+        <v>9.7065368991721765</v>
+      </c>
+      <c r="AK28">
+        <v>5.4343500000000001E-3</v>
+      </c>
+      <c r="AL28">
+        <v>2.8665500000000003E-4</v>
+      </c>
+      <c r="AM28" s="4">
+        <f>AL28/AK28</f>
         <v>5.2748718798016327E-2</v>
       </c>
-      <c r="AI28" s="4">
+      <c r="AO28" s="4">
         <v>8.8070200000000001E-2</v>
       </c>
-      <c r="AJ28">
+      <c r="AP28">
         <v>3.74932E-3</v>
       </c>
-      <c r="AK28" s="4">
-        <f>AJ28/AI28</f>
+      <c r="AQ28" s="4">
+        <f>AP28/AO28</f>
         <v>4.2571948286707649E-2</v>
       </c>
-      <c r="AM28" s="4">
+      <c r="AS28" s="4">
         <v>9.0066499999999994E-2</v>
       </c>
-      <c r="AN28">
+      <c r="AT28">
         <v>3.6385800000000002E-3</v>
       </c>
-      <c r="AO28" s="4">
-        <f>AN28/AM28</f>
+      <c r="AU28" s="4">
+        <f>AT28/AS28</f>
         <v>4.0398816430082224E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>0</v>
       </c>
@@ -15677,96 +15927,97 @@
       <c r="D31" t="s">
         <v>1</v>
       </c>
-      <c r="F31" s="11" t="s">
+      <c r="G31" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G31" s="11"/>
-      <c r="H31" t="s">
+      <c r="H31" s="11"/>
+      <c r="I31" t="s">
         <v>10</v>
       </c>
-      <c r="I31" t="s">
+      <c r="J31" t="s">
         <v>11</v>
       </c>
-      <c r="J31" t="s">
+      <c r="L31" t="s">
         <v>12</v>
       </c>
-      <c r="K31" t="s">
+      <c r="M31" t="s">
         <v>13</v>
       </c>
-      <c r="M31" t="s">
+      <c r="O31" t="s">
         <v>25</v>
       </c>
-      <c r="N31" t="s">
+      <c r="P31" t="s">
         <v>26</v>
       </c>
-      <c r="O31" t="s">
+      <c r="S31" t="s">
         <v>27</v>
       </c>
-      <c r="P31" s="4" t="s">
+      <c r="T31" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T31" t="s">
+      <c r="X31" t="s">
         <v>23</v>
       </c>
-      <c r="U31" t="s">
+      <c r="Y31" t="s">
         <v>3</v>
       </c>
-      <c r="V31" t="s">
+      <c r="Z31" t="s">
         <v>24</v>
       </c>
-      <c r="W31" s="4" t="s">
+      <c r="AA31" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y31" t="s">
+      <c r="AC31" t="s">
         <v>21</v>
       </c>
-      <c r="Z31" t="s">
+      <c r="AE31" t="s">
         <v>4</v>
       </c>
-      <c r="AA31" t="s">
+      <c r="AF31" t="s">
         <v>15</v>
-      </c>
-      <c r="AB31" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD31" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE31" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF31" t="s">
-        <v>16</v>
       </c>
       <c r="AG31" t="s">
         <v>20</v>
       </c>
-      <c r="AI31" s="4" t="s">
+      <c r="AI31" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ31" s="6"/>
+      <c r="AK31" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM31" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO31" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ31" t="s">
+      <c r="AP31" t="s">
         <v>18</v>
       </c>
-      <c r="AK31" t="s">
+      <c r="AQ31" t="s">
         <v>20</v>
       </c>
-      <c r="AL31" s="2"/>
-      <c r="AM31" s="4" t="s">
+      <c r="AR31" s="2"/>
+      <c r="AS31" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN31" t="s">
+      <c r="AT31" t="s">
         <v>19</v>
       </c>
-      <c r="AO31" s="2" t="s">
+      <c r="AU31" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>295</v>
       </c>
       <c r="B32">
-        <f t="shared" ref="B32:B36" si="11">$B$1*A32+$B$2</f>
+        <f t="shared" ref="B32:B36" si="22">$B$1*A32+$B$2</f>
         <v>294.12127999999996</v>
       </c>
       <c r="C32">
@@ -15775,44 +16026,46 @@
       <c r="D32">
         <v>69.91</v>
       </c>
-      <c r="F32" s="11"/>
       <c r="G32" s="11"/>
-      <c r="H32" s="1"/>
+      <c r="H32" s="11"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
       <c r="K32" s="1"/>
-      <c r="M32" s="4" t="e">
-        <f>H32/SUM(H32:K32)</f>
+      <c r="L32" s="1"/>
+      <c r="M32" s="1"/>
+      <c r="O32" s="4" t="e">
+        <f>I32/SUM(I32:M32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N32" s="4" t="e">
-        <f>I32/SUM(H32:K32)</f>
+      <c r="P32" s="4" t="e">
+        <f>J32/SUM(I32:M32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O32" s="4" t="e">
-        <f>J32/SUM(H32:K32)</f>
+      <c r="Q32" s="4"/>
+      <c r="S32" s="4" t="e">
+        <f>L32/SUM(I32:M32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P32" s="4" t="e">
-        <f>K32/SUM(H32:K32)</f>
+      <c r="T32" s="4" t="e">
+        <f>M32/SUM(I32:M32)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T32">
-        <f>U32 * 1000*1000</f>
+      <c r="X32">
+        <f>Y32 * 1000*1000</f>
         <v>0</v>
       </c>
-      <c r="V32" s="3"/>
-      <c r="W32" s="4" t="e">
-        <f>V32/U32</f>
+      <c r="Z32" s="3"/>
+      <c r="AA32" s="4" t="e">
+        <f>Z32/Y32</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="33" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>290</v>
       </c>
       <c r="B33">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>291.25102999999996</v>
       </c>
       <c r="C33">
@@ -15821,105 +16074,126 @@
       <c r="D33">
         <v>69.73</v>
       </c>
-      <c r="F33" s="11">
-        <f>SUM(I33:J33)/SUM(H33:J33)</f>
+      <c r="F33" s="13">
+        <f t="shared" ref="F33:F36" si="23">1 - (1 - G33)^(1/4)</f>
+        <v>2.5527716900531239E-2</v>
+      </c>
+      <c r="G33" s="11">
+        <f>SUM(J33:L33)/SUM(I33:L33)</f>
         <v>9.8266998964940996E-2</v>
       </c>
-      <c r="G33" s="11">
-        <f t="shared" ref="G33:G36" si="12">SQRT(1 / H33 + 1 / (I33 + J33))*F33</f>
+      <c r="H33" s="11">
+        <f t="shared" ref="H33:H36" si="24">SQRT(1 / I33 + 1 / (J33 + L33))*G33</f>
         <v>7.9381793001705614E-4</v>
       </c>
-      <c r="H33" s="1">
+      <c r="I33" s="1">
         <v>155943</v>
       </c>
-      <c r="I33" s="1">
+      <c r="J33" s="1">
         <v>15358</v>
       </c>
-      <c r="J33" s="1">
+      <c r="K33" s="1"/>
+      <c r="L33" s="1">
         <v>1636</v>
       </c>
-      <c r="K33" s="1"/>
-      <c r="M33" s="4">
-        <f>H33/SUM(H33:K33)</f>
+      <c r="M33" s="1"/>
+      <c r="O33" s="4">
+        <f>I33/SUM(I33:M33)</f>
         <v>0.90173300103505905</v>
       </c>
-      <c r="N33" s="4">
-        <f>I33/SUM(H33:K33)</f>
+      <c r="P33" s="4">
+        <f>J33/SUM(I33:M33)</f>
         <v>8.8806906561348931E-2</v>
       </c>
-      <c r="O33" s="4">
-        <f>J33/SUM(H33:K33)</f>
+      <c r="Q33" s="4">
+        <f t="shared" ref="Q33:Q36" si="25">4*F33*(1 - F33)^6</f>
+        <v>8.7435724350878E-2</v>
+      </c>
+      <c r="R33" s="14">
+        <f t="shared" ref="R33:R36" si="26">P33/Q33</f>
+        <v>1.0156821736269765</v>
+      </c>
+      <c r="S33" s="4">
+        <f>L33/SUM(I33:M33)</f>
         <v>9.4600924035920589E-3</v>
       </c>
-      <c r="T33">
-        <f>U33 * 1000*1000</f>
+      <c r="X33">
+        <f>Y33 * 1000*1000</f>
         <v>230.48499999999999</v>
       </c>
-      <c r="U33">
+      <c r="Y33">
         <v>2.30485E-4</v>
       </c>
-      <c r="V33" s="3">
+      <c r="Z33" s="3">
         <v>6.5816499999999999E-7</v>
       </c>
-      <c r="W33" s="4">
-        <f>V33/U33</f>
+      <c r="AA33" s="4">
+        <f>Z33/Y33</f>
         <v>2.8555654380979238E-3</v>
       </c>
-      <c r="Y33">
-        <f>1/Z33</f>
+      <c r="AC33">
+        <f>1/AE33</f>
         <v>29.167954918008878</v>
       </c>
-      <c r="Z33">
+      <c r="AD33">
+        <f>AC33*AG33</f>
+        <v>1.4356566746501778</v>
+      </c>
+      <c r="AE33">
         <v>3.4284200000000001E-2</v>
       </c>
-      <c r="AA33">
+      <c r="AF33">
         <v>1.6874800000000001E-3</v>
-      </c>
-      <c r="AB33" s="4">
-        <f>AA33/Z33</f>
-        <v>4.9220340565041626E-2</v>
-      </c>
-      <c r="AD33">
-        <f>1/AE33</f>
-        <v>139.9999440000224</v>
-      </c>
-      <c r="AE33">
-        <v>7.14286E-3</v>
-      </c>
-      <c r="AF33">
-        <v>1.0491000000000001E-3</v>
       </c>
       <c r="AG33" s="4">
         <f>AF33/AE33</f>
+        <v>4.9220340565041626E-2</v>
+      </c>
+      <c r="AI33">
+        <f>1/AK33</f>
+        <v>139.9999440000224</v>
+      </c>
+      <c r="AJ33">
+        <f t="shared" ref="AJ33:AJ36" si="27">AI33*AM33</f>
+        <v>20.562343550121874</v>
+      </c>
+      <c r="AK33">
+        <v>7.14286E-3</v>
+      </c>
+      <c r="AL33">
+        <v>1.0491000000000001E-3</v>
+      </c>
+      <c r="AM33" s="4">
+        <f>AL33/AK33</f>
         <v>0.14687394125042352</v>
       </c>
-      <c r="AI33" s="4">
+      <c r="AO33" s="4">
         <v>0.12864900000000001</v>
       </c>
-      <c r="AJ33">
+      <c r="AP33">
         <v>2.1858400000000001E-3</v>
       </c>
-      <c r="AK33" s="4">
-        <f>AJ33/AI33</f>
+      <c r="AQ33" s="4">
+        <f>AP33/AO33</f>
         <v>1.699072670599849E-2</v>
       </c>
-      <c r="AM33" s="4">
+      <c r="AS33" s="4">
         <v>6.4870300000000006E-2</v>
       </c>
-      <c r="AN33">
+      <c r="AT33">
         <v>2.3961799999999999E-3</v>
       </c>
-      <c r="AO33" s="4">
-        <f>AN33/AM33</f>
+      <c r="AU33" s="4">
+        <f>AT33/AS33</f>
         <v>3.6938013235640957E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>285</v>
       </c>
       <c r="B34">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>288.38077999999996</v>
       </c>
       <c r="C34">
@@ -15928,105 +16202,126 @@
       <c r="D34">
         <v>69.55</v>
       </c>
-      <c r="F34" s="11">
-        <f>SUM(I34:J34)/SUM(H34:J34)</f>
+      <c r="F34" s="13">
+        <f t="shared" si="23"/>
+        <v>2.6207342125056821E-2</v>
+      </c>
+      <c r="G34" s="11">
+        <f>SUM(J34:L34)/SUM(I34:L34)</f>
         <v>0.1007799474924784</v>
       </c>
-      <c r="G34" s="11">
-        <f t="shared" si="12"/>
+      <c r="H34" s="11">
+        <f t="shared" si="24"/>
         <v>8.4611408261945807E-4</v>
       </c>
-      <c r="H34" s="1">
+      <c r="I34" s="1">
         <v>140772</v>
       </c>
-      <c r="I34" s="1">
+      <c r="J34" s="1">
         <v>14234</v>
       </c>
-      <c r="J34" s="1">
+      <c r="K34" s="1"/>
+      <c r="L34" s="1">
         <v>1543</v>
       </c>
-      <c r="K34" s="1"/>
-      <c r="M34" s="4">
-        <f>H34/SUM(H34:K34)</f>
+      <c r="M34" s="1"/>
+      <c r="O34" s="4">
+        <f>I34/SUM(I34:M34)</f>
         <v>0.89922005250752157</v>
       </c>
-      <c r="N34" s="4">
-        <f>I34/SUM(H34:K34)</f>
+      <c r="P34" s="4">
+        <f>J34/SUM(I34:M34)</f>
         <v>9.0923608582616305E-2</v>
       </c>
-      <c r="O34" s="4">
-        <f>J34/SUM(H34:K34)</f>
+      <c r="Q34" s="4">
+        <f t="shared" si="25"/>
+        <v>8.9388560631684641E-2</v>
+      </c>
+      <c r="R34" s="14">
+        <f t="shared" si="26"/>
+        <v>1.0171727561120114</v>
+      </c>
+      <c r="S34" s="4">
+        <f>L34/SUM(I34:M34)</f>
         <v>9.8563389098620877E-3</v>
       </c>
-      <c r="T34">
-        <f>U34 * 1000*1000</f>
+      <c r="X34">
+        <f>Y34 * 1000*1000</f>
         <v>192.37</v>
       </c>
-      <c r="U34">
+      <c r="Y34">
         <v>1.9237E-4</v>
       </c>
-      <c r="V34" s="3">
+      <c r="Z34" s="3">
         <v>6.1442899999999995E-7</v>
       </c>
-      <c r="W34" s="4">
-        <f>V34/U34</f>
+      <c r="AA34" s="4">
+        <f>Z34/Y34</f>
         <v>3.1939959453137182E-3</v>
       </c>
-      <c r="Y34">
-        <f>1/Z34</f>
+      <c r="AC34">
+        <f>1/AE34</f>
         <v>35.598970477773783</v>
       </c>
-      <c r="Z34">
+      <c r="AD34">
+        <f t="shared" ref="AD34:AD36" si="28">AC34*AG34</f>
+        <v>2.2514235309799533</v>
+      </c>
+      <c r="AE34">
         <v>2.80907E-2</v>
       </c>
-      <c r="AA34">
+      <c r="AF34">
         <v>1.7765700000000001E-3</v>
-      </c>
-      <c r="AB34" s="4">
-        <f>AA34/Z34</f>
-        <v>6.3244062981698573E-2</v>
-      </c>
-      <c r="AD34">
-        <f>1/AE34</f>
-        <v>159.35086830288139</v>
-      </c>
-      <c r="AE34">
-        <v>6.2754600000000001E-3</v>
-      </c>
-      <c r="AF34">
-        <v>2.1557400000000001E-4</v>
       </c>
       <c r="AG34" s="4">
         <f>AF34/AE34</f>
+        <v>6.3244062981698573E-2</v>
+      </c>
+      <c r="AI34">
+        <f>1/AK34</f>
+        <v>159.35086830288139</v>
+      </c>
+      <c r="AJ34">
+        <f t="shared" si="27"/>
+        <v>5.4740057435670613</v>
+      </c>
+      <c r="AK34">
+        <v>6.2754600000000001E-3</v>
+      </c>
+      <c r="AL34">
+        <v>2.1557400000000001E-4</v>
+      </c>
+      <c r="AM34" s="4">
+        <f>AL34/AK34</f>
         <v>3.4351904083525349E-2</v>
       </c>
-      <c r="AI34" s="4">
+      <c r="AO34" s="4">
         <v>0.12709699999999999</v>
       </c>
-      <c r="AJ34">
+      <c r="AP34">
         <v>3.4178899999999998E-3</v>
       </c>
-      <c r="AK34" s="4">
-        <f>AJ34/AI34</f>
+      <c r="AQ34" s="4">
+        <f>AP34/AO34</f>
         <v>2.6891980141152034E-2</v>
       </c>
-      <c r="AM34" s="4">
+      <c r="AS34" s="4">
         <v>7.1775900000000004E-2</v>
       </c>
-      <c r="AN34">
+      <c r="AT34">
         <v>3.4483000000000001E-3</v>
       </c>
-      <c r="AO34" s="4">
-        <f>AN34/AM34</f>
+      <c r="AU34" s="4">
+        <f>AT34/AS34</f>
         <v>4.80425881110512E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>280</v>
       </c>
       <c r="B35">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>285.51052999999996</v>
       </c>
       <c r="C35">
@@ -16035,105 +16330,127 @@
       <c r="D35" s="8">
         <v>69.349999999999994</v>
       </c>
-      <c r="F35" s="11">
-        <f>SUM(I35:J35)/SUM(H35:J35)</f>
+      <c r="E35" s="8"/>
+      <c r="F35" s="13">
+        <f t="shared" si="23"/>
+        <v>2.5730719112492362E-2</v>
+      </c>
+      <c r="G35" s="11">
+        <f>SUM(J35:L35)/SUM(I35:L35)</f>
         <v>9.9018160816274139E-2</v>
       </c>
-      <c r="G35" s="11">
-        <f t="shared" si="12"/>
+      <c r="H35" s="11">
+        <f t="shared" si="24"/>
         <v>1.0037483717627558E-3</v>
       </c>
-      <c r="H35" s="1">
+      <c r="I35" s="1">
         <v>98280</v>
       </c>
-      <c r="I35" s="1">
+      <c r="J35" s="1">
         <v>9723</v>
       </c>
-      <c r="J35" s="1">
+      <c r="K35" s="1"/>
+      <c r="L35" s="1">
         <v>1078</v>
       </c>
-      <c r="K35" s="1"/>
-      <c r="M35" s="4">
-        <f>H35/SUM(H35:K35)</f>
+      <c r="M35" s="1"/>
+      <c r="O35" s="4">
+        <f>I35/SUM(I35:M35)</f>
         <v>0.90098183918372587</v>
       </c>
-      <c r="N35" s="4">
-        <f>I35/SUM(H35:K35)</f>
+      <c r="P35" s="4">
+        <f>J35/SUM(I35:M35)</f>
         <v>8.9135596483347235E-2</v>
       </c>
-      <c r="O35" s="4">
-        <f>J35/SUM(H35:K35)</f>
+      <c r="Q35" s="4">
+        <f t="shared" si="25"/>
+        <v>8.8020933654882186E-2</v>
+      </c>
+      <c r="R35" s="14">
+        <f t="shared" si="26"/>
+        <v>1.012663610600127</v>
+      </c>
+      <c r="S35" s="4">
+        <f>L35/SUM(I35:M35)</f>
         <v>9.8825643329269082E-3</v>
       </c>
-      <c r="T35">
-        <f>U35 * 1000*1000</f>
+      <c r="X35">
+        <f>Y35 * 1000*1000</f>
         <v>133.994</v>
       </c>
-      <c r="U35">
+      <c r="Y35">
         <v>1.3399399999999999E-4</v>
       </c>
-      <c r="V35" s="3">
+      <c r="Z35" s="3">
         <v>5.7796600000000003E-7</v>
       </c>
-      <c r="W35" s="4">
-        <f>V35/U35</f>
+      <c r="AA35" s="4">
+        <f>Z35/Y35</f>
         <v>4.3133722405480851E-3</v>
       </c>
-      <c r="Y35">
-        <f>1/Z35</f>
+      <c r="AC35">
+        <f>1/AE35</f>
         <v>38.8648358737981</v>
       </c>
-      <c r="Z35">
+      <c r="AD35">
+        <f>AC35*AG35</f>
+        <v>2.6993102889456604</v>
+      </c>
+      <c r="AE35">
         <v>2.5730200000000002E-2</v>
       </c>
-      <c r="AA35">
+      <c r="AF35">
         <v>1.78706E-3</v>
-      </c>
-      <c r="AB35" s="4">
-        <f>AA35/Z35</f>
-        <v>6.9453793596629634E-2</v>
-      </c>
-      <c r="AD35">
-        <f>1/AE35</f>
-        <v>165.24282433035344</v>
-      </c>
-      <c r="AE35">
-        <v>6.0517000000000001E-3</v>
-      </c>
-      <c r="AF35">
-        <v>2.4939E-4</v>
       </c>
       <c r="AG35" s="4">
         <f>AF35/AE35</f>
+        <v>6.9453793596629634E-2</v>
+      </c>
+      <c r="AI35">
+        <f>1/AK35</f>
+        <v>165.24282433035344</v>
+      </c>
+      <c r="AJ35">
+        <f t="shared" si="27"/>
+        <v>6.8096415816624827</v>
+      </c>
+      <c r="AK35">
+        <v>6.0517000000000001E-3</v>
+      </c>
+      <c r="AL35">
+        <v>2.4939E-4</v>
+      </c>
+      <c r="AM35" s="4">
+        <f>AL35/AK35</f>
         <v>4.1209907959746848E-2</v>
       </c>
-      <c r="AI35" s="4">
+      <c r="AO35" s="4">
         <v>0.12050900000000001</v>
       </c>
-      <c r="AJ35">
+      <c r="AP35">
         <v>4.3524100000000001E-3</v>
       </c>
-      <c r="AK35" s="4">
-        <f>AJ35/AI35</f>
+      <c r="AQ35" s="4">
+        <f>AP35/AO35</f>
         <v>3.6116887535370804E-2</v>
       </c>
-      <c r="AM35" s="4">
+      <c r="AS35" s="4">
         <v>7.8966499999999995E-2</v>
       </c>
-      <c r="AN35">
+      <c r="AT35">
         <v>4.2372299999999998E-3</v>
       </c>
-      <c r="AO35" s="4">
-        <f>AN35/AM35</f>
+      <c r="AU35" s="4">
+        <f>AT35/AS35</f>
         <v>5.3658576738237103E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>275</v>
       </c>
       <c r="B36">
-        <f t="shared" si="11"/>
+        <f t="shared" si="22"/>
         <v>282.64027999999996</v>
       </c>
       <c r="C36">
@@ -16142,99 +16459,120 @@
       <c r="D36">
         <v>69.2</v>
       </c>
-      <c r="F36" s="11">
-        <f>SUM(I36:J36)/SUM(H36:J36)</f>
+      <c r="F36" s="13">
+        <f t="shared" si="23"/>
+        <v>2.7189360576689081E-2</v>
+      </c>
+      <c r="G36" s="11">
+        <f>SUM(J36:L36)/SUM(I36:L36)</f>
         <v>0.10440172799932068</v>
       </c>
-      <c r="G36" s="11">
-        <f t="shared" si="12"/>
+      <c r="H36" s="11">
+        <f t="shared" si="24"/>
         <v>1.1123508817600337E-3</v>
       </c>
-      <c r="H36" s="1">
+      <c r="I36" s="1">
         <v>84377</v>
       </c>
-      <c r="I36" s="1">
+      <c r="J36" s="1">
         <v>8844</v>
       </c>
-      <c r="J36" s="1">
+      <c r="K36" s="1"/>
+      <c r="L36" s="1">
         <v>992</v>
       </c>
-      <c r="M36" s="4">
-        <f>H36/SUM(H36:K36)</f>
+      <c r="O36" s="4">
+        <f>I36/SUM(I36:M36)</f>
         <v>0.89559827200067932</v>
       </c>
-      <c r="N36" s="4">
-        <f>I36/SUM(H36:K36)</f>
+      <c r="P36" s="4">
+        <f>J36/SUM(I36:M36)</f>
         <v>9.3872395529279395E-2</v>
       </c>
-      <c r="O36" s="4">
-        <f>J36/SUM(H36:K36)</f>
+      <c r="Q36" s="4">
+        <f t="shared" si="25"/>
+        <v>9.2178334304233625E-2</v>
+      </c>
+      <c r="R36" s="14">
+        <f t="shared" si="26"/>
+        <v>1.0183780845882346</v>
+      </c>
+      <c r="S36" s="4">
+        <f>L36/SUM(I36:M36)</f>
         <v>1.0529332470041289E-2</v>
       </c>
-      <c r="T36">
-        <f>U36 * 1000*1000</f>
+      <c r="X36">
+        <f>Y36 * 1000*1000</f>
         <v>114.9</v>
       </c>
-      <c r="U36">
+      <c r="Y36">
         <v>1.149E-4</v>
       </c>
-      <c r="V36" s="3">
+      <c r="Z36" s="3">
         <v>5.85997E-7</v>
       </c>
-      <c r="W36" s="4">
-        <f>V36/U36</f>
+      <c r="AA36" s="4">
+        <f>Z36/Y36</f>
         <v>5.1000609225413402E-3</v>
       </c>
-      <c r="Y36">
-        <f>1/Z36</f>
+      <c r="AC36">
+        <f>1/AE36</f>
         <v>40.954904554594933</v>
       </c>
-      <c r="Z36">
+      <c r="AD36">
+        <f t="shared" si="28"/>
+        <v>2.6655718458851489</v>
+      </c>
+      <c r="AE36">
         <v>2.4417100000000001E-2</v>
       </c>
-      <c r="AA36">
+      <c r="AF36">
         <v>1.5892E-3</v>
-      </c>
-      <c r="AB36" s="4">
-        <f>AA36/Z36</f>
-        <v>6.5085534318162275E-2</v>
-      </c>
-      <c r="AD36">
-        <f>1/AE36</f>
-        <v>168.78064423571905</v>
-      </c>
-      <c r="AE36">
-        <v>5.9248499999999997E-3</v>
-      </c>
-      <c r="AF36">
-        <v>2.2486699999999999E-4</v>
       </c>
       <c r="AG36" s="4">
         <f>AF36/AE36</f>
+        <v>6.5085534318162275E-2</v>
+      </c>
+      <c r="AI36">
+        <f>1/AK36</f>
+        <v>168.78064423571905</v>
+      </c>
+      <c r="AJ36">
+        <f t="shared" si="27"/>
+        <v>6.4057650619599542</v>
+      </c>
+      <c r="AK36">
+        <v>5.9248499999999997E-3</v>
+      </c>
+      <c r="AL36">
+        <v>2.2486699999999999E-4</v>
+      </c>
+      <c r="AM36" s="4">
+        <f>AL36/AK36</f>
         <v>3.7953197127353434E-2</v>
       </c>
-      <c r="AI36" s="4">
+      <c r="AO36" s="4">
         <v>0.12959899999999999</v>
       </c>
-      <c r="AJ36">
+      <c r="AP36">
         <v>4.4541499999999996E-3</v>
       </c>
-      <c r="AK36" s="4">
-        <f>AJ36/AI36</f>
+      <c r="AQ36" s="4">
+        <f>AP36/AO36</f>
         <v>3.4368706548661643E-2</v>
       </c>
-      <c r="AM36" s="4">
+      <c r="AS36" s="4">
         <v>8.2481200000000005E-2</v>
       </c>
-      <c r="AN36">
+      <c r="AT36">
         <v>4.4689600000000001E-3</v>
       </c>
-      <c r="AO36" s="4">
-        <f>AN36/AM36</f>
+      <c r="AU36" s="4">
+        <f>AT36/AS36</f>
         <v>5.4181558949190842E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>0</v>
       </c>
@@ -16244,91 +16582,92 @@
       <c r="D38" t="s">
         <v>1</v>
       </c>
-      <c r="F38" s="11" t="s">
+      <c r="G38" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G38" s="11"/>
-      <c r="H38" t="s">
+      <c r="H38" s="11"/>
+      <c r="I38" t="s">
         <v>10</v>
       </c>
-      <c r="I38" t="s">
+      <c r="J38" t="s">
         <v>11</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>12</v>
       </c>
-      <c r="K38" t="s">
+      <c r="M38" t="s">
         <v>13</v>
       </c>
-      <c r="M38" t="s">
+      <c r="O38" t="s">
         <v>25</v>
       </c>
-      <c r="N38" t="s">
+      <c r="P38" t="s">
         <v>26</v>
       </c>
-      <c r="O38" t="s">
+      <c r="S38" t="s">
         <v>27</v>
       </c>
-      <c r="P38" s="4" t="s">
+      <c r="T38" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T38" t="s">
+      <c r="X38" t="s">
         <v>23</v>
       </c>
-      <c r="U38" t="s">
+      <c r="Y38" t="s">
         <v>3</v>
       </c>
-      <c r="V38" t="s">
+      <c r="Z38" t="s">
         <v>24</v>
       </c>
-      <c r="W38" s="4" t="s">
+      <c r="AA38" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y38" t="s">
+      <c r="AC38" t="s">
         <v>21</v>
       </c>
-      <c r="Z38" t="s">
+      <c r="AE38" t="s">
         <v>4</v>
       </c>
-      <c r="AA38" t="s">
+      <c r="AF38" t="s">
         <v>15</v>
-      </c>
-      <c r="AB38" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD38" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE38" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF38" t="s">
-        <v>16</v>
       </c>
       <c r="AG38" t="s">
         <v>20</v>
       </c>
-      <c r="AI38" s="4" t="s">
+      <c r="AI38" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ38" s="6"/>
+      <c r="AK38" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL38" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM38" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO38" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ38" t="s">
+      <c r="AP38" t="s">
         <v>18</v>
       </c>
-      <c r="AK38" t="s">
+      <c r="AQ38" t="s">
         <v>20</v>
       </c>
-      <c r="AL38" s="2"/>
-      <c r="AM38" s="4" t="s">
+      <c r="AR38" s="2"/>
+      <c r="AS38" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN38" t="s">
+      <c r="AT38" t="s">
         <v>19</v>
       </c>
-      <c r="AO38" s="2" t="s">
+      <c r="AU38" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>295</v>
       </c>
@@ -16338,39 +16677,41 @@
       <c r="D39">
         <v>70.010000000000005</v>
       </c>
-      <c r="F39" s="11"/>
       <c r="G39" s="11"/>
-      <c r="H39" s="1"/>
+      <c r="H39" s="11"/>
       <c r="I39" s="1"/>
       <c r="J39" s="1"/>
       <c r="K39" s="1"/>
-      <c r="M39" s="4" t="e">
-        <f>H39/SUM(H39:K39)</f>
+      <c r="L39" s="1"/>
+      <c r="M39" s="1"/>
+      <c r="O39" s="4" t="e">
+        <f>I39/SUM(I39:M39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N39" s="4" t="e">
-        <f>I39/SUM(H39:K39)</f>
+      <c r="P39" s="4" t="e">
+        <f>J39/SUM(I39:M39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O39" s="4" t="e">
-        <f>J39/SUM(H39:K39)</f>
+      <c r="Q39" s="4"/>
+      <c r="S39" s="4" t="e">
+        <f>L39/SUM(I39:M39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P39" s="4" t="e">
-        <f>K39/SUM(H39:K39)</f>
+      <c r="T39" s="4" t="e">
+        <f>M39/SUM(I39:M39)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T39">
-        <f t="shared" ref="T39:T44" si="13">U39 * 1000*1000</f>
+      <c r="X39">
+        <f t="shared" ref="X39:X44" si="29">Y39 * 1000*1000</f>
         <v>0</v>
       </c>
-      <c r="V39" s="3"/>
-      <c r="W39" s="4" t="e">
-        <f t="shared" ref="W39:W44" si="14">V39/U39</f>
+      <c r="Z39" s="3"/>
+      <c r="AA39" s="4" t="e">
+        <f t="shared" ref="AA39:AA44" si="30">Z39/Y39</f>
         <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="40" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>293</v>
       </c>
@@ -16384,105 +16725,126 @@
       <c r="D40">
         <v>69.94</v>
       </c>
-      <c r="F40" s="11">
-        <f>SUM(I40:J40)/SUM(H40:J40)</f>
+      <c r="F40" s="13">
+        <f>1 - (1 - G40)^(1/4)</f>
+        <v>2.8266980095629224E-2</v>
+      </c>
+      <c r="G40" s="11">
+        <f>SUM(J40:L40)/SUM(I40:L40)</f>
         <v>0.10836349273813051</v>
       </c>
-      <c r="G40" s="11">
-        <f t="shared" ref="G40:G44" si="15">SQRT(1 / H40 + 1 / (I40 + J40))*F40</f>
+      <c r="H40" s="11">
+        <f t="shared" ref="H40:H44" si="31">SQRT(1 / I40 + 1 / (J40 + L40))*G40</f>
         <v>7.2233023744660988E-4</v>
       </c>
-      <c r="H40" s="1">
+      <c r="I40" s="1">
         <v>207688</v>
       </c>
-      <c r="I40" s="1">
+      <c r="J40" s="1">
         <v>23884</v>
       </c>
-      <c r="J40" s="1">
+      <c r="K40" s="1"/>
+      <c r="L40" s="1">
         <v>1357</v>
       </c>
-      <c r="K40" s="1"/>
-      <c r="M40" s="4">
-        <f t="shared" ref="M40:M42" si="16">H40/SUM(H40:K40)</f>
+      <c r="M40" s="1"/>
+      <c r="O40" s="4">
+        <f t="shared" ref="O40:O42" si="32">I40/SUM(I40:M40)</f>
         <v>0.89163650726186949</v>
       </c>
-      <c r="N40" s="4">
-        <f t="shared" ref="N40:N42" si="17">I40/SUM(H40:K40)</f>
+      <c r="P40" s="4">
+        <f t="shared" ref="P40:P42" si="33">J40/SUM(I40:M40)</f>
         <v>0.10253768315667006</v>
       </c>
-      <c r="O40" s="4">
-        <f t="shared" ref="O40:O42" si="18">J40/SUM(H40:K40)</f>
+      <c r="Q40" s="4">
+        <f>4*F40*(1 - F40)^6</f>
+        <v>9.5196540770361576E-2</v>
+      </c>
+      <c r="R40" s="14">
+        <f t="shared" ref="R40:R44" si="34">P40/Q40</f>
+        <v>1.0771156423006714</v>
+      </c>
+      <c r="S40" s="4">
+        <f t="shared" ref="S40:S42" si="35">L40/SUM(I40:M40)</f>
         <v>5.8258095814604453E-3</v>
       </c>
-      <c r="T40">
-        <f t="shared" si="13"/>
+      <c r="X40">
+        <f t="shared" si="29"/>
         <v>312.38099999999997</v>
       </c>
-      <c r="U40">
+      <c r="Y40">
         <v>3.1238099999999998E-4</v>
       </c>
-      <c r="V40" s="3">
+      <c r="Z40" s="3">
         <v>8.5654100000000005E-7</v>
       </c>
-      <c r="W40" s="4">
-        <f t="shared" si="14"/>
+      <c r="AA40" s="4">
+        <f t="shared" si="30"/>
         <v>2.7419753442110761E-3</v>
       </c>
-      <c r="Y40">
-        <f>1/Z40</f>
+      <c r="AC40">
+        <f>1/AE40</f>
         <v>34.159772086000643</v>
       </c>
-      <c r="Z40">
+      <c r="AD40">
+        <f t="shared" ref="AD40:AD44" si="36">AC40*AG40</f>
+        <v>1.3553894442469201</v>
+      </c>
+      <c r="AE40">
         <v>2.92742E-2</v>
       </c>
-      <c r="AA40">
+      <c r="AF40">
         <v>1.16154E-3</v>
-      </c>
-      <c r="AB40" s="4">
-        <f>AA40/Z40</f>
-        <v>3.9677941668773184E-2</v>
-      </c>
-      <c r="AD40">
-        <f>1/AE40</f>
-        <v>173.25947859292512</v>
-      </c>
-      <c r="AE40">
-        <v>5.7716900000000003E-3</v>
-      </c>
-      <c r="AF40">
-        <v>1.6571399999999999E-4</v>
       </c>
       <c r="AG40" s="4">
         <f>AF40/AE40</f>
+        <v>3.9677941668773184E-2</v>
+      </c>
+      <c r="AI40">
+        <f>1/AK40</f>
+        <v>173.25947859292512</v>
+      </c>
+      <c r="AJ40">
+        <f t="shared" ref="AJ40:AJ44" si="37">AI40*AM40</f>
+        <v>4.9745431988807418</v>
+      </c>
+      <c r="AK40">
+        <v>5.7716900000000003E-3</v>
+      </c>
+      <c r="AL40">
+        <v>1.6571399999999999E-4</v>
+      </c>
+      <c r="AM40" s="4">
+        <f>AL40/AK40</f>
         <v>2.8711521235547991E-2</v>
       </c>
-      <c r="AI40" s="4">
+      <c r="AO40" s="4">
         <v>0.138381</v>
       </c>
-      <c r="AJ40">
+      <c r="AP40">
         <v>2.6224E-3</v>
       </c>
-      <c r="AK40" s="4">
-        <f>AJ40/AI40</f>
+      <c r="AQ40" s="4">
+        <f>AP40/AO40</f>
         <v>1.8950578475368726E-2</v>
       </c>
-      <c r="AM40" s="4">
+      <c r="AS40" s="4">
         <v>9.3510800000000005E-2</v>
       </c>
-      <c r="AN40">
+      <c r="AT40">
         <v>2.6658900000000002E-3</v>
       </c>
-      <c r="AO40" s="4">
-        <f>AN40/AM40</f>
+      <c r="AU40" s="4">
+        <f>AT40/AS40</f>
         <v>2.8508899506794937E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>290</v>
       </c>
       <c r="B41">
-        <f t="shared" ref="B41:B44" si="19">$B$1*A41+$B$2</f>
+        <f t="shared" ref="B41:B44" si="38">$B$1*A41+$B$2</f>
         <v>291.25102999999996</v>
       </c>
       <c r="C41">
@@ -16491,105 +16853,126 @@
       <c r="D41">
         <v>69.83</v>
       </c>
-      <c r="F41" s="11">
-        <f>SUM(I41:J41)/SUM(H41:J41)</f>
+      <c r="F41" s="13">
+        <f>1 - (1 - G41)^(1/4)</f>
+        <v>2.8696368388427262E-2</v>
+      </c>
+      <c r="G41" s="11">
+        <f>SUM(J41:L41)/SUM(I41:L41)</f>
         <v>0.10993842980040196</v>
       </c>
-      <c r="G41" s="11">
-        <f t="shared" si="15"/>
+      <c r="H41" s="11">
+        <f t="shared" si="31"/>
         <v>8.1039311176724527E-4</v>
       </c>
-      <c r="H41" s="1">
+      <c r="I41" s="1">
         <v>167401</v>
       </c>
-      <c r="I41" s="1">
+      <c r="J41" s="1">
         <v>19386</v>
       </c>
-      <c r="J41" s="1">
+      <c r="K41" s="1"/>
+      <c r="L41" s="1">
         <v>1291</v>
       </c>
-      <c r="K41" s="1"/>
-      <c r="M41" s="4">
-        <f t="shared" si="16"/>
+      <c r="M41" s="1"/>
+      <c r="O41" s="4">
+        <f t="shared" si="32"/>
         <v>0.89006157019959808</v>
       </c>
-      <c r="N41" s="4">
-        <f t="shared" si="17"/>
+      <c r="P41" s="4">
+        <f t="shared" si="33"/>
         <v>0.10307425642552558</v>
       </c>
-      <c r="O41" s="4">
-        <f t="shared" si="18"/>
+      <c r="Q41" s="4">
+        <f t="shared" ref="Q41:Q44" si="39">4*F41*(1 - F41)^6</f>
+        <v>9.6386676445341088E-2</v>
+      </c>
+      <c r="R41" s="14">
+        <f t="shared" si="34"/>
+        <v>1.0693828257889655</v>
+      </c>
+      <c r="S41" s="4">
+        <f t="shared" si="35"/>
         <v>6.8641733748763811E-3</v>
       </c>
-      <c r="T41">
-        <f t="shared" si="13"/>
+      <c r="X41">
+        <f t="shared" si="29"/>
         <v>255.33799999999997</v>
       </c>
-      <c r="U41">
+      <c r="Y41">
         <v>2.5533799999999997E-4</v>
       </c>
-      <c r="V41" s="3">
+      <c r="Z41" s="3">
         <v>7.3885199999999998E-7</v>
       </c>
-      <c r="W41" s="4">
-        <f t="shared" si="14"/>
+      <c r="AA41" s="4">
+        <f t="shared" si="30"/>
         <v>2.8936233541423527E-3</v>
       </c>
-      <c r="Y41">
-        <f>1/Z41</f>
+      <c r="AC41">
+        <f>1/AE41</f>
         <v>35.078857271145537</v>
       </c>
-      <c r="Z41">
+      <c r="AD41">
+        <f t="shared" si="36"/>
+        <v>1.623839325529052</v>
+      </c>
+      <c r="AE41">
         <v>2.85072E-2</v>
       </c>
-      <c r="AA41">
+      <c r="AF41">
         <v>1.31963E-3</v>
-      </c>
-      <c r="AB41" s="4">
-        <f>AA41/Z41</f>
-        <v>4.6291112420721786E-2</v>
-      </c>
-      <c r="AD41">
-        <f>1/AE41</f>
-        <v>164.82610845557934</v>
-      </c>
-      <c r="AE41">
-        <v>6.0670000000000003E-3</v>
-      </c>
-      <c r="AF41">
-        <v>2.0204199999999999E-4</v>
       </c>
       <c r="AG41" s="4">
         <f>AF41/AE41</f>
+        <v>4.6291112420721786E-2</v>
+      </c>
+      <c r="AI41">
+        <f>1/AK41</f>
+        <v>164.82610845557934</v>
+      </c>
+      <c r="AJ41">
+        <f t="shared" si="37"/>
+        <v>5.4890055389125036</v>
+      </c>
+      <c r="AK41">
+        <v>6.0670000000000003E-3</v>
+      </c>
+      <c r="AL41">
+        <v>2.0204199999999999E-4</v>
+      </c>
+      <c r="AM41" s="4">
+        <f>AL41/AK41</f>
         <v>3.3301796604582164E-2</v>
       </c>
-      <c r="AI41" s="4">
+      <c r="AO41" s="4">
         <v>0.136215</v>
       </c>
-      <c r="AJ41">
+      <c r="AP41">
         <v>3.25261E-3</v>
       </c>
-      <c r="AK41" s="4">
-        <f>AJ41/AI41</f>
+      <c r="AQ41" s="4">
+        <f>AP41/AO41</f>
         <v>2.3878500899313586E-2</v>
       </c>
-      <c r="AM41" s="4">
+      <c r="AS41" s="4">
         <v>9.7086699999999998E-2</v>
       </c>
-      <c r="AN41">
+      <c r="AT41">
         <v>3.2228399999999998E-3</v>
       </c>
-      <c r="AO41" s="4">
-        <f>AN41/AM41</f>
+      <c r="AU41" s="4">
+        <f>AT41/AS41</f>
         <v>3.3195484036433416E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>288</v>
       </c>
       <c r="B42">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>290.10292999999996</v>
       </c>
       <c r="C42">
@@ -16599,105 +16982,126 @@
         <f>68.75+1</f>
         <v>69.75</v>
       </c>
-      <c r="F42" s="11">
-        <f>SUM(I42:J42)/SUM(H42:J42)</f>
+      <c r="F42" s="13">
+        <f t="shared" ref="F42:F44" si="40">1 - (1 - G42)^(1/4)</f>
+        <v>2.8968494678406342E-2</v>
+      </c>
+      <c r="G42" s="11">
+        <f>SUM(J42:L42)/SUM(I42:L42)</f>
         <v>0.11093547079114538</v>
       </c>
-      <c r="G42" s="11">
-        <f t="shared" si="15"/>
+      <c r="H42" s="11">
+        <f t="shared" si="31"/>
         <v>8.5629971224711148E-4</v>
       </c>
-      <c r="H42" s="1">
+      <c r="I42" s="1">
         <v>151293</v>
       </c>
-      <c r="I42" s="1">
+      <c r="J42" s="1">
         <v>17867</v>
       </c>
-      <c r="J42" s="1">
+      <c r="K42" s="1"/>
+      <c r="L42" s="1">
         <v>1011</v>
       </c>
-      <c r="K42" s="1"/>
-      <c r="M42" s="4">
-        <f t="shared" si="16"/>
+      <c r="M42" s="1"/>
+      <c r="O42" s="4">
+        <f t="shared" si="32"/>
         <v>0.88906452920885459</v>
       </c>
-      <c r="N42" s="4">
-        <f t="shared" si="17"/>
+      <c r="P42" s="4">
+        <f t="shared" si="33"/>
         <v>0.104994387997955</v>
       </c>
-      <c r="O42" s="4">
-        <f t="shared" si="18"/>
+      <c r="Q42" s="4">
+        <f t="shared" si="39"/>
+        <v>9.7137259089361661E-2</v>
+      </c>
+      <c r="R42" s="14">
+        <f t="shared" si="34"/>
+        <v>1.0808868706225812</v>
+      </c>
+      <c r="S42" s="4">
+        <f t="shared" si="35"/>
         <v>5.9410827931903791E-3</v>
       </c>
-      <c r="T42">
-        <f t="shared" si="13"/>
+      <c r="X42">
+        <f t="shared" si="29"/>
         <v>224.72900000000001</v>
       </c>
-      <c r="U42">
+      <c r="Y42">
         <v>2.2472900000000001E-4</v>
       </c>
-      <c r="V42" s="3">
+      <c r="Z42" s="3">
         <v>6.9275899999999999E-7</v>
       </c>
-      <c r="W42" s="4">
-        <f t="shared" si="14"/>
+      <c r="AA42" s="4">
+        <f t="shared" si="30"/>
         <v>3.082641759630488E-3</v>
       </c>
-      <c r="Y42">
-        <f>1/Z42</f>
+      <c r="AC42">
+        <f>1/AE42</f>
         <v>33.699080689078805</v>
       </c>
-      <c r="Z42">
+      <c r="AD42">
+        <f t="shared" si="36"/>
+        <v>1.6602768371601893</v>
+      </c>
+      <c r="AE42">
         <v>2.96744E-2</v>
       </c>
-      <c r="AA42">
+      <c r="AF42">
         <v>1.46199E-3</v>
-      </c>
-      <c r="AB42" s="4">
-        <f>AA42/Z42</f>
-        <v>4.9267718976626317E-2</v>
-      </c>
-      <c r="AD42">
-        <f>1/AE42</f>
-        <v>165.19068787054337</v>
-      </c>
-      <c r="AE42">
-        <v>6.0536100000000001E-3</v>
-      </c>
-      <c r="AF42">
-        <v>1.7895199999999999E-4</v>
       </c>
       <c r="AG42" s="4">
         <f>AF42/AE42</f>
+        <v>4.9267718976626317E-2</v>
+      </c>
+      <c r="AI42">
+        <f>1/AK42</f>
+        <v>165.19068787054337</v>
+      </c>
+      <c r="AJ42">
+        <f t="shared" si="37"/>
+        <v>4.8832356190454087</v>
+      </c>
+      <c r="AK42">
+        <v>6.0536100000000001E-3</v>
+      </c>
+      <c r="AL42">
+        <v>1.7895199999999999E-4</v>
+      </c>
+      <c r="AM42" s="4">
+        <f>AL42/AK42</f>
         <v>2.9561203975809473E-2</v>
       </c>
-      <c r="AI42" s="4">
+      <c r="AO42" s="4">
         <v>0.14887300000000001</v>
       </c>
-      <c r="AJ42">
+      <c r="AP42">
         <v>3.0992799999999998E-3</v>
       </c>
-      <c r="AK42" s="4">
-        <f>AJ42/AI42</f>
+      <c r="AQ42" s="4">
+        <f>AP42/AO42</f>
         <v>2.0818281353905677E-2</v>
       </c>
-      <c r="AM42" s="4">
+      <c r="AS42" s="4">
         <v>9.2839699999999997E-2</v>
       </c>
-      <c r="AN42">
+      <c r="AT42">
         <v>3.1413999999999999E-3</v>
       </c>
-      <c r="AO42" s="4">
-        <f>AN42/AM42</f>
+      <c r="AU42" s="4">
+        <f>AT42/AS42</f>
         <v>3.3836817654516335E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>285</v>
       </c>
       <c r="B43">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>288.38077999999996</v>
       </c>
       <c r="C43">
@@ -16706,105 +17110,126 @@
       <c r="D43">
         <v>69.650000000000006</v>
       </c>
-      <c r="F43" s="11">
-        <f>SUM(I43:J43)/SUM(H43:J43)</f>
+      <c r="F43" s="13">
+        <f t="shared" si="40"/>
+        <v>2.8996004712501189E-2</v>
+      </c>
+      <c r="G43" s="11">
+        <f>SUM(J43:L43)/SUM(I43:L43)</f>
         <v>0.11103621790807712</v>
       </c>
-      <c r="G43" s="11">
-        <f t="shared" si="15"/>
+      <c r="H43" s="11">
+        <f t="shared" si="31"/>
         <v>9.1300271042134295E-4</v>
       </c>
-      <c r="H43" s="1">
+      <c r="I43" s="1">
         <v>133205</v>
       </c>
-      <c r="I43" s="1">
+      <c r="J43" s="1">
         <v>15697</v>
       </c>
-      <c r="J43" s="1">
+      <c r="K43" s="1"/>
+      <c r="L43" s="1">
         <v>941</v>
       </c>
-      <c r="K43" s="1"/>
-      <c r="M43" s="4">
-        <f>H43/SUM(H43:K43)</f>
+      <c r="M43" s="1"/>
+      <c r="O43" s="4">
+        <f>I43/SUM(I43:M43)</f>
         <v>0.88896378209192284</v>
       </c>
-      <c r="N43" s="4">
-        <f>I43/SUM(H43:K43)</f>
+      <c r="P43" s="4">
+        <f>J43/SUM(I43:M43)</f>
         <v>0.10475631160614776</v>
       </c>
-      <c r="O43" s="4">
-        <f>J43/SUM(H43:K43)</f>
+      <c r="Q43" s="4">
+        <f t="shared" si="39"/>
+        <v>9.7212979504909577E-2</v>
+      </c>
+      <c r="R43" s="14">
+        <f t="shared" si="34"/>
+        <v>1.0775959356420839</v>
+      </c>
+      <c r="S43" s="4">
+        <f>L43/SUM(I43:M43)</f>
         <v>6.2799063019293531E-3</v>
       </c>
-      <c r="T43">
-        <f t="shared" si="13"/>
+      <c r="X43">
+        <f t="shared" si="29"/>
         <v>196.364</v>
       </c>
-      <c r="U43">
+      <c r="Y43">
         <v>1.9636400000000001E-4</v>
       </c>
-      <c r="V43" s="3">
+      <c r="Z43" s="3">
         <v>7.7548299999999998E-7</v>
       </c>
-      <c r="W43" s="4">
-        <f t="shared" si="14"/>
+      <c r="AA43" s="4">
+        <f t="shared" si="30"/>
         <v>3.9492116681265404E-3</v>
       </c>
-      <c r="Y43">
-        <f>1/Z43</f>
+      <c r="AC43">
+        <f>1/AE43</f>
         <v>35.907545252483906</v>
       </c>
-      <c r="Z43">
+      <c r="AD43">
+        <f t="shared" si="36"/>
+        <v>1.9181428948381198</v>
+      </c>
+      <c r="AE43">
         <v>2.78493E-2</v>
       </c>
-      <c r="AA43">
+      <c r="AF43">
         <v>1.4876799999999999E-3</v>
-      </c>
-      <c r="AB43" s="4">
-        <f>AA43/Z43</f>
-        <v>5.341893692121525E-2</v>
-      </c>
-      <c r="AD43">
-        <f>1/AE43</f>
-        <v>164.92533005681676</v>
-      </c>
-      <c r="AE43">
-        <v>6.0633500000000003E-3</v>
-      </c>
-      <c r="AF43">
-        <v>1.90636E-4</v>
       </c>
       <c r="AG43" s="4">
         <f>AF43/AE43</f>
+        <v>5.341893692121525E-2</v>
+      </c>
+      <c r="AI43">
+        <f>1/AK43</f>
+        <v>164.92533005681676</v>
+      </c>
+      <c r="AJ43">
+        <f t="shared" si="37"/>
+        <v>5.1853686857448968</v>
+      </c>
+      <c r="AK43">
+        <v>6.0633500000000003E-3</v>
+      </c>
+      <c r="AL43">
+        <v>1.90636E-4</v>
+      </c>
+      <c r="AM43" s="4">
+        <f>AL43/AK43</f>
         <v>3.1440705220711324E-2</v>
       </c>
-      <c r="AI43" s="4">
+      <c r="AO43" s="4">
         <v>0.15032899999999999</v>
       </c>
-      <c r="AJ43">
+      <c r="AP43">
         <v>3.5830100000000002E-3</v>
       </c>
-      <c r="AK43" s="4">
-        <f>AJ43/AI43</f>
+      <c r="AQ43" s="4">
+        <f>AP43/AO43</f>
         <v>2.3834456425573247E-2</v>
       </c>
-      <c r="AM43" s="4">
+      <c r="AS43" s="4">
         <v>9.39633E-2</v>
       </c>
-      <c r="AN43">
+      <c r="AT43">
         <v>3.56742E-3</v>
       </c>
-      <c r="AO43" s="4">
-        <f>AN43/AM43</f>
+      <c r="AU43" s="4">
+        <f>AT43/AS43</f>
         <v>3.7966099530348553E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>282</v>
       </c>
       <c r="B44">
-        <f t="shared" si="19"/>
+        <f t="shared" si="38"/>
         <v>286.65862999999996</v>
       </c>
       <c r="C44">
@@ -16813,117 +17238,140 @@
       <c r="D44">
         <v>69.53</v>
       </c>
-      <c r="F44" s="11">
-        <f>SUM(I44:J44)/SUM(H44:J44)</f>
+      <c r="F44" s="13">
+        <f t="shared" si="40"/>
+        <v>2.8817133819519225E-2</v>
+      </c>
+      <c r="G44" s="11">
+        <f>SUM(J44:L44)/SUM(I44:L44)</f>
         <v>0.11038100458648756</v>
       </c>
-      <c r="G44" s="11">
-        <f t="shared" si="15"/>
+      <c r="H44" s="11">
+        <f t="shared" si="31"/>
         <v>9.278644324848597E-4</v>
       </c>
-      <c r="H44" s="1">
+      <c r="I44" s="1">
         <v>128211</v>
       </c>
-      <c r="I44" s="1">
+      <c r="J44" s="1">
         <v>15019</v>
       </c>
-      <c r="J44" s="1">
+      <c r="K44" s="1"/>
+      <c r="L44" s="1">
         <v>889</v>
       </c>
-      <c r="K44" s="1"/>
-      <c r="M44" s="4">
-        <f>H44/SUM(H44:K44)</f>
+      <c r="M44" s="1"/>
+      <c r="O44" s="4">
+        <f>I44/SUM(I44:M44)</f>
         <v>0.88961899541351241</v>
       </c>
-      <c r="N44" s="4">
-        <f>I44/SUM(H44:K44)</f>
+      <c r="P44" s="4">
+        <f>J44/SUM(I44:M44)</f>
         <v>0.1042124910664104</v>
       </c>
-      <c r="O44" s="4">
-        <f>J44/SUM(H44:K44)</f>
+      <c r="Q44" s="4">
+        <f t="shared" si="39"/>
+        <v>9.6720124276877914E-2</v>
+      </c>
+      <c r="R44" s="14">
+        <f t="shared" si="34"/>
+        <v>1.0774644040787655</v>
+      </c>
+      <c r="S44" s="4">
+        <f>L44/SUM(I44:M44)</f>
         <v>6.1685135200771589E-3</v>
       </c>
-      <c r="T44">
-        <f t="shared" si="13"/>
+      <c r="X44">
+        <f t="shared" si="29"/>
         <v>203.52099999999999</v>
       </c>
-      <c r="U44">
+      <c r="Y44">
         <v>2.0352099999999999E-4</v>
       </c>
-      <c r="V44" s="3">
+      <c r="Z44" s="3">
         <v>6.9511500000000001E-7</v>
       </c>
-      <c r="W44" s="4">
-        <f t="shared" si="14"/>
+      <c r="AA44" s="4">
+        <f t="shared" si="30"/>
         <v>3.415446071904128E-3</v>
       </c>
-      <c r="Y44">
-        <f>1/Z44</f>
+      <c r="AC44">
+        <f>1/AE44</f>
         <v>35.918766118546294</v>
       </c>
-      <c r="Z44">
+      <c r="AD44">
+        <f t="shared" si="36"/>
+        <v>1.5954993964146837</v>
+      </c>
+      <c r="AE44">
         <v>2.78406E-2</v>
       </c>
-      <c r="AA44">
+      <c r="AF44">
         <v>1.23667E-3</v>
-      </c>
-      <c r="AB44" s="4">
-        <f>AA44/Z44</f>
-        <v>4.4419660495822647E-2</v>
-      </c>
-      <c r="AD44">
-        <f>1/AE44</f>
-        <v>179.20536755916913</v>
-      </c>
-      <c r="AE44">
-        <v>5.5801899999999996E-3</v>
-      </c>
-      <c r="AF44">
-        <v>1.7456399999999999E-4</v>
       </c>
       <c r="AG44" s="4">
         <f>AF44/AE44</f>
+        <v>4.4419660495822647E-2</v>
+      </c>
+      <c r="AI44">
+        <f>1/AK44</f>
+        <v>179.20536755916913</v>
+      </c>
+      <c r="AJ44">
+        <f t="shared" si="37"/>
+        <v>5.6060467085527197</v>
+      </c>
+      <c r="AK44">
+        <v>5.5801899999999996E-3</v>
+      </c>
+      <c r="AL44">
+        <v>1.7456399999999999E-4</v>
+      </c>
+      <c r="AM44" s="4">
+        <f>AL44/AK44</f>
         <v>3.1282805782598802E-2</v>
       </c>
-      <c r="AI44" s="4">
+      <c r="AO44" s="4">
         <v>0.14457300000000001</v>
       </c>
-      <c r="AJ44">
+      <c r="AP44">
         <v>3.14234E-3</v>
       </c>
-      <c r="AK44" s="4">
-        <f>AJ44/AI44</f>
+      <c r="AQ44" s="4">
+        <f>AP44/AO44</f>
         <v>2.1735317106236985E-2</v>
       </c>
-      <c r="AM44" s="4">
+      <c r="AS44" s="4">
         <v>0.102896</v>
       </c>
-      <c r="AN44">
+      <c r="AT44">
         <v>3.1675700000000002E-3</v>
       </c>
-      <c r="AO44" s="4">
-        <f>AN44/AM44</f>
+      <c r="AU44" s="4">
+        <f>AT44/AS44</f>
         <v>3.0784189861607837E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:41" x14ac:dyDescent="0.25">
-      <c r="F45" s="11"/>
+    <row r="45" spans="1:47" x14ac:dyDescent="0.25">
       <c r="G45" s="11"/>
-      <c r="H45" s="1"/>
+      <c r="H45" s="11"/>
       <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1"/>
-      <c r="M45" s="4"/>
-      <c r="N45" s="4"/>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
       <c r="O45" s="4"/>
-      <c r="V45" s="3"/>
-      <c r="W45" s="4"/>
-      <c r="AB45" s="4"/>
+      <c r="P45" s="4"/>
+      <c r="Q45" s="4"/>
+      <c r="S45" s="4"/>
+      <c r="Z45" s="3"/>
+      <c r="AA45" s="4"/>
       <c r="AG45" s="4"/>
-      <c r="AK45" s="4"/>
-      <c r="AO45" s="4"/>
-    </row>
-    <row r="46" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM45" s="4"/>
+      <c r="AQ45" s="4"/>
+      <c r="AU45" s="4"/>
+    </row>
+    <row r="46" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>280</v>
       </c>
@@ -16933,28 +17381,31 @@
       <c r="D46" s="8">
         <v>69.45</v>
       </c>
-      <c r="F46" s="11"/>
+      <c r="E46" s="8"/>
       <c r="G46" s="11"/>
-      <c r="H46" s="1"/>
+      <c r="H46" s="11"/>
       <c r="I46" s="1"/>
       <c r="J46" s="1"/>
       <c r="K46" s="1"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
       <c r="O46" s="4"/>
-      <c r="V46" s="3"/>
-      <c r="W46" s="4"/>
-      <c r="AB46" s="4"/>
+      <c r="P46" s="4"/>
+      <c r="Q46" s="4"/>
+      <c r="S46" s="4"/>
+      <c r="Z46" s="3"/>
+      <c r="AA46" s="4"/>
       <c r="AG46" s="4"/>
-      <c r="AK46" s="4"/>
-      <c r="AO46" s="4"/>
-    </row>
-    <row r="47" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM46" s="4"/>
+      <c r="AQ46" s="4"/>
+      <c r="AU46" s="4"/>
+    </row>
+    <row r="47" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>280</v>
       </c>
       <c r="B47">
-        <f t="shared" ref="B47" si="20">$B$1*A47+$B$2</f>
+        <f t="shared" ref="B47" si="41">$B$1*A47+$B$2</f>
         <v>285.51052999999996</v>
       </c>
       <c r="C47">
@@ -16963,126 +17414,148 @@
       <c r="D47" s="8">
         <v>69.48</v>
       </c>
-      <c r="E47" t="s">
-        <v>42</v>
-      </c>
-      <c r="F47" s="11">
-        <f>SUM(I47:J47)/SUM(H47:J47)</f>
+      <c r="E47" s="8"/>
+      <c r="F47" s="13">
+        <f t="shared" ref="F47:F50" si="42">1 - (1 - G47)^(1/4)</f>
+        <v>2.8705350754687498E-2</v>
+      </c>
+      <c r="G47" s="11">
+        <f>SUM(J47:L47)/SUM(I47:L47)</f>
         <v>0.10997135358594783</v>
       </c>
-      <c r="G47" s="11">
-        <f t="shared" ref="G47" si="21">SQRT(1 / H47 + 1 / (I47 + J47))*F47</f>
+      <c r="H47" s="11">
+        <f t="shared" ref="H47" si="43">SQRT(1 / I47 + 1 / (J47 + L47))*G47</f>
         <v>1.0294368061515098E-3</v>
       </c>
-      <c r="H47" s="1">
+      <c r="I47" s="1">
         <v>103772</v>
       </c>
-      <c r="I47" s="1">
+      <c r="J47" s="1">
         <v>12209</v>
       </c>
-      <c r="J47" s="1">
+      <c r="K47" s="1"/>
+      <c r="L47" s="1">
         <v>613</v>
       </c>
-      <c r="K47" s="1"/>
-      <c r="M47" s="4">
-        <f>H47/SUM(H47:K47)</f>
+      <c r="M47" s="1"/>
+      <c r="O47" s="4">
+        <f>I47/SUM(I47:M47)</f>
         <v>0.89002864641405222</v>
       </c>
-      <c r="N47" s="4">
-        <f>I47/SUM(H47:K47)</f>
+      <c r="P47" s="4">
+        <f>J47/SUM(I47:M47)</f>
         <v>0.10471379316259842</v>
       </c>
-      <c r="O47" s="4">
-        <f>J47/SUM(H47:K47)</f>
+      <c r="Q47" s="4">
+        <f t="shared" ref="Q47:Q50" si="44">4*F47*(1 - F47)^6</f>
+        <v>9.6411497122951578E-2</v>
+      </c>
+      <c r="R47" s="14">
+        <f t="shared" ref="R47:R50" si="45">P47/Q47</f>
+        <v>1.0861131326387257</v>
+      </c>
+      <c r="S47" s="4">
+        <f>L47/SUM(I47:M47)</f>
         <v>5.2575604233494003E-3</v>
       </c>
-      <c r="T47">
-        <f>U47 * 1000*1000</f>
+      <c r="X47">
+        <f>Y47 * 1000*1000</f>
         <v>151.65099999999998</v>
       </c>
-      <c r="U47">
+      <c r="Y47">
         <v>1.5165099999999999E-4</v>
       </c>
-      <c r="V47" s="3">
+      <c r="Z47" s="3">
         <v>6.1923999999999998E-7</v>
       </c>
-      <c r="W47" s="4">
-        <f>V47/U47</f>
+      <c r="AA47" s="4">
+        <f>Z47/Y47</f>
         <v>4.0833228926944101E-3</v>
       </c>
-      <c r="Y47">
-        <f>1/Z47</f>
+      <c r="AC47">
+        <f>1/AE47</f>
         <v>35.425441843823393</v>
       </c>
-      <c r="Z47">
+      <c r="AD47">
+        <f t="shared" ref="AD47:AD50" si="46">AC47*AG47</f>
+        <v>1.8096300035764272</v>
+      </c>
+      <c r="AE47">
         <v>2.8228300000000001E-2</v>
       </c>
-      <c r="AA47">
+      <c r="AF47">
         <v>1.44198E-3</v>
-      </c>
-      <c r="AB47" s="4">
-        <f>AA47/Z47</f>
-        <v>5.1082778629956464E-2</v>
-      </c>
-      <c r="AD47">
-        <f>1/AE47</f>
-        <v>170.4837989245882</v>
-      </c>
-      <c r="AE47">
-        <v>5.86566E-3</v>
-      </c>
-      <c r="AF47">
-        <v>1.71996E-4</v>
       </c>
       <c r="AG47" s="4">
         <f>AF47/AE47</f>
+        <v>5.1082778629956464E-2</v>
+      </c>
+      <c r="AI47">
+        <f>1/AK47</f>
+        <v>170.4837989245882</v>
+      </c>
+      <c r="AJ47">
+        <f t="shared" ref="AJ47" si="47">AI47*AM47</f>
+        <v>4.9990165607678367</v>
+      </c>
+      <c r="AK47">
+        <v>5.86566E-3</v>
+      </c>
+      <c r="AL47">
+        <v>1.71996E-4</v>
+      </c>
+      <c r="AM47" s="4">
+        <f>AL47/AK47</f>
         <v>2.932253147983347E-2</v>
       </c>
-      <c r="AI47" s="4">
+      <c r="AO47" s="4">
         <v>0.153254</v>
       </c>
-      <c r="AJ47">
+      <c r="AP47">
         <v>3.4712800000000002E-3</v>
       </c>
-      <c r="AK47" s="4">
-        <f>AJ47/AI47</f>
+      <c r="AQ47" s="4">
+        <f>AP47/AO47</f>
         <v>2.2650501781356441E-2</v>
       </c>
-      <c r="AM47" s="4">
+      <c r="AS47" s="4">
         <v>9.9498100000000006E-2</v>
       </c>
-      <c r="AN47">
+      <c r="AT47">
         <v>3.49673E-3</v>
       </c>
-      <c r="AO47" s="4">
-        <f>AN47/AM47</f>
+      <c r="AU47" s="4">
+        <f>AT47/AS47</f>
         <v>3.5143686160841257E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:47" x14ac:dyDescent="0.25">
       <c r="D48" s="8"/>
-      <c r="F48" s="11"/>
+      <c r="E48" s="8"/>
       <c r="G48" s="11"/>
-      <c r="H48" s="1"/>
+      <c r="H48" s="11"/>
       <c r="I48" s="1"/>
       <c r="J48" s="1"/>
       <c r="K48" s="1"/>
-      <c r="M48" s="4"/>
-      <c r="N48" s="4"/>
+      <c r="L48" s="1"/>
+      <c r="M48" s="1"/>
       <c r="O48" s="4"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="4"/>
-      <c r="AB48" s="4"/>
+      <c r="P48" s="4"/>
+      <c r="Q48" s="4"/>
+      <c r="S48" s="4"/>
+      <c r="Z48" s="3"/>
+      <c r="AA48" s="4"/>
       <c r="AG48" s="4"/>
-      <c r="AK48" s="4"/>
-      <c r="AO48" s="4"/>
-    </row>
-    <row r="49" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM48" s="4"/>
+      <c r="AQ48" s="4"/>
+      <c r="AU48" s="4"/>
+    </row>
+    <row r="49" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>278</v>
       </c>
       <c r="B49">
-        <f t="shared" ref="B49:B50" si="22">$B$1*A49+$B$2</f>
+        <f t="shared" ref="B49:B50" si="48">$B$1*A49+$B$2</f>
         <v>284.36242999999996</v>
       </c>
       <c r="C49">
@@ -17091,105 +17564,127 @@
       <c r="D49" s="8">
         <v>69.38</v>
       </c>
-      <c r="F49" s="11">
-        <f>SUM(I49:J49)/SUM(H49:J49)</f>
+      <c r="E49" s="8"/>
+      <c r="F49" s="13">
+        <f t="shared" si="42"/>
+        <v>2.9286846567872171E-2</v>
+      </c>
+      <c r="G49" s="11">
+        <f>SUM(J49:L49)/SUM(I49:L49)</f>
         <v>0.11210081388135296</v>
       </c>
-      <c r="G49" s="11">
-        <f t="shared" ref="G49:G50" si="23">SQRT(1 / H49 + 1 / (I49 + J49))*F49</f>
+      <c r="H49" s="11">
+        <f t="shared" ref="H49:H50" si="49">SQRT(1 / I49 + 1 / (J49 + L49))*G49</f>
         <v>1.0812065438567139E-3</v>
       </c>
-      <c r="H49" s="1">
+      <c r="I49" s="1">
         <v>95894</v>
       </c>
-      <c r="I49" s="1">
+      <c r="J49" s="1">
         <v>11326</v>
       </c>
-      <c r="J49" s="1">
+      <c r="K49" s="1"/>
+      <c r="L49" s="1">
         <v>781</v>
       </c>
-      <c r="K49" s="1"/>
-      <c r="M49" s="4">
-        <f>H49/SUM(H49:K49)</f>
+      <c r="M49" s="1"/>
+      <c r="O49" s="4">
+        <f>I49/SUM(I49:M49)</f>
         <v>0.88789918611864704</v>
       </c>
-      <c r="N49" s="4">
-        <f>I49/SUM(H49:K49)</f>
+      <c r="P49" s="4">
+        <f>J49/SUM(I49:M49)</f>
         <v>0.10486939935741335</v>
       </c>
-      <c r="O49" s="4">
-        <f>J49/SUM(H49:K49)</f>
+      <c r="Q49" s="4">
+        <f t="shared" si="44"/>
+        <v>9.8011737938221183E-2</v>
+      </c>
+      <c r="R49" s="14">
+        <f t="shared" si="45"/>
+        <v>1.0699677565509009</v>
+      </c>
+      <c r="S49" s="4">
+        <f>L49/SUM(I49:M49)</f>
         <v>7.2314145239395933E-3</v>
       </c>
-      <c r="T49">
-        <f>U49 * 1000*1000</f>
+      <c r="X49">
+        <f>Y49 * 1000*1000</f>
         <v>141.49700000000001</v>
       </c>
-      <c r="U49">
+      <c r="Y49">
         <v>1.41497E-4</v>
       </c>
-      <c r="V49" s="3">
+      <c r="Z49" s="3">
         <v>6.1529299999999998E-7</v>
       </c>
-      <c r="W49" s="4">
-        <f>V49/U49</f>
+      <c r="AA49" s="4">
+        <f>Z49/Y49</f>
         <v>4.348452617369979E-3</v>
       </c>
-      <c r="Y49">
-        <f>1/Z49</f>
+      <c r="AC49">
+        <f>1/AE49</f>
         <v>37.820195227847769</v>
       </c>
-      <c r="Z49">
+      <c r="AD49">
+        <f t="shared" si="46"/>
+        <v>2.3039066996753772</v>
+      </c>
+      <c r="AE49">
         <v>2.64409E-2</v>
       </c>
-      <c r="AA49">
+      <c r="AF49">
         <v>1.61071E-3</v>
-      </c>
-      <c r="AB49" s="4">
-        <f>AA49/Z49</f>
-        <v>6.0917366655446677E-2</v>
-      </c>
-      <c r="AD49">
-        <f>1/AE49</f>
-        <v>161.33013469452945</v>
-      </c>
-      <c r="AE49">
-        <v>6.1984700000000002E-3</v>
-      </c>
-      <c r="AF49">
-        <v>2.1051899999999999E-4</v>
       </c>
       <c r="AG49" s="4">
         <f>AF49/AE49</f>
+        <v>6.0917366655446677E-2</v>
+      </c>
+      <c r="AI49">
+        <f>1/AK49</f>
+        <v>161.33013469452945</v>
+      </c>
+      <c r="AJ49">
+        <f t="shared" ref="AJ49:AJ50" si="50">AI49*AM49</f>
+        <v>5.4792648227316807</v>
+      </c>
+      <c r="AK49">
+        <v>6.1984700000000002E-3</v>
+      </c>
+      <c r="AL49">
+        <v>2.1051899999999999E-4</v>
+      </c>
+      <c r="AM49" s="4">
+        <f>AL49/AK49</f>
         <v>3.3963058625757644E-2</v>
       </c>
-      <c r="AI49" s="4">
+      <c r="AO49" s="4">
         <v>0.15157799999999999</v>
       </c>
-      <c r="AJ49">
+      <c r="AP49">
         <v>4.34235E-3</v>
       </c>
-      <c r="AK49" s="4">
-        <f>AJ49/AI49</f>
+      <c r="AQ49" s="4">
+        <f>AP49/AO49</f>
         <v>2.8647626964335197E-2</v>
       </c>
-      <c r="AM49" s="4">
+      <c r="AS49" s="4">
         <v>9.3213599999999994E-2</v>
       </c>
-      <c r="AN49">
+      <c r="AT49">
         <v>4.3496899999999998E-3</v>
       </c>
-      <c r="AO49" s="4">
-        <f>AN49/AM49</f>
+      <c r="AU49" s="4">
+        <f>AT49/AS49</f>
         <v>4.6663684269248266E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>275</v>
       </c>
       <c r="B50">
-        <f t="shared" si="22"/>
+        <f t="shared" si="48"/>
         <v>282.64027999999996</v>
       </c>
       <c r="C50">
@@ -17198,99 +17693,120 @@
       <c r="D50">
         <v>69.3</v>
       </c>
-      <c r="F50" s="11">
-        <f>SUM(I50:J50)/SUM(H50:J50)</f>
+      <c r="F50" s="13">
+        <f t="shared" si="42"/>
+        <v>2.9711390352592071E-2</v>
+      </c>
+      <c r="G50" s="11">
+        <f>SUM(J50:L50)/SUM(I50:L50)</f>
         <v>0.11365309473922645</v>
       </c>
-      <c r="G50" s="11">
-        <f t="shared" si="23"/>
+      <c r="H50" s="11">
+        <f t="shared" si="49"/>
         <v>1.2050934090131991E-3</v>
       </c>
-      <c r="H50" s="1">
+      <c r="I50" s="1">
         <v>78260</v>
       </c>
-      <c r="I50" s="1">
+      <c r="J50" s="1">
         <v>9546</v>
       </c>
-      <c r="J50" s="1">
+      <c r="K50" s="1"/>
+      <c r="L50" s="1">
         <v>489</v>
       </c>
-      <c r="M50" s="4">
-        <f>H50/SUM(H50:K50)</f>
+      <c r="O50" s="4">
+        <f>I50/SUM(I50:M50)</f>
         <v>0.88634690526077353</v>
       </c>
-      <c r="N50" s="4">
-        <f>I50/SUM(H50:K50)</f>
+      <c r="P50" s="4">
+        <f>J50/SUM(I50:M50)</f>
         <v>0.1081148422900504</v>
       </c>
-      <c r="O50" s="4">
-        <f>J50/SUM(H50:K50)</f>
+      <c r="Q50" s="4">
+        <f t="shared" si="44"/>
+        <v>9.9171884410447136E-2</v>
+      </c>
+      <c r="R50" s="14">
+        <f>P50/Q50</f>
+        <v>1.090176343151761</v>
+      </c>
+      <c r="S50" s="4">
+        <f>L50/SUM(I50:M50)</f>
         <v>5.5382524491760579E-3</v>
       </c>
-      <c r="T50">
-        <f>U50 * 1000*1000</f>
+      <c r="X50">
+        <f>Y50 * 1000*1000</f>
         <v>120.50099999999999</v>
       </c>
-      <c r="U50">
+      <c r="Y50">
         <v>1.20501E-4</v>
       </c>
-      <c r="V50" s="3">
+      <c r="Z50" s="3">
         <v>6.3712999999999999E-7</v>
       </c>
-      <c r="W50" s="4">
-        <f>V50/U50</f>
+      <c r="AA50" s="4">
+        <f>Z50/Y50</f>
         <v>5.2873420137592216E-3</v>
       </c>
-      <c r="Y50">
-        <f>1/Z50</f>
+      <c r="AC50">
+        <f>1/AE50</f>
         <v>40.561204830028267</v>
       </c>
-      <c r="Z50">
+      <c r="AD50">
+        <f t="shared" si="46"/>
+        <v>2.7685616383470317</v>
+      </c>
+      <c r="AE50">
         <v>2.4654100000000002E-2</v>
       </c>
-      <c r="AA50">
+      <c r="AF50">
         <v>1.6827999999999999E-3</v>
-      </c>
-      <c r="AB50" s="4">
-        <f>AA50/Z50</f>
-        <v>6.8256395487971563E-2</v>
-      </c>
-      <c r="AD50">
-        <f>1/AE50</f>
-        <v>165.29936541573616</v>
-      </c>
-      <c r="AE50">
-        <v>6.0496300000000003E-3</v>
-      </c>
-      <c r="AF50">
-        <v>2.38373E-4</v>
       </c>
       <c r="AG50" s="4">
         <f>AF50/AE50</f>
+        <v>6.8256395487971563E-2</v>
+      </c>
+      <c r="AI50">
+        <f>1/AK50</f>
+        <v>165.29936541573616</v>
+      </c>
+      <c r="AJ50">
+        <f t="shared" si="50"/>
+        <v>6.513275296546281</v>
+      </c>
+      <c r="AK50">
+        <v>6.0496300000000003E-3</v>
+      </c>
+      <c r="AL50">
+        <v>2.38373E-4</v>
+      </c>
+      <c r="AM50" s="4">
+        <f>AL50/AK50</f>
         <v>3.9402905632245279E-2</v>
       </c>
-      <c r="AI50" s="4">
+      <c r="AO50" s="4">
         <v>0.15487400000000001</v>
       </c>
-      <c r="AJ50">
+      <c r="AP50">
         <v>5.4038999999999997E-3</v>
       </c>
-      <c r="AK50" s="4">
-        <f>AJ50/AI50</f>
+      <c r="AQ50" s="4">
+        <f>AP50/AO50</f>
         <v>3.4892234978111232E-2</v>
       </c>
-      <c r="AM50" s="4">
+      <c r="AS50" s="4">
         <v>9.9045900000000006E-2</v>
       </c>
-      <c r="AN50">
+      <c r="AT50">
         <v>5.3443600000000003E-3</v>
       </c>
-      <c r="AO50" s="4">
-        <f>AN50/AM50</f>
+      <c r="AU50" s="4">
+        <f>AT50/AS50</f>
         <v>5.3958417259068775E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>0</v>
       </c>
@@ -17300,91 +17816,92 @@
       <c r="D52" t="s">
         <v>1</v>
       </c>
-      <c r="F52" s="11" t="s">
+      <c r="G52" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G52" s="11"/>
-      <c r="H52" t="s">
+      <c r="H52" s="11"/>
+      <c r="I52" t="s">
         <v>10</v>
       </c>
-      <c r="I52" t="s">
+      <c r="J52" t="s">
         <v>11</v>
       </c>
-      <c r="J52" t="s">
+      <c r="L52" t="s">
         <v>12</v>
       </c>
-      <c r="K52" t="s">
+      <c r="M52" t="s">
         <v>13</v>
       </c>
-      <c r="M52" t="s">
+      <c r="O52" t="s">
         <v>25</v>
       </c>
-      <c r="N52" t="s">
+      <c r="P52" t="s">
         <v>26</v>
       </c>
-      <c r="O52" t="s">
+      <c r="S52" t="s">
         <v>27</v>
       </c>
-      <c r="P52" s="4" t="s">
+      <c r="T52" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T52" t="s">
+      <c r="X52" t="s">
         <v>23</v>
       </c>
-      <c r="U52" t="s">
+      <c r="Y52" t="s">
         <v>3</v>
       </c>
-      <c r="V52" t="s">
+      <c r="Z52" t="s">
         <v>24</v>
       </c>
-      <c r="W52" s="4" t="s">
+      <c r="AA52" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y52" t="s">
+      <c r="AC52" t="s">
         <v>21</v>
       </c>
-      <c r="Z52" t="s">
+      <c r="AE52" t="s">
         <v>4</v>
       </c>
-      <c r="AA52" t="s">
+      <c r="AF52" t="s">
         <v>15</v>
-      </c>
-      <c r="AB52" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD52" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE52" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF52" t="s">
-        <v>16</v>
       </c>
       <c r="AG52" t="s">
         <v>20</v>
       </c>
-      <c r="AI52" s="4" t="s">
+      <c r="AI52" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ52" s="6"/>
+      <c r="AK52" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL52" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM52" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO52" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ52" t="s">
+      <c r="AP52" t="s">
         <v>18</v>
       </c>
-      <c r="AK52" t="s">
+      <c r="AQ52" t="s">
         <v>20</v>
       </c>
-      <c r="AL52" s="2"/>
-      <c r="AM52" s="4" t="s">
+      <c r="AR52" s="2"/>
+      <c r="AS52" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN52" t="s">
+      <c r="AT52" t="s">
         <v>19</v>
       </c>
-      <c r="AO52" s="2" t="s">
+      <c r="AU52" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="53" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>295</v>
       </c>
@@ -17392,7 +17909,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="54" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>293</v>
       </c>
@@ -17400,7 +17917,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="55" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>290</v>
       </c>
@@ -17408,7 +17925,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="56" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>285</v>
       </c>
@@ -17419,7 +17936,7 @@
         <v>69.75</v>
       </c>
     </row>
-    <row r="57" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>280</v>
       </c>
@@ -17429,36 +17946,30 @@
       <c r="D57" s="8">
         <v>69.575651999999991</v>
       </c>
-      <c r="M57" s="4" t="e">
-        <f>H57/SUM(H57:K57)</f>
+      <c r="E57" s="8"/>
+      <c r="O57" s="4" t="e">
+        <f>I57/SUM(I57:M57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N57" s="4" t="e">
-        <f>I57/SUM(H57:K57)</f>
+      <c r="P57" s="4" t="e">
+        <f>J57/SUM(I57:M57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O57" s="4" t="e">
-        <f>J57/SUM(H57:K57)</f>
+      <c r="Q57" s="4"/>
+      <c r="S57" s="4" t="e">
+        <f>L57/SUM(I57:M57)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T57">
-        <f>U57 * 1000*1000</f>
+      <c r="X57">
+        <f>Y57 * 1000*1000</f>
         <v>0</v>
       </c>
-      <c r="V57" s="3"/>
-      <c r="W57" s="4" t="e">
-        <f>V57/U57</f>
+      <c r="Z57" s="3"/>
+      <c r="AA57" s="4" t="e">
+        <f>Z57/Y57</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y57" t="e">
-        <f>1/Z57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB57" s="4" t="e">
-        <f>AA57/Z57</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD57" t="e">
+      <c r="AC57" t="e">
         <f>1/AE57</f>
         <v>#DIV/0!</v>
       </c>
@@ -17466,16 +17977,24 @@
         <f>AF57/AE57</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK57" s="4" t="e">
-        <f>AJ57/AI57</f>
+      <c r="AI57" t="e">
+        <f>1/AK57</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO57" s="4" t="e">
-        <f>AN57/AM57</f>
+      <c r="AM57" s="4" t="e">
+        <f>AL57/AK57</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="58" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AQ57" s="4" t="e">
+        <f>AP57/AO57</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU57" s="4" t="e">
+        <f>AT57/AS57</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="58" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>275</v>
       </c>
@@ -17486,7 +18005,7 @@
         <v>69.400000000000006</v>
       </c>
     </row>
-    <row r="60" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
         <v>0</v>
       </c>
@@ -17496,91 +18015,92 @@
       <c r="D60" t="s">
         <v>1</v>
       </c>
-      <c r="F60" s="11" t="s">
+      <c r="G60" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G60" s="11"/>
-      <c r="H60" t="s">
+      <c r="H60" s="11"/>
+      <c r="I60" t="s">
         <v>10</v>
       </c>
-      <c r="I60" t="s">
+      <c r="J60" t="s">
         <v>11</v>
       </c>
-      <c r="J60" t="s">
+      <c r="L60" t="s">
         <v>12</v>
       </c>
-      <c r="K60" t="s">
+      <c r="M60" t="s">
         <v>13</v>
       </c>
-      <c r="M60" t="s">
+      <c r="O60" t="s">
         <v>25</v>
       </c>
-      <c r="N60" t="s">
+      <c r="P60" t="s">
         <v>26</v>
       </c>
-      <c r="O60" t="s">
+      <c r="S60" t="s">
         <v>27</v>
       </c>
-      <c r="P60" s="4" t="s">
+      <c r="T60" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T60" t="s">
+      <c r="X60" t="s">
         <v>23</v>
       </c>
-      <c r="U60" t="s">
+      <c r="Y60" t="s">
         <v>3</v>
       </c>
-      <c r="V60" t="s">
+      <c r="Z60" t="s">
         <v>24</v>
       </c>
-      <c r="W60" s="4" t="s">
+      <c r="AA60" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y60" t="s">
+      <c r="AC60" t="s">
         <v>21</v>
       </c>
-      <c r="Z60" t="s">
+      <c r="AE60" t="s">
         <v>4</v>
       </c>
-      <c r="AA60" t="s">
+      <c r="AF60" t="s">
         <v>15</v>
-      </c>
-      <c r="AB60" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD60" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE60" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF60" t="s">
-        <v>16</v>
       </c>
       <c r="AG60" t="s">
         <v>20</v>
       </c>
-      <c r="AI60" s="4" t="s">
+      <c r="AI60" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ60" s="6"/>
+      <c r="AK60" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL60" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM60" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO60" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ60" t="s">
+      <c r="AP60" t="s">
         <v>18</v>
       </c>
-      <c r="AK60" t="s">
+      <c r="AQ60" t="s">
         <v>20</v>
       </c>
-      <c r="AL60" s="2"/>
-      <c r="AM60" s="4" t="s">
+      <c r="AR60" s="2"/>
+      <c r="AS60" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN60" t="s">
+      <c r="AT60" t="s">
         <v>19</v>
       </c>
-      <c r="AO60" s="2" t="s">
+      <c r="AU60" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>295</v>
       </c>
@@ -17588,7 +18108,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="62" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>290</v>
       </c>
@@ -17596,7 +18116,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="63" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>285</v>
       </c>
@@ -17607,7 +18127,7 @@
         <v>69.849999999999994</v>
       </c>
     </row>
-    <row r="64" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>280</v>
       </c>
@@ -17615,36 +18135,30 @@
         <v>1.2</v>
       </c>
       <c r="D64" s="8"/>
-      <c r="M64" s="4" t="e">
-        <f>H64/SUM(H64:K64)</f>
+      <c r="E64" s="8"/>
+      <c r="O64" s="4" t="e">
+        <f>I64/SUM(I64:M64)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N64" s="4" t="e">
-        <f>I64/SUM(H64:K64)</f>
+      <c r="P64" s="4" t="e">
+        <f>J64/SUM(I64:M64)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O64" s="4" t="e">
-        <f>J64/SUM(H64:K64)</f>
+      <c r="Q64" s="4"/>
+      <c r="S64" s="4" t="e">
+        <f>L64/SUM(I64:M64)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T64">
-        <f>U64 * 1000*1000</f>
+      <c r="X64">
+        <f>Y64 * 1000*1000</f>
         <v>0</v>
       </c>
-      <c r="V64" s="3"/>
-      <c r="W64" s="4" t="e">
-        <f>V64/U64</f>
+      <c r="Z64" s="3"/>
+      <c r="AA64" s="4" t="e">
+        <f>Z64/Y64</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y64" t="e">
-        <f>1/Z64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AB64" s="4" t="e">
-        <f>AA64/Z64</f>
-        <v>#DIV/0!</v>
-      </c>
-      <c r="AD64" t="e">
+      <c r="AC64" t="e">
         <f>1/AE64</f>
         <v>#DIV/0!</v>
       </c>
@@ -17652,16 +18166,24 @@
         <f>AF64/AE64</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK64" s="4" t="e">
-        <f>AJ64/AI64</f>
+      <c r="AI64" t="e">
+        <f>1/AK64</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO64" s="4" t="e">
-        <f>AN64/AM64</f>
+      <c r="AM64" s="4" t="e">
+        <f>AL64/AK64</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="65" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AQ64" s="4" t="e">
+        <f>AP64/AO64</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="AU64" s="4" t="e">
+        <f>AT64/AS64</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="65" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>275</v>
       </c>
@@ -17669,7 +18191,7 @@
         <v>1.2</v>
       </c>
     </row>
-    <row r="67" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
         <v>0</v>
       </c>
@@ -17679,182 +18201,194 @@
       <c r="D67" t="s">
         <v>1</v>
       </c>
-      <c r="F67" s="11" t="s">
+      <c r="G67" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G67" s="11"/>
-      <c r="H67" t="s">
+      <c r="H67" s="11"/>
+      <c r="I67" t="s">
         <v>10</v>
       </c>
-      <c r="I67" t="s">
+      <c r="J67" t="s">
         <v>11</v>
       </c>
-      <c r="J67" t="s">
+      <c r="L67" t="s">
         <v>12</v>
       </c>
-      <c r="K67" t="s">
+      <c r="M67" t="s">
         <v>13</v>
       </c>
-      <c r="M67" t="s">
+      <c r="O67" t="s">
         <v>25</v>
       </c>
-      <c r="N67" t="s">
+      <c r="P67" t="s">
         <v>26</v>
       </c>
-      <c r="O67" t="s">
+      <c r="Q67" t="s">
+        <v>59</v>
+      </c>
+      <c r="S67" t="s">
         <v>27</v>
       </c>
-      <c r="P67" s="4" t="s">
+      <c r="T67" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T67" t="s">
+      <c r="X67" t="s">
         <v>23</v>
       </c>
-      <c r="U67" t="s">
+      <c r="Y67" t="s">
         <v>3</v>
       </c>
-      <c r="V67" t="s">
+      <c r="Z67" t="s">
         <v>24</v>
       </c>
-      <c r="W67" s="4" t="s">
+      <c r="AA67" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y67" t="s">
+      <c r="AC67" t="s">
         <v>21</v>
       </c>
-      <c r="Z67" t="s">
+      <c r="AE67" t="s">
         <v>4</v>
       </c>
-      <c r="AA67" t="s">
+      <c r="AF67" t="s">
         <v>15</v>
-      </c>
-      <c r="AB67" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD67" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE67" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF67" t="s">
-        <v>16</v>
       </c>
       <c r="AG67" t="s">
         <v>20</v>
       </c>
-      <c r="AI67" s="4" t="s">
+      <c r="AI67" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ67" s="6"/>
+      <c r="AK67" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL67" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM67" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO67" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ67" t="s">
+      <c r="AP67" t="s">
         <v>18</v>
       </c>
-      <c r="AK67" t="s">
+      <c r="AQ67" t="s">
         <v>20</v>
       </c>
-      <c r="AL67" s="2"/>
-      <c r="AM67" s="4" t="s">
+      <c r="AR67" s="2"/>
+      <c r="AS67" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN67" t="s">
+      <c r="AT67" t="s">
         <v>19</v>
       </c>
-      <c r="AO67" s="2" t="s">
+      <c r="AU67" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>295</v>
       </c>
       <c r="B68">
-        <f t="shared" ref="B68:B72" si="24">$B$1*A68+$B$2</f>
+        <f t="shared" ref="B68:B72" si="51">$B$1*A68+$B$2</f>
         <v>294.12127999999996</v>
       </c>
       <c r="C68">
         <v>1.3</v>
       </c>
     </row>
-    <row r="69" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>290</v>
       </c>
       <c r="B69">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>291.25102999999996</v>
       </c>
       <c r="C69">
         <v>1.3</v>
       </c>
-      <c r="T69">
-        <f>U69 * 1000*1000</f>
+      <c r="X69">
+        <f>Y69 * 1000*1000</f>
         <v>335.637</v>
       </c>
-      <c r="U69">
+      <c r="Y69">
         <v>3.3563700000000001E-4</v>
       </c>
-      <c r="V69" s="3">
+      <c r="Z69" s="3">
         <v>1.5129900000000001E-6</v>
       </c>
-      <c r="W69" s="4">
-        <f>V69/U69</f>
+      <c r="AA69" s="4">
+        <f>Z69/Y69</f>
         <v>4.5078164803046151E-3</v>
       </c>
-      <c r="Y69">
-        <f>1/Z69</f>
+      <c r="AC69">
+        <f>1/AE69</f>
         <v>30.9831575555528</v>
       </c>
-      <c r="Z69">
+      <c r="AD69">
+        <f t="shared" ref="AD69:AD72" si="52">AC69*AG69</f>
+        <v>0.9330916819938484</v>
+      </c>
+      <c r="AE69">
         <v>3.2275600000000002E-2</v>
       </c>
-      <c r="AA69">
+      <c r="AF69">
         <v>9.7201500000000001E-4</v>
-      </c>
-      <c r="AB69" s="4">
-        <f>AA69/Z69</f>
-        <v>3.0116093891360655E-2</v>
-      </c>
-      <c r="AD69">
-        <f>1/AE69</f>
-        <v>160.72286716737199</v>
-      </c>
-      <c r="AE69">
-        <v>6.2218899999999999E-3</v>
-      </c>
-      <c r="AF69">
-        <v>1.91614E-4</v>
       </c>
       <c r="AG69" s="4">
         <f>AF69/AE69</f>
+        <v>3.0116093891360655E-2</v>
+      </c>
+      <c r="AI69">
+        <f>1/AK69</f>
+        <v>160.72286716737199</v>
+      </c>
+      <c r="AJ69">
+        <f t="shared" ref="AJ69:AJ72" si="53">AI69*AM69</f>
+        <v>4.9497421956043608</v>
+      </c>
+      <c r="AK69">
+        <v>6.2218899999999999E-3</v>
+      </c>
+      <c r="AL69">
+        <v>1.91614E-4</v>
+      </c>
+      <c r="AM69" s="4">
+        <f>AL69/AK69</f>
         <v>3.0796751469408815E-2</v>
       </c>
-      <c r="AI69" s="4">
+      <c r="AO69" s="4">
         <v>0.23214699999999999</v>
       </c>
-      <c r="AJ69">
+      <c r="AP69">
         <v>4.5579100000000001E-3</v>
       </c>
-      <c r="AK69" s="4">
-        <f>AJ69/AI69</f>
+      <c r="AQ69" s="4">
+        <f>AP69/AO69</f>
         <v>1.9633723459704412E-2</v>
       </c>
-      <c r="AM69" s="4">
+      <c r="AS69" s="4">
         <v>0.24408299999999999</v>
       </c>
-      <c r="AN69">
+      <c r="AT69">
         <v>4.3685099999999999E-3</v>
       </c>
-      <c r="AO69" s="4">
-        <f t="shared" ref="AO69:AO71" si="25">AN69/AM69</f>
+      <c r="AU69" s="4">
+        <f t="shared" ref="AU69:AU71" si="54">AT69/AS69</f>
         <v>1.789764137608928E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>285</v>
       </c>
       <c r="B70">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>288.38077999999996</v>
       </c>
       <c r="C70">
@@ -17863,104 +18397,124 @@
       <c r="D70">
         <v>69.95</v>
       </c>
-      <c r="F70" s="11">
-        <f>SUM(I70:J70)/SUM(H70:J70)</f>
-        <v>0.15416960715125852</v>
+      <c r="F70" s="13">
+        <f>1 - (1 - G70)^(1/4)</f>
+        <v>3.8077372924164576E-2</v>
       </c>
       <c r="G70" s="11">
-        <f t="shared" ref="G70:G72" si="26">SQRT(1 / H70 + 1 / (I70 + J70))*F70</f>
-        <v>1.3366157254207406E-3</v>
-      </c>
-      <c r="H70">
+        <f>SUM(J70)/SUM(I70:L70)</f>
+        <v>0.14382890300321494</v>
+      </c>
+      <c r="H70" s="11">
+        <f t="shared" ref="H70:H72" si="55">SQRT(1 / I70 + 1 / (J70 + L70))*G70</f>
+        <v>1.2469641525096288E-3</v>
+      </c>
+      <c r="I70">
         <v>86295</v>
       </c>
-      <c r="I70">
+      <c r="J70">
         <v>14674</v>
       </c>
-      <c r="J70">
+      <c r="L70">
         <v>1055</v>
       </c>
-      <c r="M70" s="4">
-        <f>H70/SUM(H70:K70)</f>
+      <c r="O70" s="4">
+        <f>I70/SUM(I70:M70)</f>
         <v>0.84583039284874151</v>
       </c>
-      <c r="N70" s="4">
-        <f>I70/SUM(H70:K70)</f>
+      <c r="P70" s="4">
+        <f>J70/SUM(I70:M70)</f>
         <v>0.14382890300321494</v>
       </c>
-      <c r="O70" s="4">
-        <f>J70/SUM(H70:K70)</f>
+      <c r="Q70" s="4">
+        <f>4*F70*(1 - F70)^6</f>
+        <v>0.12066124794430658</v>
+      </c>
+      <c r="R70" s="14">
+        <f>P70/Q70</f>
+        <v>1.1920057636864638</v>
+      </c>
+      <c r="S70" s="4">
+        <f>L70/SUM(I70:M70)</f>
         <v>1.0340704148043597E-2</v>
       </c>
-      <c r="T70">
-        <f>U70 * 1000*1000</f>
+      <c r="X70">
+        <f>Y70 * 1000*1000</f>
         <v>246.35999999999999</v>
       </c>
-      <c r="U70">
+      <c r="Y70">
         <v>2.4635999999999999E-4</v>
       </c>
-      <c r="V70" s="3">
+      <c r="Z70" s="3">
         <v>1.29139E-6</v>
       </c>
-      <c r="W70" s="4">
-        <f>V70/U70</f>
+      <c r="AA70" s="4">
+        <f>Z70/Y70</f>
         <v>5.2418817989933432E-3</v>
       </c>
-      <c r="Y70">
-        <f>1/Z70</f>
+      <c r="AC70">
+        <f>1/AE70</f>
         <v>29.147295859626624</v>
       </c>
-      <c r="Z70">
+      <c r="AD70">
+        <f t="shared" si="52"/>
+        <v>1.0358914201308695</v>
+      </c>
+      <c r="AE70">
         <v>3.4308499999999999E-2</v>
       </c>
-      <c r="AA70">
+      <c r="AF70">
         <v>1.2193200000000001E-3</v>
-      </c>
-      <c r="AB70" s="4">
-        <f>AA70/Z70</f>
-        <v>3.5539880787559937E-2</v>
-      </c>
-      <c r="AD70">
-        <f>1/AE70</f>
-        <v>157.41933046410367</v>
-      </c>
-      <c r="AE70">
-        <v>6.3524599999999999E-3</v>
-      </c>
-      <c r="AF70">
-        <v>1.9454499999999999E-4</v>
       </c>
       <c r="AG70" s="4">
         <f>AF70/AE70</f>
+        <v>3.5539880787559937E-2</v>
+      </c>
+      <c r="AI70">
+        <f>1/AK70</f>
+        <v>157.41933046410367</v>
+      </c>
+      <c r="AJ70">
+        <f t="shared" si="53"/>
+        <v>4.8209896079847878</v>
+      </c>
+      <c r="AK70">
+        <v>6.3524599999999999E-3</v>
+      </c>
+      <c r="AL70">
+        <v>1.9454499999999999E-4</v>
+      </c>
+      <c r="AM70" s="4">
+        <f>AL70/AK70</f>
         <v>3.0625143645139047E-2</v>
       </c>
-      <c r="AI70" s="4">
+      <c r="AO70" s="4">
         <v>0.23960899999999999</v>
       </c>
-      <c r="AJ70">
+      <c r="AP70">
         <v>4.8952600000000002E-3</v>
       </c>
-      <c r="AK70" s="4">
-        <f>AJ70/AI70</f>
+      <c r="AQ70" s="4">
+        <f>AP70/AO70</f>
         <v>2.0430200868915609E-2</v>
       </c>
-      <c r="AM70" s="4">
+      <c r="AS70" s="4">
         <v>0.244973</v>
       </c>
-      <c r="AN70">
+      <c r="AT70">
         <v>4.8270700000000001E-3</v>
       </c>
-      <c r="AO70" s="4">
-        <f t="shared" si="25"/>
+      <c r="AU70" s="4">
+        <f t="shared" si="54"/>
         <v>1.9704498046723518E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>280</v>
       </c>
       <c r="B71">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>285.51052999999996</v>
       </c>
       <c r="C71">
@@ -17969,104 +18523,125 @@
       <c r="D71" s="8">
         <v>69.775651999999994</v>
       </c>
-      <c r="F71" s="11">
-        <f>SUM(I71:J71)/SUM(H71:J71)</f>
+      <c r="E71" s="8"/>
+      <c r="F71" s="13">
+        <f t="shared" ref="F71:F72" si="56">1 - (1 - G71)^(1/4)</f>
+        <v>4.1125019046649225E-2</v>
+      </c>
+      <c r="G71" s="11">
+        <f>SUM(J71:L71)/SUM(I71:L71)</f>
         <v>0.15462782623422813</v>
       </c>
-      <c r="G71" s="11">
-        <f t="shared" si="26"/>
+      <c r="H71" s="11">
+        <f t="shared" si="55"/>
         <v>2.7829044285981536E-3</v>
       </c>
-      <c r="H71">
+      <c r="I71">
         <v>19966</v>
       </c>
-      <c r="I71">
+      <c r="J71">
         <v>3427</v>
       </c>
-      <c r="J71">
+      <c r="L71">
         <v>225</v>
       </c>
-      <c r="M71" s="4">
-        <f>H71/SUM(H71:K71)</f>
+      <c r="O71" s="4">
+        <f>I71/SUM(I71:M71)</f>
         <v>0.84537217376577189</v>
       </c>
-      <c r="N71" s="4">
-        <f>I71/SUM(H71:K71)</f>
+      <c r="P71" s="4">
+        <f>J71/SUM(I71:M71)</f>
         <v>0.14510119400457278</v>
       </c>
-      <c r="O71" s="4">
-        <f>J71/SUM(H71:K71)</f>
+      <c r="Q71" s="4">
+        <f t="shared" ref="Q71:Q72" si="57">4*F71*(1 - F71)^6</f>
+        <v>0.12786097923360662</v>
+      </c>
+      <c r="R71" s="14">
+        <f t="shared" ref="R71:R72" si="58">P71/Q71</f>
+        <v>1.1348356228327303</v>
+      </c>
+      <c r="S71" s="4">
+        <f>L71/SUM(I71:M71)</f>
         <v>9.526632229655347E-3</v>
       </c>
-      <c r="T71">
-        <f>U71 * 1000*1000</f>
+      <c r="X71">
+        <f>Y71 * 1000*1000</f>
         <v>191.05500000000001</v>
       </c>
-      <c r="U71">
+      <c r="Y71">
         <v>1.9105500000000001E-4</v>
       </c>
-      <c r="V71" s="3">
+      <c r="Z71" s="3">
         <v>1.78772E-6</v>
       </c>
-      <c r="W71" s="4">
-        <f>V71/U71</f>
+      <c r="AA71" s="4">
+        <f>Z71/Y71</f>
         <v>9.3570961241527303E-3</v>
       </c>
-      <c r="Y71">
-        <f>1/Z71</f>
+      <c r="AC71">
+        <f>1/AE71</f>
         <v>26.955703692122732</v>
       </c>
-      <c r="Z71">
+      <c r="AD71">
+        <f t="shared" si="52"/>
+        <v>1.4441372985558192</v>
+      </c>
+      <c r="AE71">
         <v>3.7097900000000003E-2</v>
       </c>
-      <c r="AA71">
+      <c r="AF71">
         <v>1.9875000000000001E-3</v>
-      </c>
-      <c r="AB71" s="4">
-        <f>AA71/Z71</f>
-        <v>5.3574461088093932E-2</v>
-      </c>
-      <c r="AD71">
-        <f>1/AE71</f>
-        <v>189.97754465422187</v>
-      </c>
-      <c r="AE71">
-        <v>5.26378E-3</v>
-      </c>
-      <c r="AF71">
-        <v>2.6215400000000001E-4</v>
       </c>
       <c r="AG71" s="4">
         <f>AF71/AE71</f>
+        <v>5.3574461088093932E-2</v>
+      </c>
+      <c r="AI71">
+        <f>1/AK71</f>
+        <v>189.97754465422187</v>
+      </c>
+      <c r="AJ71">
+        <f t="shared" si="53"/>
+        <v>9.4615225638766969</v>
+      </c>
+      <c r="AK71">
+        <v>5.26378E-3</v>
+      </c>
+      <c r="AL71">
+        <v>2.6215400000000001E-4</v>
+      </c>
+      <c r="AM71" s="4">
+        <f>AL71/AK71</f>
         <v>4.9803373241282881E-2</v>
       </c>
-      <c r="AI71" s="4">
+      <c r="AO71" s="4">
         <v>0.203927</v>
       </c>
-      <c r="AJ71">
+      <c r="AP71">
         <v>6.2755099999999998E-3</v>
       </c>
-      <c r="AK71" s="4">
-        <f>AJ71/AI71</f>
+      <c r="AQ71" s="4">
+        <f>AP71/AO71</f>
         <v>3.0773315941488865E-2</v>
       </c>
-      <c r="AM71" s="4">
+      <c r="AS71" s="4">
         <v>0.23422100000000001</v>
       </c>
-      <c r="AN71">
+      <c r="AT71">
         <v>7.5146299999999996E-3</v>
       </c>
-      <c r="AO71" s="4">
-        <f t="shared" si="25"/>
+      <c r="AU71" s="4">
+        <f t="shared" si="54"/>
         <v>3.2083502333266442E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>275</v>
       </c>
       <c r="B72">
-        <f t="shared" si="24"/>
+        <f t="shared" si="51"/>
         <v>282.64027999999996</v>
       </c>
       <c r="C72">
@@ -18075,99 +18650,119 @@
       <c r="D72">
         <v>69.599999999999994</v>
       </c>
-      <c r="F72" s="11">
-        <f>SUM(I72:J72)/SUM(H72:J72)</f>
+      <c r="F72" s="13">
+        <f t="shared" si="56"/>
+        <v>4.0875592571025243E-2</v>
+      </c>
+      <c r="G72" s="11">
+        <f>SUM(J72:L72)/SUM(I72:L72)</f>
         <v>0.15374787631668366</v>
       </c>
-      <c r="G72" s="11">
-        <f t="shared" si="26"/>
+      <c r="H72" s="11">
+        <f t="shared" si="55"/>
         <v>1.5714101054030304E-3</v>
       </c>
-      <c r="H72">
+      <c r="I72">
         <v>62263</v>
       </c>
-      <c r="I72">
+      <c r="J72">
         <v>10552</v>
       </c>
-      <c r="J72">
+      <c r="L72">
         <v>760</v>
       </c>
-      <c r="M72" s="4">
-        <f>H72/SUM(H72:K72)</f>
+      <c r="O72" s="4">
+        <f>I72/SUM(I72:M72)</f>
         <v>0.84625212368331637</v>
       </c>
-      <c r="N72" s="4">
-        <f>I72/SUM(H72:K72)</f>
+      <c r="P72" s="4">
+        <f>J72/SUM(I72:M72)</f>
         <v>0.14341828066598708</v>
       </c>
-      <c r="O72" s="4">
-        <f>J72/SUM(H72:K72)</f>
+      <c r="Q72" s="4">
+        <f t="shared" si="57"/>
+        <v>0.12728396935214581</v>
+      </c>
+      <c r="R72" s="14">
+        <f>P72/Q72</f>
+        <v>1.1267583922465825</v>
+      </c>
+      <c r="S72" s="4">
+        <f>L72/SUM(I72:M72)</f>
         <v>1.0329595650696568E-2</v>
       </c>
-      <c r="T72">
-        <f>U72 * 1000*1000</f>
+      <c r="X72">
+        <f>Y72 * 1000*1000</f>
         <v>147.19499999999999</v>
       </c>
-      <c r="U72">
+      <c r="Y72">
         <v>1.47195E-4</v>
       </c>
-      <c r="V72" s="3">
+      <c r="Z72" s="3">
         <v>8.50521E-7</v>
       </c>
-      <c r="W72" s="4">
-        <f>V72/U72</f>
+      <c r="AA72" s="4">
+        <f>Z72/Y72</f>
         <v>5.7781921940283296E-3</v>
       </c>
-      <c r="Y72">
-        <f>1/Z72</f>
+      <c r="AC72">
+        <f>1/AE72</f>
         <v>26.987421162995929</v>
       </c>
-      <c r="Z72">
+      <c r="AD72">
+        <f t="shared" si="52"/>
+        <v>0.81397143898992164</v>
+      </c>
+      <c r="AE72">
         <v>3.7054299999999998E-2</v>
       </c>
-      <c r="AA72">
+      <c r="AF72">
         <v>1.1176000000000001E-3</v>
-      </c>
-      <c r="AB72" s="4">
-        <f>AA72/Z72</f>
-        <v>3.0161141891764252E-2</v>
-      </c>
-      <c r="AD72">
-        <f>1/AE72</f>
-        <v>182.66308159925183</v>
-      </c>
-      <c r="AE72">
-        <v>5.4745599999999998E-3</v>
-      </c>
-      <c r="AF72">
-        <v>1.38369E-4</v>
       </c>
       <c r="AG72" s="4">
         <f>AF72/AE72</f>
+        <v>3.0161141891764252E-2</v>
+      </c>
+      <c r="AI72">
+        <f>1/AK72</f>
+        <v>182.66308159925183</v>
+      </c>
+      <c r="AJ72">
+        <f t="shared" si="53"/>
+        <v>4.6167925710571955</v>
+      </c>
+      <c r="AK72">
+        <v>5.4745599999999998E-3</v>
+      </c>
+      <c r="AL72">
+        <v>1.38369E-4</v>
+      </c>
+      <c r="AM72" s="4">
+        <f>AL72/AK72</f>
         <v>2.5274907937806877E-2</v>
       </c>
-      <c r="AI72" s="4">
+      <c r="AO72" s="4">
         <v>0.222777</v>
       </c>
-      <c r="AJ72">
+      <c r="AP72">
         <v>3.571E-3</v>
       </c>
-      <c r="AK72" s="4">
-        <f>AJ72/AI72</f>
+      <c r="AQ72" s="4">
+        <f>AP72/AO72</f>
         <v>1.6029482397195403E-2</v>
       </c>
-      <c r="AM72" s="4">
+      <c r="AS72" s="4">
         <v>0.242733</v>
       </c>
-      <c r="AN72">
+      <c r="AT72">
         <v>4.2984199999999998E-3</v>
       </c>
-      <c r="AO72" s="4">
-        <f>AN72/AM72</f>
+      <c r="AU72" s="4">
+        <f>AT72/AS72</f>
         <v>1.7708428602620986E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>0</v>
       </c>
@@ -18177,91 +18772,92 @@
       <c r="D74" t="s">
         <v>1</v>
       </c>
-      <c r="F74" s="11" t="s">
+      <c r="G74" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="G74" s="11"/>
-      <c r="H74" t="s">
+      <c r="H74" s="11"/>
+      <c r="I74" t="s">
         <v>10</v>
       </c>
-      <c r="I74" t="s">
+      <c r="J74" t="s">
         <v>11</v>
       </c>
-      <c r="J74" t="s">
+      <c r="L74" t="s">
         <v>12</v>
       </c>
-      <c r="K74" t="s">
+      <c r="M74" t="s">
         <v>13</v>
       </c>
-      <c r="M74" t="s">
+      <c r="O74" t="s">
         <v>25</v>
       </c>
-      <c r="N74" t="s">
+      <c r="P74" t="s">
         <v>26</v>
       </c>
-      <c r="O74" t="s">
+      <c r="S74" t="s">
         <v>27</v>
       </c>
-      <c r="P74" s="4" t="s">
+      <c r="T74" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="T74" t="s">
+      <c r="X74" t="s">
         <v>23</v>
       </c>
-      <c r="U74" t="s">
+      <c r="Y74" t="s">
         <v>3</v>
       </c>
-      <c r="V74" t="s">
+      <c r="Z74" t="s">
         <v>24</v>
       </c>
-      <c r="W74" s="4" t="s">
+      <c r="AA74" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="Y74" t="s">
+      <c r="AC74" t="s">
         <v>21</v>
       </c>
-      <c r="Z74" t="s">
+      <c r="AE74" t="s">
         <v>4</v>
       </c>
-      <c r="AA74" t="s">
+      <c r="AF74" t="s">
         <v>15</v>
-      </c>
-      <c r="AB74" t="s">
-        <v>20</v>
-      </c>
-      <c r="AD74" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="AE74" t="s">
-        <v>5</v>
-      </c>
-      <c r="AF74" t="s">
-        <v>16</v>
       </c>
       <c r="AG74" t="s">
         <v>20</v>
       </c>
-      <c r="AI74" s="4" t="s">
+      <c r="AI74" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="AJ74" s="6"/>
+      <c r="AK74" t="s">
+        <v>5</v>
+      </c>
+      <c r="AL74" t="s">
+        <v>16</v>
+      </c>
+      <c r="AM74" t="s">
+        <v>20</v>
+      </c>
+      <c r="AO74" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="AJ74" t="s">
+      <c r="AP74" t="s">
         <v>18</v>
       </c>
-      <c r="AK74" t="s">
+      <c r="AQ74" t="s">
         <v>20</v>
       </c>
-      <c r="AL74" s="2"/>
-      <c r="AM74" s="4" t="s">
+      <c r="AR74" s="2"/>
+      <c r="AS74" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="AN74" t="s">
+      <c r="AT74" t="s">
         <v>19</v>
       </c>
-      <c r="AO74" s="2" t="s">
+      <c r="AU74" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="75" spans="1:41" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>295</v>
       </c>
@@ -18271,8 +18867,9 @@
       <c r="D75" s="8">
         <v>70.510000000000005</v>
       </c>
-    </row>
-    <row r="76" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E75" s="8"/>
+    </row>
+    <row r="76" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>290</v>
       </c>
@@ -18282,8 +18879,9 @@
       <c r="D76" s="8">
         <v>70.33</v>
       </c>
-    </row>
-    <row r="77" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E76" s="8"/>
+    </row>
+    <row r="77" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>285</v>
       </c>
@@ -18293,8 +18891,9 @@
       <c r="D77" s="8">
         <v>70.150000000000006</v>
       </c>
-    </row>
-    <row r="78" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="E77" s="8"/>
+    </row>
+    <row r="78" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>280</v>
       </c>
@@ -18304,26 +18903,28 @@
       <c r="D78" s="8">
         <v>69.975651999999997</v>
       </c>
-      <c r="M78" s="4" t="e">
-        <f>H78/SUM(H78:K78)</f>
+      <c r="E78" s="8"/>
+      <c r="O78" s="4" t="e">
+        <f>I78/SUM(I78:M78)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N78" s="4" t="e">
-        <f>I78/SUM(H78:K78)</f>
+      <c r="P78" s="4" t="e">
+        <f>J78/SUM(I78:M78)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O78" s="4" t="e">
-        <f>J78/SUM(H78:K78)</f>
+      <c r="Q78" s="4"/>
+      <c r="S78" s="4" t="e">
+        <f>L78/SUM(I78:M78)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V78" s="3"/>
-      <c r="W78" s="4"/>
-      <c r="AB78" s="4"/>
+      <c r="Z78" s="3"/>
+      <c r="AA78" s="4"/>
       <c r="AG78" s="4"/>
-      <c r="AK78" s="4"/>
-      <c r="AO78" s="4"/>
-    </row>
-    <row r="79" spans="1:41" x14ac:dyDescent="0.25">
+      <c r="AM78" s="4"/>
+      <c r="AQ78" s="4"/>
+      <c r="AU78" s="4"/>
+    </row>
+    <row r="79" spans="1:47" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>275</v>
       </c>
@@ -18333,6 +18934,7 @@
       <c r="D79" s="8">
         <v>69.8</v>
       </c>
+      <c r="E79" s="8"/>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="3"/>
@@ -28291,13 +28893,13 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C15" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
@@ -28312,7 +28914,7 @@
         <v>0.28000000000000003</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <f>B16^4</f>
@@ -28325,7 +28927,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F17">
         <f>4*A16*B16^4</f>
@@ -28338,7 +28940,7 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F18">
         <f>18*A16^2*B16^8</f>
@@ -28351,7 +28953,7 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F19">
         <f>4*A16^3*B16^8*(1 + 3*B16 + 18*B16^2)</f>
@@ -28364,7 +28966,7 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B23">
         <v>124.77652999999999</v>
@@ -28379,7 +28981,7 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B24">
         <v>0.57404999999999995</v>
@@ -28403,10 +29005,10 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F26" s="3">
         <v>8.50521E-7</v>
@@ -28452,10 +29054,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="T8" sqref="T8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28464,25 +29066,80 @@
     <col min="2" max="2" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B1">
         <v>0.54</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B2" s="12">
         <v>8.6173302999999999E-5</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H2">
+        <v>1.5129999999999999E-2</v>
+      </c>
+      <c r="I2" s="3">
+        <v>6.5859800000000004E-4</v>
+      </c>
+      <c r="K2">
+        <v>2.1340000000000001E-2</v>
+      </c>
+      <c r="L2" s="3">
+        <v>4.89932E-4</v>
+      </c>
+      <c r="N2">
+        <v>1.47E-2</v>
+      </c>
+      <c r="O2" s="3">
+        <v>4.9997900000000001E-4</v>
+      </c>
+      <c r="Q2">
+        <v>1.0059999999999999E-2</v>
+      </c>
+      <c r="R2" s="3">
+        <v>4.1619900000000002E-4</v>
+      </c>
+      <c r="T2">
+        <f>--AVERAGE(H2,K2,N2,Q2)</f>
+        <v>1.53075E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H3">
+        <v>2.427E-2</v>
+      </c>
+      <c r="I3" s="3">
+        <v>6.5533400000000004E-4</v>
+      </c>
+      <c r="K3">
+        <v>2.613E-2</v>
+      </c>
+      <c r="L3" s="3">
+        <v>3.3549399999999998E-4</v>
+      </c>
+      <c r="N3">
+        <v>2.3709999999999998E-2</v>
+      </c>
+      <c r="O3" s="3">
+        <v>4.9557699999999997E-4</v>
+      </c>
+      <c r="R3" t="s">
+        <v>53</v>
+      </c>
+      <c r="T3">
+        <f>--AVERAGE(H3,K3,N3)</f>
+        <v>2.4703333333333331E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="8">
         <f xml:space="preserve"> B1 / (B2)</f>
@@ -28491,9 +29148,334 @@
       <c r="D4">
         <v>6233</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="H4">
+        <v>8.9980000000000004E-2</v>
+      </c>
+      <c r="I4">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="K4">
+        <v>8.5739999999999997E-2</v>
+      </c>
+      <c r="L4" s="3">
+        <v>9.0069399999999995E-4</v>
+      </c>
+      <c r="N4">
+        <v>8.7739999999999999E-2</v>
+      </c>
+      <c r="O4" s="3">
+        <v>8.3811200000000001E-4</v>
+      </c>
+      <c r="Q4">
+        <v>8.5989999999999997E-2</v>
+      </c>
+      <c r="R4" s="3">
+        <v>7.0286700000000003E-4</v>
+      </c>
+      <c r="T4">
+        <f>--AVERAGE(H4,K4,N4,Q4)</f>
+        <v>8.7362499999999996E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="D5" s="8"/>
+      <c r="H5">
+        <v>0.10440000000000001</v>
+      </c>
+      <c r="I5">
+        <v>1.1100000000000001E-3</v>
+      </c>
+      <c r="K5">
+        <v>9.9019999999999997E-2</v>
+      </c>
+      <c r="L5">
+        <v>1E-3</v>
+      </c>
+      <c r="N5">
+        <v>0.10077999999999999</v>
+      </c>
+      <c r="O5" s="3">
+        <v>8.4611400000000002E-4</v>
+      </c>
+      <c r="Q5">
+        <v>9.8269999999999996E-2</v>
+      </c>
+      <c r="R5" s="3">
+        <v>7.9381799999999995E-4</v>
+      </c>
+      <c r="T5">
+        <f>--AVERAGE(H5,K5,N5,Q5)</f>
+        <v>0.1006175</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H6">
+        <v>0.11365</v>
+      </c>
+      <c r="I6">
+        <v>1.2099999999999999E-3</v>
+      </c>
+      <c r="K6">
+        <v>0.10997</v>
+      </c>
+      <c r="L6">
+        <v>1.0300000000000001E-3</v>
+      </c>
+      <c r="N6">
+        <v>0.11104</v>
+      </c>
+      <c r="O6" s="3">
+        <v>9.1300300000000001E-4</v>
+      </c>
+      <c r="Q6">
+        <v>0.10994</v>
+      </c>
+      <c r="R6" s="3">
+        <v>8.1039299999999996E-4</v>
+      </c>
+      <c r="T6">
+        <f>--AVERAGE(H6,K6,N6,Q6)</f>
+        <v>0.11114999999999998</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="H7">
+        <v>0.15375</v>
+      </c>
+      <c r="I7">
+        <v>1.57E-3</v>
+      </c>
+      <c r="K7">
+        <v>0.15462999999999999</v>
+      </c>
+      <c r="L7">
+        <v>2.7799999999999999E-3</v>
+      </c>
+      <c r="N7">
+        <v>0.15417</v>
+      </c>
+      <c r="O7">
+        <v>1.34E-3</v>
+      </c>
+      <c r="T7">
+        <f>--AVERAGE(H7,K7,N7)</f>
+        <v>0.15418333333333334</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T9" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T10" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T12" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T15" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+      <c r="T16" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="17" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T17" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="18" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T18" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T19" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="20" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T20" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="21" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="22" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T23" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="24" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T24" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T25" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="26" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T26" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="27" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T27" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="28" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T28" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="29" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T29" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="30" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T30" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T31" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T33" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T34" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="35" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T35" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T36" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="37" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T37" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="38" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T38" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="39" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T39" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="40" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T40" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="41" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T41" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="42" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T42" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="43" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T43" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="44" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T44" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="45" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T45" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="46" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T46" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="47" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T47" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="48" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T48" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="49" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T49" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="50" spans="20:20" x14ac:dyDescent="0.25">
+      <c r="T50" t="s">
+        <v>53</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/AP_DC_X-talk/dt_spectrum_results.xlsx
+++ b/AP_DC_X-talk/dt_spectrum_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Hamamatsu S10362-11-100C apf" sheetId="1" r:id="rId1"/>
@@ -12,6 +12,7 @@
     <sheet name="th" sheetId="3" r:id="rId3"/>
     <sheet name="Лист1" sheetId="4" r:id="rId4"/>
     <sheet name="Лист2" sheetId="5" r:id="rId5"/>
+    <sheet name="Лист3" sheetId="6" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">th!$A$45:$C$507</definedName>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="396" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="398" uniqueCount="63">
   <si>
     <t>T</t>
   </si>
@@ -205,6 +206,12 @@
   <si>
     <t>p2 exp / theory</t>
   </si>
+  <si>
+    <t>лет</t>
+  </si>
+  <si>
+    <t>дней всего</t>
+  </si>
 </sst>
 </file>
 
@@ -266,7 +273,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -286,6 +293,7 @@
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -29056,8 +29064,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:T50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T8" sqref="T8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29481,4 +29489,137 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="10.140625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.7109375" style="15" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B1" s="15">
+        <v>40429</v>
+      </c>
+      <c r="D1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="8">
+        <f ca="1">SUM(A1:A17)</f>
+        <v>1702</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" s="8">
+        <f>B2-B1</f>
+        <v>295</v>
+      </c>
+      <c r="B2" s="15">
+        <v>40724</v>
+      </c>
+      <c r="D2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E2">
+        <f ca="1">E1 /365</f>
+        <v>4.6630136986301371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B4" s="15">
+        <v>40787</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8">
+        <f>B5-B4</f>
+        <v>303</v>
+      </c>
+      <c r="B5" s="15">
+        <v>41090</v>
+      </c>
+      <c r="D5">
+        <f>365-242</f>
+        <v>123</v>
+      </c>
+      <c r="E5">
+        <f>1702 - 365 * 4</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B7" s="15">
+        <v>41153</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" s="8">
+        <f>B8-B7</f>
+        <v>302</v>
+      </c>
+      <c r="B8" s="15">
+        <v>41455</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="15">
+        <v>41541</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" s="8">
+        <f>B11-B10</f>
+        <v>279</v>
+      </c>
+      <c r="B11" s="15">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B13" s="15">
+        <v>41821</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="8">
+        <f>B14-B13</f>
+        <v>40</v>
+      </c>
+      <c r="B14" s="15">
+        <v>41861</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B16" s="15">
+        <v>41884</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="8">
+        <f ca="1">B20-B16</f>
+        <v>483</v>
+      </c>
+      <c r="B17" s="15">
+        <v>41820</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20" s="15">
+        <f ca="1">TODAY()</f>
+        <v>42367</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/AP_DC_X-talk/dt_spectrum_results.xlsx
+++ b/AP_DC_X-talk/dt_spectrum_results.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="5"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Hamamatsu S10362-11-100C apf" sheetId="1" r:id="rId1"/>
@@ -220,8 +220,8 @@
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0%"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
-    <numFmt numFmtId="170" formatCode="0.0000"/>
-    <numFmt numFmtId="172" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -291,8 +291,8 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="11" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -492,11 +492,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318868592"/>
-        <c:axId val="318868984"/>
+        <c:axId val="387342104"/>
+        <c:axId val="387342496"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318868592"/>
+        <c:axId val="387342104"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,12 +553,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318868984"/>
+        <c:crossAx val="387342496"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318868984"/>
+        <c:axId val="387342496"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +615,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318868592"/>
+        <c:crossAx val="387342104"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -679,7 +679,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -815,11 +814,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320807304"/>
-        <c:axId val="320807696"/>
+        <c:axId val="388620264"/>
+        <c:axId val="388620656"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320807304"/>
+        <c:axId val="388620264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -876,12 +875,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320807696"/>
+        <c:crossAx val="388620656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320807696"/>
+        <c:axId val="388620656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -938,7 +937,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320807304"/>
+        <c:crossAx val="388620264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1002,7 +1001,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1138,11 +1136,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320808480"/>
-        <c:axId val="320808872"/>
+        <c:axId val="388621440"/>
+        <c:axId val="388621832"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320808480"/>
+        <c:axId val="388621440"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1199,12 +1197,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320808872"/>
+        <c:crossAx val="388621832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320808872"/>
+        <c:axId val="388621832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1261,7 +1259,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320808480"/>
+        <c:crossAx val="388621440"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1491,11 +1489,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318869768"/>
-        <c:axId val="318870160"/>
+        <c:axId val="387343280"/>
+        <c:axId val="387343672"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318869768"/>
+        <c:axId val="387343280"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1552,12 +1550,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318870160"/>
+        <c:crossAx val="387343672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318870160"/>
+        <c:axId val="387343672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1614,7 +1612,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318869768"/>
+        <c:crossAx val="387343280"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1844,11 +1842,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318870944"/>
-        <c:axId val="318871336"/>
+        <c:axId val="382517192"/>
+        <c:axId val="382517584"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318870944"/>
+        <c:axId val="382517192"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1905,12 +1903,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318871336"/>
+        <c:crossAx val="382517584"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318871336"/>
+        <c:axId val="382517584"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1967,7 +1965,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318870944"/>
+        <c:crossAx val="382517192"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2644,11 +2642,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="318872120"/>
-        <c:axId val="318872512"/>
+        <c:axId val="382520328"/>
+        <c:axId val="382520720"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="318872120"/>
+        <c:axId val="382520328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2705,12 +2703,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318872512"/>
+        <c:crossAx val="382520720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="318872512"/>
+        <c:axId val="382520720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2767,7 +2765,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="318872120"/>
+        <c:crossAx val="382520328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3363,11 +3361,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320603352"/>
-        <c:axId val="320603744"/>
+        <c:axId val="382521504"/>
+        <c:axId val="382521896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320603352"/>
+        <c:axId val="382521504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3424,12 +3422,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320603744"/>
+        <c:crossAx val="382521896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320603744"/>
+        <c:axId val="382521896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="120"/>
@@ -3487,7 +3485,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320603352"/>
+        <c:crossAx val="382521504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4087,11 +4085,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320604528"/>
-        <c:axId val="320604920"/>
+        <c:axId val="382523072"/>
+        <c:axId val="382523464"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320604528"/>
+        <c:axId val="382523072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4148,12 +4146,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320604920"/>
+        <c:crossAx val="382523464"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320604920"/>
+        <c:axId val="382523464"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -4211,7 +4209,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320604528"/>
+        <c:crossAx val="382523072"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4811,11 +4809,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320602960"/>
-        <c:axId val="320602568"/>
+        <c:axId val="382522680"/>
+        <c:axId val="382519936"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320602960"/>
+        <c:axId val="382522680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4872,12 +4870,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320602568"/>
+        <c:crossAx val="382519936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320602568"/>
+        <c:axId val="382519936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4934,7 +4932,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320602960"/>
+        <c:crossAx val="382522680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5569,11 +5567,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320601784"/>
-        <c:axId val="320805344"/>
+        <c:axId val="382519152"/>
+        <c:axId val="382518760"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320601784"/>
+        <c:axId val="382519152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5630,12 +5628,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320805344"/>
+        <c:crossAx val="382518760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320805344"/>
+        <c:axId val="382518760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5692,7 +5690,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320601784"/>
+        <c:crossAx val="382519152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5832,7 +5830,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6397,11 +6394,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="320806128"/>
-        <c:axId val="320806520"/>
+        <c:axId val="388619088"/>
+        <c:axId val="388619480"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="320806128"/>
+        <c:axId val="388619088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6458,12 +6455,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320806520"/>
+        <c:crossAx val="388619480"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="320806520"/>
+        <c:axId val="388619480"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6520,7 +6517,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="320806128"/>
+        <c:crossAx val="388619088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6534,7 +6531,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14261,14 +14257,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU5542"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="K76" sqref="K76"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="H46" sqref="H46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="6" max="6" width="9.140625" style="13"/>
-    <col min="7" max="8" width="9.140625" style="4"/>
+    <col min="7" max="7" width="9.140625" style="4"/>
+    <col min="8" max="8" width="10.7109375" style="4" customWidth="1"/>
     <col min="11" max="11" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="9.42578125" bestFit="1" customWidth="1"/>
@@ -14445,7 +14442,7 @@
         <v>1.0058475544265817E-2</v>
       </c>
       <c r="H6" s="11">
-        <f t="shared" ref="H6:H8" si="0">SQRT(1 / I6 + 1 / (J6 + L6))*G6</f>
+        <f>SQRT(1 / I6 + 1 / (J6 + L6))*G6</f>
         <v>4.1619934045187336E-4</v>
       </c>
       <c r="I6">
@@ -14501,7 +14498,7 @@
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="13">
-        <f t="shared" ref="F7:F9" si="1">1 - (1 - G7)^(1/4)</f>
+        <f t="shared" ref="F7:F9" si="0">1 - (1 - G7)^(1/4)</f>
         <v>3.6947404254644711E-3</v>
       </c>
       <c r="G7" s="11">
@@ -14509,7 +14506,7 @@
         <v>1.4697256623820617E-2</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="H6:H8" si="1">SQRT(1 / I7 + 1 / (J7 + L7))*G7</f>
         <v>4.9997885154139153E-4</v>
       </c>
       <c r="I7">
@@ -14565,7 +14562,7 @@
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>5.3774190960713675E-3</v>
       </c>
       <c r="G8" s="11">
@@ -14573,7 +14570,7 @@
         <v>2.1336797718790254E-2</v>
       </c>
       <c r="H8" s="11">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>4.8993190705050392E-4</v>
       </c>
       <c r="I8">
@@ -14629,7 +14626,7 @@
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="13">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>3.8046173929061622E-3</v>
       </c>
       <c r="G9" s="11">
@@ -17459,7 +17456,7 @@
         <v>9.6411497122951578E-2</v>
       </c>
       <c r="R47" s="14">
-        <f t="shared" ref="R47:R50" si="45">P47/Q47</f>
+        <f t="shared" ref="R47:R49" si="45">P47/Q47</f>
         <v>1.0861131326387257</v>
       </c>
       <c r="S47" s="4">
@@ -18566,7 +18563,7 @@
         <v>0.12786097923360662</v>
       </c>
       <c r="R71" s="14">
-        <f t="shared" ref="R71:R72" si="58">P71/Q71</f>
+        <f t="shared" ref="R71" si="58">P71/Q71</f>
         <v>1.1348356228327303</v>
       </c>
       <c r="S71" s="4">
@@ -27607,8 +27604,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:X103"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -28998,7 +28995,7 @@
         <v>1.29139E-6</v>
       </c>
       <c r="H24" s="3">
-        <f t="shared" ref="H24:H30" si="0">F24*1000000</f>
+        <f t="shared" ref="H24:H26" si="0">F24*1000000</f>
         <v>1.29139</v>
       </c>
     </row>
@@ -29495,8 +29492,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -29515,7 +29512,7 @@
       </c>
       <c r="E1" s="8">
         <f ca="1">SUM(A1:A17)</f>
-        <v>1702</v>
+        <v>1761</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -29531,7 +29528,7 @@
       </c>
       <c r="E2">
         <f ca="1">E1 /365</f>
-        <v>4.6630136986301371</v>
+        <v>4.8246575342465752</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -29606,7 +29603,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f ca="1">B20-B16</f>
-        <v>483</v>
+        <v>542</v>
       </c>
       <c r="B17" s="15">
         <v>41820</v>
@@ -29615,7 +29612,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
         <f ca="1">TODAY()</f>
-        <v>42367</v>
+        <v>42426</v>
       </c>
     </row>
   </sheetData>

--- a/AP_DC_X-talk/dt_spectrum_results.xlsx
+++ b/AP_DC_X-talk/dt_spectrum_results.xlsx
@@ -326,7 +326,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -492,11 +491,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387342104"/>
-        <c:axId val="387342496"/>
+        <c:axId val="188085360"/>
+        <c:axId val="188085752"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387342104"/>
+        <c:axId val="188085360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -553,12 +552,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387342496"/>
+        <c:crossAx val="188085752"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387342496"/>
+        <c:axId val="188085752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -615,7 +614,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387342104"/>
+        <c:crossAx val="188085360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -814,11 +813,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388620264"/>
-        <c:axId val="388620656"/>
+        <c:axId val="245784120"/>
+        <c:axId val="245784512"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388620264"/>
+        <c:axId val="245784120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -875,12 +874,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388620656"/>
+        <c:crossAx val="245784512"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388620656"/>
+        <c:axId val="245784512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -937,7 +936,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388620264"/>
+        <c:crossAx val="245784120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1136,11 +1135,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388621440"/>
-        <c:axId val="388621832"/>
+        <c:axId val="245785296"/>
+        <c:axId val="245785688"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388621440"/>
+        <c:axId val="245785296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1197,12 +1196,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388621832"/>
+        <c:crossAx val="245785688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388621832"/>
+        <c:axId val="245785688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1259,7 +1258,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388621440"/>
+        <c:crossAx val="245785296"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1323,7 +1322,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1489,11 +1487,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="387343280"/>
-        <c:axId val="387343672"/>
+        <c:axId val="188086536"/>
+        <c:axId val="244648152"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="387343280"/>
+        <c:axId val="188086536"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1550,12 +1548,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387343672"/>
+        <c:crossAx val="244648152"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="387343672"/>
+        <c:axId val="244648152"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1612,7 +1610,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="387343280"/>
+        <c:crossAx val="188086536"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1676,7 +1674,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1842,11 +1839,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382517192"/>
-        <c:axId val="382517584"/>
+        <c:axId val="244648936"/>
+        <c:axId val="244649328"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382517192"/>
+        <c:axId val="244648936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1903,12 +1900,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382517584"/>
+        <c:crossAx val="244649328"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382517584"/>
+        <c:axId val="244649328"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1965,7 +1962,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382517192"/>
+        <c:crossAx val="244648936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2642,11 +2639,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382520328"/>
-        <c:axId val="382520720"/>
+        <c:axId val="244650504"/>
+        <c:axId val="244650896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382520328"/>
+        <c:axId val="244650504"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2703,12 +2700,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382520720"/>
+        <c:crossAx val="244650896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382520720"/>
+        <c:axId val="244650896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2765,7 +2762,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382520328"/>
+        <c:crossAx val="244650504"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3361,11 +3358,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382521504"/>
-        <c:axId val="382521896"/>
+        <c:axId val="245641840"/>
+        <c:axId val="245642232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382521504"/>
+        <c:axId val="245641840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3422,12 +3419,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382521896"/>
+        <c:crossAx val="245642232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382521896"/>
+        <c:axId val="245642232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="120"/>
@@ -3485,7 +3482,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382521504"/>
+        <c:crossAx val="245641840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4085,11 +4082,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382523072"/>
-        <c:axId val="382523464"/>
+        <c:axId val="245643408"/>
+        <c:axId val="245643800"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382523072"/>
+        <c:axId val="245643408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4146,12 +4143,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382523464"/>
+        <c:crossAx val="245643800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382523464"/>
+        <c:axId val="245643800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="20"/>
@@ -4209,7 +4206,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382523072"/>
+        <c:crossAx val="245643408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4809,11 +4806,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382522680"/>
-        <c:axId val="382519936"/>
+        <c:axId val="245643016"/>
+        <c:axId val="245782160"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382522680"/>
+        <c:axId val="245643016"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4870,12 +4867,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382519936"/>
+        <c:crossAx val="245782160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382519936"/>
+        <c:axId val="245782160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4932,7 +4929,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382522680"/>
+        <c:crossAx val="245643016"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5567,11 +5564,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="382519152"/>
-        <c:axId val="382518760"/>
+        <c:axId val="245782944"/>
+        <c:axId val="245783336"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="382519152"/>
+        <c:axId val="245782944"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5628,12 +5625,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382518760"/>
+        <c:crossAx val="245783336"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="382518760"/>
+        <c:axId val="245783336"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5690,7 +5687,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="382519152"/>
+        <c:crossAx val="245782944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5830,6 +5827,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6394,11 +6392,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="388619088"/>
-        <c:axId val="388619480"/>
+        <c:axId val="245641448"/>
+        <c:axId val="245641056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="388619088"/>
+        <c:axId val="245641448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6455,12 +6453,12 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388619480"/>
+        <c:crossAx val="245641056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="388619480"/>
+        <c:axId val="245641056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6517,7 +6515,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="388619088"/>
+        <c:crossAx val="245641448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6531,6 +6529,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -14257,8 +14256,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AU5542"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="H46" sqref="H46"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:XFD69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14506,7 +14505,7 @@
         <v>1.4697256623820617E-2</v>
       </c>
       <c r="H7" s="11">
-        <f t="shared" ref="H6:H8" si="1">SQRT(1 / I7 + 1 / (J7 + L7))*G7</f>
+        <f t="shared" ref="H7:H8" si="1">SQRT(1 / I7 + 1 / (J7 + L7))*G7</f>
         <v>4.9997885154139153E-4</v>
       </c>
       <c r="I7">
@@ -29512,7 +29511,7 @@
       </c>
       <c r="E1" s="8">
         <f ca="1">SUM(A1:A17)</f>
-        <v>1761</v>
+        <v>1803</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -29528,7 +29527,7 @@
       </c>
       <c r="E2">
         <f ca="1">E1 /365</f>
-        <v>4.8246575342465752</v>
+        <v>4.9397260273972599</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -29603,7 +29602,7 @@
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="8">
         <f ca="1">B20-B16</f>
-        <v>542</v>
+        <v>584</v>
       </c>
       <c r="B17" s="15">
         <v>41820</v>
@@ -29612,7 +29611,7 @@
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20" s="15">
         <f ca="1">TODAY()</f>
-        <v>42426</v>
+        <v>42468</v>
       </c>
     </row>
   </sheetData>
